--- a/m_true_time_data.xlsx
+++ b/m_true_time_data.xlsx
@@ -516,67 +516,67 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1261642.914594645</v>
+        <v>1264362.424411419</v>
       </c>
       <c r="C2">
-        <v>479301.9683047912</v>
+        <v>480333.5664265893</v>
       </c>
       <c r="D2">
         <v>1E-06</v>
       </c>
       <c r="E2">
-        <v>357.2447749366963</v>
+        <v>357.2757873623963</v>
       </c>
       <c r="F2">
-        <v>9320.224850505721</v>
+        <v>9340.284701721139</v>
       </c>
       <c r="G2">
-        <v>308.1499999934766</v>
+        <v>308.1499999982519</v>
       </c>
       <c r="H2">
-        <v>-3232019614.280584</v>
+        <v>-3113091849.927269</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1701261251.613791</v>
+        <v>1704922863.87189</v>
       </c>
       <c r="K2">
-        <v>3624.078046736122</v>
+        <v>3631.889857892684</v>
       </c>
       <c r="L2">
-        <v>2043768680.520473</v>
+        <v>2048167467.878771</v>
       </c>
       <c r="M2">
         <v>375</v>
       </c>
       <c r="N2">
-        <v>-9530.304187242475</v>
+        <v>-9179.629416853099</v>
       </c>
       <c r="O2">
-        <v>-1120368896.552583</v>
+        <v>-1079393104.800265</v>
       </c>
       <c r="P2">
-        <v>-3655.332058320937</v>
+        <v>-3520.833747592178</v>
       </c>
       <c r="Q2">
         <v>-0</v>
       </c>
       <c r="R2">
-        <v>628975109.6653155</v>
+        <v>628975109.6856546</v>
       </c>
       <c r="S2">
-        <v>348.6153041450393</v>
+        <v>348.6152419781765</v>
       </c>
       <c r="T2">
-        <v>-262747.0873083933</v>
+        <v>-253137.48145104</v>
       </c>
       <c r="U2">
-        <v>-1272523.311542466</v>
+        <v>-1225700.688307507</v>
       </c>
       <c r="V2">
-        <v>343.0486392701801</v>
+        <v>342.3207008122083</v>
       </c>
       <c r="W2">
         <v>325</v>
@@ -587,67 +587,67 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1262380.525871264</v>
+        <v>1265108.006199616</v>
       </c>
       <c r="C3">
-        <v>473998.7002540231</v>
+        <v>475009.7155013186</v>
       </c>
       <c r="D3">
         <v>9E-06</v>
       </c>
       <c r="E3">
-        <v>357.2351772622931</v>
+        <v>357.2661215949545</v>
       </c>
       <c r="F3">
-        <v>9217.099142609191</v>
+        <v>9236.758646890428</v>
       </c>
       <c r="G3">
         <v>308.15</v>
       </c>
       <c r="H3">
-        <v>-3229897429.238362</v>
+        <v>-3111074517.331952</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1682437267.102537</v>
+        <v>1686025802.079081</v>
       </c>
       <c r="K3">
-        <v>3626.197138502979</v>
+        <v>3634.031866028142</v>
       </c>
       <c r="L3">
-        <v>2021154236.346004</v>
+        <v>2025465184.589491</v>
       </c>
       <c r="M3">
         <v>375</v>
       </c>
       <c r="N3">
-        <v>-9524.634641895933</v>
+        <v>-9174.258047735093</v>
       </c>
       <c r="O3">
-        <v>-1118015178.883702</v>
+        <v>-1076883300.86397</v>
       </c>
       <c r="P3">
-        <v>-3653.423623694607</v>
+        <v>-3519.034702333101</v>
       </c>
       <c r="Q3">
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>628975109.5282711</v>
+        <v>628975109.7109958</v>
       </c>
       <c r="S3">
-        <v>348.6094972983079</v>
+        <v>348.6093260757079</v>
       </c>
       <c r="T3">
-        <v>-262195.0731052937</v>
+        <v>-252548.8614709116</v>
       </c>
       <c r="U3">
-        <v>-1271858.932079311</v>
+        <v>-1225074.390342187</v>
       </c>
       <c r="V3">
-        <v>343.0107785360809</v>
+        <v>342.2804894709224</v>
       </c>
       <c r="W3">
         <v>325</v>
@@ -658,67 +658,67 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1259830.662953588</v>
+        <v>1262516.966338886</v>
       </c>
       <c r="C4">
-        <v>438185.1033699931</v>
+        <v>439050.8853204766</v>
       </c>
       <c r="D4">
         <v>7.3E-05</v>
       </c>
       <c r="E4">
-        <v>357.2758839014366</v>
+        <v>357.3072794695483</v>
       </c>
       <c r="F4">
-        <v>8520.621160295615</v>
+        <v>8537.452066458689</v>
       </c>
       <c r="G4">
         <v>308.15</v>
       </c>
       <c r="H4">
-        <v>-3199802692.814435</v>
+        <v>-3080084650.403504</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1555306106.307729</v>
+        <v>1558378324.94504</v>
       </c>
       <c r="K4">
-        <v>3618.887509251687</v>
+        <v>3626.6049403211</v>
       </c>
       <c r="L4">
-        <v>1868395617.236619</v>
+        <v>1872084141.91942</v>
       </c>
       <c r="M4">
         <v>375</v>
       </c>
       <c r="N4">
-        <v>-9437.630047806248</v>
+        <v>-9084.465308532881</v>
       </c>
       <c r="O4">
-        <v>-1105746912.051185</v>
+        <v>-1064135982.116287</v>
       </c>
       <c r="P4">
-        <v>-3620.838306414953</v>
+        <v>-3485.312749779723</v>
       </c>
       <c r="Q4">
         <v>-0</v>
       </c>
       <c r="R4">
-        <v>628975106.39535</v>
+        <v>628975107.8775582</v>
       </c>
       <c r="S4">
-        <v>348.5921564209196</v>
+        <v>348.5928456001548</v>
       </c>
       <c r="T4">
-        <v>-259317.7955421219</v>
+        <v>-249559.2348271296</v>
       </c>
       <c r="U4">
-        <v>-1260515.071879769</v>
+        <v>-1213334.835617654</v>
       </c>
       <c r="V4">
-        <v>342.8132102163717</v>
+        <v>342.0760090412064</v>
       </c>
       <c r="W4">
         <v>325</v>
@@ -729,67 +729,67 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1227019.893892233</v>
+        <v>1229066.872949624</v>
       </c>
       <c r="C5">
-        <v>331552.4807247216</v>
+        <v>332017.5433651964</v>
       </c>
       <c r="D5">
         <v>0.000585</v>
       </c>
       <c r="E5">
-        <v>357.7495486336655</v>
+        <v>357.7880696490872</v>
       </c>
       <c r="F5">
-        <v>6446.163872349769</v>
+        <v>6455.155709205304</v>
       </c>
       <c r="G5">
         <v>308.15</v>
       </c>
       <c r="H5">
-        <v>-3049186625.970583</v>
+        <v>-2929053484.421099</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1176646378.745706</v>
+        <v>1178287697.90604</v>
       </c>
       <c r="K5">
-        <v>3524.908368606239</v>
+        <v>3530.803014509996</v>
       </c>
       <c r="L5">
-        <v>1413047535.379231</v>
+        <v>1414994352.254249</v>
       </c>
       <c r="M5">
         <v>375</v>
       </c>
       <c r="N5">
-        <v>-8997.213784581689</v>
+        <v>-8642.668855483091</v>
       </c>
       <c r="O5">
-        <v>-1053541371.468069</v>
+        <v>-1011833606.112162</v>
       </c>
       <c r="P5">
-        <v>-3453.592818272</v>
+        <v>-3317.467388978912</v>
       </c>
       <c r="Q5">
         <v>-0</v>
       </c>
       <c r="R5">
-        <v>628975037.205635</v>
+        <v>628975048.9040148</v>
       </c>
       <c r="S5">
-        <v>348.5523514493083</v>
+        <v>348.5531329935555</v>
       </c>
       <c r="T5">
-        <v>-247073.4336065783</v>
+        <v>-237292.1555844452</v>
       </c>
       <c r="U5">
-        <v>-1202292.239214662</v>
+        <v>-1154903.170789327</v>
       </c>
       <c r="V5">
-        <v>341.9721807990285</v>
+        <v>341.2367034768303</v>
       </c>
       <c r="W5">
         <v>325</v>
@@ -800,67 +800,67 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1138405.881996976</v>
+        <v>1139107.308807374</v>
       </c>
       <c r="C6">
-        <v>242223.1915532856</v>
+        <v>242364.2612361292</v>
       </c>
       <c r="D6">
         <v>0.004680999999999999</v>
       </c>
       <c r="E6">
-        <v>358.9995496589959</v>
+        <v>359.0519863616955</v>
       </c>
       <c r="F6">
-        <v>4706.543566467268</v>
+        <v>4709.198249979797</v>
       </c>
       <c r="G6">
         <v>308.15</v>
       </c>
       <c r="H6">
-        <v>-2656418102.517624</v>
+        <v>-2553068929.823715</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>859105904.4662341</v>
+        <v>859590475.4147227</v>
       </c>
       <c r="K6">
-        <v>3271.369981718127</v>
+        <v>3273.416796050292</v>
       </c>
       <c r="L6">
-        <v>1030330431.504702</v>
+        <v>1030869727.759394</v>
       </c>
       <c r="M6">
         <v>375</v>
       </c>
       <c r="N6">
-        <v>-7847.482759481892</v>
+        <v>-7542.132199278642</v>
       </c>
       <c r="O6">
-        <v>-919379129.1228949</v>
+        <v>-883472889.5191458</v>
       </c>
       <c r="P6">
-        <v>-3016.425761722985</v>
+        <v>-2899.03507112399</v>
       </c>
       <c r="Q6">
         <v>-0</v>
       </c>
       <c r="R6">
-        <v>628974353.3753608</v>
+        <v>628974434.30088</v>
       </c>
       <c r="S6">
-        <v>348.4425017645651</v>
+        <v>348.4430339789178</v>
       </c>
       <c r="T6">
-        <v>-215595.7133262886</v>
+        <v>-207175.5707848532</v>
       </c>
       <c r="U6">
-        <v>-1050100.361088532</v>
+        <v>-1009233.653381226</v>
       </c>
       <c r="V6">
-        <v>339.8121116422014</v>
+        <v>339.1778548127542</v>
       </c>
       <c r="W6">
         <v>325</v>
@@ -871,67 +871,67 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>983598.5304365999</v>
+        <v>983674.0277211306</v>
       </c>
       <c r="C7">
-        <v>201866.8355298736</v>
+        <v>201888.0027587979</v>
       </c>
       <c r="D7">
         <v>0.037449</v>
       </c>
       <c r="E7">
-        <v>361.1690799167769</v>
+        <v>361.2218322308381</v>
       </c>
       <c r="F7">
-        <v>3918.363598866095</v>
+        <v>3918.698609175501</v>
       </c>
       <c r="G7">
         <v>308.15</v>
       </c>
       <c r="H7">
-        <v>-1938222416.564787</v>
+        <v>-1856989744.657073</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>715235980.7344058</v>
+        <v>715297131.6258839</v>
       </c>
       <c r="K7">
-        <v>2828.020967686875</v>
+        <v>2828.266630971344</v>
       </c>
       <c r="L7">
-        <v>855832240.1644881</v>
+        <v>855868523.7247887</v>
       </c>
       <c r="M7">
         <v>375</v>
       </c>
       <c r="N7">
-        <v>-5738.101763289083</v>
+        <v>-5497.961962550063</v>
       </c>
       <c r="O7">
-        <v>-646351223.4649997</v>
+        <v>-620180667.4406006</v>
       </c>
       <c r="P7">
-        <v>-2211.160168502602</v>
+        <v>-2118.779692483486</v>
       </c>
       <c r="Q7">
         <v>-0</v>
       </c>
       <c r="R7">
-        <v>628971233.958409</v>
+        <v>628971747.2124678</v>
       </c>
       <c r="S7">
-        <v>348.2431134189931</v>
+        <v>348.2372408854938</v>
       </c>
       <c r="T7">
-        <v>-150910.2975181215</v>
+        <v>-144818.1061653628</v>
       </c>
       <c r="U7">
-        <v>-769659.1889783711</v>
+        <v>-737507.8637450103</v>
       </c>
       <c r="V7">
-        <v>335.8454879843202</v>
+        <v>335.3505209391637</v>
       </c>
       <c r="W7">
         <v>325</v>
@@ -942,67 +942,67 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>771898.8382614901</v>
+        <v>767700.2213838255</v>
       </c>
       <c r="C8">
-        <v>158533.730346133</v>
+        <v>157676.16833105</v>
       </c>
       <c r="D8">
         <v>0.299593</v>
       </c>
       <c r="E8">
-        <v>364.1402455230449</v>
+        <v>364.2413333870617</v>
       </c>
       <c r="F8">
-        <v>3074.1652036972</v>
+        <v>3057.475315653686</v>
       </c>
       <c r="G8">
         <v>308.15</v>
       </c>
       <c r="H8">
-        <v>-1278132718.453058</v>
+        <v>-1217797983.494357</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>561140769.3360136</v>
+        <v>558094291.3505088</v>
       </c>
       <c r="K8">
-        <v>2220.507630738904</v>
+        <v>2208.45239754675</v>
       </c>
       <c r="L8">
-        <v>669949799.7036719</v>
+        <v>666283159.260673</v>
       </c>
       <c r="M8">
         <v>375</v>
       </c>
       <c r="N8">
-        <v>-3791.067233167474</v>
+        <v>-3612.080981687</v>
       </c>
       <c r="O8">
-        <v>-416069500.7188746</v>
+        <v>-397165190.0748833</v>
       </c>
       <c r="P8">
-        <v>-1464.098564400729</v>
+        <v>-1394.961885210932</v>
       </c>
       <c r="Q8">
         <v>-0</v>
       </c>
       <c r="R8">
-        <v>628961874.2169534</v>
+        <v>628964716.8657156</v>
       </c>
       <c r="S8">
-        <v>348.0684373167751</v>
+        <v>348.0691563172496</v>
       </c>
       <c r="T8">
-        <v>-96668.16778913203</v>
+        <v>-92283.51789259681</v>
       </c>
       <c r="U8">
-        <v>-509334.4796040818</v>
+        <v>-485294.0045499371</v>
       </c>
       <c r="V8">
-        <v>332.174036360028</v>
+        <v>331.8079489061243</v>
       </c>
       <c r="W8">
         <v>325</v>
@@ -1013,67 +1013,67 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>691487.0583471355</v>
+        <v>675585.920344449</v>
       </c>
       <c r="C9">
-        <v>142118.1198647101</v>
+        <v>138850.5859340137</v>
       </c>
       <c r="D9">
         <v>2.396745</v>
       </c>
       <c r="E9">
-        <v>365.2691906190927</v>
+        <v>365.530028142847</v>
       </c>
       <c r="F9">
-        <v>2754.575148709173</v>
+        <v>2691.234872001435</v>
       </c>
       <c r="G9">
         <v>308.15</v>
       </c>
       <c r="H9">
-        <v>-991616051.1830204</v>
+        <v>-956599459.4625862</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>502804604.0861955</v>
+        <v>491242827.3934566</v>
       </c>
       <c r="K9">
-        <v>1989.670824142606</v>
+        <v>1943.919536051684</v>
       </c>
       <c r="L9">
-        <v>599681537.0377387</v>
+        <v>585889144.927672</v>
       </c>
       <c r="M9">
         <v>375</v>
       </c>
       <c r="N9">
-        <v>-2945.193063481802</v>
+        <v>-2840.775768659547</v>
       </c>
       <c r="O9">
-        <v>-324060832.3198087</v>
+        <v>-313662819.2288761</v>
       </c>
       <c r="P9">
-        <v>-1139.205530557774</v>
+        <v>-1098.630279801682</v>
       </c>
       <c r="Q9">
         <v>-0</v>
       </c>
       <c r="R9">
-        <v>628946744.0883325</v>
+        <v>628954159.8728071</v>
       </c>
       <c r="S9">
-        <v>347.9446427461384</v>
+        <v>347.9580574842794</v>
       </c>
       <c r="T9">
-        <v>-75236.77546077623</v>
+        <v>-72825.13578375106</v>
       </c>
       <c r="U9">
-        <v>-396181.427314065</v>
+        <v>-382087.168615244</v>
       </c>
       <c r="V9">
-        <v>330.579692386318</v>
+        <v>330.3596576150738</v>
       </c>
       <c r="W9">
         <v>325</v>
@@ -1084,67 +1084,67 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>694847.2920215203</v>
+        <v>675175.8257825342</v>
       </c>
       <c r="C10">
-        <v>142823.0488970985</v>
+        <v>138779.2256509658</v>
       </c>
       <c r="D10">
         <v>19.173961</v>
       </c>
       <c r="E10">
-        <v>365.2216173103369</v>
+        <v>365.5355436234507</v>
       </c>
       <c r="F10">
-        <v>2768.042189725704</v>
+        <v>2689.667431951739</v>
       </c>
       <c r="G10">
         <v>308.15</v>
       </c>
       <c r="H10">
-        <v>-947541621.4252716</v>
+        <v>-920384520.956015</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>505262801.7613261</v>
+        <v>490956715.7315602</v>
       </c>
       <c r="K10">
-        <v>1999.398198230482</v>
+        <v>1942.787362649162</v>
       </c>
       <c r="L10">
-        <v>602538241.2926354</v>
+        <v>585486892.4309034</v>
       </c>
       <c r="M10">
         <v>375</v>
       </c>
       <c r="N10">
-        <v>-2815.275396275743</v>
+        <v>-2734.057193871046</v>
       </c>
       <c r="O10">
-        <v>-307884505.3455097</v>
+        <v>-300275510.6141611</v>
       </c>
       <c r="P10">
-        <v>-1089.396577123125</v>
+        <v>-1057.729983017452</v>
       </c>
       <c r="Q10">
         <v>-0</v>
       </c>
       <c r="R10">
-        <v>628957933.7558135</v>
+        <v>628966443.628581</v>
       </c>
       <c r="S10">
-        <v>347.9124645370102</v>
+        <v>347.9302774457881</v>
       </c>
       <c r="T10">
-        <v>-71447.07482478223</v>
+        <v>-69684.27137488838</v>
       </c>
       <c r="U10">
-        <v>-378840.6401791064</v>
+        <v>-367847.3561044674</v>
       </c>
       <c r="V10">
-        <v>330.3353871706797</v>
+        <v>330.1598511021516</v>
       </c>
       <c r="W10">
         <v>325</v>
@@ -1155,67 +1155,67 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>694035.3482579459</v>
+        <v>674287.6438965256</v>
       </c>
       <c r="C11">
-        <v>142659.2358643141</v>
+        <v>138600.3228645984</v>
       </c>
       <c r="D11">
         <v>39.173961</v>
       </c>
       <c r="E11">
-        <v>365.2330645852197</v>
+        <v>365.548029563891</v>
       </c>
       <c r="F11">
-        <v>2764.801696579302</v>
+        <v>2686.119074232652</v>
       </c>
       <c r="G11">
         <v>308.15</v>
       </c>
       <c r="H11">
-        <v>-943962544.0307367</v>
+        <v>-917267390.7245376</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>504671300.4278866</v>
+        <v>490309018.5362457</v>
       </c>
       <c r="K11">
-        <v>1997.057559584686</v>
+        <v>1940.224349417074</v>
       </c>
       <c r="L11">
-        <v>601838958.8352674</v>
+        <v>584724625.8972312</v>
       </c>
       <c r="M11">
         <v>375</v>
       </c>
       <c r="N11">
-        <v>-2804.937903230978</v>
+        <v>-2725.083786167446</v>
       </c>
       <c r="O11">
-        <v>-304926256.197134</v>
+        <v>-297570460.3967749</v>
       </c>
       <c r="P11">
-        <v>-1085.529490387671</v>
+        <v>-1054.386962255194</v>
       </c>
       <c r="Q11">
         <v>-0</v>
       </c>
       <c r="R11">
-        <v>628978969.6688817</v>
+        <v>628986941.9746433</v>
       </c>
       <c r="S11">
-        <v>347.9027756826832</v>
+        <v>347.9206421688194</v>
       </c>
       <c r="T11">
-        <v>-70719.90592908334</v>
+        <v>-69018.06193728151</v>
       </c>
       <c r="U11">
-        <v>-377495.3158748836</v>
+        <v>-366684.5557017918</v>
       </c>
       <c r="V11">
-        <v>330.3164216913736</v>
+        <v>330.1435213281524</v>
       </c>
       <c r="W11">
         <v>325</v>
@@ -1226,67 +1226,67 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>692678.7465253415</v>
+        <v>673006.1726780753</v>
       </c>
       <c r="C12">
-        <v>142383.6301712157</v>
+        <v>138340.8753811979</v>
       </c>
       <c r="D12">
         <v>59.173961</v>
       </c>
       <c r="E12">
-        <v>365.2521961746496</v>
+        <v>365.5660470271388</v>
       </c>
       <c r="F12">
-        <v>2759.385928748878</v>
+        <v>2680.998722776376</v>
       </c>
       <c r="G12">
         <v>308.15</v>
       </c>
       <c r="H12">
-        <v>-941915843.0209749</v>
+        <v>-915343646.10789</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>503682736.7282993</v>
+        <v>489374378.4746153</v>
       </c>
       <c r="K12">
-        <v>1993.145699510089</v>
+        <v>1936.525869760243</v>
       </c>
       <c r="L12">
-        <v>600671435.7173823</v>
+        <v>583625199.0731376</v>
       </c>
       <c r="M12">
         <v>375</v>
       </c>
       <c r="N12">
-        <v>-2799.172080744308</v>
+        <v>-2719.679206627172</v>
       </c>
       <c r="O12">
-        <v>-302607196.6117806</v>
+        <v>-295392811.2295048</v>
       </c>
       <c r="P12">
-        <v>-1083.439890248883</v>
+        <v>-1052.435318467815</v>
       </c>
       <c r="Q12">
         <v>-0</v>
       </c>
       <c r="R12">
-        <v>629000245.0890981</v>
+        <v>629007614.7584732</v>
       </c>
       <c r="S12">
-        <v>347.8924342387604</v>
+        <v>347.910167875514</v>
       </c>
       <c r="T12">
-        <v>-70143.19040527848</v>
+        <v>-68476.52027653712</v>
       </c>
       <c r="U12">
-        <v>-376768.8627966803</v>
+        <v>-366006.2425752179</v>
       </c>
       <c r="V12">
-        <v>330.3061740466329</v>
+        <v>330.1339884579913</v>
       </c>
       <c r="W12">
         <v>325</v>
@@ -1297,67 +1297,67 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>691340.9224638252</v>
+        <v>671746.8431627766</v>
       </c>
       <c r="C13">
-        <v>142112.2233631518</v>
+        <v>138086.3433903751</v>
       </c>
       <c r="D13">
         <v>79.17396099999999</v>
       </c>
       <c r="E13">
-        <v>365.2710711231537</v>
+        <v>365.5837619462669</v>
       </c>
       <c r="F13">
-        <v>2754.042810950145</v>
+        <v>2675.964350940675</v>
       </c>
       <c r="G13">
         <v>308.15</v>
       </c>
       <c r="H13">
-        <v>-939990608.8614011</v>
+        <v>-913520740.0194858</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>502707434.1555462</v>
+        <v>488455432.6477576</v>
       </c>
       <c r="K13">
-        <v>1989.286315127082</v>
+        <v>1932.889493921976</v>
       </c>
       <c r="L13">
-        <v>599521822.0281873</v>
+        <v>582546654.8914514</v>
       </c>
       <c r="M13">
         <v>375</v>
       </c>
       <c r="N13">
-        <v>-2793.812814118617</v>
+        <v>-2714.620749585784</v>
       </c>
       <c r="O13">
-        <v>-300445781.0530286</v>
+        <v>-293338516.5543295</v>
       </c>
       <c r="P13">
-        <v>-1081.528116048958</v>
+        <v>-1050.638499725665</v>
       </c>
       <c r="Q13">
         <v>-0</v>
       </c>
       <c r="R13">
-        <v>629021392.765056</v>
+        <v>629028175.9536806</v>
       </c>
       <c r="S13">
-        <v>347.8805596899215</v>
+        <v>347.8980854581137</v>
       </c>
       <c r="T13">
-        <v>-69605.35229560433</v>
+        <v>-67965.26903937459</v>
       </c>
       <c r="U13">
-        <v>-376104.3408669042</v>
+        <v>-365381.8588332097</v>
       </c>
       <c r="V13">
-        <v>330.2967986748844</v>
+        <v>330.1252120155918</v>
       </c>
       <c r="W13">
         <v>325</v>
@@ -1368,67 +1368,67 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>690057.4003498559</v>
+        <v>670536.1929136789</v>
       </c>
       <c r="C14">
-        <v>141852.1794229103</v>
+        <v>137842.0145681374</v>
       </c>
       <c r="D14">
         <v>99.17396099999999</v>
       </c>
       <c r="E14">
-        <v>365.2891864111589</v>
+        <v>365.6007988760326</v>
       </c>
       <c r="F14">
-        <v>2748.914737892725</v>
+        <v>2671.122655851211</v>
       </c>
       <c r="G14">
         <v>308.15</v>
       </c>
       <c r="H14">
-        <v>-938126558.777831</v>
+        <v>-911754259.9566215</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>501771384.6364146</v>
+        <v>487571656.9469187</v>
       </c>
       <c r="K14">
-        <v>1985.582259478397</v>
+        <v>1929.392290276069</v>
       </c>
       <c r="L14">
-        <v>598420261.3510807</v>
+        <v>581511264.5466527</v>
       </c>
       <c r="M14">
         <v>375</v>
       </c>
       <c r="N14">
-        <v>-2788.678189633771</v>
+        <v>-2709.773274228141</v>
       </c>
       <c r="O14">
-        <v>-298395802.514573</v>
+        <v>-291403133.1914423</v>
       </c>
       <c r="P14">
-        <v>-1079.722514526793</v>
+        <v>-1048.942781488904</v>
       </c>
       <c r="Q14">
         <v>-0</v>
       </c>
       <c r="R14">
-        <v>629042404.8923702</v>
+        <v>629048607.6463712</v>
       </c>
       <c r="S14">
-        <v>347.8672389653904</v>
+        <v>347.8844983274759</v>
       </c>
       <c r="T14">
-        <v>-69095.12829364983</v>
+        <v>-67483.57324519807</v>
       </c>
       <c r="U14">
-        <v>-375476.7996851586</v>
+        <v>-364792.6941961924</v>
       </c>
       <c r="V14">
-        <v>330.2879441402854</v>
+        <v>330.1169295479095</v>
       </c>
       <c r="W14">
         <v>325</v>
@@ -1439,67 +1439,67 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>688828.3743444623</v>
+        <v>669373.9036124514</v>
       </c>
       <c r="C15">
-        <v>141603.4142023118</v>
+        <v>137607.6815460514</v>
       </c>
       <c r="D15">
         <v>119.173961</v>
       </c>
       <c r="E15">
-        <v>365.3065369447177</v>
+        <v>365.6171595711376</v>
       </c>
       <c r="F15">
-        <v>2744.003151554837</v>
+        <v>2666.473138822047</v>
       </c>
       <c r="G15">
         <v>308.15</v>
       </c>
       <c r="H15">
-        <v>-936308965.4841619</v>
+        <v>-910027293.5514326</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>500874851.3814718</v>
+        <v>486722960.3447814</v>
       </c>
       <c r="K15">
-        <v>1982.034574129886</v>
+        <v>1926.033898631502</v>
       </c>
       <c r="L15">
-        <v>597366414.8053027</v>
+        <v>580518168.3150303</v>
       </c>
       <c r="M15">
         <v>375</v>
       </c>
       <c r="N15">
-        <v>-2783.724062885956</v>
+        <v>-2705.083587823788</v>
       </c>
       <c r="O15">
-        <v>-296436357.6075268</v>
+        <v>-289560778.083283</v>
       </c>
       <c r="P15">
-        <v>-1078.005829458561</v>
+        <v>-1047.326258321846</v>
       </c>
       <c r="Q15">
         <v>-0</v>
       </c>
       <c r="R15">
-        <v>629063323.754563</v>
+        <v>629068949.9050912</v>
       </c>
       <c r="S15">
-        <v>347.8524805375292</v>
+        <v>347.8695019502811</v>
       </c>
       <c r="T15">
-        <v>-68607.3166416782</v>
+        <v>-67024.98980147067</v>
       </c>
       <c r="U15">
-        <v>-374880.2287261162</v>
+        <v>-364231.1183627596</v>
       </c>
       <c r="V15">
-        <v>330.2795258044893</v>
+        <v>330.1090340397405</v>
       </c>
       <c r="W15">
         <v>325</v>
@@ -1510,67 +1510,67 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>687638.374101746</v>
+        <v>668247.1336546837</v>
       </c>
       <c r="C16">
-        <v>141362.6445817549</v>
+        <v>137380.5853266154</v>
       </c>
       <c r="D16">
         <v>139.173961</v>
       </c>
       <c r="E16">
-        <v>365.3233384667614</v>
+        <v>365.6330218937211</v>
       </c>
       <c r="F16">
-        <v>2739.246979431314</v>
+        <v>2661.965253517506</v>
       </c>
       <c r="G16">
         <v>308.15</v>
       </c>
       <c r="H16">
-        <v>-934527570.1499584</v>
+        <v>-908338669.8487917</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>500006686.5602453</v>
+        <v>485900116.3984553</v>
       </c>
       <c r="K16">
-        <v>1978.599145853975</v>
+        <v>1922.777808881733</v>
       </c>
       <c r="L16">
-        <v>596346444.7190068</v>
+        <v>579555766.1961926</v>
       </c>
       <c r="M16">
         <v>375</v>
       </c>
       <c r="N16">
-        <v>-2778.916175853624</v>
+        <v>-2700.54635572017</v>
       </c>
       <c r="O16">
-        <v>-294550497.2793026</v>
+        <v>-287785030.7663838</v>
       </c>
       <c r="P16">
-        <v>-1076.363107938505</v>
+        <v>-1045.786032648266</v>
       </c>
       <c r="Q16">
         <v>-0</v>
       </c>
       <c r="R16">
-        <v>629084160.9729995</v>
+        <v>629089192.0876415</v>
       </c>
       <c r="S16">
-        <v>347.8364046649539</v>
+        <v>347.8531559950468</v>
       </c>
       <c r="T16">
-        <v>-68137.69640864273</v>
+        <v>-66582.79490709514</v>
       </c>
       <c r="U16">
-        <v>-374309.419671952</v>
+        <v>-363696.1202505769</v>
       </c>
       <c r="V16">
-        <v>330.2714703197718</v>
+        <v>330.1015113287755</v>
       </c>
       <c r="W16">
         <v>325</v>
@@ -1581,67 +1581,67 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>686482.4570572397</v>
+        <v>667154.3388466999</v>
       </c>
       <c r="C17">
-        <v>141128.7676183573</v>
+        <v>137160.31380083</v>
       </c>
       <c r="D17">
         <v>159.173961</v>
       </c>
       <c r="E17">
-        <v>365.3396589358103</v>
+        <v>365.6484056846775</v>
       </c>
       <c r="F17">
-        <v>2734.626983832116</v>
+        <v>2657.593361368751</v>
       </c>
       <c r="G17">
         <v>308.15</v>
       </c>
       <c r="H17">
-        <v>-932778336.2469803</v>
+        <v>-906677645.0457765</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>499163378.6333503</v>
+        <v>485102095.8754021</v>
       </c>
       <c r="K17">
-        <v>1975.262079086818</v>
+        <v>1919.619948247855</v>
       </c>
       <c r="L17">
-        <v>595355721.6864347</v>
+        <v>578622329.9120208</v>
       </c>
       <c r="M17">
         <v>375</v>
       </c>
       <c r="N17">
-        <v>-2774.242002958028</v>
+        <v>-2696.126958880689</v>
       </c>
       <c r="O17">
-        <v>-292743536.5367294</v>
+        <v>-286071095.2756101</v>
       </c>
       <c r="P17">
-        <v>-1074.789263930143</v>
+        <v>-1044.30749681228</v>
       </c>
       <c r="Q17">
         <v>-0</v>
       </c>
       <c r="R17">
-        <v>629104920.3781853</v>
+        <v>629109355.373237</v>
       </c>
       <c r="S17">
-        <v>347.8190257652328</v>
+        <v>347.8355486635904</v>
       </c>
       <c r="T17">
-        <v>-67687.66457621865</v>
+        <v>-66155.87500662135</v>
       </c>
       <c r="U17">
-        <v>-373762.6000986875</v>
+        <v>-363182.6116099879</v>
       </c>
       <c r="V17">
-        <v>330.2637527373108</v>
+        <v>330.0942900507515</v>
       </c>
       <c r="W17">
         <v>325</v>
@@ -1652,67 +1652,67 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>685358.5606555837</v>
+        <v>666089.2298236183</v>
       </c>
       <c r="C18">
-        <v>140901.286605533</v>
+        <v>136945.4947592674</v>
       </c>
       <c r="D18">
         <v>179.173961</v>
       </c>
       <c r="E18">
-        <v>365.355526084406</v>
+        <v>365.6633976915743</v>
       </c>
       <c r="F18">
-        <v>2730.135314221285</v>
+        <v>2653.332809738227</v>
       </c>
       <c r="G18">
         <v>308.15</v>
       </c>
       <c r="H18">
-        <v>-931064602.3650173</v>
+        <v>-905044884.5498198</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>498343494.6082517</v>
+        <v>484324398.8222728</v>
       </c>
       <c r="K18">
-        <v>1972.017703320878</v>
+        <v>1916.542509888301</v>
       </c>
       <c r="L18">
-        <v>594392178.6803459</v>
+        <v>577712099.650818</v>
       </c>
       <c r="M18">
         <v>375</v>
       </c>
       <c r="N18">
-        <v>-2769.708000747961</v>
+        <v>-2691.826208677635</v>
       </c>
       <c r="O18">
-        <v>-290881453.3691251</v>
+        <v>-284429009.7690764</v>
       </c>
       <c r="P18">
-        <v>-1073.285240823907</v>
+        <v>-1042.890441334521</v>
       </c>
       <c r="Q18">
         <v>-0</v>
       </c>
       <c r="R18">
-        <v>629125590.1018631</v>
+        <v>629129432.4763174</v>
       </c>
       <c r="S18">
-        <v>347.8004560352651</v>
+        <v>347.8167173568126</v>
       </c>
       <c r="T18">
-        <v>-67224.14314154888</v>
+        <v>-65746.8130788375</v>
       </c>
       <c r="U18">
-        <v>-373240.0969178951</v>
+        <v>-362690.5180545097</v>
       </c>
       <c r="V18">
-        <v>330.2563776722717</v>
+        <v>330.0873691768611</v>
       </c>
       <c r="W18">
         <v>325</v>
@@ -1723,67 +1723,67 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>684258.0994706209</v>
+        <v>665055.3258248721</v>
       </c>
       <c r="C19">
-        <v>140678.379495319</v>
+        <v>136736.7883402355</v>
       </c>
       <c r="D19">
         <v>199.173961</v>
       </c>
       <c r="E19">
-        <v>365.3710596025921</v>
+        <v>365.6779474406189</v>
       </c>
       <c r="F19">
-        <v>2725.738088757671</v>
+        <v>2649.197942671501</v>
       </c>
       <c r="G19">
         <v>308.15</v>
       </c>
       <c r="H19">
-        <v>-929376773.8791603</v>
+        <v>-903441364.6108835</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>497540849.8848553</v>
+        <v>483569643.5202043</v>
       </c>
       <c r="K19">
-        <v>1968.8415453829</v>
+        <v>1913.555854656484</v>
       </c>
       <c r="L19">
-        <v>593448128.3225322</v>
+        <v>576827880.5157118</v>
       </c>
       <c r="M19">
         <v>375</v>
       </c>
       <c r="N19">
-        <v>-2765.283299769848</v>
+        <v>-2687.643453271982</v>
       </c>
       <c r="O19">
-        <v>-288802054.2712294</v>
+        <v>-282867545.1361084</v>
       </c>
       <c r="P19">
-        <v>-1071.83803243629</v>
+        <v>-1041.533018724294</v>
       </c>
       <c r="Q19">
         <v>-0</v>
       </c>
       <c r="R19">
-        <v>629146154.3004347</v>
+        <v>629149433.1011932</v>
       </c>
       <c r="S19">
-        <v>347.7807707074138</v>
+        <v>347.7967812347322</v>
       </c>
       <c r="T19">
-        <v>-66706.99629392024</v>
+        <v>-65357.86759903692</v>
       </c>
       <c r="U19">
-        <v>-372737.3805134821</v>
+        <v>-362219.1948801813</v>
       </c>
       <c r="V19">
-        <v>330.2492813303701</v>
+        <v>330.080739672219</v>
       </c>
       <c r="W19">
         <v>325</v>
@@ -1794,67 +1794,67 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>683190.2963998271</v>
+        <v>664050.6218378491</v>
       </c>
       <c r="C20">
-        <v>140461.8932465842</v>
+        <v>136533.7313122323</v>
       </c>
       <c r="D20">
         <v>219.173961</v>
       </c>
       <c r="E20">
-        <v>365.3861288411669</v>
+        <v>365.6920821257174</v>
       </c>
       <c r="F20">
-        <v>2721.472291579708</v>
+        <v>2645.18103197274</v>
       </c>
       <c r="G20">
         <v>308.15</v>
       </c>
       <c r="H20">
-        <v>-927716709.4300765</v>
+        <v>-901867508.6775963</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>496762195.3390962</v>
+        <v>482836419.3079382</v>
       </c>
       <c r="K20">
-        <v>1965.760319278973</v>
+        <v>1910.654400406511</v>
       </c>
       <c r="L20">
-        <v>592531383.4857544</v>
+        <v>575967736.7539642</v>
       </c>
       <c r="M20">
         <v>375</v>
       </c>
       <c r="N20">
-        <v>-2760.973369354871</v>
+        <v>-2683.579168067658</v>
       </c>
       <c r="O20">
-        <v>-286797995.9708825</v>
+        <v>-281011104.7931551</v>
       </c>
       <c r="P20">
-        <v>-1070.449731406597</v>
+        <v>-1040.235061452677</v>
       </c>
       <c r="Q20">
         <v>-0</v>
       </c>
       <c r="R20">
-        <v>629166632.5927792</v>
+        <v>629169357.8090109</v>
       </c>
       <c r="S20">
-        <v>347.7599704440921</v>
+        <v>347.7757660784947</v>
       </c>
       <c r="T20">
-        <v>-66208.49976772204</v>
+        <v>-64895.99666928624</v>
       </c>
       <c r="U20">
-        <v>-372255.1784222928</v>
+        <v>-361768.5826491889</v>
       </c>
       <c r="V20">
-        <v>330.2424739713517</v>
+        <v>330.0744007143434</v>
       </c>
       <c r="W20">
         <v>325</v>
@@ -1865,67 +1865,67 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>682149.4942286037</v>
+        <v>663070.7703957731</v>
       </c>
       <c r="C21">
-        <v>140250.6259716448</v>
+        <v>136335.390580129</v>
       </c>
       <c r="D21">
         <v>239.173961</v>
       </c>
       <c r="E21">
-        <v>365.400812673324</v>
+        <v>365.7058619309499</v>
       </c>
       <c r="F21">
-        <v>2717.315595275624</v>
+        <v>2641.264974026155</v>
       </c>
       <c r="G21">
         <v>308.15</v>
       </c>
       <c r="H21">
-        <v>-926080882.4968852</v>
+        <v>-900318727.5740145</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>496003455.4512188</v>
+        <v>482121604.1879609</v>
       </c>
       <c r="K21">
-        <v>1962.757897708296</v>
+        <v>1907.825793035452</v>
       </c>
       <c r="L21">
-        <v>591636879.6756653</v>
+        <v>575127735.0641768</v>
       </c>
       <c r="M21">
         <v>375</v>
       </c>
       <c r="N21">
-        <v>-2756.766589364734</v>
+        <v>-2679.618041958462</v>
       </c>
       <c r="O21">
-        <v>-284876435.3933931</v>
+        <v>-279180377.8590855</v>
       </c>
       <c r="P21">
-        <v>-1069.115328203907</v>
+        <v>-1038.98989207778</v>
       </c>
       <c r="Q21">
         <v>-0</v>
       </c>
       <c r="R21">
-        <v>629187032.3825976</v>
+        <v>629189204.8821782</v>
       </c>
       <c r="S21">
-        <v>347.7380914389738</v>
+        <v>347.7537276737941</v>
       </c>
       <c r="T21">
-        <v>-65730.49773916385</v>
+        <v>-64440.48949157943</v>
       </c>
       <c r="U21">
-        <v>-371791.7454291065</v>
+        <v>-361336.3551131606</v>
       </c>
       <c r="V21">
-        <v>330.2359310218181</v>
+        <v>330.0683196798863</v>
       </c>
       <c r="W21">
         <v>325</v>
@@ -1936,67 +1936,67 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>681133.38058495</v>
+        <v>662114.5341677796</v>
       </c>
       <c r="C22">
-        <v>140044.0704439669</v>
+        <v>136141.480204963</v>
       </c>
       <c r="D22">
         <v>259.173961</v>
       </c>
       <c r="E22">
-        <v>365.4151430594331</v>
+        <v>365.7193036197565</v>
       </c>
       <c r="F22">
-        <v>2713.25895249941</v>
+        <v>2637.44500486183</v>
       </c>
       <c r="G22">
         <v>308.15</v>
       </c>
       <c r="H22">
-        <v>-924470729.0278131</v>
+        <v>-898793664.0647953</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>495262978.7697352</v>
+        <v>481424328.5720858</v>
       </c>
       <c r="K22">
-        <v>1959.827745694065</v>
+        <v>1905.066591479376</v>
       </c>
       <c r="L22">
-        <v>590762486.7089459</v>
+        <v>574306677.015281</v>
       </c>
       <c r="M22">
         <v>375</v>
       </c>
       <c r="N22">
-        <v>-2752.663880522417</v>
+        <v>-2675.755360270663</v>
       </c>
       <c r="O22">
-        <v>-283024316.9385038</v>
+        <v>-277425996.5929558</v>
       </c>
       <c r="P22">
-        <v>-1067.833676694363</v>
+        <v>-1037.79537988089</v>
       </c>
       <c r="Q22">
         <v>-0</v>
       </c>
       <c r="R22">
-        <v>629207350.1024663</v>
+        <v>629208972.4739538</v>
       </c>
       <c r="S22">
-        <v>347.7152439248411</v>
+        <v>347.7306886511853</v>
       </c>
       <c r="T22">
-        <v>-65269.70084541175</v>
+        <v>-64003.94538253098</v>
       </c>
       <c r="U22">
-        <v>-371346.6812853462</v>
+        <v>-360921.7692535055</v>
       </c>
       <c r="V22">
-        <v>330.2296468512758</v>
+        <v>330.0624861573837</v>
       </c>
       <c r="W22">
         <v>325</v>
@@ -2007,67 +2007,67 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>680143.1336170117</v>
+        <v>661180.8560709564</v>
       </c>
       <c r="C23">
-        <v>139842.4454363596</v>
+        <v>135951.7598895207</v>
       </c>
       <c r="D23">
         <v>279.173961</v>
       </c>
       <c r="E23">
-        <v>365.4291029139332</v>
+        <v>365.7324215163826</v>
       </c>
       <c r="F23">
-        <v>2709.307199825514</v>
+        <v>2633.717053691875</v>
       </c>
       <c r="G23">
         <v>308.15</v>
       </c>
       <c r="H23">
-        <v>-922877906.2626159</v>
+        <v>-897283791.0217347</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>494541648.1356531</v>
+        <v>480743849.4016628</v>
       </c>
       <c r="K23">
-        <v>1956.973356742332</v>
+        <v>1902.37385537268</v>
       </c>
       <c r="L23">
-        <v>589909118.0388379</v>
+        <v>573503539.9169687</v>
       </c>
       <c r="M23">
         <v>375</v>
       </c>
       <c r="N23">
-        <v>-2748.639264682212</v>
+        <v>-2671.96531727331</v>
       </c>
       <c r="O23">
-        <v>-281236032.4919285</v>
+        <v>-275727439.2670359</v>
       </c>
       <c r="P23">
-        <v>-1066.594189671832</v>
+        <v>-1036.641327789312</v>
       </c>
       <c r="Q23">
         <v>-0</v>
       </c>
       <c r="R23">
-        <v>629227616.1840755</v>
+        <v>629228682.52232</v>
       </c>
       <c r="S23">
-        <v>347.6914652202296</v>
+        <v>347.7066630110293</v>
       </c>
       <c r="T23">
-        <v>-64824.76751328194</v>
+        <v>-63581.24762279304</v>
       </c>
       <c r="U23">
-        <v>-370916.298773364</v>
+        <v>-360521.2732359846</v>
       </c>
       <c r="V23">
-        <v>330.2235695332643</v>
+        <v>330.0568503346922</v>
       </c>
       <c r="W23">
         <v>325</v>
@@ -2078,67 +2078,67 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>679169.9724319682</v>
+        <v>660261.3495079861</v>
       </c>
       <c r="C24">
-        <v>139643.9257281562</v>
+        <v>135764.4883456569</v>
       </c>
       <c r="D24">
         <v>299.173961</v>
       </c>
       <c r="E24">
-        <v>365.4428154279253</v>
+        <v>365.7453327799331</v>
       </c>
       <c r="F24">
-        <v>2705.425464336556</v>
+        <v>2630.047825264028</v>
       </c>
       <c r="G24">
         <v>308.15</v>
       </c>
       <c r="H24">
-        <v>-921300712.958877</v>
+        <v>-895780620.4149625</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>493833098.0434158</v>
+        <v>480074089.1492224</v>
       </c>
       <c r="K24">
-        <v>1954.169541814244</v>
+        <v>1899.72353523845</v>
       </c>
       <c r="L24">
-        <v>589069077.5998054</v>
+        <v>572710964.9793525</v>
       </c>
       <c r="M24">
         <v>375</v>
       </c>
       <c r="N24">
-        <v>-2744.687465700048</v>
+        <v>-2668.220712916674</v>
       </c>
       <c r="O24">
-        <v>-279506692.606568</v>
+        <v>-274083332.3456931</v>
       </c>
       <c r="P24">
-        <v>-1065.394725998203</v>
+        <v>-1035.516320882834</v>
       </c>
       <c r="Q24">
         <v>-0</v>
       </c>
       <c r="R24">
-        <v>629247827.7664121</v>
+        <v>629248349.5994737</v>
       </c>
       <c r="S24">
-        <v>347.666761782981</v>
+        <v>347.6817156099006</v>
       </c>
       <c r="T24">
-        <v>-64394.47724614549</v>
+        <v>-63172.11723593726</v>
       </c>
       <c r="U24">
-        <v>-370499.8512902152</v>
+        <v>-360130.8909401516</v>
       </c>
       <c r="V24">
-        <v>330.2176885649678</v>
+        <v>330.0513564484611</v>
       </c>
       <c r="W24">
         <v>325</v>
@@ -2149,67 +2149,67 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>678205.5751882605</v>
+        <v>659351.725204658</v>
       </c>
       <c r="C25">
-        <v>139446.7849413987</v>
+        <v>135578.7684244617</v>
       </c>
       <c r="D25">
         <v>319.173961</v>
       </c>
       <c r="E25">
-        <v>365.4563974047603</v>
+        <v>365.7580973124678</v>
       </c>
       <c r="F25">
-        <v>2701.580681358285</v>
+        <v>2626.420296137544</v>
       </c>
       <c r="G25">
         <v>308.15</v>
       </c>
       <c r="H25">
-        <v>-919736381.275275</v>
+        <v>-894292050.4303749</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>493131293.0539629</v>
+        <v>479411940.4519513</v>
       </c>
       <c r="K25">
-        <v>1951.392417982217</v>
+        <v>1897.103334864575</v>
       </c>
       <c r="L25">
-        <v>588235083.034281</v>
+        <v>571925183.8542864</v>
       </c>
       <c r="M25">
         <v>375</v>
       </c>
       <c r="N25">
-        <v>-2740.800281942852</v>
+        <v>-2664.54181741295</v>
       </c>
       <c r="O25">
-        <v>-277836746.1595212</v>
+        <v>-272497298.6447502</v>
       </c>
       <c r="P25">
-        <v>-1064.232121842679</v>
+        <v>-1034.426767563446</v>
       </c>
       <c r="Q25">
         <v>-0</v>
       </c>
       <c r="R25">
-        <v>629267953.9205358</v>
+        <v>629267947.1196241</v>
       </c>
       <c r="S25">
-        <v>347.6411317341345</v>
+        <v>347.6559567745433</v>
       </c>
       <c r="T25">
-        <v>-63978.95266970115</v>
+        <v>-62777.43238997634</v>
       </c>
       <c r="U25">
-        <v>-370096.2360717542</v>
+        <v>-359752.8522112514</v>
       </c>
       <c r="V25">
-        <v>330.2119884286321</v>
+        <v>330.0460357937929</v>
       </c>
       <c r="W25">
         <v>325</v>
@@ -2220,67 +2220,67 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>677258.6326316043</v>
+        <v>658456.5121627167</v>
       </c>
       <c r="C26">
-        <v>139252.7991623291</v>
+        <v>135395.5217383723</v>
       </c>
       <c r="D26">
         <v>339.173961</v>
       </c>
       <c r="E26">
-        <v>365.4697263050463</v>
+        <v>365.7706514521883</v>
       </c>
       <c r="F26">
-        <v>2697.807539306323</v>
+        <v>2622.852558226485</v>
       </c>
       <c r="G26">
         <v>308.15</v>
       </c>
       <c r="H26">
-        <v>-918181849.081389</v>
+        <v>-892817063.7537909</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>492442564.9949419</v>
+        <v>478760705.7057533</v>
       </c>
       <c r="K26">
-        <v>1948.667041029348</v>
+        <v>1894.526322232008</v>
       </c>
       <c r="L26">
-        <v>587414619.9887457</v>
+        <v>571150086.1336304</v>
       </c>
       <c r="M26">
         <v>375</v>
       </c>
       <c r="N26">
-        <v>-2736.965469991671</v>
+        <v>-2660.925932723669</v>
       </c>
       <c r="O26">
-        <v>-276216352.3448894</v>
+        <v>-270957684.309195</v>
       </c>
       <c r="P26">
-        <v>-1063.100226997449</v>
+        <v>-1033.371769534597</v>
       </c>
       <c r="Q26">
         <v>-0</v>
       </c>
       <c r="R26">
-        <v>629288016.2151845</v>
+        <v>629287471.7230812</v>
       </c>
       <c r="S26">
-        <v>347.614677963839</v>
+        <v>347.6293751997525</v>
       </c>
       <c r="T26">
-        <v>-63575.74560023904</v>
+        <v>-62394.25107964446</v>
       </c>
       <c r="U26">
-        <v>-369703.3102614757</v>
+        <v>-359386.8427398037</v>
       </c>
       <c r="V26">
-        <v>330.2064389544607</v>
+        <v>330.04088398252</v>
       </c>
       <c r="W26">
         <v>325</v>
@@ -2291,67 +2291,67 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>676327.0107006149</v>
+        <v>657579.9002095127</v>
       </c>
       <c r="C27">
-        <v>139061.5207179791</v>
+        <v>135215.6037910624</v>
       </c>
       <c r="D27">
         <v>359.173961</v>
       </c>
       <c r="E27">
-        <v>365.4828320036598</v>
+        <v>365.7829363342203</v>
       </c>
       <c r="F27">
-        <v>2694.097581216671</v>
+        <v>2619.361340233094</v>
       </c>
       <c r="G27">
         <v>308.15</v>
       </c>
       <c r="H27">
-        <v>-916638320.9931155</v>
+        <v>-891351908.4782076</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>491765370.1798657</v>
+        <v>478123438.4735383</v>
       </c>
       <c r="K27">
-        <v>1945.987302402186</v>
+        <v>1892.004580647784</v>
       </c>
       <c r="L27">
-        <v>586605804.0326687</v>
+        <v>570389276.6440544</v>
       </c>
       <c r="M27">
         <v>375</v>
       </c>
       <c r="N27">
-        <v>-2733.18566728708</v>
+        <v>-2657.362819289212</v>
       </c>
       <c r="O27">
-        <v>-274645775.1686316</v>
+        <v>-269460218.2882962</v>
       </c>
       <c r="P27">
-        <v>-1061.9996391938</v>
+        <v>-1032.347772178355</v>
       </c>
       <c r="Q27">
         <v>-0</v>
       </c>
       <c r="R27">
-        <v>629308023.8947141</v>
+        <v>629306949.9933327</v>
       </c>
       <c r="S27">
-        <v>347.5874317781087</v>
+        <v>347.601938759134</v>
       </c>
       <c r="T27">
-        <v>-63184.92428026799</v>
+        <v>-62021.5225000004</v>
       </c>
       <c r="U27">
-        <v>-369321.2803956819</v>
+        <v>-359031.6231164807</v>
       </c>
       <c r="V27">
-        <v>330.2010430709027</v>
+        <v>330.0358836521929</v>
       </c>
       <c r="W27">
         <v>325</v>
@@ -2362,67 +2362,67 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>675404.8700795652</v>
+        <v>656714.6570446936</v>
       </c>
       <c r="C28">
-        <v>138871.7425704914</v>
+        <v>135037.5225122116</v>
       </c>
       <c r="D28">
         <v>379.173961</v>
       </c>
       <c r="E28">
-        <v>365.4957965571178</v>
+        <v>365.7950532772246</v>
       </c>
       <c r="F28">
-        <v>2690.427578534621</v>
+        <v>2615.917848590568</v>
       </c>
       <c r="G28">
         <v>308.15</v>
       </c>
       <c r="H28">
-        <v>-915105035.9706762</v>
+        <v>-889901719.7248553</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>491095468.5994321</v>
+        <v>477494882.9400994</v>
       </c>
       <c r="K28">
-        <v>1943.336423901821</v>
+        <v>1889.517312233713</v>
       </c>
       <c r="L28">
-        <v>585803546.0262667</v>
+        <v>569636470.0679194</v>
       </c>
       <c r="M28">
         <v>375</v>
       </c>
       <c r="N28">
-        <v>-2729.459957984322</v>
+        <v>-2653.865866228134</v>
       </c>
       <c r="O28">
-        <v>-273137432.3020898</v>
+        <v>-268008234.9855242</v>
       </c>
       <c r="P28">
-        <v>-1060.930608161925</v>
+        <v>-1031.359117695274</v>
       </c>
       <c r="Q28">
         <v>-0</v>
       </c>
       <c r="R28">
-        <v>629327961.094138</v>
+        <v>629326361.6404955</v>
       </c>
       <c r="S28">
-        <v>347.5593482110727</v>
+        <v>347.573713074975</v>
       </c>
       <c r="T28">
-        <v>-62809.63758460723</v>
+        <v>-61660.06068578135</v>
       </c>
       <c r="U28">
-        <v>-368950.2318225566</v>
+        <v>-358688.7032993531</v>
       </c>
       <c r="V28">
-        <v>330.1958020043137</v>
+        <v>330.0310560075476</v>
       </c>
       <c r="W28">
         <v>325</v>
@@ -2433,67 +2433,67 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>674499.9722754795</v>
+        <v>655860.4713804317</v>
       </c>
       <c r="C29">
-        <v>138685.0558936295</v>
+        <v>134861.2127605004</v>
       </c>
       <c r="D29">
         <v>399.173961</v>
       </c>
       <c r="E29">
-        <v>365.5085106800589</v>
+        <v>365.8070065890402</v>
       </c>
       <c r="F29">
-        <v>2686.828467738735</v>
+        <v>2612.520859055584</v>
       </c>
       <c r="G29">
         <v>308.15</v>
       </c>
       <c r="H29">
-        <v>-913585006.7372552</v>
+        <v>-888463154.7006398</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>490438507.223869</v>
+        <v>476874815.6389685</v>
       </c>
       <c r="K29">
-        <v>1940.736751243127</v>
+        <v>1887.06363271132</v>
       </c>
       <c r="L29">
-        <v>585014563.4023373</v>
+        <v>568891384.7075269</v>
       </c>
       <c r="M29">
         <v>375</v>
       </c>
       <c r="N29">
-        <v>-2725.795957400969</v>
+        <v>-2650.424705317457</v>
       </c>
       <c r="O29">
-        <v>-271677956.634842</v>
+        <v>-266602169.2478352</v>
       </c>
       <c r="P29">
-        <v>-1059.895480830164</v>
+        <v>-1030.401598052322</v>
       </c>
       <c r="Q29">
         <v>-0</v>
       </c>
       <c r="R29">
-        <v>629347838.3456055</v>
+        <v>629345696.4054855</v>
       </c>
       <c r="S29">
-        <v>347.5304728064556</v>
+        <v>347.544712304747</v>
       </c>
       <c r="T29">
-        <v>-62446.48507087296</v>
+        <v>-61310.00048563518</v>
       </c>
       <c r="U29">
-        <v>-368590.9797408548</v>
+        <v>-358356.6158985327</v>
       </c>
       <c r="V29">
-        <v>330.1907272600678</v>
+        <v>330.0263804922787</v>
       </c>
       <c r="W29">
         <v>325</v>
@@ -2504,67 +2504,67 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>673609.4304082505</v>
+        <v>655021.904730791</v>
       </c>
       <c r="C30">
-        <v>138500.8648520095</v>
+        <v>134687.6129873457</v>
       </c>
       <c r="D30">
         <v>419.173961</v>
       </c>
       <c r="E30">
-        <v>365.5210149449122</v>
+        <v>365.8187323029567</v>
       </c>
       <c r="F30">
-        <v>2683.28876358878</v>
+        <v>2609.188550209633</v>
       </c>
       <c r="G30">
         <v>308.15</v>
       </c>
       <c r="H30">
-        <v>-912077995.4210225</v>
+        <v>-887031927.7490134</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>489792389.6022335</v>
+        <v>476266554.7858325</v>
       </c>
       <c r="K30">
-        <v>1938.179988530656</v>
+        <v>1884.656672651445</v>
       </c>
       <c r="L30">
-        <v>584236341.2792581</v>
+        <v>568157971.1945088</v>
       </c>
       <c r="M30">
         <v>375</v>
       </c>
       <c r="N30">
-        <v>-2722.191858162856</v>
+        <v>-2647.027058751399</v>
       </c>
       <c r="O30">
-        <v>-270266281.3115013</v>
+        <v>-265239125.0528904</v>
       </c>
       <c r="P30">
-        <v>-1058.893063566302</v>
+        <v>-1029.470666753696</v>
       </c>
       <c r="Q30">
         <v>-0</v>
       </c>
       <c r="R30">
-        <v>629367655.3489373</v>
+        <v>629364977.8595312</v>
       </c>
       <c r="S30">
-        <v>347.5008424340369</v>
+        <v>347.514919463556</v>
       </c>
       <c r="T30">
-        <v>-62095.20366284713</v>
+        <v>-60970.64387396856</v>
       </c>
       <c r="U30">
-        <v>-368243.1064846173</v>
+        <v>-358033.7755042936</v>
       </c>
       <c r="V30">
-        <v>330.1858129810434</v>
+        <v>330.0218348986219</v>
       </c>
       <c r="W30">
         <v>325</v>
@@ -2575,67 +2575,67 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>672731.537970093</v>
+        <v>654193.3628973255</v>
       </c>
       <c r="C31">
-        <v>138318.8179853715</v>
+        <v>134515.5735326526</v>
       </c>
       <c r="D31">
         <v>439.173961</v>
       </c>
       <c r="E31">
-        <v>365.5333333274528</v>
+        <v>365.8303088492385</v>
       </c>
       <c r="F31">
-        <v>2679.801679024946</v>
+        <v>2605.898633091599</v>
       </c>
       <c r="G31">
         <v>308.15</v>
       </c>
       <c r="H31">
-        <v>-910580512.248275</v>
+        <v>-885609309.7970346</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>489155876.8629259</v>
+        <v>475666031.8795016</v>
       </c>
       <c r="K31">
-        <v>1935.661233407618</v>
+        <v>1882.28033252144</v>
       </c>
       <c r="L31">
-        <v>583467391.5785164</v>
+        <v>567431380.9640554</v>
       </c>
       <c r="M31">
         <v>375</v>
       </c>
       <c r="N31">
-        <v>-2718.638179045179</v>
+        <v>-2643.676121194341</v>
       </c>
       <c r="O31">
-        <v>-268898445.8265845</v>
+        <v>-263926203.3110875</v>
       </c>
       <c r="P31">
-        <v>-1057.920085992237</v>
+        <v>-1028.567298908456</v>
       </c>
       <c r="Q31">
         <v>-0</v>
       </c>
       <c r="R31">
-        <v>629387414.5527263</v>
+        <v>629384201.1114488</v>
       </c>
       <c r="S31">
-        <v>347.4704265674146</v>
+        <v>347.4843551752235</v>
       </c>
       <c r="T31">
-        <v>-61754.81445257035</v>
+        <v>-60643.78365583107</v>
       </c>
       <c r="U31">
-        <v>-367905.4712635892</v>
+        <v>-357720.5190958774</v>
       </c>
       <c r="V31">
-        <v>330.1810431297834</v>
+        <v>330.0174239873838</v>
       </c>
       <c r="W31">
         <v>325</v>
@@ -2646,67 +2646,67 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>671865.8306590292</v>
+        <v>653376.6012279904</v>
       </c>
       <c r="C32">
-        <v>138138.8198002611</v>
+        <v>134345.457327141</v>
       </c>
       <c r="D32">
         <v>459.173961</v>
       </c>
       <c r="E32">
-        <v>365.5454723520228</v>
+        <v>365.8417116500326</v>
       </c>
       <c r="F32">
-        <v>2676.365367140977</v>
+        <v>2602.658092444552</v>
       </c>
       <c r="G32">
         <v>308.15</v>
       </c>
       <c r="H32">
-        <v>-909091942.8247367</v>
+        <v>-884194723.43372</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>488528631.8821</v>
+        <v>475074521.8755624</v>
       </c>
       <c r="K32">
-        <v>1933.179151833611</v>
+        <v>1879.939657464932</v>
       </c>
       <c r="L32">
-        <v>582707309.6714014</v>
+        <v>566713142.3740019</v>
       </c>
       <c r="M32">
         <v>375</v>
       </c>
       <c r="N32">
-        <v>-2715.132837071569</v>
+        <v>-2640.369825142585</v>
       </c>
       <c r="O32">
-        <v>-267572952.703833</v>
+        <v>-262653400.5178211</v>
       </c>
       <c r="P32">
-        <v>-1056.975626431722</v>
+        <v>-1027.690536432146</v>
       </c>
       <c r="Q32">
         <v>-0</v>
       </c>
       <c r="R32">
-        <v>629407118.6352513</v>
+        <v>629403371.3888513</v>
       </c>
       <c r="S32">
-        <v>347.4392338118973</v>
+        <v>347.4530315881076</v>
       </c>
       <c r="T32">
-        <v>-61424.94620214878</v>
+        <v>-60326.89532076684</v>
       </c>
       <c r="U32">
-        <v>-367577.7507666131</v>
+        <v>-357416.5103148562</v>
       </c>
       <c r="V32">
-        <v>330.1764131845131</v>
+        <v>330.013143077235</v>
       </c>
       <c r="W32">
         <v>325</v>
@@ -2717,67 +2717,67 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>671012.393508048</v>
+        <v>652570.4183323116</v>
       </c>
       <c r="C33">
-        <v>137960.8885582934</v>
+        <v>134177.0196441347</v>
       </c>
       <c r="D33">
         <v>479.173961</v>
       </c>
       <c r="E33">
-        <v>365.5574308319198</v>
+        <v>365.852957594969</v>
       </c>
       <c r="F33">
-        <v>2672.9801638489</v>
+        <v>2599.462128421267</v>
       </c>
       <c r="G33">
         <v>308.15</v>
       </c>
       <c r="H33">
-        <v>-907613028.3187352</v>
+        <v>-882789648.2873534</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>487910715.9752416</v>
+        <v>474491148.6369872</v>
       </c>
       <c r="K33">
-        <v>1930.733986455188</v>
+        <v>1877.631180514748</v>
       </c>
       <c r="L33">
-        <v>581956171.4645435</v>
+        <v>566002224.0895591</v>
       </c>
       <c r="M33">
         <v>375</v>
       </c>
       <c r="N33">
-        <v>-2711.676617622655</v>
+        <v>-2637.11206576325</v>
       </c>
       <c r="O33">
-        <v>-266287438.3999022</v>
+        <v>-261416848.2424759</v>
       </c>
       <c r="P33">
-        <v>-1056.059352595184</v>
+        <v>-1026.841661615663</v>
       </c>
       <c r="Q33">
         <v>-0</v>
       </c>
       <c r="R33">
-        <v>629426769.8665295</v>
+        <v>629422484.2905434</v>
       </c>
       <c r="S33">
-        <v>347.4073120535318</v>
+        <v>347.4209671185079</v>
       </c>
       <c r="T33">
-        <v>-61105.00619145317</v>
+        <v>-60018.98893729515</v>
       </c>
       <c r="U33">
-        <v>-367259.8266313839</v>
+        <v>-357122.1927072865</v>
       </c>
       <c r="V33">
-        <v>330.1719215118449</v>
+        <v>330.0089984297438</v>
       </c>
       <c r="W33">
         <v>325</v>
@@ -2788,67 +2788,67 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>670168.257595419</v>
+        <v>651772.6531840743</v>
       </c>
       <c r="C34">
-        <v>137784.4151868376</v>
+        <v>134009.8194801749</v>
       </c>
       <c r="D34">
         <v>499.173961</v>
       </c>
       <c r="E34">
-        <v>365.5692505680995</v>
+        <v>365.8640770244493</v>
       </c>
       <c r="F34">
-        <v>2669.634236160641</v>
+        <v>2596.302118647534</v>
       </c>
       <c r="G34">
         <v>308.15</v>
       </c>
       <c r="H34">
-        <v>-906143178.8452593</v>
+        <v>-881393380.7479984</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>487299969.2154791</v>
+        <v>473914338.284242</v>
       </c>
       <c r="K34">
-        <v>1928.317190178485</v>
+        <v>1875.348673637801</v>
       </c>
       <c r="L34">
-        <v>581211406.7904644</v>
+        <v>565296762.5104783</v>
       </c>
       <c r="M34">
         <v>375</v>
       </c>
       <c r="N34">
-        <v>-2708.268460378008</v>
+        <v>-2633.900426924701</v>
       </c>
       <c r="O34">
-        <v>-265035511.1673968</v>
+        <v>-260214174.3740695</v>
       </c>
       <c r="P34">
-        <v>-1055.171165069169</v>
+        <v>-1026.019593291494</v>
       </c>
       <c r="Q34">
         <v>-0</v>
       </c>
       <c r="R34">
-        <v>629446358.3768249</v>
+        <v>629441528.4184078</v>
       </c>
       <c r="S34">
-        <v>347.3746386194838</v>
+        <v>347.3881732507471</v>
       </c>
       <c r="T34">
-        <v>-60793.3719512217</v>
+        <v>-59719.47120908316</v>
       </c>
       <c r="U34">
-        <v>-366951.6615244634</v>
+        <v>-356837.1866590864</v>
       </c>
       <c r="V34">
-        <v>330.1675676248551</v>
+        <v>330.0049847625076</v>
       </c>
       <c r="W34">
         <v>325</v>
@@ -2859,67 +2859,67 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>669334.702777263</v>
+        <v>650988.1961938402</v>
       </c>
       <c r="C35">
-        <v>137609.6648125668</v>
+        <v>133844.8667722418</v>
       </c>
       <c r="D35">
         <v>519.173961</v>
       </c>
       <c r="E35">
-        <v>365.5809135782675</v>
+        <v>365.8750014345862</v>
       </c>
       <c r="F35">
-        <v>2666.332674491067</v>
+        <v>2593.1975311081</v>
       </c>
       <c r="G35">
         <v>308.15</v>
       </c>
       <c r="H35">
-        <v>-904682134.4545084</v>
+        <v>-880003275.8521413</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>486697320.7784184</v>
+        <v>473347644.3934081</v>
       </c>
       <c r="K35">
-        <v>1925.932439865813</v>
+        <v>1873.106198759994</v>
       </c>
       <c r="L35">
-        <v>580474131.7388866</v>
+        <v>564601009.2659698</v>
       </c>
       <c r="M35">
         <v>375</v>
       </c>
       <c r="N35">
-        <v>-2704.907021359556</v>
+        <v>-2630.725864731098</v>
       </c>
       <c r="O35">
-        <v>-263815685.0179996</v>
+        <v>-259040977.8609084</v>
       </c>
       <c r="P35">
-        <v>-1054.310287088356</v>
+        <v>-1025.220299533203</v>
       </c>
       <c r="Q35">
         <v>-0</v>
       </c>
       <c r="R35">
-        <v>629465881.509393</v>
+        <v>629460524.1902156</v>
       </c>
       <c r="S35">
-        <v>347.3412330393238</v>
+        <v>347.3546896356494</v>
       </c>
       <c r="T35">
-        <v>-60489.6758801501</v>
+        <v>-59427.25984628274</v>
       </c>
       <c r="U35">
-        <v>-366652.9820144874</v>
+        <v>-356560.0848137609</v>
       </c>
       <c r="V35">
-        <v>330.1633477120989</v>
+        <v>330.0010823784265</v>
       </c>
       <c r="W35">
         <v>325</v>
@@ -2930,67 +2930,67 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>668512.4833658705</v>
+        <v>650213.4715514045</v>
       </c>
       <c r="C36">
-        <v>137436.795654191</v>
+        <v>133681.4302783663</v>
       </c>
       <c r="D36">
         <v>539.173961</v>
       </c>
       <c r="E36">
-        <v>365.5924092628094</v>
+        <v>365.885781014485</v>
       </c>
       <c r="F36">
-        <v>2663.078479368358</v>
+        <v>2590.13410265644</v>
       </c>
       <c r="G36">
         <v>308.15</v>
       </c>
       <c r="H36">
-        <v>-903225714.3157136</v>
+        <v>-878618821.7702274</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>486103318.3635415</v>
+        <v>472788463.4502033</v>
       </c>
       <c r="K36">
-        <v>1923.581902833637</v>
+        <v>1870.893453466264</v>
       </c>
       <c r="L36">
-        <v>579745004.1073091</v>
+        <v>563911877.4322097</v>
       </c>
       <c r="M36">
         <v>375</v>
       </c>
       <c r="N36">
-        <v>-2701.579691880266</v>
+        <v>-2627.587150057112</v>
       </c>
       <c r="O36">
-        <v>-262625410.9085321</v>
+        <v>-257895581.9272544</v>
       </c>
       <c r="P36">
-        <v>-1053.471755670898</v>
+        <v>-1024.44343565935</v>
       </c>
       <c r="Q36">
         <v>-0</v>
       </c>
       <c r="R36">
-        <v>629485353.820078</v>
+        <v>629479477.3666724</v>
       </c>
       <c r="S36">
-        <v>347.3070995596084</v>
+        <v>347.320506593016</v>
       </c>
       <c r="T36">
-        <v>-60193.30722102497</v>
+        <v>-59141.93091258747</v>
       </c>
       <c r="U36">
-        <v>-366362.0569973198</v>
+        <v>-356290.7636532265</v>
       </c>
       <c r="V36">
-        <v>330.1592374336518</v>
+        <v>329.9972895939612</v>
       </c>
       <c r="W36">
         <v>325</v>
@@ -3001,67 +3001,67 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>667698.1978404643</v>
+        <v>649444.9696936137</v>
       </c>
       <c r="C37">
-        <v>137265.1105364036</v>
+        <v>133518.7928964783</v>
       </c>
       <c r="D37">
         <v>559.173961</v>
       </c>
       <c r="E37">
-        <v>365.6037855396</v>
+        <v>365.8964650262968</v>
       </c>
       <c r="F37">
-        <v>2659.858086210798</v>
+        <v>2587.097833563701</v>
       </c>
       <c r="G37">
         <v>308.15</v>
       </c>
       <c r="H37">
-        <v>-901775539.077062</v>
+        <v>-877239411.7248954</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>485515485.9686448</v>
+        <v>472234240.0231209</v>
       </c>
       <c r="K37">
-        <v>1921.25578125401</v>
+        <v>1868.700325619221</v>
       </c>
       <c r="L37">
-        <v>579021084.7359219</v>
+        <v>563226337.9554822</v>
       </c>
       <c r="M37">
         <v>375</v>
       </c>
       <c r="N37">
-        <v>-2698.291055961622</v>
+        <v>-2624.481730326345</v>
       </c>
       <c r="O37">
-        <v>-261463392.3574983</v>
+        <v>-256779014.8439509</v>
       </c>
       <c r="P37">
-        <v>-1052.657240853705</v>
+        <v>-1023.68767723533</v>
       </c>
       <c r="Q37">
         <v>-0</v>
       </c>
       <c r="R37">
-        <v>629504769.6390691</v>
+        <v>629498380.8559678</v>
       </c>
       <c r="S37">
-        <v>347.2722474216064</v>
+        <v>347.2856499553033</v>
       </c>
       <c r="T37">
-        <v>-59903.92545707928</v>
+        <v>-58863.7519104357</v>
       </c>
       <c r="U37">
-        <v>-366079.4646012557</v>
+        <v>-356028.7582467346</v>
       </c>
       <c r="V37">
-        <v>330.155244978349</v>
+        <v>329.9935999377764</v>
       </c>
       <c r="W37">
         <v>325</v>
@@ -3072,67 +3072,67 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>666893.1072961122</v>
+        <v>648684.0293066851</v>
       </c>
       <c r="C38">
-        <v>137094.8720999112</v>
+        <v>133357.2352733847</v>
       </c>
       <c r="D38">
         <v>579.173961</v>
       </c>
       <c r="E38">
-        <v>365.6150246962511</v>
+        <v>365.9070347698147</v>
       </c>
       <c r="F38">
-        <v>2656.676509043468</v>
+        <v>2584.094038220203</v>
       </c>
       <c r="G38">
         <v>308.15</v>
       </c>
       <c r="H38">
-        <v>-900329752.4492604</v>
+        <v>-875863392.8853846</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>484934738.825573</v>
+        <v>471685944.1709816</v>
       </c>
       <c r="K38">
-        <v>1918.957696801152</v>
+        <v>1866.530653846621</v>
       </c>
       <c r="L38">
-        <v>578303474.8664871</v>
+        <v>562545566.0559633</v>
       </c>
       <c r="M38">
         <v>375</v>
       </c>
       <c r="N38">
-        <v>-2695.034392964267</v>
+        <v>-2621.402340791251</v>
       </c>
       <c r="O38">
-        <v>-260328581.0305667</v>
+        <v>-255693387.5612208</v>
       </c>
       <c r="P38">
-        <v>-1051.863600736169</v>
+        <v>-1022.949156015329</v>
       </c>
       <c r="Q38">
         <v>-0</v>
       </c>
       <c r="R38">
-        <v>629524136.3595506</v>
+        <v>629517241.625759</v>
       </c>
       <c r="S38">
-        <v>347.2367159867104</v>
+        <v>347.2501995365999</v>
       </c>
       <c r="T38">
-        <v>-59621.28708821459</v>
+        <v>-58593.28451746294</v>
       </c>
       <c r="U38">
-        <v>-365804.1073563073</v>
+        <v>-355772.7176027699</v>
       </c>
       <c r="V38">
-        <v>330.1513549350403</v>
+        <v>329.9899945103075</v>
       </c>
       <c r="W38">
         <v>325</v>
@@ -3143,67 +3143,67 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>666093.1904082445</v>
+        <v>647928.6495079118</v>
       </c>
       <c r="C39">
-        <v>136925.257222071</v>
+        <v>133196.3502969408</v>
       </c>
       <c r="D39">
         <v>599.173961</v>
       </c>
       <c r="E39">
-        <v>365.6261833747628</v>
+        <v>365.917518396882</v>
       </c>
       <c r="F39">
-        <v>2653.517713660374</v>
+        <v>2581.114716190673</v>
       </c>
       <c r="G39">
         <v>308.15</v>
       </c>
       <c r="H39">
-        <v>-898889011.8525604</v>
+        <v>-874494132.2831438</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>484358150.1408424</v>
+        <v>471142115.5394754</v>
       </c>
       <c r="K39">
-        <v>1916.676067814285</v>
+        <v>1864.378659364969</v>
       </c>
       <c r="L39">
-        <v>577588698.4550029</v>
+        <v>561867848.8510749</v>
       </c>
       <c r="M39">
         <v>375</v>
       </c>
       <c r="N39">
-        <v>-2691.809045842751</v>
+        <v>-2618.358865066709</v>
       </c>
       <c r="O39">
-        <v>-259230223.7559195</v>
+        <v>-254634891.7978165</v>
       </c>
       <c r="P39">
-        <v>-1051.089408866801</v>
+        <v>-1022.231642548377</v>
       </c>
       <c r="Q39">
         <v>-0</v>
       </c>
       <c r="R39">
-        <v>629543444.2623197</v>
+        <v>629536046.8334093</v>
       </c>
       <c r="S39">
-        <v>347.2005929892704</v>
+        <v>347.2141625938479</v>
       </c>
       <c r="T39">
-        <v>-59347.73741235874</v>
+        <v>-58329.53699463067</v>
       </c>
       <c r="U39">
-        <v>-365535.484811559</v>
+        <v>-355523.950621304</v>
       </c>
       <c r="V39">
-        <v>330.1475603025078</v>
+        <v>329.9864917283569</v>
       </c>
       <c r="W39">
         <v>325</v>
@@ -3214,67 +3214,67 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>665300.2383787541</v>
+        <v>647180.7910943833</v>
       </c>
       <c r="C40">
-        <v>136756.6375944586</v>
+        <v>133036.5464647353</v>
       </c>
       <c r="D40">
         <v>619.173961</v>
       </c>
       <c r="E40">
-        <v>365.6372364333461</v>
+        <v>365.9278885023677</v>
       </c>
       <c r="F40">
-        <v>2650.388817194143</v>
+        <v>2578.167655692049</v>
       </c>
       <c r="G40">
         <v>308.15</v>
       </c>
       <c r="H40">
-        <v>-897453269.6355449</v>
+        <v>-873129687.8315833</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>483787019.0356818</v>
+        <v>470604175.7457752</v>
       </c>
       <c r="K40">
-        <v>1914.416035066508</v>
+        <v>1862.249967678691</v>
       </c>
       <c r="L40">
-        <v>576878322.7898055</v>
+        <v>561194904.2923267</v>
       </c>
       <c r="M40">
         <v>375</v>
       </c>
       <c r="N40">
-        <v>-2688.615575627459</v>
+        <v>-2615.346011370132</v>
       </c>
       <c r="O40">
-        <v>-258165626.3480505</v>
+        <v>-253601285.6519856</v>
       </c>
       <c r="P40">
-        <v>-1050.335197857066</v>
+        <v>-1021.533303963906</v>
       </c>
       <c r="Q40">
         <v>-0</v>
       </c>
       <c r="R40">
-        <v>629562690.9530361</v>
+        <v>629554798.1494325</v>
       </c>
       <c r="S40">
-        <v>347.1638557708892</v>
+        <v>347.1775221779498</v>
       </c>
       <c r="T40">
-        <v>-59082.59240809088</v>
+        <v>-58071.95770452266</v>
       </c>
       <c r="U40">
-        <v>-365273.7786461463</v>
+        <v>-355281.8149070572</v>
       </c>
       <c r="V40">
-        <v>330.1438636940114</v>
+        <v>329.9830826397762</v>
       </c>
       <c r="W40">
         <v>325</v>
@@ -3285,67 +3285,67 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>664516.7266844122</v>
+        <v>646439.4184917294</v>
       </c>
       <c r="C41">
-        <v>136589.526006719</v>
+        <v>132877.6165121786</v>
       </c>
       <c r="D41">
         <v>639.173961</v>
       </c>
       <c r="E41">
-        <v>365.6481490928973</v>
+        <v>365.9381596841792</v>
       </c>
       <c r="F41">
-        <v>2647.299664885133</v>
+        <v>2575.248708169486</v>
       </c>
       <c r="G41">
         <v>308.15</v>
       </c>
       <c r="H41">
-        <v>-896021254.8138301</v>
+        <v>-871769067.2017043</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>483223142.6047116</v>
+        <v>470071367.5360888</v>
       </c>
       <c r="K41">
-        <v>1912.184709884816</v>
+        <v>1860.141582247009</v>
       </c>
       <c r="L41">
-        <v>576174506.9954002</v>
+        <v>560525852.1168351</v>
       </c>
       <c r="M41">
         <v>375</v>
       </c>
       <c r="N41">
-        <v>-2685.450270112317</v>
+        <v>-2612.359548858813</v>
       </c>
       <c r="O41">
-        <v>-257125903.8294796</v>
+        <v>-252590035.1923856</v>
       </c>
       <c r="P41">
-        <v>-1049.59955999675</v>
+        <v>-1020.851927171407</v>
       </c>
       <c r="Q41">
         <v>-0</v>
       </c>
       <c r="R41">
-        <v>629581889.1455516</v>
+        <v>629573497.3068199</v>
       </c>
       <c r="S41">
-        <v>347.1265018860473</v>
+        <v>347.1403220198013</v>
       </c>
       <c r="T41">
-        <v>-58823.61796900049</v>
+        <v>-57819.92290774783</v>
       </c>
       <c r="U41">
-        <v>-365018.4947812229</v>
+        <v>-355045.5354019242</v>
       </c>
       <c r="V41">
-        <v>330.1402582055844</v>
+        <v>329.9797564317291</v>
       </c>
       <c r="W41">
         <v>325</v>
@@ -3356,67 +3356,67 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>663740.2629680042</v>
+        <v>645704.4293256765</v>
       </c>
       <c r="C42">
-        <v>136423.4339862762</v>
+        <v>132719.54454001</v>
       </c>
       <c r="D42">
         <v>659.173961</v>
       </c>
       <c r="E42">
-        <v>365.6589550986733</v>
+        <v>365.9483334721571</v>
       </c>
       <c r="F42">
-        <v>2644.24070415393</v>
+        <v>2572.357438861456</v>
       </c>
       <c r="G42">
         <v>308.15</v>
       </c>
       <c r="H42">
-        <v>-894595459.0424681</v>
+        <v>-870412688.5887405</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>482664777.1739885</v>
+        <v>469543611.5514999</v>
       </c>
       <c r="K42">
-        <v>1909.975192334176</v>
+        <v>1858.053189036576</v>
       </c>
       <c r="L42">
-        <v>575475193.2229762</v>
+        <v>559860624.0083197</v>
       </c>
       <c r="M42">
         <v>375</v>
       </c>
       <c r="N42">
-        <v>-2682.320094484063</v>
+        <v>-2609.400766867971</v>
       </c>
       <c r="O42">
-        <v>-256110611.649912</v>
+        <v>-251600239.0929222</v>
       </c>
       <c r="P42">
-        <v>-1048.884993912225</v>
+        <v>-1020.18803211763</v>
       </c>
       <c r="Q42">
         <v>-0</v>
       </c>
       <c r="R42">
-        <v>629601033.2237133</v>
+        <v>629592144.1335242</v>
       </c>
       <c r="S42">
-        <v>347.0885487965137</v>
+        <v>347.1025616375373</v>
       </c>
       <c r="T42">
-        <v>-58570.68561083909</v>
+        <v>-57573.20153264599</v>
       </c>
       <c r="U42">
-        <v>-364770.499041344</v>
+        <v>-354815.2886513597</v>
       </c>
       <c r="V42">
-        <v>330.1367560891486</v>
+        <v>329.9765156437193</v>
       </c>
       <c r="W42">
         <v>325</v>
@@ -3427,67 +3427,67 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>662968.7998552583</v>
+        <v>644976.3412601902</v>
       </c>
       <c r="C43">
-        <v>136257.9455412286</v>
+        <v>132562.442674629</v>
       </c>
       <c r="D43">
         <v>679.173961</v>
       </c>
       <c r="E43">
-        <v>365.6696833142678</v>
+        <v>365.9584026930552</v>
       </c>
       <c r="F43">
-        <v>2641.203764291658</v>
+        <v>2569.495886321528</v>
       </c>
       <c r="G43">
         <v>308.15</v>
       </c>
       <c r="H43">
-        <v>-893172890.3184909</v>
+        <v>-869059221.873328</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>482110431.3084204</v>
+        <v>469021279.8980744</v>
       </c>
       <c r="K43">
-        <v>1907.781580639422</v>
+        <v>1855.98626051353</v>
       </c>
       <c r="L43">
-        <v>574778617.4417894</v>
+        <v>559199687.0120037</v>
       </c>
       <c r="M43">
         <v>375</v>
       </c>
       <c r="N43">
-        <v>-2679.214956211119</v>
+        <v>-2606.464903287897</v>
       </c>
       <c r="O43">
-        <v>-255115752.3005504</v>
+        <v>-250637211.3625868</v>
       </c>
       <c r="P43">
-        <v>-1048.18705402181</v>
+        <v>-1019.53941224906</v>
       </c>
       <c r="Q43">
         <v>-0</v>
       </c>
       <c r="R43">
-        <v>629620119.5537785</v>
+        <v>629610746.0136148</v>
       </c>
       <c r="S43">
-        <v>347.0500346293836</v>
+        <v>347.0642682398151</v>
       </c>
       <c r="T43">
-        <v>-58322.81463647872</v>
+        <v>-57333.15222506148</v>
       </c>
       <c r="U43">
-        <v>-364528.2392878926</v>
+        <v>-354590.3016218648</v>
       </c>
       <c r="V43">
-        <v>330.1333355406629</v>
+        <v>329.973349495937</v>
       </c>
       <c r="W43">
         <v>325</v>
@@ -3498,67 +3498,67 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>662204.8289611548</v>
+        <v>644254.1782455271</v>
       </c>
       <c r="C44">
-        <v>136093.57700802</v>
+        <v>132406.1148943895</v>
       </c>
       <c r="D44">
         <v>699.173961</v>
       </c>
       <c r="E44">
-        <v>365.6802987396717</v>
+        <v>365.968381140133</v>
       </c>
       <c r="F44">
-        <v>2638.198753093784</v>
+        <v>2566.660130660566</v>
       </c>
       <c r="G44">
         <v>308.15</v>
       </c>
       <c r="H44">
-        <v>-891752255.4226732</v>
+        <v>-867712119.4521915</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>481561913.5210842</v>
+        <v>468503657.0613682</v>
       </c>
       <c r="K44">
-        <v>1905.61103129629</v>
+        <v>1853.93796530878</v>
       </c>
       <c r="L44">
-        <v>574086954.0936691</v>
+        <v>558542218.5278003</v>
       </c>
       <c r="M44">
         <v>375</v>
       </c>
       <c r="N44">
-        <v>-2676.131420728965</v>
+        <v>-2603.561967349115</v>
       </c>
       <c r="O44">
-        <v>-254143944.8648451</v>
+        <v>-249703040.6373963</v>
       </c>
       <c r="P44">
-        <v>-1047.504594396287</v>
+        <v>-1018.909829235781</v>
       </c>
       <c r="Q44">
         <v>-0</v>
       </c>
       <c r="R44">
-        <v>629639159.3568693</v>
+        <v>629629294.9646355</v>
       </c>
       <c r="S44">
-        <v>347.0109452982663</v>
+        <v>347.0254544523274</v>
       </c>
       <c r="T44">
-        <v>-58080.67609608542</v>
+        <v>-57100.27981125759</v>
       </c>
       <c r="U44">
-        <v>-364291.312192772</v>
+        <v>-354371.8794095214</v>
       </c>
       <c r="V44">
-        <v>330.1299909410488</v>
+        <v>329.9702763613483</v>
       </c>
       <c r="W44">
         <v>325</v>
@@ -3569,67 +3569,67 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>661446.5844131707</v>
+        <v>643539.7646669898</v>
       </c>
       <c r="C45">
-        <v>135929.9695404869</v>
+        <v>132250.9419506451</v>
       </c>
       <c r="D45">
         <v>719.173961</v>
       </c>
       <c r="E45">
-        <v>365.6908262993989</v>
+        <v>365.9782433216642</v>
       </c>
       <c r="F45">
-        <v>2635.218614928269</v>
+        <v>2563.857416324882</v>
       </c>
       <c r="G45">
         <v>308.15</v>
       </c>
       <c r="H45">
-        <v>-890334337.613479</v>
+        <v>-866369917.0939028</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>481017935.9167209</v>
+        <v>467992065.4017321</v>
       </c>
       <c r="K45">
-        <v>1903.4584479582</v>
+        <v>1851.913536158429</v>
       </c>
       <c r="L45">
-        <v>573398687.7956325</v>
+        <v>557889818.5096576</v>
       </c>
       <c r="M45">
         <v>375</v>
       </c>
       <c r="N45">
-        <v>-2673.070762083624</v>
+        <v>-2600.686803721952</v>
       </c>
       <c r="O45">
-        <v>-253200320.4295697</v>
+        <v>-248791878.9489699</v>
       </c>
       <c r="P45">
-        <v>-1046.83763512412</v>
+        <v>-1018.296926719131</v>
       </c>
       <c r="Q45">
         <v>-0</v>
       </c>
       <c r="R45">
-        <v>629658154.6031812</v>
+        <v>629647796.8277776</v>
       </c>
       <c r="S45">
-        <v>346.9713171271162</v>
+        <v>346.9861473912242</v>
       </c>
       <c r="T45">
-        <v>-57845.56832995654</v>
+        <v>-56873.12039403724</v>
       </c>
       <c r="U45">
-        <v>-364059.7201885299</v>
+        <v>-354159.196573619</v>
       </c>
       <c r="V45">
-        <v>330.1267223862624</v>
+        <v>329.9672847285401</v>
       </c>
       <c r="W45">
         <v>325</v>
@@ -3640,67 +3640,67 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>660694.3805999421</v>
+        <v>642830.9135960306</v>
       </c>
       <c r="C46">
-        <v>135767.1919047062</v>
+        <v>132096.4804355265</v>
       </c>
       <c r="D46">
         <v>739.173961</v>
       </c>
       <c r="E46">
-        <v>365.7012616490233</v>
+        <v>365.9880199746884</v>
       </c>
       <c r="F46">
-        <v>2632.264579625823</v>
+        <v>2561.079008216737</v>
       </c>
       <c r="G46">
         <v>308.15</v>
       </c>
       <c r="H46">
-        <v>-888921056.0244219</v>
+        <v>-865029870.8660816</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>480478722.9816882</v>
+        <v>467484910.4637156</v>
       </c>
       <c r="K46">
-        <v>1901.324718935338</v>
+        <v>1849.906663610704</v>
       </c>
       <c r="L46">
-        <v>572714108.3236971</v>
+        <v>557240608.2941426</v>
       </c>
       <c r="M46">
         <v>375</v>
       </c>
       <c r="N46">
-        <v>-2670.037077300599</v>
+        <v>-2597.830833675923</v>
       </c>
       <c r="O46">
-        <v>-252279735.8641108</v>
+        <v>-247900604.9998963</v>
       </c>
       <c r="P46">
-        <v>-1046.187040856239</v>
+        <v>-1017.6971937085</v>
       </c>
       <c r="Q46">
         <v>-0</v>
       </c>
       <c r="R46">
-        <v>629677104.2324175</v>
+        <v>629666257.0901678</v>
       </c>
       <c r="S46">
-        <v>346.9312060939869</v>
+        <v>346.9463596236632</v>
       </c>
       <c r="T46">
-        <v>-57616.18192333657</v>
+        <v>-56650.90404459744</v>
       </c>
       <c r="U46">
-        <v>-363833.7596082595</v>
+        <v>-353951.0255237594</v>
       </c>
       <c r="V46">
-        <v>330.123534113052</v>
+        <v>329.9643574471768</v>
       </c>
       <c r="W46">
         <v>325</v>
@@ -3711,67 +3711,67 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>659948.4896208158</v>
+        <v>642126.0837749242</v>
       </c>
       <c r="C47">
-        <v>135605.304996409</v>
+        <v>131942.4191873921</v>
       </c>
       <c r="D47">
         <v>759.173961</v>
       </c>
       <c r="E47">
-        <v>365.7116010252491</v>
+        <v>365.99773280021</v>
       </c>
       <c r="F47">
-        <v>2629.337712480462</v>
+        <v>2558.318739161301</v>
       </c>
       <c r="G47">
         <v>308.15</v>
       </c>
       <c r="H47">
-        <v>-887510190.9627198</v>
+        <v>-863691965.8021899</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>479944469.1687452</v>
+        <v>466981066.5260251</v>
       </c>
       <c r="K47">
-        <v>1899.210613713579</v>
+        <v>1847.912893058285</v>
       </c>
       <c r="L47">
-        <v>572033465.9947532</v>
+        <v>556593272.1372772</v>
       </c>
       <c r="M47">
         <v>375</v>
       </c>
       <c r="N47">
-        <v>-2667.023481688771</v>
+        <v>-2594.993377203155</v>
       </c>
       <c r="O47">
-        <v>-251381513.4959867</v>
+        <v>-247028805.7468825</v>
       </c>
       <c r="P47">
-        <v>-1045.55001740323</v>
+        <v>-1017.11008167058</v>
       </c>
       <c r="Q47">
         <v>-0</v>
       </c>
       <c r="R47">
-        <v>629696015.9505999</v>
+        <v>629684675.1059612</v>
       </c>
       <c r="S47">
-        <v>346.8906202819065</v>
+        <v>346.9061134741368</v>
       </c>
       <c r="T47">
-        <v>-57392.36162908901</v>
+        <v>-56433.52829064843</v>
       </c>
       <c r="U47">
-        <v>-363612.4528609456</v>
+        <v>-353747.1701230117</v>
       </c>
       <c r="V47">
-        <v>330.1204124180244</v>
+        <v>329.9614918365328</v>
       </c>
       <c r="W47">
         <v>325</v>
@@ -3782,67 +3782,67 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>659205.6241208916</v>
+        <v>641425.6513769828</v>
       </c>
       <c r="C48">
-        <v>135443.637385395</v>
+        <v>131788.8410401645</v>
       </c>
       <c r="D48">
         <v>779.173961</v>
       </c>
       <c r="E48">
-        <v>365.7218907839654</v>
+        <v>366.007376617645</v>
       </c>
       <c r="F48">
-        <v>2626.42489109299</v>
+        <v>2555.578081418847</v>
       </c>
       <c r="G48">
         <v>308.15</v>
       </c>
       <c r="H48">
-        <v>-886102974.9148669</v>
+        <v>-862355589.8179646</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>479412779.1891897</v>
+        <v>466480802.3267433</v>
       </c>
       <c r="K48">
-        <v>1897.106653846151</v>
+        <v>1845.933287929736</v>
       </c>
       <c r="L48">
-        <v>571353930.2300249</v>
+        <v>555948156.2874902</v>
       </c>
       <c r="M48">
         <v>375</v>
       </c>
       <c r="N48">
-        <v>-2664.03446182221</v>
+        <v>-2592.172741449428</v>
       </c>
       <c r="O48">
-        <v>-250506220.4273725</v>
+        <v>-246175442.909551</v>
       </c>
       <c r="P48">
-        <v>-1044.928671228718</v>
+        <v>-1016.534991998697</v>
       </c>
       <c r="Q48">
         <v>-0</v>
       </c>
       <c r="R48">
-        <v>629714877.7832681</v>
+        <v>629703053.7309591</v>
       </c>
       <c r="S48">
-        <v>346.8495345413185</v>
+        <v>346.8654046421826</v>
       </c>
       <c r="T48">
-        <v>-57174.23850835947</v>
+        <v>-56220.7342779846</v>
       </c>
       <c r="U48">
-        <v>-363396.5285917671</v>
+        <v>-353547.4167604614</v>
       </c>
       <c r="V48">
-        <v>330.1173676326741</v>
+        <v>329.9586849728545</v>
       </c>
       <c r="W48">
         <v>325</v>
@@ -3853,67 +3853,67 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>658465.8425192196</v>
+        <v>640728.4720821863</v>
       </c>
       <c r="C49">
-        <v>135282.2057034888</v>
+        <v>131635.5163793637</v>
       </c>
       <c r="D49">
         <v>799.173961</v>
       </c>
       <c r="E49">
-        <v>365.732130182569</v>
+        <v>366.0169675705552</v>
       </c>
       <c r="F49">
-        <v>2623.526325675007</v>
+        <v>2552.852447195221</v>
       </c>
       <c r="G49">
         <v>308.15</v>
       </c>
       <c r="H49">
-        <v>-884699775.991382</v>
+        <v>-861022528.9820228</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>478883691.4138607</v>
+        <v>465983280.4358135</v>
       </c>
       <c r="K49">
-        <v>1895.012991174027</v>
+        <v>1843.964534404772</v>
       </c>
       <c r="L49">
-        <v>570675568.830109</v>
+        <v>555304290.6123699</v>
       </c>
       <c r="M49">
         <v>375</v>
       </c>
       <c r="N49">
-        <v>-2661.07024119056</v>
+        <v>-2589.372277459306</v>
       </c>
       <c r="O49">
-        <v>-249669319.1083319</v>
+        <v>-245343921.93979</v>
       </c>
       <c r="P49">
-        <v>-1044.322698032829</v>
+        <v>-1015.972343225258</v>
       </c>
       <c r="Q49">
         <v>-0</v>
       </c>
       <c r="R49">
-        <v>629733677.7937473</v>
+        <v>629721387.1062344</v>
       </c>
       <c r="S49">
-        <v>346.807979076402</v>
+        <v>346.8243025366899</v>
       </c>
       <c r="T49">
-        <v>-56965.72898881848</v>
+        <v>-56013.38279805041</v>
       </c>
       <c r="U49">
-        <v>-363185.8758861639</v>
+        <v>-353351.9057958568</v>
       </c>
       <c r="V49">
-        <v>330.1143982625229</v>
+        <v>329.9559388963367</v>
       </c>
       <c r="W49">
         <v>325</v>
@@ -3924,67 +3924,67 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>657734.8589576698</v>
+        <v>640032.6489319009</v>
       </c>
       <c r="C50">
-        <v>135122.1889458194</v>
+        <v>131482.0618142064</v>
       </c>
       <c r="D50">
         <v>819.173961</v>
       </c>
       <c r="E50">
-        <v>365.7422388666848</v>
+        <v>366.0265323453795</v>
       </c>
       <c r="F50">
-        <v>2620.664762912526</v>
+        <v>2550.134252504218</v>
       </c>
       <c r="G50">
         <v>308.15</v>
       </c>
       <c r="H50">
-        <v>-883299602.830274</v>
+        <v>-859691129.1363058</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>478361357.8944679</v>
+        <v>465487116.5151889</v>
       </c>
       <c r="K50">
-        <v>1892.946055857066</v>
+        <v>1842.001154506247</v>
       </c>
       <c r="L50">
-        <v>570003349.7437955</v>
+        <v>554660050.895878</v>
       </c>
       <c r="M50">
         <v>375</v>
       </c>
       <c r="N50">
-        <v>-2658.126647363814</v>
+        <v>-2586.586131186694</v>
       </c>
       <c r="O50">
-        <v>-248853227.7931851</v>
+        <v>-244540035.1233319</v>
       </c>
       <c r="P50">
-        <v>-1043.729932268889</v>
+        <v>-1015.419448253851</v>
       </c>
       <c r="Q50">
         <v>-0</v>
       </c>
       <c r="R50">
-        <v>629752434.1925948</v>
+        <v>629739667.3468329</v>
       </c>
       <c r="S50">
-        <v>346.7659942397987</v>
+        <v>346.7828378501433</v>
       </c>
       <c r="T50">
-        <v>-56762.40003605055</v>
+        <v>-55812.95436568408</v>
       </c>
       <c r="U50">
-        <v>-362979.7356896391</v>
+        <v>-353159.6961593865</v>
       </c>
       <c r="V50">
-        <v>330.1114936851394</v>
+        <v>329.9532404802423</v>
       </c>
       <c r="W50">
         <v>325</v>
@@ -3995,67 +3995,67 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>657008.8181207457</v>
+        <v>639342.2856426468</v>
       </c>
       <c r="C51">
-        <v>134962.7994681312</v>
+        <v>131329.3259292969</v>
       </c>
       <c r="D51">
         <v>839.173961</v>
       </c>
       <c r="E51">
-        <v>365.7522711924333</v>
+        <v>366.0360135179296</v>
       </c>
       <c r="F51">
-        <v>2617.82481569746</v>
+        <v>2547.439816618653</v>
       </c>
       <c r="G51">
         <v>308.15</v>
       </c>
       <c r="H51">
-        <v>-881905243.6260674</v>
+        <v>-858362705.0474054</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>477842969.9551277</v>
+        <v>464995289.3928422</v>
       </c>
       <c r="K51">
-        <v>1890.894733631151</v>
+        <v>1840.054935808825</v>
       </c>
       <c r="L51">
-        <v>569333951.5072441</v>
+        <v>554019017.4410599</v>
       </c>
       <c r="M51">
         <v>375</v>
       </c>
       <c r="N51">
-        <v>-2655.210309641581</v>
+        <v>-2583.818399680882</v>
       </c>
       <c r="O51">
-        <v>-248053659.3023908</v>
+        <v>-243754334.9017667</v>
       </c>
       <c r="P51">
-        <v>-1043.152196103847</v>
+        <v>-1014.877978116147</v>
       </c>
       <c r="Q51">
         <v>-0</v>
       </c>
       <c r="R51">
-        <v>629771140.7543353</v>
+        <v>629757900.3560044</v>
       </c>
       <c r="S51">
-        <v>346.7236392601374</v>
+        <v>346.7410064464636</v>
       </c>
       <c r="T51">
-        <v>-56563.1539673208</v>
+        <v>-55617.05221389959</v>
       </c>
       <c r="U51">
-        <v>-362778.7372513312</v>
+        <v>-352971.3643512691</v>
       </c>
       <c r="V51">
-        <v>330.1086628328242</v>
+        <v>329.9505978869332</v>
       </c>
       <c r="W51">
         <v>325</v>
@@ -4066,67 +4066,67 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>656286.0812184174</v>
+        <v>638657.2355700237</v>
       </c>
       <c r="C52">
-        <v>134803.7063675867</v>
+        <v>131177.2842667341</v>
       </c>
       <c r="D52">
         <v>859.173961</v>
       </c>
       <c r="E52">
-        <v>365.7622502967685</v>
+        <v>366.0454132507847</v>
       </c>
       <c r="F52">
-        <v>2614.999934426002</v>
+        <v>2544.768524965496</v>
       </c>
       <c r="G52">
         <v>308.15</v>
       </c>
       <c r="H52">
-        <v>-880513068.552211</v>
+        <v>-857038569.6512086</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>477327332.0681195</v>
+        <v>464507686.8880808</v>
       </c>
       <c r="K52">
-        <v>1888.854293654305</v>
+        <v>1838.125434395626</v>
       </c>
       <c r="L52">
-        <v>568665969.3754436</v>
+        <v>553381086.152684</v>
       </c>
       <c r="M52">
         <v>375</v>
       </c>
       <c r="N52">
-        <v>-2652.310579281363</v>
+        <v>-2581.072153085934</v>
       </c>
       <c r="O52">
-        <v>-247268626.4808455</v>
+        <v>-242986178.0489361</v>
       </c>
       <c r="P52">
-        <v>-1042.585429951259</v>
+        <v>-1014.348747770555</v>
       </c>
       <c r="Q52">
         <v>-0</v>
       </c>
       <c r="R52">
-        <v>629789795.5908154</v>
+        <v>629776088.0236789</v>
       </c>
       <c r="S52">
-        <v>346.6809059318657</v>
+        <v>346.6988391884216</v>
       </c>
       <c r="T52">
-        <v>-56367.51060877584</v>
+        <v>-55425.50909949688</v>
       </c>
       <c r="U52">
-        <v>-362581.4620221747</v>
+        <v>-352787.1886515402</v>
       </c>
       <c r="V52">
-        <v>330.1058857978831</v>
+        <v>329.9480150951034</v>
       </c>
       <c r="W52">
         <v>325</v>
@@ -4137,67 +4137,67 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>655568.5275779322</v>
+        <v>637976.7311897753</v>
       </c>
       <c r="C53">
-        <v>134645.3010337643</v>
+        <v>131025.784544891</v>
       </c>
       <c r="D53">
         <v>879.173961</v>
       </c>
       <c r="E53">
-        <v>365.7721498082269</v>
+        <v>366.0547424126167</v>
       </c>
       <c r="F53">
-        <v>2612.197584317009</v>
+        <v>2542.11728879097</v>
       </c>
       <c r="G53">
         <v>308.15</v>
       </c>
       <c r="H53">
-        <v>-879121606.1398934</v>
+        <v>-855719160.7122273</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>476815806.8923684</v>
+        <v>464023745.1972191</v>
       </c>
       <c r="K53">
-        <v>1886.830128132697</v>
+        <v>1836.210419233326</v>
       </c>
       <c r="L53">
-        <v>568001049.4550124</v>
+        <v>552745615.0668716</v>
       </c>
       <c r="M53">
         <v>375</v>
       </c>
       <c r="N53">
-        <v>-2649.423017278823</v>
+        <v>-2578.349985899497</v>
       </c>
       <c r="O53">
-        <v>-246498110.1583338</v>
+        <v>-242242151.8085015</v>
       </c>
       <c r="P53">
-        <v>-1042.02788597263</v>
+        <v>-1013.833342199177</v>
       </c>
       <c r="Q53">
         <v>-0</v>
       </c>
       <c r="R53">
-        <v>629808410.0586582</v>
+        <v>629794225.8589724</v>
       </c>
       <c r="S53">
-        <v>346.6377951335127</v>
+        <v>346.656293756981</v>
       </c>
       <c r="T53">
-        <v>-56175.4805069007</v>
+        <v>-55239.98254345183</v>
       </c>
       <c r="U53">
-        <v>-362387.2962358391</v>
+        <v>-352607.7155416743</v>
       </c>
       <c r="V53">
-        <v>330.1031540086385</v>
+        <v>329.9454998489594</v>
       </c>
       <c r="W53">
         <v>325</v>
@@ -4208,67 +4208,67 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>654854.7545860674</v>
+        <v>637300.001540483</v>
       </c>
       <c r="C54">
-        <v>134487.2991772949</v>
+        <v>130874.6748245776</v>
       </c>
       <c r="D54">
         <v>899.173961</v>
       </c>
       <c r="E54">
-        <v>365.7819895876884</v>
+        <v>366.0640118996684</v>
       </c>
       <c r="F54">
-        <v>2609.412143170322</v>
+        <v>2539.483011511085</v>
       </c>
       <c r="G54">
         <v>308.15</v>
       </c>
       <c r="H54">
-        <v>-877736589.1509007</v>
+        <v>-854402753.4598124</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>476307368.1831825</v>
+        <v>463542899.0872895</v>
       </c>
       <c r="K54">
-        <v>1884.818176087331</v>
+        <v>1834.307653628973</v>
       </c>
       <c r="L54">
-        <v>567338001.3844826</v>
+        <v>552111955.1046531</v>
       </c>
       <c r="M54">
         <v>375</v>
       </c>
       <c r="N54">
-        <v>-2646.564514209509</v>
+        <v>-2575.64504018278</v>
       </c>
       <c r="O54">
-        <v>-245744487.5661515</v>
+        <v>-241515167.6749637</v>
       </c>
       <c r="P54">
-        <v>-1041.486036280048</v>
+        <v>-1013.328329241858</v>
       </c>
       <c r="Q54">
         <v>-0</v>
       </c>
       <c r="R54">
-        <v>629826970.6812164</v>
+        <v>629812313.5207551</v>
       </c>
       <c r="S54">
-        <v>346.5943204401856</v>
+        <v>346.61342761587</v>
       </c>
       <c r="T54">
-        <v>-55987.62425817783</v>
+        <v>-55058.6997645904</v>
       </c>
       <c r="U54">
-        <v>-362198.4879896876</v>
+        <v>-352431.7442284793</v>
       </c>
       <c r="V54">
-        <v>330.1004992034589</v>
+        <v>329.9430353806586</v>
       </c>
       <c r="W54">
         <v>325</v>
@@ -4279,67 +4279,67 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>654145.436112902</v>
+        <v>636625.5347371295</v>
       </c>
       <c r="C55">
-        <v>134329.8445295903</v>
+        <v>130723.6499515195</v>
       </c>
       <c r="D55">
         <v>919.173961</v>
       </c>
       <c r="E55">
-        <v>365.7917602255865</v>
+        <v>366.0732430107047</v>
       </c>
       <c r="F55">
-        <v>2606.646274626266</v>
+        <v>2536.859640272062</v>
       </c>
       <c r="G55">
         <v>308.15</v>
       </c>
       <c r="H55">
-        <v>-876355202.5833118</v>
+        <v>-853088267.8497635</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>475802502.1464362</v>
+        <v>463064043.7045178</v>
       </c>
       <c r="K55">
-        <v>1882.820361504089</v>
+        <v>1832.412765543761</v>
       </c>
       <c r="L55">
-        <v>566677425.5183092</v>
+        <v>551478817.9667507</v>
       </c>
       <c r="M55">
         <v>375</v>
       </c>
       <c r="N55">
-        <v>-2643.727708586778</v>
+        <v>-2572.95643290049</v>
       </c>
       <c r="O55">
-        <v>-245006440.7044421</v>
+        <v>-240802470.2022059</v>
       </c>
       <c r="P55">
-        <v>-1040.957482348404</v>
+        <v>-1012.834411682206</v>
       </c>
       <c r="Q55">
         <v>-0</v>
       </c>
       <c r="R55">
-        <v>629845474.9929175</v>
+        <v>629830344.7245847</v>
       </c>
       <c r="S55">
-        <v>346.5504459475394</v>
+        <v>346.5701610496594</v>
       </c>
       <c r="T55">
-        <v>-55803.62426847705</v>
+        <v>-54880.95733932109</v>
       </c>
       <c r="U55">
-        <v>-362014.1969229778</v>
+        <v>-352259.5139905931</v>
       </c>
       <c r="V55">
-        <v>330.0979096219934</v>
+        <v>329.9406251275421</v>
       </c>
       <c r="W55">
         <v>325</v>
@@ -4350,67 +4350,67 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>653442.1200714624</v>
+        <v>635955.4968454364</v>
       </c>
       <c r="C56">
-        <v>134173.2595296434</v>
+        <v>130573.1605163774</v>
       </c>
       <c r="D56">
         <v>939.173961</v>
       </c>
       <c r="E56">
-        <v>365.8014400103049</v>
+        <v>366.0824054602302</v>
       </c>
       <c r="F56">
-        <v>2603.906124808609</v>
+        <v>2534.255781850649</v>
       </c>
       <c r="G56">
         <v>308.15</v>
       </c>
       <c r="H56">
-        <v>-874976070.4344887</v>
+        <v>-851775466.1491935</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>475302330.6608807</v>
+        <v>462588750.0813656</v>
       </c>
       <c r="K56">
-        <v>1880.841123784365</v>
+        <v>1830.531971740111</v>
       </c>
       <c r="L56">
-        <v>566020679.618582</v>
+        <v>550848098.9763899</v>
       </c>
       <c r="M56">
         <v>375</v>
       </c>
       <c r="N56">
-        <v>-2640.90994032431</v>
+        <v>-2570.281369066986</v>
       </c>
       <c r="O56">
-        <v>-244282859.6217982</v>
+        <v>-240102925.6226534</v>
       </c>
       <c r="P56">
-        <v>-1040.441836181571</v>
+        <v>-1012.349570038396</v>
       </c>
       <c r="Q56">
         <v>-0</v>
       </c>
       <c r="R56">
-        <v>629863930.2602867</v>
+        <v>629848326.016345</v>
       </c>
       <c r="S56">
-        <v>346.5061234958584</v>
+        <v>346.5265653393254</v>
       </c>
       <c r="T56">
-        <v>-55623.20314255258</v>
+        <v>-54706.48393112067</v>
       </c>
       <c r="U56">
-        <v>-361834.2826448595</v>
+        <v>-352090.3158468058</v>
       </c>
       <c r="V56">
-        <v>330.0953833640974</v>
+        <v>329.9382592210559</v>
       </c>
       <c r="W56">
         <v>325</v>
@@ -4421,67 +4421,67 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>652741.8371702427</v>
+        <v>635289.0031309841</v>
       </c>
       <c r="C57">
-        <v>134016.9391266373</v>
+        <v>130423.0295797661</v>
       </c>
       <c r="D57">
         <v>959.173961</v>
       </c>
       <c r="E57">
-        <v>365.8110708110107</v>
+        <v>366.0915117511709</v>
       </c>
       <c r="F57">
-        <v>2601.179841417383</v>
+        <v>2531.667883071178</v>
       </c>
       <c r="G57">
         <v>308.15</v>
       </c>
       <c r="H57">
-        <v>-873598935.5625912</v>
+        <v>-850464654.497869</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>474804690.2745603</v>
+        <v>462116369.6411964</v>
       </c>
       <c r="K57">
-        <v>1878.87190188705</v>
+        <v>1828.662705718147</v>
       </c>
       <c r="L57">
-        <v>565365206.8434016</v>
+        <v>550219052.6255696</v>
       </c>
       <c r="M57">
         <v>375</v>
       </c>
       <c r="N57">
-        <v>-2638.108925139194</v>
+        <v>-2567.622413842034</v>
       </c>
       <c r="O57">
-        <v>-243573242.3394642</v>
+        <v>-239416445.2874134</v>
       </c>
       <c r="P57">
-        <v>-1039.937531152191</v>
+        <v>-1011.875540382334</v>
       </c>
       <c r="Q57">
         <v>-0</v>
       </c>
       <c r="R57">
-        <v>629882333.0522944</v>
+        <v>629866257.0529561</v>
       </c>
       <c r="S57">
-        <v>346.4614037568937</v>
+        <v>346.4825855811161</v>
       </c>
       <c r="T57">
-        <v>-55446.23998937538</v>
+        <v>-54535.245396684</v>
       </c>
       <c r="U57">
-        <v>-361658.1941772407</v>
+        <v>-351924.7487689128</v>
       </c>
       <c r="V57">
-        <v>330.0929127436444</v>
+        <v>329.9359461442568</v>
       </c>
       <c r="W57">
         <v>325</v>
@@ -4492,67 +4492,67 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>652046.3205461934</v>
+        <v>634627.3791930183</v>
       </c>
       <c r="C58">
-        <v>133861.2432726862</v>
+        <v>130273.5343089595</v>
       </c>
       <c r="D58">
         <v>979.173961</v>
       </c>
       <c r="E58">
-        <v>365.8206283051137</v>
+        <v>366.1005433740117</v>
       </c>
       <c r="F58">
-        <v>2598.47430966151</v>
+        <v>2529.101204102727</v>
       </c>
       <c r="G58">
         <v>308.15</v>
       </c>
       <c r="H58">
-        <v>-872223459.223632</v>
+        <v>-849154914.3830276</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>474310837.7746596</v>
+        <v>461647862.5455911</v>
       </c>
       <c r="K58">
-        <v>1876.917669082694</v>
+        <v>1826.808766961977</v>
       </c>
       <c r="L58">
-        <v>564712524.5805992</v>
+        <v>549592844.1719668</v>
       </c>
       <c r="M58">
         <v>375</v>
       </c>
       <c r="N58">
-        <v>-2635.324522750906</v>
+        <v>-2564.976585497348</v>
       </c>
       <c r="O58">
-        <v>-242876434.4939803</v>
+        <v>-238741629.6684041</v>
       </c>
       <c r="P58">
-        <v>-1039.444901942943</v>
+        <v>-1011.411055424105</v>
       </c>
       <c r="Q58">
         <v>-0</v>
       </c>
       <c r="R58">
-        <v>629900687.7636331</v>
+        <v>629884146.6747588</v>
       </c>
       <c r="S58">
-        <v>346.4162585291551</v>
+        <v>346.438229664165</v>
       </c>
       <c r="T58">
-        <v>-55272.44405174764</v>
+        <v>-54366.8975862819</v>
       </c>
       <c r="U58">
-        <v>-361486.042632513</v>
+        <v>-351762.3657702962</v>
       </c>
       <c r="V58">
-        <v>330.0904994036968</v>
+        <v>329.9336797063783</v>
       </c>
       <c r="W58">
         <v>325</v>
@@ -4563,67 +4563,67 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>651353.9148895805</v>
+        <v>633970.6099512947</v>
       </c>
       <c r="C59">
-        <v>133705.8369744689</v>
+        <v>130124.6756210089</v>
       </c>
       <c r="D59">
         <v>999.173961</v>
       </c>
       <c r="E59">
-        <v>365.8301358620726</v>
+        <v>366.1095006271627</v>
       </c>
       <c r="F59">
-        <v>2595.782914139819</v>
+        <v>2526.555660142952</v>
       </c>
       <c r="G59">
         <v>308.15</v>
       </c>
       <c r="H59">
-        <v>-870850383.5516821</v>
+        <v>-847847666.1526874</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>473819565.6231785</v>
+        <v>461183213.3152084</v>
       </c>
       <c r="K59">
-        <v>1874.97364698875</v>
+        <v>1824.970094216363</v>
       </c>
       <c r="L59">
-        <v>564061213.669623</v>
+        <v>548969479.2201695</v>
       </c>
       <c r="M59">
         <v>375</v>
       </c>
       <c r="N59">
-        <v>-2632.554926832975</v>
+        <v>-2562.348622606855</v>
       </c>
       <c r="O59">
-        <v>-242192406.1427876</v>
+        <v>-238078548.3787797</v>
       </c>
       <c r="P59">
-        <v>-1038.961448250575</v>
+        <v>-1010.958181655042</v>
       </c>
       <c r="Q59">
         <v>-0</v>
       </c>
       <c r="R59">
-        <v>629918993.5735456</v>
+        <v>629901998.3980056</v>
       </c>
       <c r="S59">
-        <v>346.3708220178825</v>
+        <v>346.3934832309886</v>
       </c>
       <c r="T59">
-        <v>-55101.82158092499</v>
+        <v>-54201.4462039988</v>
       </c>
       <c r="U59">
-        <v>-361316.9517474278</v>
+        <v>-351603.8807526281</v>
       </c>
       <c r="V59">
-        <v>330.0881310745185</v>
+        <v>329.9314700018668</v>
       </c>
       <c r="W59">
         <v>325</v>
@@ -4634,67 +4634,67 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>650665.681782182</v>
+        <v>633317.1920761322</v>
       </c>
       <c r="C60">
-        <v>133550.9421666029</v>
+        <v>129976.148892216</v>
       </c>
       <c r="D60">
         <v>1019.173961</v>
       </c>
       <c r="E60">
-        <v>365.8395786192286</v>
+        <v>366.1184046699241</v>
       </c>
       <c r="F60">
-        <v>2593.109862161269</v>
+        <v>2524.025237977029</v>
       </c>
       <c r="G60">
         <v>308.15</v>
       </c>
       <c r="H60">
-        <v>-869479348.9257964</v>
+        <v>-846543693.9598398</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>473331641.7985528</v>
+        <v>460721324.331746</v>
       </c>
       <c r="K60">
-        <v>1873.042874591679</v>
+        <v>1823.142344070686</v>
       </c>
       <c r="L60">
-        <v>563412211.0931443</v>
+        <v>548347672.6491287</v>
       </c>
       <c r="M60">
         <v>375</v>
       </c>
       <c r="N60">
-        <v>-2629.801288032801</v>
+        <v>-2559.74096143576</v>
       </c>
       <c r="O60">
-        <v>-241521348.5334108</v>
+        <v>-237427542.2996123</v>
       </c>
       <c r="P60">
-        <v>-1038.488611857247</v>
+        <v>-1010.517909611508</v>
       </c>
       <c r="Q60">
         <v>-0</v>
       </c>
       <c r="R60">
-        <v>629937252.9942802</v>
+        <v>629919806.3179588</v>
       </c>
       <c r="S60">
-        <v>346.325021399637</v>
+        <v>346.3483450944098</v>
       </c>
       <c r="T60">
-        <v>-54934.41273054254</v>
+        <v>-54038.96984676124</v>
       </c>
       <c r="U60">
-        <v>-361151.4181234697</v>
+        <v>-351449.6329114137</v>
       </c>
       <c r="V60">
-        <v>330.0858148314347</v>
+        <v>329.929321868836</v>
       </c>
       <c r="W60">
         <v>325</v>
@@ -4705,67 +4705,67 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>649981.3759508862</v>
+        <v>632666.6710307032</v>
       </c>
       <c r="C61">
-        <v>133396.5126202661</v>
+        <v>129827.8647839079</v>
       </c>
       <c r="D61">
         <v>1039.173961</v>
       </c>
       <c r="E61">
-        <v>365.8489601073807</v>
+        <v>366.1272619532614</v>
       </c>
       <c r="F61">
-        <v>2590.454154221333</v>
+        <v>2521.508104305165</v>
       </c>
       <c r="G61">
         <v>308.15</v>
       </c>
       <c r="H61">
-        <v>-868111558.4881068</v>
+        <v>-845244736.6271392</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>472846883.8568667</v>
+        <v>460261860.9550049</v>
       </c>
       <c r="K61">
-        <v>1871.124629944649</v>
+        <v>1821.324192322752</v>
       </c>
       <c r="L61">
-        <v>562765321.1621245</v>
+        <v>547727047.3981109</v>
       </c>
       <c r="M61">
         <v>375</v>
       </c>
       <c r="N61">
-        <v>-2627.066256226664</v>
+        <v>-2557.157436786222</v>
       </c>
       <c r="O61">
-        <v>-240865825.1254507</v>
+        <v>-236790075.5253735</v>
       </c>
       <c r="P61">
-        <v>-1038.027002857689</v>
+        <v>-1010.091125294821</v>
       </c>
       <c r="Q61">
         <v>-0</v>
       </c>
       <c r="R61">
-        <v>629955464.5596018</v>
+        <v>629937558.3382596</v>
       </c>
       <c r="S61">
-        <v>346.2788901561678</v>
+        <v>346.3028646170105</v>
       </c>
       <c r="T61">
-        <v>-54770.86405271446</v>
+        <v>-53879.83307366756</v>
       </c>
       <c r="U61">
-        <v>-360989.6485731935</v>
+        <v>-351299.9249390398</v>
       </c>
       <c r="V61">
-        <v>330.0835536639347</v>
+        <v>329.9272396320839</v>
       </c>
       <c r="W61">
         <v>325</v>
@@ -4776,67 +4776,67 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>649300.8846254078</v>
+        <v>632022.264411191</v>
       </c>
       <c r="C62">
-        <v>133242.5294070951</v>
+        <v>129680.4885891282</v>
       </c>
       <c r="D62">
         <v>1059.173961</v>
       </c>
       <c r="E62">
-        <v>365.8582819825517</v>
+        <v>366.1360274134213</v>
       </c>
       <c r="F62">
-        <v>2587.815321546261</v>
+        <v>2519.017065721248</v>
       </c>
       <c r="G62">
         <v>308.15</v>
       </c>
       <c r="H62">
-        <v>-866745493.0007486</v>
+        <v>-843949812.365039</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>472365206.2308048</v>
+        <v>459807160.8283675</v>
       </c>
       <c r="K62">
-        <v>1869.218574438528</v>
+        <v>1819.524889296652</v>
       </c>
       <c r="L62">
-        <v>562120461.0088952</v>
+        <v>547110402.5033478</v>
       </c>
       <c r="M62">
         <v>375</v>
       </c>
       <c r="N62">
-        <v>-2624.346406641242</v>
+        <v>-2554.592213267736</v>
       </c>
       <c r="O62">
-        <v>-240221650.5202812</v>
+        <v>-236163763.8167059</v>
       </c>
       <c r="P62">
-        <v>-1037.575785068157</v>
+        <v>-1009.674260114934</v>
       </c>
       <c r="Q62">
         <v>-0</v>
       </c>
       <c r="R62">
-        <v>629973629.9772147</v>
+        <v>629955263.2833512</v>
       </c>
       <c r="S62">
-        <v>346.2323907446331</v>
+        <v>346.257139899078</v>
       </c>
       <c r="T62">
-        <v>-54610.12213435628</v>
+        <v>-53723.45852518931</v>
       </c>
       <c r="U62">
-        <v>-360831.346480454</v>
+        <v>-351153.5083313484</v>
       </c>
       <c r="V62">
-        <v>330.081343473703</v>
+        <v>329.9252058556262</v>
       </c>
       <c r="W62">
         <v>325</v>
@@ -4847,67 +4847,67 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>648623.725838716</v>
+        <v>631381.264635831</v>
       </c>
       <c r="C63">
-        <v>133088.8968995492</v>
+        <v>129533.4689625958</v>
       </c>
       <c r="D63">
         <v>1079.173961</v>
       </c>
       <c r="E63">
-        <v>365.8675511137473</v>
+        <v>366.1447390936747</v>
       </c>
       <c r="F63">
-        <v>2585.191419647292</v>
+        <v>2516.541310776486</v>
       </c>
       <c r="G63">
         <v>308.15</v>
       </c>
       <c r="H63">
-        <v>-865383857.2922236</v>
+        <v>-842656730.0006425</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>471886253.9843611</v>
+        <v>459355250.4909788</v>
       </c>
       <c r="K63">
-        <v>1867.323303559174</v>
+        <v>1817.736625776331</v>
       </c>
       <c r="L63">
-        <v>561477231.0929582</v>
+        <v>546495409.3033994</v>
       </c>
       <c r="M63">
         <v>375</v>
       </c>
       <c r="N63">
-        <v>-2621.649958009774</v>
+        <v>-2552.041120539318</v>
       </c>
       <c r="O63">
-        <v>-239589595.430151</v>
+        <v>-235547632.3565148</v>
       </c>
       <c r="P63">
-        <v>-1037.138220686984</v>
+        <v>-1009.266751088944</v>
       </c>
       <c r="Q63">
         <v>-0</v>
       </c>
       <c r="R63">
-        <v>629991739.7445878</v>
+        <v>629972922.3067874</v>
       </c>
       <c r="S63">
-        <v>346.1855232756006</v>
+        <v>346.211088770254</v>
       </c>
       <c r="T63">
-        <v>-54452.36229870762</v>
+        <v>-53569.6013627416</v>
       </c>
       <c r="U63">
-        <v>-360677.6420363026</v>
+        <v>-351010.1815005514</v>
       </c>
       <c r="V63">
-        <v>330.0792002582772</v>
+        <v>329.923217794504</v>
       </c>
       <c r="W63">
         <v>325</v>
@@ -4918,67 +4918,67 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>647951.3462686111</v>
+        <v>630744.5612430238</v>
       </c>
       <c r="C64">
-        <v>132935.9163907376</v>
+        <v>129386.9922910227</v>
       </c>
       <c r="D64">
         <v>1099.173961</v>
       </c>
       <c r="E64">
-        <v>365.8767471822702</v>
+        <v>366.153384597707</v>
       </c>
       <c r="F64">
-        <v>2582.588200336185</v>
+        <v>2514.084362348752</v>
       </c>
       <c r="G64">
         <v>308.15</v>
       </c>
       <c r="H64">
-        <v>-864023827.3559569</v>
+        <v>-841367238.6952063</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>471411077.0207978</v>
+        <v>458906772.9890867</v>
       </c>
       <c r="K64">
-        <v>1865.442971896065</v>
+        <v>1815.961946377357</v>
       </c>
       <c r="L64">
-        <v>560836894.7644118</v>
+        <v>545882854.8783646</v>
       </c>
       <c r="M64">
         <v>375</v>
       </c>
       <c r="N64">
-        <v>-2618.967924802372</v>
+        <v>-2549.508641099284</v>
       </c>
       <c r="O64">
-        <v>-238974417.0664224</v>
+        <v>-234942119.0991054</v>
       </c>
       <c r="P64">
-        <v>-1036.710565466592</v>
+        <v>-1008.870011912677</v>
       </c>
       <c r="Q64">
         <v>-0</v>
       </c>
       <c r="R64">
-        <v>630009800.7018422</v>
+        <v>629990535.6307744</v>
       </c>
       <c r="S64">
-        <v>346.1383030938037</v>
+        <v>346.1647396950729</v>
       </c>
       <c r="T64">
-        <v>-54298.81378512133</v>
+        <v>-53418.36358957066</v>
       </c>
       <c r="U64">
-        <v>-360527.226027546</v>
+        <v>-350870.4309388652</v>
       </c>
       <c r="V64">
-        <v>330.0771056549327</v>
+        <v>329.9212823519053</v>
       </c>
       <c r="W64">
         <v>325</v>
@@ -4989,67 +4989,67 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>647282.751266072</v>
+        <v>630111.6205049093</v>
       </c>
       <c r="C65">
-        <v>132783.3872331113</v>
+        <v>129240.953189724</v>
       </c>
       <c r="D65">
         <v>1119.173961</v>
       </c>
       <c r="E65">
-        <v>365.8858842576602</v>
+        <v>366.1619714820357</v>
       </c>
       <c r="F65">
-        <v>2580.001680822436</v>
+        <v>2511.644072969811</v>
       </c>
       <c r="G65">
         <v>308.15</v>
       </c>
       <c r="H65">
-        <v>-862665491.6121061</v>
+        <v>-840081172.3313298</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>470938948.3440104</v>
+        <v>458461336.3359575</v>
       </c>
       <c r="K65">
-        <v>1863.574702632737</v>
+        <v>1814.199299958701</v>
       </c>
       <c r="L65">
-        <v>560198605.0028133</v>
+        <v>545272292.5903654</v>
       </c>
       <c r="M65">
         <v>375</v>
       </c>
       <c r="N65">
-        <v>-2616.301095380117</v>
+        <v>-2546.994218285127</v>
       </c>
       <c r="O65">
-        <v>-238369518.7307571</v>
+        <v>-234347096.9464545</v>
       </c>
       <c r="P65">
-        <v>-1036.293360522222</v>
+        <v>-1008.483798841553</v>
       </c>
       <c r="Q65">
         <v>-0</v>
       </c>
       <c r="R65">
-        <v>630027814.3301522</v>
+        <v>630008101.6844178</v>
       </c>
       <c r="S65">
-        <v>346.0907140694265</v>
+        <v>346.1180955935477</v>
       </c>
       <c r="T65">
-        <v>-54147.80203050235</v>
+        <v>-53269.71422162185</v>
       </c>
       <c r="U65">
-        <v>-360380.2812834156</v>
+        <v>-350734.1660627247</v>
       </c>
       <c r="V65">
-        <v>330.0750623182376</v>
+        <v>329.9193983371625</v>
       </c>
       <c r="W65">
         <v>325</v>
@@ -5060,67 +5060,67 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>646618.4658275769</v>
+        <v>629483.1130255818</v>
       </c>
       <c r="C66">
-        <v>132631.420558609</v>
+        <v>129095.4936712367</v>
       </c>
       <c r="D66">
         <v>1139.173961</v>
       </c>
       <c r="E66">
-        <v>365.8949550093157</v>
+        <v>366.1704904147692</v>
       </c>
       <c r="F66">
-        <v>2577.433936229445</v>
+        <v>2509.223094656656</v>
       </c>
       <c r="G66">
         <v>308.15</v>
       </c>
       <c r="H66">
-        <v>-861309438.1661136</v>
+        <v>-838799996.1475098</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>470470246.7353147</v>
+        <v>458019424.615808</v>
       </c>
       <c r="K66">
-        <v>1861.719994666555</v>
+        <v>1812.450602095875</v>
       </c>
       <c r="L66">
-        <v>559562829.442032</v>
+        <v>544664318.8140357</v>
       </c>
       <c r="M66">
         <v>375</v>
       </c>
       <c r="N66">
-        <v>-2613.65052704744</v>
+        <v>-2544.499442926078</v>
       </c>
       <c r="O66">
-        <v>-237779385.8851576</v>
+        <v>-233764296.838688</v>
       </c>
       <c r="P66">
-        <v>-1035.886705119538</v>
+        <v>-1008.107486887866</v>
       </c>
       <c r="Q66">
         <v>-0</v>
       </c>
       <c r="R66">
-        <v>630045783.3142494</v>
+        <v>630025620.2744573</v>
       </c>
       <c r="S66">
-        <v>346.0427810130187</v>
+        <v>346.0712536848666</v>
       </c>
       <c r="T66">
-        <v>-54000.46341219478</v>
+        <v>-53124.09635018709</v>
       </c>
       <c r="U66">
-        <v>-360236.8367246678</v>
+        <v>-350601.1633937707</v>
       </c>
       <c r="V66">
-        <v>330.0730707334037</v>
+        <v>329.9175626920695</v>
       </c>
       <c r="W66">
         <v>325</v>
@@ -5131,67 +5131,67 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>645957.7049287714</v>
+        <v>628858.5566809843</v>
       </c>
       <c r="C67">
-        <v>132479.8584590724</v>
+        <v>128950.5192470763</v>
       </c>
       <c r="D67">
         <v>1159.173961</v>
       </c>
       <c r="E67">
-        <v>365.9039705579248</v>
+        <v>366.1789482308865</v>
       </c>
       <c r="F67">
-        <v>2574.881818537803</v>
+        <v>2506.81948497448</v>
       </c>
       <c r="G67">
         <v>308.15</v>
       </c>
       <c r="H67">
-        <v>-859957262.2037436</v>
+        <v>-837521806.304427</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>470004397.5730114</v>
+        <v>457580683.2675495</v>
       </c>
       <c r="K67">
-        <v>1859.876574136436</v>
+        <v>1810.714449759503</v>
       </c>
       <c r="L67">
-        <v>558928903.0263829</v>
+        <v>544058532.0793798</v>
       </c>
       <c r="M67">
         <v>375</v>
       </c>
       <c r="N67">
-        <v>-2611.020572409042</v>
+        <v>-2542.020469765805</v>
       </c>
       <c r="O67">
-        <v>-237191163.5450475</v>
+        <v>-233194097.2387857</v>
       </c>
       <c r="P67">
-        <v>-1035.492109798497</v>
+        <v>-1007.740401479396</v>
       </c>
       <c r="Q67">
         <v>-0</v>
       </c>
       <c r="R67">
-        <v>630063702.0535723</v>
+        <v>630043093.1516279</v>
       </c>
       <c r="S67">
-        <v>345.9945210401812</v>
+        <v>346.0241500860681</v>
       </c>
       <c r="T67">
-        <v>-53853.5867261094</v>
+        <v>-52981.60932267514</v>
       </c>
       <c r="U67">
-        <v>-360097.4126277738</v>
+        <v>-350471.1825026228</v>
       </c>
       <c r="V67">
-        <v>330.0711383071526</v>
+        <v>329.915772125691</v>
       </c>
       <c r="W67">
         <v>325</v>
@@ -5202,67 +5202,67 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>645301.4297844069</v>
+        <v>628236.5925042878</v>
       </c>
       <c r="C68">
-        <v>132328.9021984431</v>
+        <v>128805.755214159</v>
       </c>
       <c r="D68">
         <v>1179.173961</v>
       </c>
       <c r="E68">
-        <v>365.9129174228263</v>
+        <v>366.1873640690764</v>
       </c>
       <c r="F68">
-        <v>2572.349143829324</v>
+        <v>2504.427804950013</v>
       </c>
       <c r="G68">
         <v>308.15</v>
       </c>
       <c r="H68">
-        <v>-858609022.9683521</v>
+        <v>-836246640.0777943</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>469542097.4231416</v>
+        <v>457144119.4916921</v>
       </c>
       <c r="K68">
-        <v>1858.047197450086</v>
+        <v>1808.986914313735</v>
       </c>
       <c r="L68">
-        <v>558297669.38946</v>
+        <v>543453773.1204904</v>
       </c>
       <c r="M68">
         <v>375</v>
       </c>
       <c r="N68">
-        <v>-2608.408434644128</v>
+        <v>-2539.558336823947</v>
       </c>
       <c r="O68">
-        <v>-236439484.8580335</v>
+        <v>-232634812.5130524</v>
       </c>
       <c r="P68">
-        <v>-1035.107157309767</v>
+        <v>-1007.383360689573</v>
       </c>
       <c r="Q68">
         <v>-0</v>
       </c>
       <c r="R68">
-        <v>630081572.4573034</v>
+        <v>630060514.7793324</v>
       </c>
       <c r="S68">
-        <v>345.9460327815841</v>
+        <v>345.9767547153532</v>
       </c>
       <c r="T68">
-        <v>-53666.28152974889</v>
+        <v>-52841.82062119197</v>
       </c>
       <c r="U68">
-        <v>-359961.1616656378</v>
+        <v>-350344.5026403721</v>
       </c>
       <c r="V68">
-        <v>330.0692531794774</v>
+        <v>329.9140306352573</v>
       </c>
       <c r="W68">
         <v>325</v>
@@ -5273,67 +5273,67 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>644648.8729433542</v>
+        <v>627617.9480248869</v>
       </c>
       <c r="C69">
-        <v>132178.3982298028</v>
+        <v>128661.354984307</v>
       </c>
       <c r="D69">
         <v>1199.173961</v>
       </c>
       <c r="E69">
-        <v>365.9218064790116</v>
+        <v>366.1957277869092</v>
       </c>
       <c r="F69">
-        <v>2569.832833627871</v>
+        <v>2502.050936942168</v>
       </c>
       <c r="G69">
         <v>308.15</v>
       </c>
       <c r="H69">
-        <v>-857264676.8230532</v>
+        <v>-834973027.7990769</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>469082784.3580425</v>
+        <v>456710259.4177677</v>
       </c>
       <c r="K69">
-        <v>1856.22964098438</v>
+        <v>1807.270077714791</v>
       </c>
       <c r="L69">
-        <v>557668479.1536754</v>
+        <v>542850685.0164272</v>
       </c>
       <c r="M69">
         <v>375</v>
       </c>
       <c r="N69">
-        <v>-2605.814022075426</v>
+        <v>-2537.108818290455</v>
       </c>
       <c r="O69">
-        <v>-235701229.9020011</v>
+        <v>-232088679.9359744</v>
       </c>
       <c r="P69">
-        <v>-1034.731829230395</v>
+        <v>-1007.03479251365</v>
       </c>
       <c r="Q69">
         <v>-0</v>
       </c>
       <c r="R69">
-        <v>630099393.081915</v>
+        <v>630077887.4826741</v>
       </c>
       <c r="S69">
-        <v>345.8973159999539</v>
+        <v>345.9290606245067</v>
       </c>
       <c r="T69">
-        <v>-53482.29547385134</v>
+        <v>-52705.31032855226</v>
       </c>
       <c r="U69">
-        <v>-359828.0718781485</v>
+        <v>-350220.5708327365</v>
       </c>
       <c r="V69">
-        <v>330.0674152604116</v>
+        <v>329.9123305426139</v>
       </c>
       <c r="W69">
         <v>325</v>
@@ -5344,67 +5344,67 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>643999.2811454717</v>
+        <v>627002.3706053274</v>
       </c>
       <c r="C70">
-        <v>132028.1961536445</v>
+        <v>128517.2705319691</v>
       </c>
       <c r="D70">
         <v>1219.173961</v>
       </c>
       <c r="E70">
-        <v>365.9306484029344</v>
+        <v>366.204042992906</v>
       </c>
       <c r="F70">
-        <v>2567.329865638072</v>
+        <v>2499.687855437538</v>
       </c>
       <c r="G70">
         <v>308.15</v>
       </c>
       <c r="H70">
-        <v>-855923725.2176379</v>
+        <v>-833700738.7083555</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>468625906.704971</v>
+        <v>456278915.8543454</v>
       </c>
       <c r="K70">
-        <v>1854.421721711455</v>
+        <v>1805.563199234614</v>
       </c>
       <c r="L70">
-        <v>557040695.5181438</v>
+        <v>542249063.2081227</v>
       </c>
       <c r="M70">
         <v>375</v>
       </c>
       <c r="N70">
-        <v>-2603.236047578918</v>
+        <v>-2534.671221103721</v>
       </c>
       <c r="O70">
-        <v>-234976217.5037084</v>
+        <v>-231550830.8717455</v>
       </c>
       <c r="P70">
-        <v>-1034.365714673413</v>
+        <v>-1006.694425421983</v>
       </c>
       <c r="Q70">
         <v>-0</v>
       </c>
       <c r="R70">
-        <v>630117160.4977034</v>
+        <v>630095213.1981562</v>
       </c>
       <c r="S70">
-        <v>345.8483643267634</v>
+        <v>345.8810684219279</v>
       </c>
       <c r="T70">
-        <v>-53301.58528745236</v>
+        <v>-52570.84635274566</v>
       </c>
       <c r="U70">
-        <v>-359697.9946817473</v>
+        <v>-350099.2869380938</v>
       </c>
       <c r="V70">
-        <v>330.0656225353777</v>
+        <v>329.9106705213891</v>
       </c>
       <c r="W70">
         <v>325</v>
@@ -5415,67 +5415,67 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>643353.2755342659</v>
+        <v>626391.3175386181</v>
       </c>
       <c r="C71">
-        <v>131878.4277118561</v>
+        <v>128373.8042988743</v>
       </c>
       <c r="D71">
         <v>1239.173961</v>
       </c>
       <c r="E71">
-        <v>365.9394345090486</v>
+        <v>366.2122893070565</v>
       </c>
       <c r="F71">
-        <v>2564.842698569128</v>
+        <v>2497.344352201622</v>
       </c>
       <c r="G71">
         <v>308.15</v>
       </c>
       <c r="H71">
-        <v>-854584192.9316939</v>
+        <v>-832430516.3082001</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>468171913.2628304</v>
+        <v>455851145.9976174</v>
       </c>
       <c r="K71">
-        <v>1852.625215575777</v>
+        <v>1803.870462317415</v>
       </c>
       <c r="L71">
-        <v>556414869.2274212</v>
+        <v>541650181.8151637</v>
       </c>
       <c r="M71">
         <v>375</v>
       </c>
       <c r="N71">
-        <v>-2600.668828569375</v>
+        <v>-2532.246371098475</v>
       </c>
       <c r="O71">
-        <v>-234263822.6584903</v>
+        <v>-231025420.6332498</v>
       </c>
       <c r="P71">
-        <v>-1034.006698256462</v>
+        <v>-1006.361957831814</v>
       </c>
       <c r="Q71">
         <v>-0</v>
       </c>
       <c r="R71">
-        <v>630134880.2581313</v>
+        <v>630112499.5242864</v>
       </c>
       <c r="S71">
-        <v>345.7991681130808</v>
+        <v>345.8328271264365</v>
       </c>
       <c r="T71">
-        <v>-53124.00593536681</v>
+        <v>-52439.48328669057</v>
       </c>
       <c r="U71">
-        <v>-359570.1881138718</v>
+        <v>-349980.5403011958</v>
       </c>
       <c r="V71">
-        <v>330.0638646310304</v>
+        <v>329.9090490958016</v>
       </c>
       <c r="W71">
         <v>325</v>
@@ -5486,67 +5486,67 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>642709.9563056406</v>
+        <v>625783.9146095698</v>
       </c>
       <c r="C72">
-        <v>131728.9122462453</v>
+        <v>128230.7810953562</v>
       </c>
       <c r="D72">
         <v>1259.173961</v>
       </c>
       <c r="E72">
-        <v>365.9481775509386</v>
+        <v>366.2204790627081</v>
       </c>
       <c r="F72">
-        <v>2562.367722135999</v>
+        <v>2495.016922236177</v>
       </c>
       <c r="G72">
         <v>308.15</v>
       </c>
       <c r="H72">
-        <v>-853248613.5213723</v>
+        <v>-831164143.9979562</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72">
-        <v>467720145.0305623</v>
+        <v>455426310.0649829</v>
       </c>
       <c r="K72">
-        <v>1850.837514836</v>
+        <v>1802.189335273063</v>
       </c>
       <c r="L72">
-        <v>555790239.4636395</v>
+        <v>541053299.7869437</v>
       </c>
       <c r="M72">
         <v>375</v>
       </c>
       <c r="N72">
-        <v>-2598.118606750548</v>
+        <v>-2529.836895159348</v>
       </c>
       <c r="O72">
-        <v>-233563580.1704986</v>
+        <v>-230509510.6397886</v>
       </c>
       <c r="P72">
-        <v>-1033.65661785233</v>
+        <v>-1006.037206423116</v>
       </c>
       <c r="Q72">
         <v>-0</v>
       </c>
       <c r="R72">
-        <v>630152547.0887542</v>
+        <v>630129747.3925979</v>
       </c>
       <c r="S72">
-        <v>345.7497761031476</v>
+        <v>345.7844314773545</v>
       </c>
       <c r="T72">
-        <v>-52949.42959080848</v>
+        <v>-52310.47794823736</v>
       </c>
       <c r="U72">
-        <v>-359445.2864291038</v>
+        <v>-349864.2614072674</v>
       </c>
       <c r="V72">
-        <v>330.0621505573778</v>
+        <v>329.9074653653398</v>
       </c>
       <c r="W72">
         <v>325</v>
@@ -5557,67 +5557,67 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>642071.5857448487</v>
+        <v>625177.6693065566</v>
       </c>
       <c r="C73">
-        <v>131580.1177806032</v>
+        <v>128087.6941115348</v>
       </c>
       <c r="D73">
         <v>1279.173961</v>
       </c>
       <c r="E73">
-        <v>365.9568457361306</v>
+        <v>366.2286473085937</v>
       </c>
       <c r="F73">
-        <v>2559.913936128964</v>
+        <v>2492.695605122013</v>
       </c>
       <c r="G73">
         <v>308.15</v>
       </c>
       <c r="H73">
-        <v>-851915831.669096</v>
+        <v>-829902169.127771</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>467272244.7790998</v>
+        <v>455002589.9377273</v>
       </c>
       <c r="K73">
-        <v>1849.065120139093</v>
+        <v>1800.5126235801</v>
       </c>
       <c r="L73">
-        <v>555168777.5367923</v>
+        <v>540456279.2301521</v>
       </c>
       <c r="M73">
         <v>375</v>
       </c>
       <c r="N73">
-        <v>-2595.582277581589</v>
+        <v>-2527.445223825374</v>
       </c>
       <c r="O73">
-        <v>-232875095.2879736</v>
+        <v>-229874806.6018626</v>
       </c>
       <c r="P73">
-        <v>-1033.314419447606</v>
+        <v>-1005.721472893129</v>
       </c>
       <c r="Q73">
         <v>-0</v>
       </c>
       <c r="R73">
-        <v>630170169.1941535</v>
+        <v>630146943.8567394</v>
       </c>
       <c r="S73">
-        <v>345.7001758573884</v>
+        <v>345.7358568792242</v>
       </c>
       <c r="T73">
-        <v>-52777.76464959587</v>
+        <v>-52152.0840415733</v>
       </c>
       <c r="U73">
-        <v>-359322.9173104383</v>
+        <v>-349750.8980457756</v>
       </c>
       <c r="V73">
-        <v>330.0604751464537</v>
+        <v>329.9059256898052</v>
       </c>
       <c r="W73">
         <v>325</v>
@@ -5628,67 +5628,67 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>641435.8504078926</v>
+        <v>624572.6976694146</v>
       </c>
       <c r="C74">
-        <v>131431.5736750556</v>
+        <v>127944.5723670093</v>
       </c>
       <c r="D74">
         <v>1299.173961</v>
       </c>
       <c r="E74">
-        <v>365.9654717268172</v>
+        <v>366.236792472854</v>
       </c>
       <c r="F74">
-        <v>2557.472094566533</v>
+        <v>2490.380847550905</v>
       </c>
       <c r="G74">
         <v>308.15</v>
       </c>
       <c r="H74">
-        <v>-850586475.5566735</v>
+        <v>-828640230.0270553</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>466826524.7991551</v>
+        <v>454580067.1524471</v>
       </c>
       <c r="K74">
-        <v>1847.301353005545</v>
+        <v>1798.840649897151</v>
       </c>
       <c r="L74">
-        <v>554548499.9506452</v>
+        <v>539859232.9063627</v>
       </c>
       <c r="M74">
         <v>375</v>
       </c>
       <c r="N74">
-        <v>-2593.063583110391</v>
+        <v>-2525.058657721055</v>
       </c>
       <c r="O74">
-        <v>-232199192.0428236</v>
+        <v>-229212126.6369182</v>
       </c>
       <c r="P74">
-        <v>-1032.982393343218</v>
+        <v>-1005.409959725512</v>
       </c>
       <c r="Q74">
         <v>-0</v>
       </c>
       <c r="R74">
-        <v>630187740.2041206</v>
+        <v>630164090.3950224</v>
       </c>
       <c r="S74">
-        <v>345.6503088898604</v>
+        <v>345.687084685823</v>
       </c>
       <c r="T74">
-        <v>-52609.20379718475</v>
+        <v>-51986.78449659428</v>
       </c>
       <c r="U74">
-        <v>-359203.8726390782</v>
+        <v>-349638.7744475061</v>
       </c>
       <c r="V74">
-        <v>330.058849633341</v>
+        <v>329.9044066369028</v>
       </c>
       <c r="W74">
         <v>325</v>
@@ -5699,67 +5699,67 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>640802.9293800876</v>
+        <v>623970.0239671353</v>
       </c>
       <c r="C75">
-        <v>131283.320949241</v>
+        <v>127801.6298994678</v>
       </c>
       <c r="D75">
         <v>1319.173961</v>
       </c>
       <c r="E75">
-        <v>365.9740530559143</v>
+        <v>366.2449002638813</v>
       </c>
       <c r="F75">
-        <v>2555.042895808906</v>
+        <v>2488.076711040403</v>
       </c>
       <c r="G75">
         <v>308.15</v>
       </c>
       <c r="H75">
-        <v>-849258098.0960155</v>
+        <v>-827379182.6205078</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>466383112.5654581</v>
+        <v>454159483.075637</v>
       </c>
       <c r="K75">
-        <v>1845.546717883197</v>
+        <v>1797.176347890238</v>
       </c>
       <c r="L75">
-        <v>553929573.6131824</v>
+        <v>539263063.3401399</v>
       </c>
       <c r="M75">
         <v>375</v>
       </c>
       <c r="N75">
-        <v>-2590.5552359447</v>
+        <v>-2522.679352065041</v>
       </c>
       <c r="O75">
-        <v>-231536466.9145355</v>
+        <v>-228559586.4704969</v>
       </c>
       <c r="P75">
-        <v>-1032.657712079299</v>
+        <v>-1005.103326735934</v>
       </c>
       <c r="Q75">
         <v>-0</v>
       </c>
       <c r="R75">
-        <v>630205262.5305312</v>
+        <v>630181190.6947794</v>
       </c>
       <c r="S75">
-        <v>345.6001706623666</v>
+        <v>345.6381305131524</v>
       </c>
       <c r="T75">
-        <v>-52443.91213612448</v>
+        <v>-51824.00542943533</v>
       </c>
       <c r="U75">
-        <v>-359087.1626528007</v>
+        <v>-349528.1149542438</v>
       </c>
       <c r="V75">
-        <v>330.0572601521557</v>
+        <v>329.9029114284889</v>
       </c>
       <c r="W75">
         <v>325</v>
@@ -5770,67 +5770,67 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>640172.4232370477</v>
+        <v>623369.448417285</v>
       </c>
       <c r="C76">
-        <v>131135.2819702799</v>
+        <v>127658.8301398682</v>
       </c>
       <c r="D76">
         <v>1339.173961</v>
       </c>
       <c r="E76">
-        <v>365.9825954135993</v>
+        <v>366.2529735683163</v>
       </c>
       <c r="F76">
-        <v>2552.624729099483</v>
+        <v>2485.782375228571</v>
       </c>
       <c r="G76">
         <v>308.15</v>
       </c>
       <c r="H76">
-        <v>-847931630.8415192</v>
+        <v>-826121065.8894097</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
-        <v>465941714.0595883</v>
+        <v>453740687.9630587</v>
       </c>
       <c r="K76">
-        <v>1843.800051294285</v>
+        <v>1795.519125013066</v>
       </c>
       <c r="L76">
-        <v>553311667.1467636</v>
+        <v>538667615.8506356</v>
       </c>
       <c r="M76">
         <v>375</v>
       </c>
       <c r="N76">
-        <v>-2588.057089381711</v>
+        <v>-2520.311554973354</v>
       </c>
       <c r="O76">
-        <v>-230885172.5944647</v>
+        <v>-227917652.501061</v>
       </c>
       <c r="P76">
-        <v>-1032.339010106398</v>
+        <v>-1004.802404986549</v>
       </c>
       <c r="Q76">
         <v>-0</v>
       </c>
       <c r="R76">
-        <v>630222737.0992093</v>
+        <v>630198242.9597466</v>
       </c>
       <c r="S76">
-        <v>345.5498590408426</v>
+        <v>345.5890607470062</v>
       </c>
       <c r="T76">
-        <v>-52281.4571176684</v>
+        <v>-51663.8599808859</v>
       </c>
       <c r="U76">
-        <v>-358972.3064137136</v>
+        <v>-349419.2034826471</v>
       </c>
       <c r="V76">
-        <v>330.0557000004717</v>
+        <v>329.9014441202723</v>
       </c>
       <c r="W76">
         <v>325</v>
@@ -5841,67 +5841,67 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>639543.4095238931</v>
+        <v>622772.13989828</v>
       </c>
       <c r="C77">
-        <v>130987.271469123</v>
+        <v>127516.4172352128</v>
       </c>
       <c r="D77">
         <v>1359.173961</v>
       </c>
       <c r="E77">
-        <v>365.9911118655545</v>
+        <v>366.2609960651162</v>
       </c>
       <c r="F77">
-        <v>2550.213895809581</v>
+        <v>2483.502478361288</v>
       </c>
       <c r="G77">
         <v>308.15</v>
       </c>
       <c r="H77">
-        <v>-846606338.6134077</v>
+        <v>-824865646.6862127</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>465501654.1547368</v>
+        <v>453324528.4539424</v>
       </c>
       <c r="K77">
-        <v>1842.058681682388</v>
+        <v>1793.872331517762</v>
       </c>
       <c r="L77">
-        <v>552693998.7194215</v>
+        <v>538073917.930662</v>
       </c>
       <c r="M77">
         <v>375</v>
       </c>
       <c r="N77">
-        <v>-2585.568984666513</v>
+        <v>-2517.95425412855</v>
       </c>
       <c r="O77">
-        <v>-230247506.8546494</v>
+        <v>-227285306.5890796</v>
       </c>
       <c r="P77">
-        <v>-1032.027135596536</v>
+        <v>-1004.506659228355</v>
       </c>
       <c r="Q77">
         <v>-0</v>
       </c>
       <c r="R77">
-        <v>630240160.7534001</v>
+        <v>630215251.7220248</v>
       </c>
       <c r="S77">
-        <v>345.499307078196</v>
+        <v>345.5398861462164</v>
       </c>
       <c r="T77">
-        <v>-52122.38634558611</v>
+        <v>-51506.09511104837</v>
       </c>
       <c r="U77">
-        <v>-358859.5939632411</v>
+        <v>-349311.8484628595</v>
       </c>
       <c r="V77">
-        <v>330.0541733420617</v>
+        <v>329.9000020974886</v>
       </c>
       <c r="W77">
         <v>325</v>
@@ -5912,67 +5912,67 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>638916.9593069177</v>
+        <v>622176.3458376245</v>
       </c>
       <c r="C78">
-        <v>130839.5128554961</v>
+        <v>127374.0364402913</v>
       </c>
       <c r="D78">
         <v>1379.173961</v>
       </c>
       <c r="E78">
-        <v>365.9995873916713</v>
+        <v>366.2689924304567</v>
       </c>
       <c r="F78">
-        <v>2547.814647813455</v>
+        <v>2481.230007774296</v>
       </c>
       <c r="G78">
         <v>308.15</v>
       </c>
       <c r="H78">
-        <v>-845283008.2732282</v>
+        <v>-823611896.9257536</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>465063708.9640377</v>
+        <v>452909724.4961248</v>
       </c>
       <c r="K78">
-        <v>1840.325680227953</v>
+        <v>1792.2309020778</v>
       </c>
       <c r="L78">
-        <v>552077508.5006491</v>
+        <v>537480473.2791029</v>
       </c>
       <c r="M78">
         <v>375</v>
       </c>
       <c r="N78">
-        <v>-2583.091484782231</v>
+        <v>-2515.60746284839</v>
       </c>
       <c r="O78">
-        <v>-229620037.7004741</v>
+        <v>-226664357.1511651</v>
       </c>
       <c r="P78">
-        <v>-1031.721509366434</v>
+        <v>-1004.217472291202</v>
       </c>
       <c r="Q78">
         <v>-0</v>
       </c>
       <c r="R78">
-        <v>630257534.5818487</v>
+        <v>630232213.4701393</v>
       </c>
       <c r="S78">
-        <v>345.4485752201907</v>
+        <v>345.4905023101038</v>
       </c>
       <c r="T78">
-        <v>-51965.84244336664</v>
+        <v>-51351.156086152</v>
       </c>
       <c r="U78">
-        <v>-358748.8183381001</v>
+        <v>-349206.5262205314</v>
       </c>
       <c r="V78">
-        <v>330.0526773328115</v>
+        <v>329.8985921204035</v>
       </c>
       <c r="W78">
         <v>325</v>
@@ -5983,67 +5983,67 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>638292.5953781942</v>
+        <v>621583.7080529582</v>
       </c>
       <c r="C79">
-        <v>130691.9125559815</v>
+        <v>127232.0279405654</v>
       </c>
       <c r="D79">
         <v>1399.173961</v>
       </c>
       <c r="E79">
-        <v>366.0080287911175</v>
+        <v>366.2769397027346</v>
       </c>
       <c r="F79">
-        <v>2545.425060406412</v>
+        <v>2478.971488864644</v>
       </c>
       <c r="G79">
         <v>308.15</v>
       </c>
       <c r="H79">
-        <v>-843963963.44256</v>
+        <v>-822360710.6701094</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>464627527.1627568</v>
+        <v>452497467.1987622</v>
       </c>
       <c r="K79">
-        <v>1838.599656696623</v>
+        <v>1790.599550066105</v>
       </c>
       <c r="L79">
-        <v>551461800.6419356</v>
+        <v>536888717.0430927</v>
       </c>
       <c r="M79">
         <v>375</v>
       </c>
       <c r="N79">
-        <v>-2580.62876780238</v>
+        <v>-2513.273554917982</v>
       </c>
       <c r="O79">
-        <v>-229006980.727102</v>
+        <v>-226055812.6529961</v>
       </c>
       <c r="P79">
-        <v>-1031.422524147274</v>
+        <v>-1003.935635833386</v>
       </c>
       <c r="Q79">
         <v>-0</v>
       </c>
       <c r="R79">
-        <v>630274853.0784457</v>
+        <v>630249129.4182661</v>
       </c>
       <c r="S79">
-        <v>345.3977589584147</v>
+        <v>345.4409219627224</v>
       </c>
       <c r="T79">
-        <v>-51812.88226463661</v>
+        <v>-51199.2932977989</v>
       </c>
       <c r="U79">
-        <v>-358640.1108789361</v>
+        <v>-349103.5071273489</v>
       </c>
       <c r="V79">
-        <v>330.0512138932799</v>
+        <v>329.8972180547298</v>
       </c>
       <c r="W79">
         <v>325</v>
@@ -6054,67 +6054,67 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>637672.9489044599</v>
+        <v>620993.9372569073</v>
       </c>
       <c r="C80">
-        <v>130545.0135275402</v>
+        <v>127090.336551553</v>
       </c>
       <c r="D80">
         <v>1419.173961</v>
       </c>
       <c r="E80">
-        <v>366.0163990711396</v>
+        <v>366.28484200927</v>
       </c>
       <c r="F80">
-        <v>2543.055605489481</v>
+        <v>2476.725748706386</v>
       </c>
       <c r="G80">
         <v>308.15</v>
       </c>
       <c r="H80">
-        <v>-842647684.9858267</v>
+        <v>-821111746.1511086</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>464195020.232617</v>
+        <v>452087542.4625711</v>
       </c>
       <c r="K80">
-        <v>1836.888175043053</v>
+        <v>1788.977428259631</v>
       </c>
       <c r="L80">
-        <v>550849164.3174839</v>
+        <v>536298413.991437</v>
       </c>
       <c r="M80">
         <v>375</v>
       </c>
       <c r="N80">
-        <v>-2578.178243319024</v>
+        <v>-2510.951392258257</v>
       </c>
       <c r="O80">
-        <v>-228405581.7752954</v>
+        <v>-225457489.1881383</v>
       </c>
       <c r="P80">
-        <v>-1031.130041167216</v>
+        <v>-1003.660654390615</v>
       </c>
       <c r="Q80">
         <v>-0</v>
       </c>
       <c r="R80">
-        <v>630292125.2152493</v>
+        <v>630266000.7213689</v>
       </c>
       <c r="S80">
-        <v>345.3467926758148</v>
+        <v>345.391149119119</v>
       </c>
       <c r="T80">
-        <v>-51662.81798771923</v>
+        <v>-51049.96131074191</v>
       </c>
       <c r="U80">
-        <v>-358533.4181240043</v>
+        <v>-349002.6135155355</v>
       </c>
       <c r="V80">
-        <v>330.0497823472161</v>
+        <v>329.8958774802223</v>
       </c>
       <c r="W80">
         <v>325</v>
@@ -6125,67 +6125,67 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>637056.576346478</v>
+        <v>620406.6745718142</v>
       </c>
       <c r="C81">
-        <v>130398.5240476609</v>
+        <v>126948.8925109787</v>
       </c>
       <c r="D81">
         <v>1439.173961</v>
       </c>
       <c r="E81">
-        <v>366.0247186388693</v>
+        <v>366.2927044533987</v>
       </c>
       <c r="F81">
-        <v>2540.700506217842</v>
+        <v>2474.491336995315</v>
       </c>
       <c r="G81">
         <v>308.15</v>
       </c>
       <c r="H81">
-        <v>-841333314.907274</v>
+        <v>-819864742.4441859</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>463765133.7009625</v>
+        <v>451679685.5572051</v>
       </c>
       <c r="K81">
-        <v>1835.187062595475</v>
+        <v>1787.363489086735</v>
       </c>
       <c r="L81">
-        <v>550238367.6637769</v>
+        <v>535709268.6126217</v>
       </c>
       <c r="M81">
         <v>375</v>
       </c>
       <c r="N81">
-        <v>-2575.73898690977</v>
+        <v>-2508.640801379096</v>
       </c>
       <c r="O81">
-        <v>-227813744.4490371</v>
+        <v>-224869853.7410645</v>
       </c>
       <c r="P81">
-        <v>-1030.844432347067</v>
+        <v>-1003.392731053054</v>
       </c>
       <c r="Q81">
         <v>-0</v>
       </c>
       <c r="R81">
-        <v>630309354.4140941</v>
+        <v>630282827.0661383</v>
       </c>
       <c r="S81">
-        <v>345.2956222244127</v>
+        <v>345.3411638813698</v>
       </c>
       <c r="T81">
-        <v>-51515.11938119092</v>
+        <v>-50903.27610885538</v>
       </c>
       <c r="U81">
-        <v>-358428.8643640923</v>
+        <v>-348903.9110038762</v>
       </c>
       <c r="V81">
-        <v>330.0483845214342</v>
+        <v>329.8945713900046</v>
       </c>
       <c r="W81">
         <v>325</v>
@@ -6196,67 +6196,67 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>636443.029535286</v>
+        <v>619821.7465222878</v>
       </c>
       <c r="C82">
-        <v>130252.3559312355</v>
+        <v>126807.6637617508</v>
       </c>
       <c r="D82">
         <v>1459.173961</v>
       </c>
       <c r="E82">
-        <v>366.0329938849995</v>
+        <v>366.3005295340753</v>
       </c>
       <c r="F82">
-        <v>2538.357953506329</v>
+        <v>2472.267543551156</v>
       </c>
       <c r="G82">
         <v>308.15</v>
       </c>
       <c r="H82">
-        <v>-840022875.0093962</v>
+        <v>-818620001.5562322</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82">
-        <v>463337537.3475955</v>
+        <v>451273766.8503643</v>
       </c>
       <c r="K82">
-        <v>1833.495012640897</v>
+        <v>1785.757219582157</v>
       </c>
       <c r="L82">
-        <v>549629039.9647367</v>
+        <v>535121144.9746857</v>
       </c>
       <c r="M82">
         <v>375</v>
       </c>
       <c r="N82">
-        <v>-2573.316357308905</v>
+        <v>-2506.342793806658</v>
       </c>
       <c r="O82">
-        <v>-227231652.9937572</v>
+        <v>-224293989.8716376</v>
       </c>
       <c r="P82">
-        <v>-1030.567480171385</v>
+        <v>-1003.132308534305</v>
       </c>
       <c r="Q82">
         <v>-0</v>
       </c>
       <c r="R82">
-        <v>630326536.2225636</v>
+        <v>630299606.2266978</v>
       </c>
       <c r="S82">
-        <v>345.2442753952931</v>
+        <v>345.2909642508625</v>
       </c>
       <c r="T82">
-        <v>-51369.82169589677</v>
+        <v>-50759.50549846343</v>
       </c>
       <c r="U82">
-        <v>-358327.0648649246</v>
+        <v>-348807.5486438152</v>
       </c>
       <c r="V82">
-        <v>330.0470291554739</v>
+        <v>329.8933019465472</v>
       </c>
       <c r="W82">
         <v>325</v>
@@ -6267,67 +6267,67 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>635833.2848535853</v>
+        <v>619239.4926423382</v>
       </c>
       <c r="C83">
-        <v>130106.7129934223</v>
+        <v>126666.7232038711</v>
       </c>
       <c r="D83">
         <v>1479.173961</v>
       </c>
       <c r="E83">
-        <v>366.0412111158822</v>
+        <v>366.3083125431974</v>
       </c>
       <c r="F83">
-        <v>2536.031823756908</v>
+        <v>2470.055706355938</v>
       </c>
       <c r="G83">
         <v>308.15</v>
       </c>
       <c r="H83">
-        <v>-838715590.5240207</v>
+        <v>-817377304.1530005</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>462912938.7490571</v>
+        <v>450870030.5697383</v>
       </c>
       <c r="K83">
-        <v>1831.814825136703</v>
+        <v>1784.159586187254</v>
       </c>
       <c r="L83">
-        <v>549022038.0277188</v>
+        <v>534534348.6519065</v>
       </c>
       <c r="M83">
         <v>375</v>
       </c>
       <c r="N83">
-        <v>-2570.90784490652</v>
+        <v>-2504.056485119446</v>
       </c>
       <c r="O83">
-        <v>-226659271.4412155</v>
+        <v>-223730833.7865386</v>
       </c>
       <c r="P83">
-        <v>-1030.298120264206</v>
+        <v>-1002.878940079199</v>
       </c>
       <c r="Q83">
         <v>-0</v>
       </c>
       <c r="R83">
-        <v>630343673.2997172</v>
+        <v>630316338.4605002</v>
       </c>
       <c r="S83">
-        <v>345.1927576831885</v>
+        <v>345.2405582318852</v>
       </c>
       <c r="T83">
-        <v>-51226.92364994947</v>
+        <v>-50618.88914444178</v>
       </c>
       <c r="U83">
-        <v>-358227.6439982325</v>
+        <v>-348713.3658631269</v>
       </c>
       <c r="V83">
-        <v>330.0457110294203</v>
+        <v>329.8920669672854</v>
       </c>
       <c r="W83">
         <v>325</v>
@@ -6338,67 +6338,67 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>635226.0319225092</v>
+        <v>618660.8484078279</v>
       </c>
       <c r="C84">
-        <v>129961.3307082463</v>
+        <v>126526.266142608</v>
       </c>
       <c r="D84">
         <v>1499.173961</v>
       </c>
       <c r="E84">
-        <v>366.0493888635295</v>
+        <v>366.3160404074511</v>
       </c>
       <c r="F84">
-        <v>2533.716870934229</v>
+        <v>2467.859540698193</v>
       </c>
       <c r="G84">
         <v>308.15</v>
       </c>
       <c r="H84">
-        <v>-837412264.5837381</v>
+        <v>-816137942.3105171</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>462490380.3236569</v>
+        <v>450469154.883131</v>
       </c>
       <c r="K84">
-        <v>1830.14271081909</v>
+        <v>1782.57327248649</v>
       </c>
       <c r="L84">
-        <v>548416245.1882482</v>
+        <v>533949699.6113906</v>
       </c>
       <c r="M84">
         <v>375</v>
       </c>
       <c r="N84">
-        <v>-2568.515500244196</v>
+        <v>-2501.781920009214</v>
       </c>
       <c r="O84">
-        <v>-226096513.6080353</v>
+        <v>-223175993.2215436</v>
       </c>
       <c r="P84">
-        <v>-1030.036995365435</v>
+        <v>-1002.630939132132</v>
       </c>
       <c r="Q84">
         <v>-0</v>
       </c>
       <c r="R84">
-        <v>630360760.1911052</v>
+        <v>630333028.3478204</v>
       </c>
       <c r="S84">
-        <v>345.1410833860535</v>
+        <v>345.1900764329165</v>
       </c>
       <c r="T84">
-        <v>-51086.39817098341</v>
+        <v>-50480.33404138659</v>
       </c>
       <c r="U84">
-        <v>-358130.8204229732</v>
+        <v>-348620.77047789</v>
       </c>
       <c r="V84">
-        <v>330.0444332944867</v>
+        <v>329.8908582070605</v>
       </c>
       <c r="W84">
         <v>325</v>
@@ -6409,67 +6409,67 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>634622.368916346</v>
+        <v>618084.883421372</v>
       </c>
       <c r="C85">
-        <v>129816.4377505079</v>
+        <v>126386.1061997676</v>
       </c>
       <c r="D85">
         <v>1519.173961</v>
       </c>
       <c r="E85">
-        <v>366.0575117151482</v>
+        <v>366.323726257515</v>
       </c>
       <c r="F85">
-        <v>2531.417458077906</v>
+        <v>2465.675314999405</v>
       </c>
       <c r="G85">
         <v>308.15</v>
       </c>
       <c r="H85">
-        <v>-836112004.614328</v>
+        <v>-814902728.7615303</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>462070658.476026</v>
+        <v>450070458.6492568</v>
       </c>
       <c r="K85">
-        <v>1828.481821161275</v>
+        <v>1780.995583120002</v>
       </c>
       <c r="L85">
-        <v>547812622.7583677</v>
+        <v>533366410.1722599</v>
       </c>
       <c r="M85">
         <v>375</v>
       </c>
       <c r="N85">
-        <v>-2566.136302887412</v>
+        <v>-2499.520685357374</v>
       </c>
       <c r="O85">
-        <v>-225542762.6424524</v>
+        <v>-222629535.6029035</v>
       </c>
       <c r="P85">
-        <v>-1029.782771217924</v>
+        <v>-1002.38854799386</v>
       </c>
       <c r="Q85">
         <v>-0</v>
       </c>
       <c r="R85">
-        <v>630377799.6687341</v>
+        <v>630349674.5888895</v>
       </c>
       <c r="S85">
-        <v>345.0892626635226</v>
+        <v>345.1395495843286</v>
       </c>
       <c r="T85">
-        <v>-50948.09853707051</v>
+        <v>-50343.85418340319</v>
       </c>
       <c r="U85">
-        <v>-358036.1246286237</v>
+        <v>-348529.8419420594</v>
       </c>
       <c r="V85">
-        <v>330.0431894069806</v>
+        <v>329.8896768482843</v>
       </c>
       <c r="W85">
         <v>325</v>
@@ -6480,67 +6480,67 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>634021.5344093195</v>
+        <v>617511.1949656814</v>
       </c>
       <c r="C86">
-        <v>129671.8819911987</v>
+        <v>126246.164964133</v>
       </c>
       <c r="D86">
         <v>1539.173961</v>
       </c>
       <c r="E86">
-        <v>366.0655904652183</v>
+        <v>366.3313758191889</v>
       </c>
       <c r="F86">
-        <v>2529.130529502036</v>
+        <v>2463.501402039862</v>
       </c>
       <c r="G86">
         <v>308.15</v>
       </c>
       <c r="H86">
-        <v>-834814799.4545959</v>
+        <v>-813670527.0515313</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>461653215.4385026</v>
+        <v>449673644.8446113</v>
       </c>
       <c r="K86">
-        <v>1826.829949002351</v>
+        <v>1779.425342741776</v>
       </c>
       <c r="L86">
-        <v>547210527.4982601</v>
+        <v>532784148.5046031</v>
       </c>
       <c r="M86">
         <v>375</v>
       </c>
       <c r="N86">
-        <v>-2563.77035775065</v>
+        <v>-2497.271429981295</v>
       </c>
       <c r="O86">
-        <v>-224998960.2828475</v>
+        <v>-222091420.3108311</v>
       </c>
       <c r="P86">
-        <v>-1029.535550424043</v>
+        <v>-1002.152153330371</v>
       </c>
       <c r="Q86">
         <v>-0</v>
       </c>
       <c r="R86">
-        <v>630394790.9562445</v>
+        <v>630366275.4323808</v>
       </c>
       <c r="S86">
-        <v>345.0372919767841</v>
+        <v>345.0889078777672</v>
       </c>
       <c r="T86">
-        <v>-50812.26030752061</v>
+        <v>-50209.4365738688</v>
       </c>
       <c r="U86">
-        <v>-357943.5873500099</v>
+        <v>-348440.7100518499</v>
       </c>
       <c r="V86">
-        <v>330.0419798703261</v>
+        <v>329.8885247835848</v>
       </c>
       <c r="W86">
         <v>325</v>
@@ -6551,67 +6551,67 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>633424.5215507285</v>
+        <v>616939.4946398295</v>
       </c>
       <c r="C87">
-        <v>129527.8703355181</v>
+        <v>126106.3873078976</v>
       </c>
       <c r="D87">
         <v>1559.173961</v>
       </c>
       <c r="E87">
-        <v>366.0736111798729</v>
+        <v>366.3389932114819</v>
       </c>
       <c r="F87">
-        <v>2526.860029585819</v>
+        <v>2461.336631254486</v>
       </c>
       <c r="G87">
         <v>308.15</v>
       </c>
       <c r="H87">
-        <v>-833520284.5686678</v>
+        <v>-812440977.9177419</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>461238771.1958082</v>
+        <v>449278499.8008509</v>
       </c>
       <c r="K87">
-        <v>1825.189943417603</v>
+        <v>1777.861705834787</v>
       </c>
       <c r="L87">
-        <v>546610829.8138192</v>
+        <v>532202680.983306</v>
       </c>
       <c r="M87">
         <v>375</v>
       </c>
       <c r="N87">
-        <v>-2561.416133859083</v>
+        <v>-2495.033977474889</v>
       </c>
       <c r="O87">
-        <v>-224464285.924903</v>
+        <v>-221561739.9847108</v>
       </c>
       <c r="P87">
-        <v>-1029.294539426928</v>
+        <v>-1001.92208699923</v>
       </c>
       <c r="Q87">
         <v>-0</v>
       </c>
       <c r="R87">
-        <v>630411739.4039924</v>
+        <v>630382827.9597247</v>
       </c>
       <c r="S87">
-        <v>344.9851854623584</v>
+        <v>345.03812153743</v>
       </c>
       <c r="T87">
-        <v>-50678.68294614517</v>
+        <v>-50077.10346264291</v>
       </c>
       <c r="U87">
-        <v>-357852.9273680831</v>
+        <v>-348353.4856059236</v>
       </c>
       <c r="V87">
-        <v>330.0408007920758</v>
+        <v>329.8874036353285</v>
       </c>
       <c r="W87">
         <v>325</v>
@@ -6622,67 +6622,67 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>632830.7582676089</v>
+        <v>616371.1509332786</v>
       </c>
       <c r="C88">
-        <v>129384.289774084</v>
+        <v>125967.0569263398</v>
       </c>
       <c r="D88">
         <v>1579.173961</v>
       </c>
       <c r="E88">
-        <v>366.0815819871408</v>
+        <v>366.3465592825905</v>
       </c>
       <c r="F88">
-        <v>2524.60365745975</v>
+        <v>2459.186445362458</v>
       </c>
       <c r="G88">
         <v>308.15</v>
       </c>
       <c r="H88">
-        <v>-832230017.4177921</v>
+        <v>-811212880.5526119</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>460826905.7602071</v>
+        <v>448886017.0012223</v>
       </c>
       <c r="K88">
-        <v>1823.560142458748</v>
+        <v>1776.308603726934</v>
       </c>
       <c r="L88">
-        <v>546013050.3311334</v>
+        <v>531623201.1910801</v>
       </c>
       <c r="M88">
         <v>375</v>
       </c>
       <c r="N88">
-        <v>-2559.075422365144</v>
+        <v>-2492.804785693426</v>
       </c>
       <c r="O88">
-        <v>-223938627.5814023</v>
+        <v>-221040972.2085027</v>
       </c>
       <c r="P88">
-        <v>-1029.059157667689</v>
+        <v>-1001.6969898345</v>
       </c>
       <c r="Q88">
         <v>-0</v>
       </c>
       <c r="R88">
-        <v>630428645.9714843</v>
+        <v>630399339.2403357</v>
       </c>
       <c r="S88">
-        <v>344.9330400868166</v>
+        <v>344.987186549831</v>
       </c>
       <c r="T88">
-        <v>-50547.34147530525</v>
+        <v>-49946.98374326411</v>
       </c>
       <c r="U88">
-        <v>-357763.937760985</v>
+        <v>-348267.6907933783</v>
       </c>
       <c r="V88">
-        <v>330.0396493195944</v>
+        <v>329.8863067648504</v>
       </c>
       <c r="W88">
         <v>325</v>
@@ -6693,67 +6693,67 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>632239.3071743961</v>
+        <v>615805.2290815288</v>
       </c>
       <c r="C89">
-        <v>129240.9523597032</v>
+        <v>125827.9860434513</v>
       </c>
       <c r="D89">
         <v>1599.173961</v>
       </c>
       <c r="E89">
-        <v>366.0895161743882</v>
+        <v>366.3540872289394</v>
       </c>
       <c r="F89">
-        <v>2522.357651735432</v>
+        <v>2457.047094087196</v>
       </c>
       <c r="G89">
         <v>308.15</v>
       </c>
       <c r="H89">
-        <v>-830944172.9421873</v>
+        <v>-809988695.7741113</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>460416932.549086</v>
+        <v>448495511.8914003</v>
       </c>
       <c r="K89">
-        <v>1821.937829241369</v>
+        <v>1774.763327562483</v>
       </c>
       <c r="L89">
-        <v>545416396.7229624</v>
+        <v>531044918.5263776</v>
       </c>
       <c r="M89">
         <v>375</v>
       </c>
       <c r="N89">
-        <v>-2556.750249674189</v>
+        <v>-2490.590190605917</v>
       </c>
       <c r="O89">
-        <v>-223422466.1134631</v>
+        <v>-220527949.5468962</v>
       </c>
       <c r="P89">
-        <v>-1028.830865857344</v>
+        <v>-1001.478875565454</v>
       </c>
       <c r="Q89">
         <v>-0</v>
       </c>
       <c r="R89">
-        <v>630445505.09525</v>
+        <v>630415805.2384468</v>
       </c>
       <c r="S89">
-        <v>344.8808090205381</v>
+        <v>344.9361441188573</v>
       </c>
       <c r="T89">
-        <v>-50418.34763704834</v>
+        <v>-49818.7716783875</v>
       </c>
       <c r="U89">
-        <v>-357677.1221102631</v>
+        <v>-348184.0218804624</v>
       </c>
       <c r="V89">
-        <v>330.0385326194302</v>
+        <v>329.8852440058778</v>
       </c>
       <c r="W89">
         <v>325</v>
@@ -6764,67 +6764,67 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>631650.5676789249</v>
+        <v>615241.4149656335</v>
       </c>
       <c r="C90">
-        <v>129097.9440755029</v>
+        <v>125689.114540188</v>
       </c>
       <c r="D90">
         <v>1619.173961</v>
       </c>
       <c r="E90">
-        <v>366.0974081825464</v>
+        <v>366.3615815230808</v>
       </c>
       <c r="F90">
-        <v>2520.123586072377</v>
+        <v>2454.917306385122</v>
       </c>
       <c r="G90">
         <v>308.15</v>
       </c>
       <c r="H90">
-        <v>-829662813.7159173</v>
+        <v>-808768072.0597157</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90">
-        <v>460009138.8093719</v>
+        <v>448106752.4622626</v>
       </c>
       <c r="K90">
-        <v>1820.32414043524</v>
+        <v>1773.224959251999</v>
       </c>
       <c r="L90">
-        <v>544821228.6808498</v>
+        <v>530467575.6550528</v>
       </c>
       <c r="M90">
         <v>375</v>
       </c>
       <c r="N90">
-        <v>-2554.439583401167</v>
+        <v>-2488.388092828414</v>
       </c>
       <c r="O90">
-        <v>-222917001.3961853</v>
+        <v>-220023404.8177447</v>
       </c>
       <c r="P90">
-        <v>-1028.608717410862</v>
+        <v>-1001.266458069949</v>
       </c>
       <c r="Q90">
         <v>-0</v>
       </c>
       <c r="R90">
-        <v>630462314.1754676</v>
+        <v>630432222.8549435</v>
       </c>
       <c r="S90">
-        <v>344.828532476114</v>
+        <v>344.8850287403112</v>
       </c>
       <c r="T90">
-        <v>-50292.00946799509</v>
+        <v>-49692.65836999763</v>
       </c>
       <c r="U90">
-        <v>-357592.1461033535</v>
+        <v>-348102.0265724394</v>
       </c>
       <c r="V90">
-        <v>330.0374460469951</v>
+        <v>329.884209074699</v>
       </c>
       <c r="W90">
         <v>325</v>
@@ -6835,67 +6835,67 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>631065.6570027261</v>
+        <v>614679.9329984027</v>
       </c>
       <c r="C91">
-        <v>128955.4975381203</v>
+        <v>125550.4918684118</v>
       </c>
       <c r="D91">
         <v>1639.173961</v>
       </c>
       <c r="E91">
-        <v>366.105242335422</v>
+        <v>366.3690390846949</v>
       </c>
       <c r="F91">
-        <v>2517.905898089985</v>
+        <v>2452.797957649982</v>
       </c>
       <c r="G91">
         <v>308.15</v>
       </c>
       <c r="H91">
-        <v>-828384993.5047905</v>
+        <v>-807551020.8565067</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91">
-        <v>459604334.5590702</v>
+        <v>447719898.5032439</v>
       </c>
       <c r="K91">
-        <v>1818.722281371237</v>
+        <v>1771.694131098653</v>
       </c>
       <c r="L91">
-        <v>544228525.0038543</v>
+        <v>529891381.2749505</v>
       </c>
       <c r="M91">
         <v>375</v>
       </c>
       <c r="N91">
-        <v>-2552.140974549086</v>
+        <v>-2486.199579413653</v>
       </c>
       <c r="O91">
-        <v>-222421573.8691342</v>
+        <v>-219528357.526676</v>
       </c>
       <c r="P91">
-        <v>-1028.391927400207</v>
+        <v>-1001.060630875372</v>
       </c>
       <c r="Q91">
         <v>-0</v>
       </c>
       <c r="R91">
-        <v>630479078.2554239</v>
+        <v>630448588.7216315</v>
       </c>
       <c r="S91">
-        <v>344.7761964633077</v>
+        <v>344.8338066619423</v>
       </c>
       <c r="T91">
-        <v>-50168.16636387439</v>
+        <v>-49568.8958579138</v>
       </c>
       <c r="U91">
-        <v>-357508.7319565045</v>
+        <v>-348022.011309471</v>
       </c>
       <c r="V91">
-        <v>330.0363857539729</v>
+        <v>329.8832063377971</v>
       </c>
       <c r="W91">
         <v>325</v>
@@ -6906,67 +6906,67 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>630483.680075012</v>
+        <v>614121.7917355252</v>
       </c>
       <c r="C92">
-        <v>128813.4339306538</v>
+        <v>125412.3283718255</v>
       </c>
       <c r="D92">
         <v>1659.173961</v>
       </c>
       <c r="E92">
-        <v>366.1130313237485</v>
+        <v>366.3764458069518</v>
       </c>
       <c r="F92">
-        <v>2515.700995280547</v>
+        <v>2450.693056862164</v>
       </c>
       <c r="G92">
         <v>308.15</v>
       </c>
       <c r="H92">
-        <v>-827111316.3738133</v>
+        <v>-806335936.8000276</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92">
-        <v>459201864.0420949</v>
+        <v>447335681.7910024</v>
       </c>
       <c r="K92">
-        <v>1817.129657159207</v>
+        <v>1770.173738838872</v>
       </c>
       <c r="L92">
-        <v>543637529.8801297</v>
+        <v>529317216.8312268</v>
       </c>
       <c r="M92">
         <v>375</v>
       </c>
       <c r="N92">
-        <v>-2549.855731050258</v>
+        <v>-2484.018558577163</v>
       </c>
       <c r="O92">
-        <v>-221933680.7101194</v>
+        <v>-219040160.9553219</v>
       </c>
       <c r="P92">
-        <v>-1028.180783328025</v>
+        <v>-1000.858443029529</v>
       </c>
       <c r="Q92">
         <v>-0</v>
       </c>
       <c r="R92">
-        <v>630495796.9418771</v>
+        <v>630464910.7227745</v>
       </c>
       <c r="S92">
-        <v>344.7238194552585</v>
+        <v>344.7825164720547</v>
       </c>
       <c r="T92">
-        <v>-50046.18618887567</v>
+        <v>-49446.83608257088</v>
       </c>
       <c r="U92">
-        <v>-357426.9751496273</v>
+        <v>-347942.9445307436</v>
       </c>
       <c r="V92">
-        <v>330.0353531492506</v>
+        <v>329.8822213789687</v>
       </c>
       <c r="W92">
         <v>325</v>
@@ -6977,67 +6977,67 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>629905.2357187874</v>
+        <v>613566.389286611</v>
       </c>
       <c r="C93">
-        <v>128671.8802421156</v>
+        <v>125274.5051032118</v>
       </c>
       <c r="D93">
         <v>1679.173961</v>
       </c>
       <c r="E93">
-        <v>366.1207667807481</v>
+        <v>366.3838102140537</v>
       </c>
       <c r="F93">
-        <v>2513.511246120926</v>
+        <v>2448.600181559646</v>
       </c>
       <c r="G93">
         <v>308.15</v>
       </c>
       <c r="H93">
-        <v>-825842286.286265</v>
+        <v>-805124441.2298315</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93">
-        <v>458802159.5868481</v>
+        <v>446953660.1429898</v>
       </c>
       <c r="K93">
-        <v>1815.547978564694</v>
+        <v>1768.662032693064</v>
       </c>
       <c r="L93">
-        <v>543048775.641148</v>
+        <v>528744579.1818969</v>
       </c>
       <c r="M93">
         <v>375</v>
       </c>
       <c r="N93">
-        <v>-2547.583276686177</v>
+        <v>-2481.847958686285</v>
       </c>
       <c r="O93">
-        <v>-221453330.1784361</v>
+        <v>-218561332.1354348</v>
       </c>
       <c r="P93">
-        <v>-1027.974131062592</v>
+        <v>-1000.660179482793</v>
       </c>
       <c r="Q93">
         <v>-0</v>
       </c>
       <c r="R93">
-        <v>630512473.2422549</v>
+        <v>630481190.9156873</v>
       </c>
       <c r="S93">
-        <v>344.6714702264695</v>
+        <v>344.7312265740321</v>
       </c>
       <c r="T93">
-        <v>-49926.07824362742</v>
+        <v>-49327.11064042962</v>
       </c>
       <c r="U93">
-        <v>-357346.4694099904</v>
+        <v>-347864.9209791811</v>
       </c>
       <c r="V93">
-        <v>330.0343425689709</v>
+        <v>329.8812555865126</v>
       </c>
       <c r="W93">
         <v>325</v>
@@ -7048,67 +7048,67 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>629328.84160222</v>
+        <v>613014.0615942017</v>
       </c>
       <c r="C94">
-        <v>128530.5382183515</v>
+        <v>125137.0942848381</v>
       </c>
       <c r="D94">
         <v>1699.173961</v>
       </c>
       <c r="E94">
-        <v>366.128469688412</v>
+        <v>366.3911276704433</v>
       </c>
       <c r="F94">
-        <v>2511.330711039612</v>
+        <v>2446.520649106215</v>
       </c>
       <c r="G94">
         <v>308.15</v>
       </c>
       <c r="H94">
-        <v>-824579063.624204</v>
+        <v>-803917521.9876869</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>458404137.0174621</v>
+        <v>446574074.0233584</v>
       </c>
       <c r="K94">
-        <v>1813.972955373618</v>
+        <v>1767.159964211103</v>
       </c>
       <c r="L94">
-        <v>542461002.9901187</v>
+        <v>528173775.4121951</v>
       </c>
       <c r="M94">
         <v>375</v>
       </c>
       <c r="N94">
-        <v>-2545.326414584428</v>
+        <v>-2479.692163287683</v>
       </c>
       <c r="O94">
-        <v>-220980063.5221056</v>
+        <v>-218090300.3138334</v>
       </c>
       <c r="P94">
-        <v>-1027.772765871759</v>
+        <v>-1000.468186975922</v>
       </c>
       <c r="Q94">
         <v>-0</v>
       </c>
       <c r="R94">
-        <v>630529100.4637491</v>
+        <v>630497427.944551</v>
       </c>
       <c r="S94">
-        <v>344.6191742802929</v>
+        <v>344.6798937781875</v>
       </c>
       <c r="T94">
-        <v>-49807.72156807107</v>
+        <v>-49209.3105984649</v>
       </c>
       <c r="U94">
-        <v>-357267.4870337939</v>
+        <v>-347788.7530839746</v>
       </c>
       <c r="V94">
-        <v>330.0333579120011</v>
+        <v>329.8803204257693</v>
       </c>
       <c r="W94">
         <v>325</v>
@@ -7119,67 +7119,67 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>628755.4859016261</v>
+        <v>612464.1756123427</v>
       </c>
       <c r="C95">
-        <v>128389.6147279621</v>
+        <v>124999.9706615005</v>
       </c>
       <c r="D95">
         <v>1719.173961</v>
       </c>
       <c r="E95">
-        <v>366.1361261963212</v>
+        <v>366.3984071312752</v>
       </c>
       <c r="F95">
-        <v>2509.163310807132</v>
+        <v>2444.451914558068</v>
       </c>
       <c r="G95">
         <v>308.15</v>
       </c>
       <c r="H95">
-        <v>-823319709.6304075</v>
+        <v>-802713347.9541847</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95">
-        <v>458008512.0092648</v>
+        <v>446196458.8924268</v>
       </c>
       <c r="K95">
-        <v>1812.407419598533</v>
+        <v>1765.665695151009</v>
       </c>
       <c r="L95">
-        <v>541875080.9560163</v>
+        <v>527604274.1728899</v>
       </c>
       <c r="M95">
         <v>375</v>
       </c>
       <c r="N95">
-        <v>-2543.080430801202</v>
+        <v>-2477.547382040968</v>
       </c>
       <c r="O95">
-        <v>-220513755.3171843</v>
+        <v>-217626002.6510798</v>
       </c>
       <c r="P95">
-        <v>-1027.575333529285</v>
+        <v>-1000.281739823095</v>
       </c>
       <c r="Q95">
         <v>-0</v>
       </c>
       <c r="R95">
-        <v>630545681.4258327</v>
+        <v>630513621.6706154</v>
       </c>
       <c r="S95">
-        <v>344.5668919139644</v>
+        <v>344.6284581056141</v>
       </c>
       <c r="T95">
-        <v>-49691.09356311614</v>
+        <v>-49093.17244630754</v>
       </c>
       <c r="U95">
-        <v>-357189.5524128104</v>
+        <v>-347714.1841468417</v>
       </c>
       <c r="V95">
-        <v>330.0323925396023</v>
+        <v>329.8794123552922</v>
       </c>
       <c r="W95">
         <v>325</v>
@@ -7190,67 +7190,67 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>628185.4780873142</v>
+        <v>611918.146191604</v>
       </c>
       <c r="C96">
-        <v>128249.1771467815</v>
+        <v>124863.4277477347</v>
       </c>
       <c r="D96">
         <v>1739.173961</v>
       </c>
       <c r="E96">
-        <v>366.1437320304751</v>
+        <v>366.4056287933607</v>
       </c>
       <c r="F96">
-        <v>2507.010255297002</v>
+        <v>2442.399605726359</v>
       </c>
       <c r="G96">
         <v>308.15</v>
       </c>
       <c r="H96">
-        <v>-822064621.639203</v>
+        <v>-801513935.7916923</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>457615505.4057403</v>
+        <v>445821842.0190866</v>
       </c>
       <c r="K96">
-        <v>1810.852245149743</v>
+        <v>1764.183290551804</v>
       </c>
       <c r="L96">
-        <v>541291295.2403264</v>
+        <v>527037308.9736317</v>
       </c>
       <c r="M96">
         <v>375</v>
       </c>
       <c r="N96">
-        <v>-2540.84825110951</v>
+        <v>-2475.414152158643</v>
       </c>
       <c r="O96">
-        <v>-220055708.424388</v>
+        <v>-217168168.25393</v>
       </c>
       <c r="P96">
-        <v>-1027.383749914179</v>
+        <v>-1000.098596466614</v>
       </c>
       <c r="Q96">
         <v>-0</v>
       </c>
       <c r="R96">
-        <v>630562216.9981202</v>
+        <v>630529777.9719069</v>
       </c>
       <c r="S96">
-        <v>344.5145697947794</v>
+        <v>344.5771064076574</v>
       </c>
       <c r="T96">
-        <v>-49576.51111940794</v>
+        <v>-48978.6423728849</v>
       </c>
       <c r="U96">
-        <v>-357113.3278627271</v>
+        <v>-347640.4296353607</v>
       </c>
       <c r="V96">
-        <v>330.0314558503769</v>
+        <v>329.8785204156943</v>
       </c>
       <c r="W96">
         <v>325</v>
@@ -7261,67 +7261,67 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>627618.3200063417</v>
+        <v>611375.1074803888</v>
       </c>
       <c r="C97">
-        <v>128109.1277661098</v>
+        <v>124727.2932471927</v>
       </c>
       <c r="D97">
         <v>1759.173961</v>
       </c>
       <c r="E97">
-        <v>366.1512942836695</v>
+        <v>366.4128049051188</v>
       </c>
       <c r="F97">
-        <v>2504.869536686266</v>
+        <v>2440.360241772386</v>
       </c>
       <c r="G97">
         <v>308.15</v>
       </c>
       <c r="H97">
-        <v>-820811153.8460351</v>
+        <v>-800320460.0300388</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>457224750.7102167</v>
+        <v>445449588.0306827</v>
       </c>
       <c r="K97">
-        <v>1809.305981754336</v>
+        <v>1762.710236156726</v>
       </c>
       <c r="L97">
-        <v>540709231.6238501</v>
+        <v>526472152.9114749</v>
       </c>
       <c r="M97">
         <v>375</v>
       </c>
       <c r="N97">
-        <v>-2538.625436503511</v>
+        <v>-2473.295923588183</v>
       </c>
       <c r="O97">
-        <v>-219605030.0002666</v>
+        <v>-216717661.1680165</v>
       </c>
       <c r="P97">
-        <v>-1027.19783401426</v>
+        <v>-999.9200740537617</v>
       </c>
       <c r="Q97">
         <v>-0</v>
       </c>
       <c r="R97">
-        <v>630578710.4848515</v>
+        <v>630545895.0398387</v>
       </c>
       <c r="S97">
-        <v>344.4620899748865</v>
+        <v>344.5258451104661</v>
       </c>
       <c r="T97">
-        <v>-49463.74972961083</v>
+        <v>-48865.92918011706</v>
       </c>
       <c r="U97">
-        <v>-357038.7462603772</v>
+        <v>-347567.9438846642</v>
       </c>
       <c r="V97">
-        <v>330.0305469633484</v>
+        <v>329.877651041004</v>
       </c>
       <c r="W97">
         <v>325</v>
@@ -7332,67 +7332,67 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>627053.2863904698</v>
+        <v>610834.7129458557</v>
       </c>
       <c r="C98">
-        <v>127969.3220445401</v>
+        <v>124591.5018387914</v>
       </c>
       <c r="D98">
         <v>1779.173961</v>
       </c>
       <c r="E98">
-        <v>366.1588232524554</v>
+        <v>366.419940415899</v>
       </c>
       <c r="F98">
-        <v>2502.738240232786</v>
+        <v>2438.332416146676</v>
       </c>
       <c r="G98">
         <v>308.15</v>
       </c>
       <c r="H98">
-        <v>-819561277.556733</v>
+        <v>-799131854.861378</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>456835715.882111</v>
+        <v>445079440.1836114</v>
       </c>
       <c r="K98">
-        <v>1807.76652406366</v>
+        <v>1761.245516003164</v>
       </c>
       <c r="L98">
-        <v>540128280.5004843</v>
+        <v>525908525.4193076</v>
       </c>
       <c r="M98">
         <v>375</v>
       </c>
       <c r="N98">
-        <v>-2536.416553007503</v>
+        <v>-2471.188874095803</v>
       </c>
       <c r="O98">
-        <v>-219161340.0765129</v>
+        <v>-216274270.9120396</v>
       </c>
       <c r="P98">
-        <v>-1027.018772964539</v>
+        <v>-999.7443991380806</v>
       </c>
       <c r="Q98">
         <v>-0</v>
       </c>
       <c r="R98">
-        <v>630595156.9815613</v>
+        <v>630561973.7197071</v>
       </c>
       <c r="S98">
-        <v>344.4095018903927</v>
+        <v>344.4746921434709</v>
       </c>
       <c r="T98">
-        <v>-49352.7068928091</v>
+        <v>-48754.98994113717</v>
       </c>
       <c r="U98">
-        <v>-356966.2164028171</v>
+        <v>-347496.1058249761</v>
       </c>
       <c r="V98">
-        <v>330.0296716969364</v>
+        <v>329.8767955679018</v>
       </c>
       <c r="W98">
         <v>325</v>
@@ -7403,67 +7403,67 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>626491.2017867421</v>
+        <v>610296.724427536</v>
       </c>
       <c r="C99">
-        <v>127829.9323746156</v>
+        <v>124456.0094455939</v>
       </c>
       <c r="D99">
         <v>1799.173961</v>
       </c>
       <c r="E99">
-        <v>366.1663073658746</v>
+        <v>366.4270387699502</v>
       </c>
       <c r="F99">
-        <v>2500.619641434918</v>
+        <v>2436.315150041638</v>
       </c>
       <c r="G99">
         <v>308.15</v>
       </c>
       <c r="H99">
-        <v>-818314237.6094331</v>
+        <v>-797948353.663865</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>456448998.8124104</v>
+        <v>444711219.8118582</v>
       </c>
       <c r="K99">
-        <v>1806.236238006037</v>
+        <v>1759.788423083492</v>
       </c>
       <c r="L99">
-        <v>539549164.0683051</v>
+        <v>525346242.6782205</v>
       </c>
       <c r="M99">
         <v>375</v>
       </c>
       <c r="N99">
-        <v>-2534.217438666646</v>
+        <v>-2469.096431760234</v>
       </c>
       <c r="O99">
-        <v>-218724128.6524009</v>
+        <v>-215839021.8402319</v>
       </c>
       <c r="P99">
-        <v>-1026.844094832313</v>
+        <v>-999.5741262912361</v>
       </c>
       <c r="Q99">
         <v>-0</v>
       </c>
       <c r="R99">
-        <v>630611559.928292</v>
+        <v>630578009.8480707</v>
       </c>
       <c r="S99">
-        <v>344.3568642665014</v>
+        <v>344.4235598388044</v>
       </c>
       <c r="T99">
-        <v>-49243.26883015575</v>
+        <v>-48646.06854990649</v>
       </c>
       <c r="U99">
-        <v>-356894.8742491766</v>
+        <v>-347425.8005436711</v>
       </c>
       <c r="V99">
-        <v>330.0288179255039</v>
+        <v>329.8759664791386</v>
       </c>
       <c r="W99">
         <v>325</v>
@@ -7474,67 +7474,67 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>625931.9019399282</v>
+        <v>609760.3395940418</v>
       </c>
       <c r="C100">
-        <v>127690.9283168927</v>
+        <v>124320.656886783</v>
       </c>
       <c r="D100">
         <v>1819.173961</v>
       </c>
       <c r="E100">
-        <v>366.1737490049004</v>
+        <v>366.4341113184885</v>
       </c>
       <c r="F100">
-        <v>2498.513066288744</v>
+        <v>2434.3052175686</v>
       </c>
       <c r="G100">
         <v>308.15</v>
       </c>
       <c r="H100">
-        <v>-817069825.150268</v>
+        <v>-796767832.2988055</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>456064476.4722424</v>
+        <v>444344338.0799077</v>
       </c>
       <c r="K100">
-        <v>1804.714636740874</v>
+        <v>1758.336627311523</v>
       </c>
       <c r="L100">
-        <v>538971754.763218</v>
+        <v>524784631.459089</v>
       </c>
       <c r="M100">
         <v>375</v>
       </c>
       <c r="N100">
-        <v>-2532.029406004905</v>
+        <v>-2467.0155221006</v>
       </c>
       <c r="O100">
-        <v>-218295603.1185298</v>
+        <v>-215410039.9351259</v>
       </c>
       <c r="P100">
-        <v>-1026.675175575065</v>
+        <v>-999.4095192553232</v>
       </c>
       <c r="Q100">
         <v>-0</v>
       </c>
       <c r="R100">
-        <v>630627920.4636039</v>
+        <v>630593998.8430471</v>
       </c>
       <c r="S100">
-        <v>344.3041157778176</v>
+        <v>344.3723350552008</v>
       </c>
       <c r="T100">
-        <v>-49135.98330888068</v>
+        <v>-48538.69071471617</v>
       </c>
       <c r="U100">
-        <v>-356825.1941684412</v>
+        <v>-347357.1159682366</v>
       </c>
       <c r="V100">
-        <v>330.0279924006922</v>
+        <v>329.8751650689313</v>
       </c>
       <c r="W100">
         <v>325</v>
@@ -7545,67 +7545,67 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>625374.5431237331</v>
+        <v>609226.5297283756</v>
       </c>
       <c r="C101">
-        <v>127552.1409179579</v>
+        <v>124185.6462995302</v>
       </c>
       <c r="D101">
         <v>1839.173961</v>
       </c>
       <c r="E101">
-        <v>366.1811601269042</v>
+        <v>366.4411444845941</v>
       </c>
       <c r="F101">
-        <v>2496.415129916935</v>
+        <v>2432.306477123982</v>
       </c>
       <c r="G101">
         <v>308.15</v>
       </c>
       <c r="H101">
-        <v>-815829272.5142161</v>
+        <v>-795589209.3533239</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>455681531.0052001</v>
+        <v>443979499.2776707</v>
       </c>
       <c r="K101">
-        <v>1803.19927532942</v>
+        <v>1756.892915647949</v>
       </c>
       <c r="L101">
-        <v>538395338.964696</v>
+        <v>524224542.3536077</v>
       </c>
       <c r="M101">
         <v>375</v>
       </c>
       <c r="N101">
-        <v>-2529.855011219011</v>
+        <v>-2464.943594626797</v>
       </c>
       <c r="O101">
-        <v>-217873994.1365292</v>
+        <v>-214986781.0399344</v>
       </c>
       <c r="P101">
-        <v>-1026.51250801955</v>
+        <v>-999.2498886106205</v>
       </c>
       <c r="Q101">
         <v>-0</v>
       </c>
       <c r="R101">
-        <v>630644233.1860006</v>
+        <v>630609943.2115231</v>
       </c>
       <c r="S101">
-        <v>344.2512972200007</v>
+        <v>344.3209926137785</v>
       </c>
       <c r="T101">
-        <v>-49030.40174165049</v>
+        <v>-48432.72413922091</v>
       </c>
       <c r="U101">
-        <v>-356757.3435348792</v>
+        <v>-347289.8083854128</v>
       </c>
       <c r="V101">
-        <v>330.0271975367828</v>
+        <v>329.8743879707638</v>
       </c>
       <c r="W101">
         <v>325</v>
@@ -7616,67 +7616,67 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>624820.3360163337</v>
+        <v>608694.6483848491</v>
       </c>
       <c r="C102">
-        <v>127413.8202803202</v>
+        <v>124050.8494223329</v>
       </c>
       <c r="D102">
         <v>1859.173961</v>
       </c>
       <c r="E102">
-        <v>366.1885237083114</v>
+        <v>366.4481474126602</v>
       </c>
       <c r="F102">
-        <v>2494.330651329089</v>
+        <v>2430.316329983432</v>
       </c>
       <c r="G102">
         <v>308.15</v>
       </c>
       <c r="H102">
-        <v>-814590621.8373637</v>
+        <v>-794412783.6187273</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102">
-        <v>455301042.0461026</v>
+        <v>443616229.0486676</v>
       </c>
       <c r="K102">
-        <v>1801.693634603365</v>
+        <v>1755.455411005448</v>
       </c>
       <c r="L102">
-        <v>537820969.5885916</v>
+        <v>523665432.6478213</v>
       </c>
       <c r="M102">
         <v>375</v>
       </c>
       <c r="N102">
-        <v>-2527.68994785411</v>
+        <v>-2462.881198060673</v>
       </c>
       <c r="O102">
-        <v>-217458020.4615084</v>
+        <v>-214569455.6163651</v>
       </c>
       <c r="P102">
-        <v>-1026.355104102095</v>
+        <v>-999.0952944463061</v>
       </c>
       <c r="Q102">
         <v>-0</v>
       </c>
       <c r="R102">
-        <v>630660502.740741</v>
+        <v>630625841.96325</v>
       </c>
       <c r="S102">
-        <v>344.1983537235607</v>
+        <v>344.2695454852595</v>
       </c>
       <c r="T102">
-        <v>-48926.20860220976</v>
+        <v>-48328.22107860159</v>
       </c>
       <c r="U102">
-        <v>-356690.9747204855</v>
+        <v>-347223.8949284775</v>
       </c>
       <c r="V102">
-        <v>330.0264284916394</v>
+        <v>329.8736354773436</v>
       </c>
       <c r="W102">
         <v>325</v>
@@ -7687,67 +7687,67 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>624269.1375806391</v>
+        <v>608165.2658780125</v>
       </c>
       <c r="C103">
-        <v>127275.939862566</v>
+        <v>123916.3857764347</v>
       </c>
       <c r="D103">
         <v>1879.173961</v>
       </c>
       <c r="E103">
-        <v>366.1958418119124</v>
+        <v>366.4551121441511</v>
       </c>
       <c r="F103">
-        <v>2492.259046604099</v>
+        <v>2428.337037873277</v>
       </c>
       <c r="G103">
         <v>308.15</v>
       </c>
       <c r="H103">
-        <v>-813353396.1671635</v>
+        <v>-793237912.8140504</v>
       </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103">
-        <v>454922903.0092862</v>
+        <v>443254940.23566</v>
       </c>
       <c r="K103">
-        <v>1800.197292781332</v>
+        <v>1754.025747048065</v>
       </c>
       <c r="L103">
-        <v>537248533.3482134</v>
+        <v>523107804.7214671</v>
       </c>
       <c r="M103">
         <v>375</v>
       </c>
       <c r="N103">
-        <v>-2525.533285417164</v>
+        <v>-2460.826631669121</v>
       </c>
       <c r="O103">
-        <v>-217047647.878743</v>
+        <v>-214157506.7030807</v>
       </c>
       <c r="P103">
-        <v>-1026.202822271216</v>
+        <v>-998.9451718581677</v>
       </c>
       <c r="Q103">
         <v>-0</v>
       </c>
       <c r="R103">
-        <v>630676734.1132071</v>
+        <v>630641698.4988406</v>
       </c>
       <c r="S103">
-        <v>344.1452687006831</v>
+        <v>344.2179849369404</v>
       </c>
       <c r="T103">
-        <v>-48823.39593036182</v>
+        <v>-48225.0453764433</v>
       </c>
       <c r="U103">
-        <v>-356626.0346493392</v>
+        <v>-347159.1753864302</v>
       </c>
       <c r="V103">
-        <v>330.0256845718752</v>
+        <v>329.872904829993</v>
       </c>
       <c r="W103">
         <v>325</v>
@@ -7758,67 +7758,67 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>623720.2395903214</v>
+        <v>607638.5811722252</v>
       </c>
       <c r="C104">
-        <v>127138.3575538048</v>
+        <v>123782.2986123996</v>
       </c>
       <c r="D104">
         <v>1899.173961</v>
       </c>
       <c r="E104">
-        <v>366.2031244721372</v>
+        <v>366.4620359386312</v>
       </c>
       <c r="F104">
-        <v>2490.197475186136</v>
+        <v>2426.369379588455</v>
       </c>
       <c r="G104">
         <v>308.15</v>
       </c>
       <c r="H104">
-        <v>-812118400.5047085</v>
+        <v>-792065733.0857407</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104">
-        <v>454546595.3957182</v>
+        <v>442895774.995481</v>
       </c>
       <c r="K104">
-        <v>1798.708198110862</v>
+        <v>1752.604486310333</v>
       </c>
       <c r="L104">
-        <v>536677430.6380633</v>
+        <v>522551841.5580201</v>
       </c>
       <c r="M104">
         <v>375</v>
       </c>
       <c r="N104">
-        <v>-2523.387215946422</v>
+        <v>-2458.78284338016</v>
       </c>
       <c r="O104">
-        <v>-216646395.7324876</v>
+        <v>-213751104.5564572</v>
       </c>
       <c r="P104">
-        <v>-1026.056421068233</v>
+        <v>-998.8004695060226</v>
       </c>
       <c r="Q104">
         <v>-0</v>
       </c>
       <c r="R104">
-        <v>630692926.7092946</v>
+        <v>630657513.8798629</v>
       </c>
       <c r="S104">
-        <v>344.0920526146973</v>
+        <v>344.1663303632776</v>
       </c>
       <c r="T104">
-        <v>-48722.8440656202</v>
+        <v>-48123.23413139648</v>
       </c>
       <c r="U104">
-        <v>-356562.7834188505</v>
+        <v>-347095.9762105006</v>
       </c>
       <c r="V104">
-        <v>330.0249694968521</v>
+        <v>329.872200661389</v>
       </c>
       <c r="W104">
         <v>325</v>
@@ -7829,67 +7829,67 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>623173.6028939005</v>
+        <v>607114.184750695</v>
       </c>
       <c r="C105">
-        <v>127001.0678610743</v>
+        <v>123648.507275297</v>
       </c>
       <c r="D105">
         <v>1919.173961</v>
       </c>
       <c r="E105">
-        <v>366.2103722861931</v>
+        <v>366.4689245971564</v>
       </c>
       <c r="F105">
-        <v>2488.145768029252</v>
+        <v>2424.411706527668</v>
       </c>
       <c r="G105">
         <v>308.15</v>
       </c>
       <c r="H105">
-        <v>-810887064.8929781</v>
+        <v>-790896190.4879911</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105">
-        <v>454172088.3487054</v>
+        <v>442538432.4017528</v>
       </c>
       <c r="K105">
-        <v>1797.226228480209</v>
+        <v>1751.190437998279</v>
       </c>
       <c r="L105">
-        <v>536107637.4597147</v>
+        <v>521997201.1380802</v>
       </c>
       <c r="M105">
         <v>375</v>
       </c>
       <c r="N105">
-        <v>-2521.254156674252</v>
+        <v>-2456.749404567023</v>
       </c>
       <c r="O105">
-        <v>-216250583.9828594</v>
+        <v>-213350043.084403</v>
       </c>
       <c r="P105">
-        <v>-1025.916013355754</v>
+        <v>-998.6609010240954</v>
       </c>
       <c r="Q105">
         <v>-0</v>
       </c>
       <c r="R105">
-        <v>630709077.1921502</v>
+        <v>630673287.8046964</v>
       </c>
       <c r="S105">
-        <v>344.0387701015197</v>
+        <v>344.1145910101672</v>
       </c>
       <c r="T105">
-        <v>-48623.62672785822</v>
+        <v>-48022.73737287772</v>
       </c>
       <c r="U105">
-        <v>-356501.2564757087</v>
+        <v>-347034.1942259963</v>
       </c>
       <c r="V105">
-        <v>330.0242838163811</v>
+        <v>329.8715215724183</v>
       </c>
       <c r="W105">
         <v>325</v>
@@ -7900,67 +7900,67 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>622629.3120687251</v>
+        <v>606591.8111775494</v>
       </c>
       <c r="C106">
-        <v>126864.090376842</v>
+        <v>123514.9604279531</v>
       </c>
       <c r="D106">
         <v>1939.173961</v>
       </c>
       <c r="E106">
-        <v>366.2175841042863</v>
+        <v>366.4757818952425</v>
       </c>
       <c r="F106">
-        <v>2486.104250610442</v>
+        <v>2422.462945747688</v>
       </c>
       <c r="G106">
         <v>308.15</v>
       </c>
       <c r="H106">
-        <v>-809658668.1857095</v>
+        <v>-789729211.1255606</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106">
-        <v>453799441.2789818</v>
+        <v>442182716.6054727</v>
       </c>
       <c r="K106">
-        <v>1795.751618989159</v>
+        <v>1749.782827104429</v>
       </c>
       <c r="L106">
-        <v>535539235.8513095</v>
+        <v>521443665.1303015</v>
       </c>
       <c r="M106">
         <v>375</v>
       </c>
       <c r="N106">
-        <v>-2519.133160524484</v>
+        <v>-2454.72578535831</v>
       </c>
       <c r="O106">
-        <v>-215860269.7081926</v>
+        <v>-212954224.5126854</v>
       </c>
       <c r="P106">
-        <v>-1025.781769527612</v>
+        <v>-998.5261220208486</v>
       </c>
       <c r="Q106">
         <v>-0</v>
       </c>
       <c r="R106">
-        <v>630725183.5641335</v>
+        <v>630689019.3673273</v>
       </c>
       <c r="S106">
-        <v>343.9853813639581</v>
+        <v>344.0627773399116</v>
       </c>
       <c r="T106">
-        <v>-48525.75706915549</v>
+        <v>-47923.53206266354</v>
       </c>
       <c r="U106">
-        <v>-356441.5095145872</v>
+        <v>-346973.7061833937</v>
       </c>
       <c r="V106">
-        <v>330.0236283687295</v>
+        <v>329.8708658803743</v>
       </c>
       <c r="W106">
         <v>325</v>
@@ -7971,67 +7971,67 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>622086.9108126399</v>
+        <v>606072.2159607853</v>
       </c>
       <c r="C107">
-        <v>126727.3343359843</v>
+        <v>123381.8144745272</v>
       </c>
       <c r="D107">
         <v>1959.173961</v>
       </c>
       <c r="E107">
-        <v>366.2247664032653</v>
+        <v>366.4825972587999</v>
       </c>
       <c r="F107">
-        <v>2484.071089472521</v>
+        <v>2420.526102278082</v>
       </c>
       <c r="G107">
         <v>308.15</v>
       </c>
       <c r="H107">
-        <v>-808432996.7216704</v>
+        <v>-788564201.2335621</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107">
-        <v>453428319.5176188</v>
+        <v>441829176.1277811</v>
       </c>
       <c r="K107">
-        <v>1794.283045308388</v>
+        <v>1748.383824192668</v>
       </c>
       <c r="L107">
-        <v>534971842.0526738</v>
+        <v>520891892.2681932</v>
       </c>
       <c r="M107">
         <v>375</v>
       </c>
       <c r="N107">
-        <v>-2517.024094677514</v>
+        <v>-2452.710612498608</v>
       </c>
       <c r="O107">
-        <v>-215475639.9364305</v>
+        <v>-212563489.6381552</v>
       </c>
       <c r="P107">
-        <v>-1025.653863615617</v>
+        <v>-998.3957766394269</v>
       </c>
       <c r="Q107">
         <v>-0</v>
       </c>
       <c r="R107">
-        <v>630741241.8905946</v>
+        <v>630704712.5165411</v>
       </c>
       <c r="S107">
-        <v>343.9318706310785</v>
+        <v>344.0108747846566</v>
       </c>
       <c r="T107">
-        <v>-48429.28109983724</v>
+        <v>-47825.58097734574</v>
       </c>
       <c r="U107">
-        <v>-356383.5995234281</v>
+        <v>-346914.3851094028</v>
       </c>
       <c r="V107">
-        <v>330.0230040081532</v>
+        <v>329.8702318479349</v>
       </c>
       <c r="W107">
         <v>325</v>
@@ -8042,67 +8042,67 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>621546.5939491636</v>
+        <v>605554.1535875436</v>
       </c>
       <c r="C108">
-        <v>126590.8419628341</v>
+        <v>123248.8183679577</v>
       </c>
       <c r="D108">
         <v>1979.173961</v>
       </c>
       <c r="E108">
-        <v>366.2319164661034</v>
+        <v>366.4893882355756</v>
       </c>
       <c r="F108">
-        <v>2482.047053746612</v>
+        <v>2418.596189243739</v>
       </c>
       <c r="G108">
         <v>308.15</v>
       </c>
       <c r="H108">
-        <v>-807208939.3640981</v>
+        <v>-787401894.8660781</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108">
-        <v>453058863.4574713</v>
+        <v>441476900.6926351</v>
       </c>
       <c r="K108">
-        <v>1792.821062991756</v>
+        <v>1746.989827202934</v>
       </c>
       <c r="L108">
-        <v>534405630.4324948</v>
+        <v>520340821.5933459</v>
       </c>
       <c r="M108">
         <v>375</v>
       </c>
       <c r="N108">
-        <v>-2514.922941396746</v>
+        <v>-2450.704980143935</v>
       </c>
       <c r="O108">
-        <v>-215096094.4076706</v>
+        <v>-212179333.8886288</v>
       </c>
       <c r="P108">
-        <v>-1025.530419207143</v>
+        <v>-998.2698002261259</v>
       </c>
       <c r="Q108">
         <v>-0</v>
       </c>
       <c r="R108">
-        <v>630757253.5477635</v>
+        <v>630720364.4687477</v>
       </c>
       <c r="S108">
-        <v>343.8782562559406</v>
+        <v>343.9589223762237</v>
       </c>
       <c r="T108">
-        <v>-48334.0585982304</v>
+        <v>-47729.25921828222</v>
       </c>
       <c r="U108">
-        <v>-356326.870287689</v>
+        <v>-346856.2053070187</v>
       </c>
       <c r="V108">
-        <v>330.0224015315254</v>
+        <v>329.8696191571675</v>
       </c>
       <c r="W108">
         <v>325</v>
@@ -8113,67 +8113,67 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>621008.5447220961</v>
+        <v>605037.5965907288</v>
       </c>
       <c r="C109">
-        <v>126454.6528578738</v>
+        <v>123115.9690235006</v>
       </c>
       <c r="D109">
         <v>1999.173961</v>
       </c>
       <c r="E109">
-        <v>366.2390317450296</v>
+        <v>366.4961552539434</v>
       </c>
       <c r="F109">
-        <v>2480.032864646105</v>
+        <v>2416.673084926224</v>
       </c>
       <c r="G109">
         <v>308.15</v>
       </c>
       <c r="H109">
-        <v>-805986751.9604654</v>
+        <v>-786241180.8218361</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109">
-        <v>452691204.7447622</v>
+        <v>441125868.0822388</v>
       </c>
       <c r="K109">
-        <v>1791.366192985178</v>
+        <v>1745.600748202068</v>
       </c>
       <c r="L109">
-        <v>533840766.585998</v>
+        <v>519790438.6780012</v>
       </c>
       <c r="M109">
         <v>375</v>
       </c>
       <c r="N109">
-        <v>-2512.829582105104</v>
+        <v>-2448.706786339064</v>
       </c>
       <c r="O109">
-        <v>-214721954.8945564</v>
+        <v>-211800907.5089552</v>
       </c>
       <c r="P109">
-        <v>-1025.410995811171</v>
+        <v>-998.1479180908082</v>
       </c>
       <c r="Q109">
         <v>-0</v>
       </c>
       <c r="R109">
-        <v>630773220.8984392</v>
+        <v>630735974.5455036</v>
       </c>
       <c r="S109">
-        <v>343.8245675529877</v>
+        <v>343.906877031383</v>
       </c>
       <c r="T109">
-        <v>-48240.17289201168</v>
+        <v>-47634.35464565803</v>
       </c>
       <c r="U109">
-        <v>-356271.1652255763</v>
+        <v>-346799.0679494301</v>
       </c>
       <c r="V109">
-        <v>330.0218187770693</v>
+        <v>329.8690264688827</v>
       </c>
       <c r="W109">
         <v>325</v>
@@ -8184,67 +8184,67 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>620985.6663010436</v>
+        <v>605015.4577026827</v>
       </c>
       <c r="C110">
-        <v>126448.894905167</v>
+        <v>123110.3189765174</v>
       </c>
       <c r="D110">
         <v>2000</v>
       </c>
       <c r="E110">
-        <v>366.2393348864553</v>
+        <v>366.4964460593482</v>
       </c>
       <c r="F110">
-        <v>2479.947051545349</v>
+        <v>2416.590441572724</v>
       </c>
       <c r="G110">
         <v>308.15</v>
       </c>
       <c r="H110">
-        <v>-805936710.3212186</v>
+        <v>-786193705.6622008</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
-        <v>452675540.9055776</v>
+        <v>441110782.8308321</v>
       </c>
       <c r="K110">
-        <v>1791.304209277648</v>
+        <v>1745.541054011905</v>
       </c>
       <c r="L110">
-        <v>533816875.454653</v>
+        <v>519767018.777637</v>
       </c>
       <c r="M110">
         <v>375</v>
       </c>
       <c r="N110">
-        <v>-2512.744492597501</v>
+        <v>-2448.625660036662</v>
       </c>
       <c r="O110">
-        <v>-214706737.8792719</v>
+        <v>-211785443.4900132</v>
       </c>
       <c r="P110">
-        <v>-1025.406625836922</v>
+        <v>-998.1434371866271</v>
       </c>
       <c r="Q110">
         <v>-0</v>
       </c>
       <c r="R110">
-        <v>630773880.1218395</v>
+        <v>630736618.9881495</v>
       </c>
       <c r="S110">
-        <v>343.8223495989067</v>
+        <v>343.9047285999944</v>
       </c>
       <c r="T110">
-        <v>-48236.35061776279</v>
+        <v>-47630.47254798786</v>
       </c>
       <c r="U110">
-        <v>-356269.0595600026</v>
+        <v>-346796.8998665464</v>
       </c>
       <c r="V110">
-        <v>330.0217974664976</v>
+        <v>329.8690046909492</v>
       </c>
       <c r="W110">
         <v>325</v>

--- a/m_true_time_data.xlsx
+++ b/m_true_time_data.xlsx
@@ -516,67 +516,67 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1264362.424411419</v>
+        <v>64414.58328130106</v>
       </c>
       <c r="C2">
-        <v>480333.5664265893</v>
+        <v>24506.2212418764</v>
       </c>
       <c r="D2">
         <v>1E-06</v>
       </c>
       <c r="E2">
-        <v>357.2757873623963</v>
+        <v>355.408747867195</v>
       </c>
       <c r="F2">
-        <v>9340.284701721139</v>
+        <v>476.5336003108168</v>
       </c>
       <c r="G2">
-        <v>308.1499999982519</v>
+        <v>308.15</v>
       </c>
       <c r="H2">
-        <v>-3113091849.927269</v>
+        <v>-185020637.337737</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>1704922863.87189</v>
+        <v>86983754.40957947</v>
       </c>
       <c r="K2">
-        <v>3631.889857892684</v>
+        <v>185.0313383234677</v>
       </c>
       <c r="L2">
-        <v>2048167467.878771</v>
+        <v>104495810.5980257</v>
       </c>
       <c r="M2">
         <v>375</v>
       </c>
       <c r="N2">
-        <v>-9179.629416853099</v>
+        <v>-545.5734818937404</v>
       </c>
       <c r="O2">
-        <v>-1079393104.800265</v>
+        <v>-64041329.30449753</v>
       </c>
       <c r="P2">
-        <v>-3520.833747592178</v>
+        <v>-209.2512188539786</v>
       </c>
       <c r="Q2">
         <v>-0</v>
       </c>
       <c r="R2">
-        <v>628975109.6856546</v>
+        <v>628975109.6738261</v>
       </c>
       <c r="S2">
-        <v>348.6152419781765</v>
+        <v>348.6160845736495</v>
       </c>
       <c r="T2">
-        <v>-253137.48145104</v>
+        <v>-15018.88900439614</v>
       </c>
       <c r="U2">
-        <v>-1225700.688307507</v>
+        <v>-72846.20103232851</v>
       </c>
       <c r="V2">
-        <v>342.3207008122083</v>
+        <v>347.3339836801958</v>
       </c>
       <c r="W2">
         <v>325</v>
@@ -587,67 +587,67 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1265108.006199616</v>
+        <v>64249.09904311938</v>
       </c>
       <c r="C3">
-        <v>475009.7155013186</v>
+        <v>24426.87634500173</v>
       </c>
       <c r="D3">
         <v>9E-06</v>
       </c>
       <c r="E3">
-        <v>357.2661215949545</v>
+        <v>355.4590805295026</v>
       </c>
       <c r="F3">
-        <v>9236.758646890428</v>
+        <v>474.9906809340798</v>
       </c>
       <c r="G3">
         <v>308.15</v>
       </c>
       <c r="H3">
-        <v>-3111074517.331952</v>
+        <v>-184692998.7470407</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>1686025802.079081</v>
+        <v>86702118.61295916</v>
       </c>
       <c r="K3">
-        <v>3634.031866028142</v>
+        <v>184.5559887202696</v>
       </c>
       <c r="L3">
-        <v>2025465184.589491</v>
+        <v>104157462.2157863</v>
       </c>
       <c r="M3">
         <v>375</v>
       </c>
       <c r="N3">
-        <v>-9174.258047735093</v>
+        <v>-544.6083656151194</v>
       </c>
       <c r="O3">
-        <v>-1076883300.86397</v>
+        <v>-63894475.78465976</v>
       </c>
       <c r="P3">
-        <v>-3519.034702333101</v>
+        <v>-208.8815055799387</v>
       </c>
       <c r="Q3">
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>628975109.7109958</v>
+        <v>628975109.6430726</v>
       </c>
       <c r="S3">
-        <v>348.6093260757079</v>
+        <v>348.6159124630323</v>
       </c>
       <c r="T3">
-        <v>-252548.8614709116</v>
+        <v>-14984.4491084992</v>
       </c>
       <c r="U3">
-        <v>-1225074.390342187</v>
+        <v>-72717.49350253474</v>
       </c>
       <c r="V3">
-        <v>342.2804894709224</v>
+        <v>347.2827706022105</v>
       </c>
       <c r="W3">
         <v>325</v>
@@ -658,67 +658,67 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1262516.966338886</v>
+        <v>63797.80984157074</v>
       </c>
       <c r="C4">
-        <v>439050.8853204766</v>
+        <v>24138.47331893914</v>
       </c>
       <c r="D4">
         <v>7.3E-05</v>
       </c>
       <c r="E4">
-        <v>357.3072794695483</v>
+        <v>355.5963249825987</v>
       </c>
       <c r="F4">
-        <v>8537.452066458689</v>
+        <v>469.3812298804675</v>
       </c>
       <c r="G4">
         <v>308.15</v>
       </c>
       <c r="H4">
-        <v>-3080084650.403504</v>
+        <v>-182122181.6168314</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1558378324.94504</v>
+        <v>85678201.07072978</v>
       </c>
       <c r="K4">
-        <v>3626.6049403211</v>
+        <v>183.2599261358479</v>
       </c>
       <c r="L4">
-        <v>1872084141.91942</v>
+        <v>102926759.8512846</v>
       </c>
       <c r="M4">
         <v>375</v>
       </c>
       <c r="N4">
-        <v>-9084.465308532881</v>
+        <v>-537.0344585726551</v>
       </c>
       <c r="O4">
-        <v>-1064135982.116287</v>
+        <v>-62987252.20069862</v>
       </c>
       <c r="P4">
-        <v>-3485.312749779723</v>
+        <v>-205.9796135029046</v>
       </c>
       <c r="Q4">
         <v>-0</v>
       </c>
       <c r="R4">
-        <v>628975107.8775582</v>
+        <v>628975109.4045023</v>
       </c>
       <c r="S4">
-        <v>348.5928456001548</v>
+        <v>348.6147365719023</v>
       </c>
       <c r="T4">
-        <v>-249559.2348271296</v>
+        <v>-14771.68821709269</v>
       </c>
       <c r="U4">
-        <v>-1213334.835617654</v>
+        <v>-71707.26371856745</v>
       </c>
       <c r="V4">
-        <v>342.0760090412064</v>
+        <v>346.9663830916392</v>
       </c>
       <c r="W4">
         <v>325</v>
@@ -729,67 +729,67 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1229066.872949624</v>
+        <v>60946.90028882618</v>
       </c>
       <c r="C5">
-        <v>332017.5433651964</v>
+        <v>22295.38617696834</v>
       </c>
       <c r="D5">
         <v>0.000585</v>
       </c>
       <c r="E5">
-        <v>357.7880696490872</v>
+        <v>356.4628508058002</v>
       </c>
       <c r="F5">
-        <v>6455.155709205304</v>
+        <v>433.5114974781696</v>
       </c>
       <c r="G5">
         <v>308.15</v>
       </c>
       <c r="H5">
-        <v>-2929053484.421099</v>
+        <v>-169228152.4702359</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1178287697.90604</v>
+        <v>79130742.52429411</v>
       </c>
       <c r="K5">
-        <v>3530.803014509996</v>
+        <v>175.0769545886961</v>
       </c>
       <c r="L5">
-        <v>1414994352.254249</v>
+        <v>95046590.51208967</v>
       </c>
       <c r="M5">
         <v>375</v>
       </c>
       <c r="N5">
-        <v>-8642.668855483091</v>
+        <v>-499.0626188361866</v>
       </c>
       <c r="O5">
-        <v>-1011833606.112162</v>
+        <v>-58522218.90009803</v>
       </c>
       <c r="P5">
-        <v>-3317.467388978912</v>
+        <v>-191.4379189770443</v>
       </c>
       <c r="Q5">
         <v>-0</v>
       </c>
       <c r="R5">
-        <v>628975048.9040148</v>
+        <v>628975107.5713413</v>
       </c>
       <c r="S5">
-        <v>348.5531329935555</v>
+        <v>348.6054044933563</v>
       </c>
       <c r="T5">
-        <v>-237292.1555844452</v>
+        <v>-13724.55443222381</v>
       </c>
       <c r="U5">
-        <v>-1154903.170789327</v>
+        <v>-66644.89319292313</v>
       </c>
       <c r="V5">
-        <v>341.2367034768303</v>
+        <v>345.4092331775443</v>
       </c>
       <c r="W5">
         <v>325</v>
@@ -800,67 +800,67 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1139107.308807374</v>
+        <v>53489.73684037742</v>
       </c>
       <c r="C6">
-        <v>242364.2612361292</v>
+        <v>16788.04427403885</v>
       </c>
       <c r="D6">
         <v>0.004680999999999999</v>
       </c>
       <c r="E6">
-        <v>359.0519863616955</v>
+        <v>358.7281315096303</v>
       </c>
       <c r="F6">
-        <v>4709.198249979797</v>
+        <v>326.301872628277</v>
       </c>
       <c r="G6">
         <v>308.15</v>
       </c>
       <c r="H6">
-        <v>-2553068929.823715</v>
+        <v>-143383926.3154402</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>859590475.4147227</v>
+        <v>59561302.56832103</v>
       </c>
       <c r="K6">
-        <v>3273.416796050292</v>
+        <v>153.6858632990051</v>
       </c>
       <c r="L6">
-        <v>1030869727.759394</v>
+        <v>71480648.96998583</v>
       </c>
       <c r="M6">
         <v>375</v>
       </c>
       <c r="N6">
-        <v>-7542.132199278642</v>
+        <v>-423.2293972209537</v>
       </c>
       <c r="O6">
-        <v>-883472889.5191458</v>
+        <v>-49668470.64595603</v>
       </c>
       <c r="P6">
-        <v>-2899.03507112399</v>
+        <v>-162.521819390804</v>
       </c>
       <c r="Q6">
         <v>-0</v>
       </c>
       <c r="R6">
-        <v>628974434.30088</v>
+        <v>628975086.3498549</v>
       </c>
       <c r="S6">
-        <v>348.4430339789178</v>
+        <v>348.5204826213115</v>
       </c>
       <c r="T6">
-        <v>-207175.5707848532</v>
+        <v>-11648.18494167848</v>
       </c>
       <c r="U6">
-        <v>-1009233.653381226</v>
+        <v>-56578.39028041343</v>
       </c>
       <c r="V6">
-        <v>339.1778548127542</v>
+        <v>342.3215480397984</v>
       </c>
       <c r="W6">
         <v>325</v>
@@ -871,67 +871,67 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>983674.0277211306</v>
+        <v>48260.56497811605</v>
       </c>
       <c r="C7">
-        <v>201888.0027587979</v>
+        <v>11366.52865003294</v>
       </c>
       <c r="D7">
         <v>0.037449</v>
       </c>
       <c r="E7">
-        <v>361.2218322308381</v>
+        <v>360.3146870040613</v>
       </c>
       <c r="F7">
-        <v>3918.698609175501</v>
+        <v>220.7894367503368</v>
       </c>
       <c r="G7">
         <v>308.15</v>
       </c>
       <c r="H7">
-        <v>-1856989744.657073</v>
+        <v>-119524931.231411</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>715297131.6258839</v>
+        <v>40301657.91036402</v>
       </c>
       <c r="K7">
-        <v>2828.266630971344</v>
+        <v>138.706063792895</v>
       </c>
       <c r="L7">
-        <v>855868523.7247887</v>
+        <v>48300541.77339973</v>
       </c>
       <c r="M7">
         <v>375</v>
       </c>
       <c r="N7">
-        <v>-5497.961962550063</v>
+        <v>-353.7168912510787</v>
       </c>
       <c r="O7">
-        <v>-620180667.4406006</v>
+        <v>-41555968.86056843</v>
       </c>
       <c r="P7">
-        <v>-2118.779692483486</v>
+        <v>-136.2412252944978</v>
       </c>
       <c r="Q7">
         <v>-0</v>
       </c>
       <c r="R7">
-        <v>628971747.2124678</v>
+        <v>628974854.4947345</v>
       </c>
       <c r="S7">
-        <v>348.2372408854938</v>
+        <v>348.2794020041633</v>
       </c>
       <c r="T7">
-        <v>-144818.1061653628</v>
+        <v>-9745.651506099606</v>
       </c>
       <c r="U7">
-        <v>-737507.8637450103</v>
+        <v>-47429.3371935379</v>
       </c>
       <c r="V7">
-        <v>335.3505209391637</v>
+        <v>339.4923696651296</v>
       </c>
       <c r="W7">
         <v>325</v>
@@ -942,67 +942,67 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>767700.2213838255</v>
+        <v>43631.70231541619</v>
       </c>
       <c r="C8">
-        <v>157676.16833105</v>
+        <v>9021.20695208828</v>
       </c>
       <c r="D8">
         <v>0.299593</v>
       </c>
       <c r="E8">
-        <v>364.2413333870617</v>
+        <v>361.7186186877961</v>
       </c>
       <c r="F8">
-        <v>3057.475315653686</v>
+        <v>175.1114319223559</v>
       </c>
       <c r="G8">
         <v>308.15</v>
       </c>
       <c r="H8">
-        <v>-1217797983.494357</v>
+        <v>-95861330.38004787</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>558094291.3505088</v>
+        <v>31963852.66161525</v>
       </c>
       <c r="K8">
-        <v>2208.45239754675</v>
+        <v>125.4472917103697</v>
       </c>
       <c r="L8">
-        <v>666283159.260673</v>
+        <v>38249203.35953677</v>
       </c>
       <c r="M8">
         <v>375</v>
       </c>
       <c r="N8">
-        <v>-3612.080981687</v>
+        <v>-284.3834532990701</v>
       </c>
       <c r="O8">
-        <v>-397165190.0748833</v>
+        <v>-33456600.40728818</v>
       </c>
       <c r="P8">
-        <v>-1394.961885210932</v>
+        <v>-109.8496424390305</v>
       </c>
       <c r="Q8">
         <v>-0</v>
       </c>
       <c r="R8">
-        <v>628964716.8657156</v>
+        <v>628973336.3893454</v>
       </c>
       <c r="S8">
-        <v>348.0691563172496</v>
+        <v>348.0527765335747</v>
       </c>
       <c r="T8">
-        <v>-92283.51789259681</v>
+        <v>-7845.97352874308</v>
       </c>
       <c r="U8">
-        <v>-485294.0045499371</v>
+        <v>-38239.49685716199</v>
       </c>
       <c r="V8">
-        <v>331.8079489061243</v>
+        <v>336.6675403682227</v>
       </c>
       <c r="W8">
         <v>325</v>
@@ -1013,67 +1013,67 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>675585.920344449</v>
+        <v>36401.39228197383</v>
       </c>
       <c r="C9">
-        <v>138850.5859340137</v>
+        <v>7473.81124363317</v>
       </c>
       <c r="D9">
         <v>2.396745</v>
       </c>
       <c r="E9">
-        <v>365.530028142847</v>
+        <v>363.9150406131519</v>
       </c>
       <c r="F9">
-        <v>2691.234872001435</v>
+        <v>144.9619928230508</v>
       </c>
       <c r="G9">
         <v>308.15</v>
       </c>
       <c r="H9">
-        <v>-956599459.4625862</v>
+        <v>-68183544.96280698</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>491242827.3934566</v>
+        <v>26460544.17614852</v>
       </c>
       <c r="K9">
-        <v>1943.919536051684</v>
+        <v>104.7013996284834</v>
       </c>
       <c r="L9">
-        <v>585889144.927672</v>
+        <v>31609253.73178523</v>
       </c>
       <c r="M9">
         <v>375</v>
       </c>
       <c r="N9">
-        <v>-2840.775768659547</v>
+        <v>-202.7333939653234</v>
       </c>
       <c r="O9">
-        <v>-313662819.2288761</v>
+        <v>-23896931.13066632</v>
       </c>
       <c r="P9">
-        <v>-1098.630279801682</v>
+        <v>-78.51695024783112</v>
       </c>
       <c r="Q9">
         <v>-0</v>
       </c>
       <c r="R9">
-        <v>628954159.8728071</v>
+        <v>628967044.7798142</v>
       </c>
       <c r="S9">
-        <v>347.9580574842794</v>
+        <v>347.8445701446833</v>
       </c>
       <c r="T9">
-        <v>-72825.13578375106</v>
+        <v>-5601.770984184554</v>
       </c>
       <c r="U9">
-        <v>-382087.168615244</v>
+        <v>-27323.95722576946</v>
       </c>
       <c r="V9">
-        <v>330.3596576150738</v>
+        <v>333.3313349671055</v>
       </c>
       <c r="W9">
         <v>325</v>
@@ -1084,67 +1084,67 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>675175.8257825342</v>
+        <v>33861.66277680101</v>
       </c>
       <c r="C10">
-        <v>138779.2256509658</v>
+        <v>6956.262599345109</v>
       </c>
       <c r="D10">
         <v>19.173961</v>
       </c>
       <c r="E10">
-        <v>365.5355436234507</v>
+        <v>364.686311843097</v>
       </c>
       <c r="F10">
-        <v>2689.667431951739</v>
+        <v>134.8660557018086</v>
       </c>
       <c r="G10">
         <v>308.15</v>
       </c>
       <c r="H10">
-        <v>-920384520.956015</v>
+        <v>-53282051.21263257</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>490956715.7315602</v>
+        <v>24617688.78354682</v>
       </c>
       <c r="K10">
-        <v>1942.787362649162</v>
+        <v>97.41646812097247</v>
       </c>
       <c r="L10">
-        <v>585486892.4309034</v>
+        <v>29381960.78118419</v>
       </c>
       <c r="M10">
         <v>375</v>
       </c>
       <c r="N10">
-        <v>-2734.057193871046</v>
+        <v>-158.6016530143388</v>
       </c>
       <c r="O10">
-        <v>-300275510.6141611</v>
+        <v>-18705839.00204938</v>
       </c>
       <c r="P10">
-        <v>-1057.729983017452</v>
+        <v>-61.50387989123374</v>
       </c>
       <c r="Q10">
         <v>-0</v>
       </c>
       <c r="R10">
-        <v>628966443.628581</v>
+        <v>628947842.4818469</v>
       </c>
       <c r="S10">
-        <v>347.9302774457881</v>
+        <v>347.7434375578992</v>
       </c>
       <c r="T10">
-        <v>-69684.27137488838</v>
+        <v>-4386.202704450799</v>
       </c>
       <c r="U10">
-        <v>-367847.3561044674</v>
+        <v>-21396.72381145039</v>
       </c>
       <c r="V10">
-        <v>330.1598511021516</v>
+        <v>331.5228492053415</v>
       </c>
       <c r="W10">
         <v>325</v>
@@ -1155,67 +1155,67 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>674287.6438965256</v>
+        <v>34487.74677367227</v>
       </c>
       <c r="C11">
-        <v>138600.3228645984</v>
+        <v>7085.862687356964</v>
       </c>
       <c r="D11">
         <v>39.173961</v>
       </c>
       <c r="E11">
-        <v>365.548029563891</v>
+        <v>364.4952443696266</v>
       </c>
       <c r="F11">
-        <v>2686.119074232652</v>
+        <v>137.3645222894489</v>
       </c>
       <c r="G11">
         <v>308.15</v>
       </c>
       <c r="H11">
-        <v>-917267390.7245376</v>
+        <v>-50268442.28606446</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>490309018.5362457</v>
+        <v>25073744.77606886</v>
       </c>
       <c r="K11">
-        <v>1940.224349417074</v>
+        <v>99.22116864737082</v>
       </c>
       <c r="L11">
-        <v>584724625.8972312</v>
+        <v>29921786.95360588</v>
       </c>
       <c r="M11">
         <v>375</v>
       </c>
       <c r="N11">
-        <v>-2725.083786167446</v>
+        <v>-149.6520626636882</v>
       </c>
       <c r="O11">
-        <v>-297570460.3967749</v>
+        <v>-17645965.21764461</v>
       </c>
       <c r="P11">
-        <v>-1054.386962255194</v>
+        <v>-58.04267654525574</v>
       </c>
       <c r="Q11">
         <v>-0</v>
       </c>
       <c r="R11">
-        <v>628986941.9746433</v>
+        <v>628937574.8490789</v>
       </c>
       <c r="S11">
-        <v>347.9206421688194</v>
+        <v>347.7307440875924</v>
       </c>
       <c r="T11">
-        <v>-69018.06193728151</v>
+        <v>-4139.539038533028</v>
       </c>
       <c r="U11">
-        <v>-366684.5557017918</v>
+        <v>-20190.93034326523</v>
       </c>
       <c r="V11">
-        <v>330.1435213281524</v>
+        <v>331.1551587745176</v>
       </c>
       <c r="W11">
         <v>325</v>
@@ -1226,67 +1226,67 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>673006.1726780753</v>
+        <v>34886.65362985276</v>
       </c>
       <c r="C12">
-        <v>138340.8753811979</v>
+        <v>7168.288691159036</v>
       </c>
       <c r="D12">
         <v>59.173961</v>
       </c>
       <c r="E12">
-        <v>365.5660470271388</v>
+        <v>364.3736309774055</v>
       </c>
       <c r="F12">
-        <v>2680.998722776376</v>
+        <v>138.9547898218969</v>
       </c>
       <c r="G12">
         <v>308.15</v>
       </c>
       <c r="H12">
-        <v>-915343646.10789</v>
+        <v>-49123983.93675718</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>489374378.4746153</v>
+        <v>25364023.23785573</v>
       </c>
       <c r="K12">
-        <v>1936.525869760243</v>
+        <v>100.3698505704447</v>
       </c>
       <c r="L12">
-        <v>583625199.0731376</v>
+        <v>30266906.73610411</v>
       </c>
       <c r="M12">
         <v>375</v>
       </c>
       <c r="N12">
-        <v>-2719.679206627172</v>
+        <v>-146.2454605742627</v>
       </c>
       <c r="O12">
-        <v>-295392811.2295048</v>
+        <v>-17240771.2193427</v>
       </c>
       <c r="P12">
-        <v>-1052.435318467815</v>
+        <v>-56.72165436862997</v>
       </c>
       <c r="Q12">
         <v>-0</v>
       </c>
       <c r="R12">
-        <v>629007614.7584732</v>
+        <v>628932829.2600697</v>
       </c>
       <c r="S12">
-        <v>347.910167875514</v>
+        <v>347.7304225826469</v>
       </c>
       <c r="T12">
-        <v>-68476.52027653712</v>
+        <v>-4045.491117811915</v>
       </c>
       <c r="U12">
-        <v>-366006.2425752179</v>
+        <v>-19730.72826101923</v>
       </c>
       <c r="V12">
-        <v>330.1339884579913</v>
+        <v>331.0148450562284</v>
       </c>
       <c r="W12">
         <v>325</v>
@@ -1297,67 +1297,67 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>671746.8431627766</v>
+        <v>35044.58791235594</v>
       </c>
       <c r="C13">
-        <v>138086.3433903751</v>
+        <v>7201.049010048434</v>
       </c>
       <c r="D13">
         <v>79.17396099999999</v>
       </c>
       <c r="E13">
-        <v>365.5837619462669</v>
+        <v>364.3254959873497</v>
       </c>
       <c r="F13">
-        <v>2675.964350940675</v>
+        <v>139.5842230762219</v>
       </c>
       <c r="G13">
         <v>308.15</v>
       </c>
       <c r="H13">
-        <v>-913520740.0194858</v>
+        <v>-48543112.25014118</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>488455432.6477576</v>
+        <v>25478916.43232454</v>
       </c>
       <c r="K13">
-        <v>1932.889493921976</v>
+        <v>100.8245027426647</v>
       </c>
       <c r="L13">
-        <v>582546654.8914514</v>
+        <v>30403697.08548535</v>
       </c>
       <c r="M13">
         <v>375</v>
       </c>
       <c r="N13">
-        <v>-2714.620749585784</v>
+        <v>-144.5117962781161</v>
       </c>
       <c r="O13">
-        <v>-293338516.5543295</v>
+        <v>-17033897.42575081</v>
       </c>
       <c r="P13">
-        <v>-1050.638499725665</v>
+        <v>-56.04729007586684</v>
       </c>
       <c r="Q13">
         <v>-0</v>
       </c>
       <c r="R13">
-        <v>629028175.9536806</v>
+        <v>628930692.5081708</v>
       </c>
       <c r="S13">
-        <v>347.8980854581137</v>
+        <v>347.7331772300713</v>
       </c>
       <c r="T13">
-        <v>-67965.26903937459</v>
+        <v>-3997.489708048942</v>
       </c>
       <c r="U13">
-        <v>-365381.8588332097</v>
+        <v>-19495.81163336131</v>
       </c>
       <c r="V13">
-        <v>330.1252120155918</v>
+        <v>330.9432208647896</v>
       </c>
       <c r="W13">
         <v>325</v>
@@ -1368,67 +1368,67 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>670536.1929136789</v>
+        <v>35078.28134800881</v>
       </c>
       <c r="C14">
-        <v>137842.0145681374</v>
+        <v>7208.211482179124</v>
       </c>
       <c r="D14">
         <v>99.17396099999999</v>
       </c>
       <c r="E14">
-        <v>365.6007988760326</v>
+        <v>364.3152389848692</v>
       </c>
       <c r="F14">
-        <v>2671.122655851211</v>
+        <v>139.7183479284262</v>
       </c>
       <c r="G14">
         <v>308.15</v>
       </c>
       <c r="H14">
-        <v>-911754259.9566215</v>
+        <v>-48206681.98645258</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>487571656.9469187</v>
+        <v>25503398.82600411</v>
       </c>
       <c r="K14">
-        <v>1929.392290276069</v>
+        <v>100.9213837943248</v>
       </c>
       <c r="L14">
-        <v>581511264.5466527</v>
+        <v>30433019.92178856</v>
       </c>
       <c r="M14">
         <v>375</v>
       </c>
       <c r="N14">
-        <v>-2709.773274228141</v>
+        <v>-143.5044106956812</v>
       </c>
       <c r="O14">
-        <v>-291403133.1914423</v>
+        <v>-16913224.46926074</v>
       </c>
       <c r="P14">
-        <v>-1048.942781488904</v>
+        <v>-55.6539693832292</v>
       </c>
       <c r="Q14">
         <v>-0</v>
       </c>
       <c r="R14">
-        <v>629048607.6463712</v>
+        <v>628929812.1909388</v>
       </c>
       <c r="S14">
-        <v>347.8844983274759</v>
+        <v>347.7368849849526</v>
       </c>
       <c r="T14">
-        <v>-67483.57324519807</v>
+        <v>-3969.497718942899</v>
       </c>
       <c r="U14">
-        <v>-364792.6941961924</v>
+        <v>-19358.80875247878</v>
       </c>
       <c r="V14">
-        <v>330.1169295479095</v>
+        <v>330.9014474789905</v>
       </c>
       <c r="W14">
         <v>325</v>
@@ -1439,67 +1439,67 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>669373.9036124514</v>
+        <v>35053.28785898229</v>
       </c>
       <c r="C15">
-        <v>137607.6815460514</v>
+        <v>7203.279416771473</v>
       </c>
       <c r="D15">
         <v>119.173961</v>
       </c>
       <c r="E15">
-        <v>365.6171595711376</v>
+        <v>364.3228741133904</v>
       </c>
       <c r="F15">
-        <v>2666.473138822047</v>
+        <v>139.618507799325</v>
       </c>
       <c r="G15">
         <v>308.15</v>
       </c>
       <c r="H15">
-        <v>-910027293.5514326</v>
+        <v>-47987885.64125193</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>486722960.3447814</v>
+        <v>25485174.57221739</v>
       </c>
       <c r="K15">
-        <v>1926.033898631502</v>
+        <v>100.8492672785978</v>
       </c>
       <c r="L15">
-        <v>580518168.3150303</v>
+        <v>30411577.81727708</v>
       </c>
       <c r="M15">
         <v>375</v>
       </c>
       <c r="N15">
-        <v>-2705.083587823788</v>
+        <v>-142.8469843988116</v>
       </c>
       <c r="O15">
-        <v>-289560778.083283</v>
+        <v>-16834150.66983362</v>
       </c>
       <c r="P15">
-        <v>-1047.326258321846</v>
+        <v>-55.39627150028537</v>
       </c>
       <c r="Q15">
         <v>-0</v>
       </c>
       <c r="R15">
-        <v>629068949.9050912</v>
+        <v>628929541.895234</v>
       </c>
       <c r="S15">
-        <v>347.8695019502811</v>
+        <v>347.7407766764416</v>
       </c>
       <c r="T15">
-        <v>-67024.98980147067</v>
+        <v>-3951.16096290054</v>
       </c>
       <c r="U15">
-        <v>-364231.1183627596</v>
+        <v>-19269.04995854112</v>
       </c>
       <c r="V15">
-        <v>330.1090340397405</v>
+        <v>330.8740786132045</v>
       </c>
       <c r="W15">
         <v>325</v>
@@ -1510,67 +1510,67 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>668247.1336546837</v>
+        <v>35002.06083261743</v>
       </c>
       <c r="C16">
-        <v>137380.5853266154</v>
+        <v>7192.9367541621</v>
       </c>
       <c r="D16">
         <v>139.173961</v>
       </c>
       <c r="E16">
-        <v>365.6330218937211</v>
+        <v>364.3385075890635</v>
       </c>
       <c r="F16">
-        <v>2661.965253517506</v>
+        <v>139.4140779331457</v>
       </c>
       <c r="G16">
         <v>308.15</v>
       </c>
       <c r="H16">
-        <v>-908338669.8487917</v>
+        <v>-47828965.58470143</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>485900116.3984553</v>
+        <v>25447859.09800504</v>
       </c>
       <c r="K16">
-        <v>1922.777808881733</v>
+        <v>100.701603517457</v>
       </c>
       <c r="L16">
-        <v>579555766.1961926</v>
+        <v>30367446.7522637</v>
       </c>
       <c r="M16">
         <v>375</v>
       </c>
       <c r="N16">
-        <v>-2700.54635572017</v>
+        <v>-142.3680302535698</v>
       </c>
       <c r="O16">
-        <v>-287785030.7663838</v>
+        <v>-16776339.67155388</v>
       </c>
       <c r="P16">
-        <v>-1045.786032648266</v>
+        <v>-55.20789144384253</v>
       </c>
       <c r="Q16">
         <v>-0</v>
       </c>
       <c r="R16">
-        <v>629089192.0876415</v>
+        <v>628929568.4558579</v>
       </c>
       <c r="S16">
-        <v>347.8531559950468</v>
+        <v>347.7445483422192</v>
       </c>
       <c r="T16">
-        <v>-66582.79490709514</v>
+        <v>-3937.758799882975</v>
       </c>
       <c r="U16">
-        <v>-363696.1202505769</v>
+        <v>-19203.43752930519</v>
       </c>
       <c r="V16">
-        <v>330.1015113287755</v>
+        <v>330.854071873374</v>
       </c>
       <c r="W16">
         <v>325</v>
@@ -1581,67 +1581,67 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>667154.3388466999</v>
+        <v>34943.22524666777</v>
       </c>
       <c r="C17">
-        <v>137160.31380083</v>
+        <v>7181.018566287813</v>
       </c>
       <c r="D17">
         <v>159.173961</v>
       </c>
       <c r="E17">
-        <v>365.6484056846775</v>
+        <v>364.356461855453</v>
       </c>
       <c r="F17">
-        <v>2657.593361368751</v>
+        <v>139.1793004437219</v>
       </c>
       <c r="G17">
         <v>308.15</v>
       </c>
       <c r="H17">
-        <v>-906677645.0457765</v>
+        <v>-47700419.69004434</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>485102095.8754021</v>
+        <v>25405004.13989166</v>
       </c>
       <c r="K17">
-        <v>1919.619948247855</v>
+        <v>100.5320190591419</v>
       </c>
       <c r="L17">
-        <v>578622329.9120208</v>
+        <v>30316743.98826566</v>
       </c>
       <c r="M17">
         <v>375</v>
       </c>
       <c r="N17">
-        <v>-2696.126958880689</v>
+        <v>-141.9799068247797</v>
       </c>
       <c r="O17">
-        <v>-286071095.2756101</v>
+        <v>-16729389.82452755</v>
       </c>
       <c r="P17">
-        <v>-1044.30749681228</v>
+        <v>-55.05492170527759</v>
       </c>
       <c r="Q17">
         <v>-0</v>
       </c>
       <c r="R17">
-        <v>629109355.373237</v>
+        <v>628929758.1284703</v>
       </c>
       <c r="S17">
-        <v>347.8355486635904</v>
+        <v>347.7480745473582</v>
       </c>
       <c r="T17">
-        <v>-66155.87500662135</v>
+        <v>-3926.877474319284</v>
       </c>
       <c r="U17">
-        <v>-363182.6116099879</v>
+        <v>-19150.1599377167</v>
       </c>
       <c r="V17">
-        <v>330.0942900507515</v>
+        <v>330.8378259940724</v>
       </c>
       <c r="W17">
         <v>325</v>
@@ -1652,67 +1652,67 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>666089.2298236183</v>
+        <v>34881.13262811111</v>
       </c>
       <c r="C18">
-        <v>136945.4947592674</v>
+        <v>7168.422475649273</v>
       </c>
       <c r="D18">
         <v>179.173961</v>
       </c>
       <c r="E18">
-        <v>365.6633976915743</v>
+        <v>364.3754094334619</v>
       </c>
       <c r="F18">
-        <v>2653.332809738227</v>
+        <v>138.931533991305</v>
       </c>
       <c r="G18">
         <v>308.15</v>
       </c>
       <c r="H18">
-        <v>-905044884.5498198</v>
+        <v>-47589132.5543291</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>484324398.8222728</v>
+        <v>25359778.24976785</v>
       </c>
       <c r="K18">
-        <v>1916.542509888301</v>
+        <v>100.3530524178266</v>
       </c>
       <c r="L18">
-        <v>577712099.650818</v>
+        <v>30263226.00968134</v>
       </c>
       <c r="M18">
         <v>375</v>
       </c>
       <c r="N18">
-        <v>-2691.826208677635</v>
+        <v>-141.6436016632065</v>
       </c>
       <c r="O18">
-        <v>-284429009.7690764</v>
+        <v>-16688667.06041384</v>
       </c>
       <c r="P18">
-        <v>-1042.890441334521</v>
+        <v>-54.92224599947804</v>
       </c>
       <c r="Q18">
         <v>-0</v>
       </c>
       <c r="R18">
-        <v>629129432.4763174</v>
+        <v>628930039.4493963</v>
       </c>
       <c r="S18">
-        <v>347.8167173568126</v>
+        <v>347.7513309551821</v>
       </c>
       <c r="T18">
-        <v>-65746.8130788375</v>
+        <v>-3917.440601016259</v>
       </c>
       <c r="U18">
-        <v>-362690.5180545097</v>
+        <v>-19103.95161500677</v>
       </c>
       <c r="V18">
-        <v>330.0873691768611</v>
+        <v>330.8237355129721</v>
       </c>
       <c r="W18">
         <v>325</v>
@@ -1723,67 +1723,67 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>665055.3258248721</v>
+        <v>34819.60373476838</v>
       </c>
       <c r="C19">
-        <v>136736.7883402355</v>
+        <v>7155.935293949268</v>
       </c>
       <c r="D19">
         <v>199.173961</v>
       </c>
       <c r="E19">
-        <v>365.6779474406189</v>
+        <v>364.3941855509124</v>
       </c>
       <c r="F19">
-        <v>2649.197942671501</v>
+        <v>138.6860096306727</v>
       </c>
       <c r="G19">
         <v>308.15</v>
       </c>
       <c r="H19">
-        <v>-903441364.6108835</v>
+        <v>-47488786.32068283</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>483569643.5202043</v>
+        <v>25314961.61842668</v>
       </c>
       <c r="K19">
-        <v>1913.555854656484</v>
+        <v>100.1757052827211</v>
       </c>
       <c r="L19">
-        <v>576827880.5157118</v>
+        <v>30210198.48785819</v>
       </c>
       <c r="M19">
         <v>375</v>
       </c>
       <c r="N19">
-        <v>-2687.643453271982</v>
+        <v>-141.3402841328764</v>
       </c>
       <c r="O19">
-        <v>-282867545.1361084</v>
+        <v>-16651928.61861397</v>
       </c>
       <c r="P19">
-        <v>-1041.533018724294</v>
+        <v>-54.80255098291309</v>
       </c>
       <c r="Q19">
         <v>-0</v>
       </c>
       <c r="R19">
-        <v>629149433.1011932</v>
+        <v>628930378.7008522</v>
       </c>
       <c r="S19">
-        <v>347.7967812347322</v>
+        <v>347.7543293262761</v>
       </c>
       <c r="T19">
-        <v>-65357.86759903692</v>
+        <v>-3908.927504904833</v>
       </c>
       <c r="U19">
-        <v>-362219.1948801813</v>
+        <v>-19062.26504741122</v>
       </c>
       <c r="V19">
-        <v>330.080739672219</v>
+        <v>330.8110237019361</v>
       </c>
       <c r="W19">
         <v>325</v>
@@ -1794,67 +1794,67 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>664050.6218378491</v>
+        <v>34761.08445250281</v>
       </c>
       <c r="C20">
-        <v>136533.7313122323</v>
+        <v>7144.060558639423</v>
       </c>
       <c r="D20">
         <v>219.173961</v>
       </c>
       <c r="E20">
-        <v>365.6920821257174</v>
+        <v>364.412044701464</v>
       </c>
       <c r="F20">
-        <v>2645.18103197274</v>
+        <v>138.4524759168123</v>
       </c>
       <c r="G20">
         <v>308.15</v>
       </c>
       <c r="H20">
-        <v>-901867508.6775963</v>
+        <v>-47396123.861679</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>482836419.3079382</v>
+        <v>25272333.69208625</v>
       </c>
       <c r="K20">
-        <v>1910.654400406511</v>
+        <v>100.007019227465</v>
       </c>
       <c r="L20">
-        <v>575967736.7539642</v>
+        <v>30159778.80517431</v>
       </c>
       <c r="M20">
         <v>375</v>
       </c>
       <c r="N20">
-        <v>-2683.579168067658</v>
+        <v>-141.060217719226</v>
       </c>
       <c r="O20">
-        <v>-281011104.7931551</v>
+        <v>-16618010.68713279</v>
       </c>
       <c r="P20">
-        <v>-1040.235061452677</v>
+        <v>-54.69204247674497</v>
       </c>
       <c r="Q20">
         <v>-0</v>
       </c>
       <c r="R20">
-        <v>629169357.8090109</v>
+        <v>628930763.7834455</v>
       </c>
       <c r="S20">
-        <v>347.7757660784947</v>
+        <v>347.7570934070992</v>
       </c>
       <c r="T20">
-        <v>-64895.99666928624</v>
+        <v>-3901.06808596504</v>
       </c>
       <c r="U20">
-        <v>-361768.5826491889</v>
+        <v>-19023.7785733888</v>
       </c>
       <c r="V20">
-        <v>330.0744007143434</v>
+        <v>330.7992875912624</v>
       </c>
       <c r="W20">
         <v>325</v>
@@ -1865,67 +1865,67 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>663070.7703957731</v>
+        <v>34706.45185832301</v>
       </c>
       <c r="C21">
-        <v>136335.390580129</v>
+        <v>7132.97903512025</v>
       </c>
       <c r="D21">
         <v>239.173961</v>
       </c>
       <c r="E21">
-        <v>365.7058619309499</v>
+        <v>364.4287194907008</v>
       </c>
       <c r="F21">
-        <v>2641.264974026155</v>
+        <v>138.2344294039299</v>
       </c>
       <c r="G21">
         <v>308.15</v>
       </c>
       <c r="H21">
-        <v>-900318727.5740145</v>
+        <v>-47309486.96407742</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>482121604.1879609</v>
+        <v>25232532.71202092</v>
       </c>
       <c r="K21">
-        <v>1907.825793035452</v>
+        <v>99.84951988781501</v>
       </c>
       <c r="L21">
-        <v>575127735.0641768</v>
+        <v>30112725.68083216</v>
       </c>
       <c r="M21">
         <v>375</v>
       </c>
       <c r="N21">
-        <v>-2679.618041958462</v>
+        <v>-140.7984208763333</v>
       </c>
       <c r="O21">
-        <v>-279180377.8590855</v>
+        <v>-16586314.43114846</v>
       </c>
       <c r="P21">
-        <v>-1038.98989207778</v>
+        <v>-54.58876823922765</v>
       </c>
       <c r="Q21">
         <v>-0</v>
       </c>
       <c r="R21">
-        <v>629189204.8821782</v>
+        <v>628931191.988101</v>
       </c>
       <c r="S21">
-        <v>347.7537276737941</v>
+        <v>347.7596505049461</v>
       </c>
       <c r="T21">
-        <v>-64440.48949157943</v>
+        <v>-3893.723368352481</v>
       </c>
       <c r="U21">
-        <v>-361336.3551131606</v>
+        <v>-18987.81214522717</v>
       </c>
       <c r="V21">
-        <v>330.0683196798863</v>
+        <v>330.7883198364759</v>
       </c>
       <c r="W21">
         <v>325</v>
@@ -1936,67 +1936,67 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>662114.5341677796</v>
+        <v>34654.39119250715</v>
       </c>
       <c r="C22">
-        <v>136141.480204963</v>
+        <v>7122.420620900078</v>
       </c>
       <c r="D22">
         <v>259.173961</v>
       </c>
       <c r="E22">
-        <v>365.7193036197565</v>
+        <v>364.4446103914296</v>
       </c>
       <c r="F22">
-        <v>2637.44500486183</v>
+        <v>138.026633342751</v>
       </c>
       <c r="G22">
         <v>308.15</v>
       </c>
       <c r="H22">
-        <v>-898793664.0647953</v>
+        <v>-47228834.08227903</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>481424328.5720858</v>
+        <v>25194602.79156815</v>
       </c>
       <c r="K22">
-        <v>1905.066591479376</v>
+        <v>99.69942465508524</v>
       </c>
       <c r="L22">
-        <v>574306677.015281</v>
+        <v>30067898.47341115</v>
       </c>
       <c r="M22">
         <v>375</v>
       </c>
       <c r="N22">
-        <v>-2675.755360270663</v>
+        <v>-140.5547159619423</v>
       </c>
       <c r="O22">
-        <v>-277425996.5929558</v>
+        <v>-16556812.13728721</v>
       </c>
       <c r="P22">
-        <v>-1037.79537988089</v>
+        <v>-54.49263518926273</v>
       </c>
       <c r="Q22">
         <v>-0</v>
       </c>
       <c r="R22">
-        <v>629208972.4739538</v>
+        <v>628931654.9328867</v>
       </c>
       <c r="S22">
-        <v>347.7306886511853</v>
+        <v>347.7620334631951</v>
       </c>
       <c r="T22">
-        <v>-64003.94538253098</v>
+        <v>-3886.886623633244</v>
       </c>
       <c r="U22">
-        <v>-360921.7692535055</v>
+        <v>-18954.33333017225</v>
       </c>
       <c r="V22">
-        <v>330.0624861573837</v>
+        <v>330.7781105342993</v>
       </c>
       <c r="W22">
         <v>325</v>
@@ -2007,67 +2007,67 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>661180.8560709564</v>
+        <v>34605.46444418444</v>
       </c>
       <c r="C23">
-        <v>135951.7598895207</v>
+        <v>7112.501166366405</v>
       </c>
       <c r="D23">
         <v>279.173961</v>
       </c>
       <c r="E23">
-        <v>365.7324215163826</v>
+        <v>364.4595461395567</v>
       </c>
       <c r="F23">
-        <v>2633.717053691875</v>
+        <v>137.8313272517154</v>
       </c>
       <c r="G23">
         <v>308.15</v>
       </c>
       <c r="H23">
-        <v>-897283791.0217347</v>
+        <v>-47153349.26904085</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>480743849.4016628</v>
+        <v>25158952.71978673</v>
       </c>
       <c r="K23">
-        <v>1902.37385537268</v>
+        <v>99.55835117980629</v>
       </c>
       <c r="L23">
-        <v>573503539.9169687</v>
+        <v>30025784.0032559</v>
       </c>
       <c r="M23">
         <v>375</v>
       </c>
       <c r="N23">
-        <v>-2671.96531727331</v>
+        <v>-140.3266382834855</v>
       </c>
       <c r="O23">
-        <v>-275727439.2670359</v>
+        <v>-16529204.5172258</v>
       </c>
       <c r="P23">
-        <v>-1036.641327789312</v>
+        <v>-54.40267145218058</v>
       </c>
       <c r="Q23">
         <v>-0</v>
       </c>
       <c r="R23">
-        <v>629228682.52232</v>
+        <v>628932149.4538125</v>
       </c>
       <c r="S23">
-        <v>347.7066630110293</v>
+        <v>347.7642641199074</v>
       </c>
       <c r="T23">
-        <v>-63581.24762279304</v>
+        <v>-3880.48878958542</v>
       </c>
       <c r="U23">
-        <v>-360521.2732359846</v>
+        <v>-18923.00355504472</v>
       </c>
       <c r="V23">
-        <v>330.0568503346922</v>
+        <v>330.7685564616763</v>
       </c>
       <c r="W23">
         <v>325</v>
@@ -2078,67 +2078,67 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>660261.3495079861</v>
+        <v>34559.22712663624</v>
       </c>
       <c r="C24">
-        <v>135764.4883456569</v>
+        <v>7103.129675329354</v>
       </c>
       <c r="D24">
         <v>299.173961</v>
       </c>
       <c r="E24">
-        <v>365.7453327799331</v>
+        <v>364.4736620497736</v>
       </c>
       <c r="F24">
-        <v>2630.047825264028</v>
+        <v>137.6467417160906</v>
       </c>
       <c r="G24">
         <v>308.15</v>
       </c>
       <c r="H24">
-        <v>-895780620.4149625</v>
+        <v>-47082254.03171995</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>480074089.1492224</v>
+        <v>25125259.51769589</v>
       </c>
       <c r="K24">
-        <v>1899.72353523845</v>
+        <v>99.42502136638863</v>
       </c>
       <c r="L24">
-        <v>572710964.9793525</v>
+        <v>29985995.98056754</v>
       </c>
       <c r="M24">
         <v>375</v>
       </c>
       <c r="N24">
-        <v>-2668.220712916674</v>
+        <v>-140.111841641824</v>
       </c>
       <c r="O24">
-        <v>-274083332.3456931</v>
+        <v>-16503208.12897604</v>
       </c>
       <c r="P24">
-        <v>-1035.516320882834</v>
+        <v>-54.31795424328811</v>
       </c>
       <c r="Q24">
         <v>-0</v>
       </c>
       <c r="R24">
-        <v>629248349.5994737</v>
+        <v>628932672.9800601</v>
       </c>
       <c r="S24">
-        <v>347.6817156099006</v>
+        <v>347.7663601542588</v>
       </c>
       <c r="T24">
-        <v>-63172.11723593726</v>
+        <v>-3874.464216725603</v>
       </c>
       <c r="U24">
-        <v>-360130.8909401516</v>
+        <v>-18893.50136572208</v>
       </c>
       <c r="V24">
-        <v>330.0513564484611</v>
+        <v>330.7595596112285</v>
       </c>
       <c r="W24">
         <v>325</v>
@@ -2149,67 +2149,67 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>659351.725204658</v>
+        <v>34514.90154827864</v>
       </c>
       <c r="C25">
-        <v>135578.7684244617</v>
+        <v>7094.146549027821</v>
       </c>
       <c r="D25">
         <v>319.173961</v>
       </c>
       <c r="E25">
-        <v>365.7580973124678</v>
+        <v>364.4871949946132</v>
       </c>
       <c r="F25">
-        <v>2626.420296137544</v>
+        <v>137.4697792704986</v>
       </c>
       <c r="G25">
         <v>308.15</v>
       </c>
       <c r="H25">
-        <v>-894292050.4303749</v>
+        <v>-47015209.06819049</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>479411940.4519513</v>
+        <v>25092957.79144394</v>
       </c>
       <c r="K25">
-        <v>1897.103334864575</v>
+        <v>99.29719786916252</v>
       </c>
       <c r="L25">
-        <v>571925183.8542864</v>
+        <v>29947859.62513559</v>
       </c>
       <c r="M25">
         <v>375</v>
       </c>
       <c r="N25">
-        <v>-2664.54181741295</v>
+        <v>-139.9092878683556</v>
       </c>
       <c r="O25">
-        <v>-272497298.6447502</v>
+        <v>-16478695.66339883</v>
       </c>
       <c r="P25">
-        <v>-1034.426767563446</v>
+        <v>-54.23806833846356</v>
       </c>
       <c r="Q25">
         <v>-0</v>
       </c>
       <c r="R25">
-        <v>629267947.1196241</v>
+        <v>628933220.6093872</v>
       </c>
       <c r="S25">
-        <v>347.6559567745433</v>
+        <v>347.768338884857</v>
       </c>
       <c r="T25">
-        <v>-62777.43238997634</v>
+        <v>-3868.78333688722</v>
       </c>
       <c r="U25">
-        <v>-359752.8522112514</v>
+        <v>-18865.6821162046</v>
       </c>
       <c r="V25">
-        <v>330.0460357937929</v>
+        <v>330.7510758778404</v>
       </c>
       <c r="W25">
         <v>325</v>
@@ -2220,67 +2220,67 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>658456.5121627167</v>
+        <v>34472.69063206708</v>
       </c>
       <c r="C26">
-        <v>135395.5217383723</v>
+        <v>7085.593767917565</v>
       </c>
       <c r="D26">
         <v>339.173961</v>
       </c>
       <c r="E26">
-        <v>365.7706514521883</v>
+        <v>364.5000831544658</v>
       </c>
       <c r="F26">
-        <v>2622.852558226485</v>
+        <v>137.3012483072796</v>
       </c>
       <c r="G26">
         <v>308.15</v>
       </c>
       <c r="H26">
-        <v>-892817063.7537909</v>
+        <v>-46951788.99045689</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>478760705.7057533</v>
+        <v>25062195.10040707</v>
       </c>
       <c r="K26">
-        <v>1894.526322232008</v>
+        <v>99.17546459642078</v>
       </c>
       <c r="L26">
-        <v>571150086.1336304</v>
+        <v>29911550.93780252</v>
       </c>
       <c r="M26">
         <v>375</v>
       </c>
       <c r="N26">
-        <v>-2660.925932723669</v>
+        <v>-139.7176885056994</v>
       </c>
       <c r="O26">
-        <v>-270957684.309195</v>
+        <v>-16455510.43625176</v>
       </c>
       <c r="P26">
-        <v>-1033.371769534597</v>
+        <v>-54.16250412508816</v>
       </c>
       <c r="Q26">
         <v>-0</v>
       </c>
       <c r="R26">
-        <v>629287471.7230812</v>
+        <v>628933789.7612731</v>
       </c>
       <c r="S26">
-        <v>347.6293751997525</v>
+        <v>347.7702140199897</v>
       </c>
       <c r="T26">
-        <v>-62394.25107964446</v>
+        <v>-3863.409910199267</v>
       </c>
       <c r="U26">
-        <v>-359386.8427398037</v>
+        <v>-18839.36827795533</v>
       </c>
       <c r="V26">
-        <v>330.04088398252</v>
+        <v>330.743051135113</v>
       </c>
       <c r="W26">
         <v>325</v>
@@ -2291,67 +2291,67 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>657579.9002095127</v>
+        <v>34433.01050036369</v>
       </c>
       <c r="C27">
-        <v>135215.6037910624</v>
+        <v>7077.557193831844</v>
       </c>
       <c r="D27">
         <v>359.173961</v>
       </c>
       <c r="E27">
-        <v>365.7829363342203</v>
+        <v>364.5121997472108</v>
       </c>
       <c r="F27">
-        <v>2619.361340233094</v>
+        <v>137.1428066744607</v>
       </c>
       <c r="G27">
         <v>308.15</v>
       </c>
       <c r="H27">
-        <v>-891351908.4782076</v>
+        <v>-46891367.37228341</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>478123438.4735383</v>
+        <v>25033274.05880921</v>
       </c>
       <c r="K27">
-        <v>1892.004580647784</v>
+        <v>99.06101905057056</v>
       </c>
       <c r="L27">
-        <v>570389276.6440544</v>
+        <v>29877430.67643551</v>
       </c>
       <c r="M27">
         <v>375</v>
       </c>
       <c r="N27">
-        <v>-2657.362819289212</v>
+        <v>-139.5351633028382</v>
       </c>
       <c r="O27">
-        <v>-269460218.2882962</v>
+        <v>-16433426.21190765</v>
       </c>
       <c r="P27">
-        <v>-1032.347772178355</v>
+        <v>-54.09052546951898</v>
       </c>
       <c r="Q27">
         <v>-0</v>
       </c>
       <c r="R27">
-        <v>629306949.9933327</v>
+        <v>628934381.7785025</v>
       </c>
       <c r="S27">
-        <v>347.601938759134</v>
+        <v>347.7719952599394</v>
       </c>
       <c r="T27">
-        <v>-62021.5225000004</v>
+        <v>-3858.291581842858</v>
       </c>
       <c r="U27">
-        <v>-359031.6231164807</v>
+        <v>-18814.30342199094</v>
       </c>
       <c r="V27">
-        <v>330.0358836521929</v>
+        <v>330.7354072026058</v>
       </c>
       <c r="W27">
         <v>325</v>
@@ -2362,67 +2362,67 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>656714.6570446936</v>
+        <v>34394.94519755878</v>
       </c>
       <c r="C28">
-        <v>135037.5225122116</v>
+        <v>7069.848717939694</v>
       </c>
       <c r="D28">
         <v>379.173961</v>
       </c>
       <c r="E28">
-        <v>365.7950532772246</v>
+        <v>364.5238238120518</v>
       </c>
       <c r="F28">
-        <v>2615.917848590568</v>
+        <v>136.9908055497839</v>
       </c>
       <c r="G28">
         <v>308.15</v>
       </c>
       <c r="H28">
-        <v>-889901719.7248553</v>
+        <v>-46833941.55024583</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>477494882.9400994</v>
+        <v>25005528.631225</v>
       </c>
       <c r="K28">
-        <v>1889.517312233713</v>
+        <v>98.9512256066766</v>
       </c>
       <c r="L28">
-        <v>569636470.0679194</v>
+        <v>29844704.59468706</v>
       </c>
       <c r="M28">
         <v>375</v>
       </c>
       <c r="N28">
-        <v>-2653.865866228134</v>
+        <v>-139.3616844835213</v>
       </c>
       <c r="O28">
-        <v>-268008234.9855242</v>
+        <v>-16412437.3120222</v>
       </c>
       <c r="P28">
-        <v>-1031.359117695274</v>
+        <v>-54.02211270393309</v>
       </c>
       <c r="Q28">
         <v>-0</v>
       </c>
       <c r="R28">
-        <v>629326361.6404955</v>
+        <v>628934993.9447604</v>
       </c>
       <c r="S28">
-        <v>347.573713074975</v>
+        <v>347.77369487071</v>
       </c>
       <c r="T28">
-        <v>-61660.06068578135</v>
+        <v>-3853.426910623094</v>
       </c>
       <c r="U28">
-        <v>-358688.7032993531</v>
+        <v>-18790.48069557055</v>
       </c>
       <c r="V28">
-        <v>330.0310560075476</v>
+        <v>330.72814198596</v>
       </c>
       <c r="W28">
         <v>325</v>
@@ -2433,67 +2433,67 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>655860.4713804317</v>
+        <v>34357.17379953712</v>
       </c>
       <c r="C29">
-        <v>134861.2127605004</v>
+        <v>7062.196798107155</v>
       </c>
       <c r="D29">
         <v>399.173961</v>
       </c>
       <c r="E29">
-        <v>365.8070065890402</v>
+        <v>364.5353578246969</v>
       </c>
       <c r="F29">
-        <v>2612.520859055584</v>
+        <v>136.8399819783511</v>
       </c>
       <c r="G29">
         <v>308.15</v>
       </c>
       <c r="H29">
-        <v>-888463154.7006398</v>
+        <v>-46780162.5120312</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>476874815.6389685</v>
+        <v>24977998.14756524</v>
       </c>
       <c r="K29">
-        <v>1887.06363271132</v>
+        <v>98.8422827379361</v>
       </c>
       <c r="L29">
-        <v>568891384.7075269</v>
+        <v>29812227.87390463</v>
       </c>
       <c r="M29">
         <v>375</v>
       </c>
       <c r="N29">
-        <v>-2650.424705317457</v>
+        <v>-139.1991644459697</v>
       </c>
       <c r="O29">
-        <v>-266602169.2478352</v>
+        <v>-16392768.30363894</v>
       </c>
       <c r="P29">
-        <v>-1030.401598052322</v>
+        <v>-53.95799606731089</v>
       </c>
       <c r="Q29">
         <v>-0</v>
       </c>
       <c r="R29">
-        <v>629345696.4054855</v>
+        <v>628935615.5457511</v>
       </c>
       <c r="S29">
-        <v>347.544712304747</v>
+        <v>347.7753283837934</v>
       </c>
       <c r="T29">
-        <v>-61310.00048563518</v>
+        <v>-3848.867809060561</v>
       </c>
       <c r="U29">
-        <v>-358356.6158985327</v>
+        <v>-18768.15445454603</v>
       </c>
       <c r="V29">
-        <v>330.0263804922787</v>
+        <v>330.7213330272724</v>
       </c>
       <c r="W29">
         <v>325</v>
@@ -2504,67 +2504,67 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>655021.904730791</v>
+        <v>34321.81086390217</v>
       </c>
       <c r="C30">
-        <v>134687.6129873457</v>
+        <v>7055.036460908405</v>
       </c>
       <c r="D30">
         <v>419.173961</v>
       </c>
       <c r="E30">
-        <v>365.8187323029567</v>
+        <v>364.5461576566644</v>
       </c>
       <c r="F30">
-        <v>2609.188550209633</v>
+        <v>136.6987588647186</v>
       </c>
       <c r="G30">
         <v>308.15</v>
       </c>
       <c r="H30">
-        <v>-887031927.7490134</v>
+        <v>-46729189.9147861</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>476266554.7858325</v>
+        <v>24952220.07729872</v>
       </c>
       <c r="K30">
-        <v>1884.656672651445</v>
+        <v>98.74027446790294</v>
       </c>
       <c r="L30">
-        <v>568157971.1945088</v>
+        <v>29781834.75051455</v>
       </c>
       <c r="M30">
         <v>375</v>
       </c>
       <c r="N30">
-        <v>-2647.027058751399</v>
+        <v>-139.045097102832</v>
       </c>
       <c r="O30">
-        <v>-265239125.0528904</v>
+        <v>-16374119.04165476</v>
       </c>
       <c r="P30">
-        <v>-1029.470666753696</v>
+        <v>-53.89720162725098</v>
       </c>
       <c r="Q30">
         <v>-0</v>
       </c>
       <c r="R30">
-        <v>629364977.8595312</v>
+        <v>628936248.0610462</v>
       </c>
       <c r="S30">
-        <v>347.514919463556</v>
+        <v>347.7768988506001</v>
       </c>
       <c r="T30">
-        <v>-60970.64387396856</v>
+        <v>-3844.54510039462</v>
       </c>
       <c r="U30">
-        <v>-358033.7755042936</v>
+        <v>-18746.9854257386</v>
       </c>
       <c r="V30">
-        <v>330.0218348986219</v>
+        <v>330.7148768951818</v>
       </c>
       <c r="W30">
         <v>325</v>
@@ -2575,67 +2575,67 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>654193.3628973255</v>
+        <v>34288.56440829683</v>
       </c>
       <c r="C31">
-        <v>134515.5735326526</v>
+        <v>7048.307959943257</v>
       </c>
       <c r="D31">
         <v>439.173961</v>
       </c>
       <c r="E31">
-        <v>365.8303088492385</v>
+        <v>364.5563122295724</v>
       </c>
       <c r="F31">
-        <v>2605.898633091599</v>
+        <v>136.5659734268001</v>
       </c>
       <c r="G31">
         <v>308.15</v>
       </c>
       <c r="H31">
-        <v>-885609309.7970346</v>
+        <v>-46680578.38735455</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>475666031.8795016</v>
+        <v>24927982.1727448</v>
       </c>
       <c r="K31">
-        <v>1882.28033252144</v>
+        <v>98.64436090013776</v>
       </c>
       <c r="L31">
-        <v>567431380.9640554</v>
+        <v>29753271.7947139</v>
       </c>
       <c r="M31">
         <v>375</v>
       </c>
       <c r="N31">
-        <v>-2643.676121194341</v>
+        <v>-138.8981494312853</v>
       </c>
       <c r="O31">
-        <v>-263926203.3110875</v>
+        <v>-16356330.05055844</v>
       </c>
       <c r="P31">
-        <v>-1028.567298908456</v>
+        <v>-53.83920917552132</v>
       </c>
       <c r="Q31">
         <v>-0</v>
       </c>
       <c r="R31">
-        <v>629384201.1114488</v>
+        <v>628936893.1301856</v>
       </c>
       <c r="S31">
-        <v>347.4843551752235</v>
+        <v>347.7784109045766</v>
       </c>
       <c r="T31">
-        <v>-60643.78365583107</v>
+        <v>-3840.421746195415</v>
       </c>
       <c r="U31">
-        <v>-357720.5190958774</v>
+        <v>-18726.79240838812</v>
       </c>
       <c r="V31">
-        <v>330.0174239873838</v>
+        <v>330.7087183433376</v>
       </c>
       <c r="W31">
         <v>325</v>
@@ -2646,67 +2646,67 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>653376.6012279904</v>
+        <v>34256.99835187591</v>
       </c>
       <c r="C32">
-        <v>134345.457327141</v>
+        <v>7041.921839553212</v>
       </c>
       <c r="D32">
         <v>459.173961</v>
       </c>
       <c r="E32">
-        <v>365.8417116500326</v>
+        <v>364.5659543925082</v>
       </c>
       <c r="F32">
-        <v>2602.658092444552</v>
+        <v>136.4398884756981</v>
       </c>
       <c r="G32">
         <v>308.15</v>
       </c>
       <c r="H32">
-        <v>-884194723.43372</v>
+        <v>-46634170.17894364</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>475074521.8755624</v>
+        <v>24904967.33724475</v>
       </c>
       <c r="K32">
-        <v>1879.939657464932</v>
+        <v>98.5532872275644</v>
       </c>
       <c r="L32">
-        <v>566713142.3740019</v>
+        <v>29726160.88678192</v>
       </c>
       <c r="M32">
         <v>375</v>
       </c>
       <c r="N32">
-        <v>-2640.369825142585</v>
+        <v>-138.7578427261535</v>
       </c>
       <c r="O32">
-        <v>-262653400.5178211</v>
+        <v>-16339343.2494936</v>
       </c>
       <c r="P32">
-        <v>-1027.690536432146</v>
+        <v>-53.78382898015843</v>
       </c>
       <c r="Q32">
         <v>-0</v>
       </c>
       <c r="R32">
-        <v>629403371.3888513</v>
+        <v>628937550.9711229</v>
       </c>
       <c r="S32">
-        <v>347.4530315881076</v>
+        <v>347.7798702532726</v>
       </c>
       <c r="T32">
-        <v>-60326.89532076684</v>
+        <v>-3836.484228155068</v>
       </c>
       <c r="U32">
-        <v>-357416.5103148562</v>
+        <v>-18707.50931299738</v>
       </c>
       <c r="V32">
-        <v>330.013143077235</v>
+        <v>330.7028372205497</v>
       </c>
       <c r="W32">
         <v>325</v>
@@ -2717,67 +2717,67 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>652570.4183323116</v>
+        <v>34227.53670544909</v>
       </c>
       <c r="C33">
-        <v>134177.0196441347</v>
+        <v>7035.965485428168</v>
       </c>
       <c r="D33">
         <v>479.173961</v>
       </c>
       <c r="E33">
-        <v>365.852957594969</v>
+        <v>364.5749549983107</v>
       </c>
       <c r="F33">
-        <v>2599.462128421267</v>
+        <v>136.3221927867975</v>
       </c>
       <c r="G33">
         <v>308.15</v>
       </c>
       <c r="H33">
-        <v>-882789648.2873534</v>
+        <v>-46589624.53391014</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>474491148.6369872</v>
+        <v>24883483.83032788</v>
       </c>
       <c r="K33">
-        <v>1877.631180514748</v>
+        <v>98.46827329124402</v>
       </c>
       <c r="L33">
-        <v>566002224.0895591</v>
+        <v>29700869.97610793</v>
       </c>
       <c r="M33">
         <v>375</v>
       </c>
       <c r="N33">
-        <v>-2637.11206576325</v>
+        <v>-138.6231572710529</v>
       </c>
       <c r="O33">
-        <v>-261416848.2424759</v>
+        <v>-16323036.29369053</v>
       </c>
       <c r="P33">
-        <v>-1026.841661615663</v>
+        <v>-53.73066318270503</v>
       </c>
       <c r="Q33">
         <v>-0</v>
       </c>
       <c r="R33">
-        <v>629422484.2905434</v>
+        <v>628938224.8146669</v>
       </c>
       <c r="S33">
-        <v>347.4209671185079</v>
+        <v>347.7812803586099</v>
       </c>
       <c r="T33">
-        <v>-60018.98893729515</v>
+        <v>-3832.704257864533</v>
       </c>
       <c r="U33">
-        <v>-357122.1927072865</v>
+        <v>-18688.99755009327</v>
       </c>
       <c r="V33">
-        <v>330.0089984297438</v>
+        <v>330.6971912729849</v>
       </c>
       <c r="W33">
         <v>325</v>
@@ -2788,67 +2788,67 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>651772.6531840743</v>
+        <v>34199.54435712133</v>
       </c>
       <c r="C34">
-        <v>134009.8194801749</v>
+        <v>7030.308467161496</v>
       </c>
       <c r="D34">
         <v>499.173961</v>
       </c>
       <c r="E34">
-        <v>365.8640770244493</v>
+        <v>364.5835075353931</v>
       </c>
       <c r="F34">
-        <v>2596.302118647534</v>
+        <v>136.2103562425393</v>
       </c>
       <c r="G34">
         <v>308.15</v>
       </c>
       <c r="H34">
-        <v>-881393380.7479984</v>
+        <v>-46546949.8208816</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>473914338.284242</v>
+        <v>24863069.81861197</v>
       </c>
       <c r="K34">
-        <v>1875.348673637801</v>
+        <v>98.38749152400912</v>
       </c>
       <c r="L34">
-        <v>565296762.5104783</v>
+        <v>29676848.40421275</v>
       </c>
       <c r="M34">
         <v>375</v>
       </c>
       <c r="N34">
-        <v>-2633.900426924701</v>
+        <v>-138.4941094337358</v>
       </c>
       <c r="O34">
-        <v>-260214174.3740695</v>
+        <v>-16307410.17989615</v>
       </c>
       <c r="P34">
-        <v>-1026.019593291494</v>
+        <v>-53.67971430132457</v>
       </c>
       <c r="Q34">
         <v>-0</v>
       </c>
       <c r="R34">
-        <v>629441528.4184078</v>
+        <v>628938915.0376058</v>
       </c>
       <c r="S34">
-        <v>347.3881732507471</v>
+        <v>347.7826465223101</v>
       </c>
       <c r="T34">
-        <v>-59719.47120908316</v>
+        <v>-3829.08199050116</v>
       </c>
       <c r="U34">
-        <v>-356837.1866590864</v>
+        <v>-18671.257997045</v>
       </c>
       <c r="V34">
-        <v>330.0049847625076</v>
+        <v>330.6917807665446</v>
       </c>
       <c r="W34">
         <v>325</v>
@@ -2859,67 +2859,67 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>650988.1961938402</v>
+        <v>34172.86909081138</v>
       </c>
       <c r="C35">
-        <v>133844.8667722418</v>
+        <v>7024.919612586878</v>
       </c>
       <c r="D35">
         <v>519.173961</v>
       </c>
       <c r="E35">
-        <v>365.8750014345862</v>
+        <v>364.5916584060122</v>
       </c>
       <c r="F35">
-        <v>2593.1975311081</v>
+        <v>136.1037720528863</v>
       </c>
       <c r="G35">
         <v>308.15</v>
       </c>
       <c r="H35">
-        <v>-880003275.8521413</v>
+        <v>-46506138.32400383</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>473347644.3934081</v>
+        <v>24843614.54206762</v>
       </c>
       <c r="K35">
-        <v>1873.106198759994</v>
+        <v>98.31050363997321</v>
       </c>
       <c r="L35">
-        <v>564601009.2659698</v>
+        <v>29653964.48447439</v>
       </c>
       <c r="M35">
         <v>375</v>
       </c>
       <c r="N35">
-        <v>-2630.725864731098</v>
+        <v>-138.3706688617311</v>
       </c>
       <c r="O35">
-        <v>-259040977.8609084</v>
+        <v>-16292460.21750316</v>
       </c>
       <c r="P35">
-        <v>-1025.220299533203</v>
+        <v>-53.63096725545802</v>
       </c>
       <c r="Q35">
         <v>-0</v>
       </c>
       <c r="R35">
-        <v>629460524.1902156</v>
+        <v>628939621.3702171</v>
       </c>
       <c r="S35">
-        <v>347.3546896356494</v>
+        <v>347.7839733278207</v>
       </c>
       <c r="T35">
-        <v>-59427.25984628274</v>
+        <v>-3825.616357343616</v>
       </c>
       <c r="U35">
-        <v>-356560.0848137609</v>
+        <v>-18654.28539623507</v>
       </c>
       <c r="V35">
-        <v>330.0010823784265</v>
+        <v>330.6866040963743</v>
       </c>
       <c r="W35">
         <v>325</v>
@@ -2930,67 +2930,67 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>650213.4715514045</v>
+        <v>34147.40560147281</v>
       </c>
       <c r="C36">
-        <v>133681.4302783663</v>
+        <v>7019.777398625318</v>
       </c>
       <c r="D36">
         <v>539.173961</v>
       </c>
       <c r="E36">
-        <v>365.885781014485</v>
+        <v>364.5994397155734</v>
       </c>
       <c r="F36">
-        <v>2590.13410265644</v>
+        <v>136.0020204005984</v>
       </c>
       <c r="G36">
         <v>308.15</v>
       </c>
       <c r="H36">
-        <v>-878618821.7702274</v>
+        <v>-46467137.56950857</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>472788463.4502033</v>
+        <v>24825041.36962477</v>
       </c>
       <c r="K36">
-        <v>1870.893453466264</v>
+        <v>98.23700639211654</v>
       </c>
       <c r="L36">
-        <v>563911877.4322097</v>
+        <v>29632127.15965198</v>
       </c>
       <c r="M36">
         <v>375</v>
       </c>
       <c r="N36">
-        <v>-2627.587150057112</v>
+        <v>-138.2526733742056</v>
       </c>
       <c r="O36">
-        <v>-257895581.9272544</v>
+        <v>-16278166.22073285</v>
       </c>
       <c r="P36">
-        <v>-1024.44343565935</v>
+        <v>-53.58435647053739</v>
       </c>
       <c r="Q36">
         <v>-0</v>
       </c>
       <c r="R36">
-        <v>629479477.3666724</v>
+        <v>628940343.2504421</v>
       </c>
       <c r="S36">
-        <v>347.320506593016</v>
+        <v>347.7852645029249</v>
       </c>
       <c r="T36">
-        <v>-59141.93091258747</v>
+        <v>-3822.302698766831</v>
       </c>
       <c r="U36">
-        <v>-356290.7636532265</v>
+        <v>-18638.05690206786</v>
       </c>
       <c r="V36">
-        <v>329.9972895939612</v>
+        <v>330.6816542979684</v>
       </c>
       <c r="W36">
         <v>325</v>
@@ -3001,67 +3001,67 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>649444.9696936137</v>
+        <v>34123.06845153598</v>
       </c>
       <c r="C37">
-        <v>133518.7928964783</v>
+        <v>7014.864384725069</v>
       </c>
       <c r="D37">
         <v>559.173961</v>
       </c>
       <c r="E37">
-        <v>365.8964650262968</v>
+        <v>364.6068775126152</v>
       </c>
       <c r="F37">
-        <v>2587.097833563701</v>
+        <v>135.9047606519146</v>
       </c>
       <c r="G37">
         <v>308.15</v>
       </c>
       <c r="H37">
-        <v>-877239411.7248954</v>
+        <v>-46429871.50319362</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>472234240.0231209</v>
+        <v>24807288.12391885</v>
       </c>
       <c r="K37">
-        <v>1868.700325619221</v>
+        <v>98.16675374268939</v>
       </c>
       <c r="L37">
-        <v>563226337.9554822</v>
+        <v>29611262.5545488</v>
       </c>
       <c r="M37">
         <v>375</v>
       </c>
       <c r="N37">
-        <v>-2624.481730326345</v>
+        <v>-138.1398916362173</v>
       </c>
       <c r="O37">
-        <v>-256779014.8439509</v>
+        <v>-16264499.92135899</v>
       </c>
       <c r="P37">
-        <v>-1023.68767723533</v>
+        <v>-53.53979001938569</v>
       </c>
       <c r="Q37">
         <v>-0</v>
       </c>
       <c r="R37">
-        <v>629498380.8559678</v>
+        <v>628941079.9885728</v>
       </c>
       <c r="S37">
-        <v>347.2856499553033</v>
+        <v>347.7865231406949</v>
       </c>
       <c r="T37">
-        <v>-58863.7519104357</v>
+        <v>-3819.134477166565</v>
       </c>
       <c r="U37">
-        <v>-356028.7582467346</v>
+        <v>-18622.54049069893</v>
       </c>
       <c r="V37">
-        <v>329.9935999377764</v>
+        <v>330.676921606162</v>
       </c>
       <c r="W37">
         <v>325</v>
@@ -3072,67 +3072,67 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>648684.0293066851</v>
+        <v>34099.52992056928</v>
       </c>
       <c r="C38">
-        <v>133357.2352733847</v>
+        <v>7010.113273666442</v>
       </c>
       <c r="D38">
         <v>579.173961</v>
       </c>
       <c r="E38">
-        <v>365.9070347698147</v>
+        <v>364.6140716599255</v>
       </c>
       <c r="F38">
-        <v>2584.094038220203</v>
+        <v>135.8106869798173</v>
       </c>
       <c r="G38">
         <v>308.15</v>
       </c>
       <c r="H38">
-        <v>-875863392.8853846</v>
+        <v>-46394426.62056761</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>471685944.1709816</v>
+        <v>24790116.44665457</v>
       </c>
       <c r="K38">
-        <v>1866.530653846621</v>
+        <v>98.09880245199408</v>
       </c>
       <c r="L38">
-        <v>562545566.0559633</v>
+        <v>29591086.74030698</v>
       </c>
       <c r="M38">
         <v>375</v>
       </c>
       <c r="N38">
-        <v>-2621.402340791251</v>
+        <v>-138.0325747330825</v>
       </c>
       <c r="O38">
-        <v>-255693387.5612208</v>
+        <v>-16251490.42344552</v>
       </c>
       <c r="P38">
-        <v>-1022.949156015329</v>
+        <v>-53.49736240987113</v>
       </c>
       <c r="Q38">
         <v>-0</v>
       </c>
       <c r="R38">
-        <v>629517241.625759</v>
+        <v>628941829.1556485</v>
       </c>
       <c r="S38">
-        <v>347.2501995365999</v>
+        <v>347.78775315268</v>
       </c>
       <c r="T38">
-        <v>-58593.28451746294</v>
+        <v>-3816.118407081115</v>
       </c>
       <c r="U38">
-        <v>-355772.7176027699</v>
+        <v>-18607.76907925299</v>
       </c>
       <c r="V38">
-        <v>329.9899945103075</v>
+        <v>330.6724160558937</v>
       </c>
       <c r="W38">
         <v>325</v>
@@ -3143,67 +3143,67 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>647928.6495079118</v>
+        <v>34076.58762001006</v>
       </c>
       <c r="C39">
-        <v>133196.3502969408</v>
+        <v>7005.482547482393</v>
       </c>
       <c r="D39">
         <v>599.173961</v>
       </c>
       <c r="E39">
-        <v>365.917518396882</v>
+        <v>364.6210838321974</v>
       </c>
       <c r="F39">
-        <v>2581.114716190673</v>
+        <v>135.7189928885292</v>
       </c>
       <c r="G39">
         <v>308.15</v>
       </c>
       <c r="H39">
-        <v>-874494132.2831438</v>
+        <v>-46360801.67792685</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>471142115.5394754</v>
+        <v>24773379.12464368</v>
       </c>
       <c r="K39">
-        <v>1864.378659364969</v>
+        <v>98.03256998052734</v>
       </c>
       <c r="L39">
-        <v>561867848.8510749</v>
+        <v>29571424.40183475</v>
       </c>
       <c r="M39">
         <v>375</v>
       </c>
       <c r="N39">
-        <v>-2618.358865066709</v>
+        <v>-137.930714200201</v>
       </c>
       <c r="O39">
-        <v>-254634891.7978165</v>
+        <v>-16239135.96015402</v>
       </c>
       <c r="P39">
-        <v>-1022.231642548377</v>
+        <v>-53.45706822481588</v>
       </c>
       <c r="Q39">
         <v>-0</v>
       </c>
       <c r="R39">
-        <v>629536046.8334093</v>
+        <v>628942587.4281453</v>
       </c>
       <c r="S39">
-        <v>347.2141625938479</v>
+        <v>347.788957476352</v>
       </c>
       <c r="T39">
-        <v>-58329.53699463067</v>
+        <v>-3813.254113148934</v>
       </c>
       <c r="U39">
-        <v>-355523.950621304</v>
+        <v>-18593.74077595012</v>
       </c>
       <c r="V39">
-        <v>329.9864917283569</v>
+        <v>330.6681370699001</v>
       </c>
       <c r="W39">
         <v>325</v>
@@ -3214,67 +3214,67 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>647180.7910943833</v>
+        <v>34054.01325663699</v>
       </c>
       <c r="C40">
-        <v>133036.5464647353</v>
+        <v>7000.925341371921</v>
       </c>
       <c r="D40">
         <v>619.173961</v>
       </c>
       <c r="E40">
-        <v>365.9278885023677</v>
+        <v>364.627983599391</v>
       </c>
       <c r="F40">
-        <v>2578.167655692049</v>
+        <v>135.6287686494288</v>
       </c>
       <c r="G40">
         <v>308.15</v>
       </c>
       <c r="H40">
-        <v>-873129687.8315833</v>
+        <v>-46329050.67442655</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>470604175.7457752</v>
+        <v>24756910.10115703</v>
       </c>
       <c r="K40">
-        <v>1862.249967678691</v>
+        <v>97.96739921517037</v>
       </c>
       <c r="L40">
-        <v>561194904.2923267</v>
+        <v>29552077.79394</v>
       </c>
       <c r="M40">
         <v>375</v>
       </c>
       <c r="N40">
-        <v>-2615.346011370132</v>
+        <v>-137.8344657660935</v>
       </c>
       <c r="O40">
-        <v>-253601285.6519856</v>
+        <v>-16227454.39448317</v>
       </c>
       <c r="P40">
-        <v>-1021.533303963906</v>
+        <v>-53.41896560935311</v>
       </c>
       <c r="Q40">
         <v>-0</v>
       </c>
       <c r="R40">
-        <v>629554798.1494325</v>
+        <v>628943350.2919768</v>
       </c>
       <c r="S40">
-        <v>347.1775221779498</v>
+        <v>347.790139171544</v>
       </c>
       <c r="T40">
-        <v>-58071.95770452266</v>
+        <v>-3810.545730168782</v>
       </c>
       <c r="U40">
-        <v>-355281.8149070572</v>
+        <v>-18580.47583091988</v>
       </c>
       <c r="V40">
-        <v>329.9830826397762</v>
+        <v>330.6640908208373</v>
       </c>
       <c r="W40">
         <v>325</v>
@@ -3285,67 +3285,67 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>646439.4184917294</v>
+        <v>34033.03463852657</v>
       </c>
       <c r="C41">
-        <v>132877.6165121786</v>
+        <v>6996.694337809294</v>
       </c>
       <c r="D41">
         <v>639.173961</v>
       </c>
       <c r="E41">
-        <v>365.9381596841792</v>
+        <v>364.6343969328371</v>
       </c>
       <c r="F41">
-        <v>2575.248708169486</v>
+        <v>135.54490522347</v>
       </c>
       <c r="G41">
         <v>308.15</v>
       </c>
       <c r="H41">
-        <v>-871769067.2017043</v>
+        <v>-46298478.39894477</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>470071367.5360888</v>
+        <v>24741602.14460834</v>
       </c>
       <c r="K41">
-        <v>1860.141582247009</v>
+        <v>97.90682299028478</v>
       </c>
       <c r="L41">
-        <v>560525852.1168351</v>
+        <v>29534111.79314806</v>
       </c>
       <c r="M41">
         <v>375</v>
       </c>
       <c r="N41">
-        <v>-2612.359548858813</v>
+        <v>-137.7417650676649</v>
       </c>
       <c r="O41">
-        <v>-252590035.1923856</v>
+        <v>-16216200.14747994</v>
       </c>
       <c r="P41">
-        <v>-1020.851927171407</v>
+        <v>-53.38225628293003</v>
       </c>
       <c r="Q41">
         <v>-0</v>
       </c>
       <c r="R41">
-        <v>629573497.3068199</v>
+        <v>628944120.9819179</v>
       </c>
       <c r="S41">
-        <v>347.1403220198013</v>
+        <v>347.7912954284528</v>
       </c>
       <c r="T41">
-        <v>-57819.92290774783</v>
+        <v>-3807.936515833429</v>
       </c>
       <c r="U41">
-        <v>-355045.5354019242</v>
+        <v>-18567.69618012865</v>
       </c>
       <c r="V41">
-        <v>329.9797564317291</v>
+        <v>330.6601925371504</v>
       </c>
       <c r="W41">
         <v>325</v>
@@ -3356,67 +3356,67 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>645704.4293256765</v>
+        <v>34013.06719745146</v>
       </c>
       <c r="C42">
-        <v>132719.54454001</v>
+        <v>6992.669491544287</v>
       </c>
       <c r="D42">
         <v>659.173961</v>
       </c>
       <c r="E42">
-        <v>365.9483334721571</v>
+        <v>364.6405018753149</v>
       </c>
       <c r="F42">
-        <v>2572.357438861456</v>
+        <v>135.4650744416572</v>
       </c>
       <c r="G42">
         <v>308.15</v>
       </c>
       <c r="H42">
-        <v>-870412688.5887405</v>
+        <v>-46268873.83546993</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>469543611.5514999</v>
+        <v>24727030.2841666</v>
       </c>
       <c r="K42">
-        <v>1858.053189036576</v>
+        <v>97.84915962823645</v>
       </c>
       <c r="L42">
-        <v>559860624.0083197</v>
+        <v>29517019.10587279</v>
       </c>
       <c r="M42">
         <v>375</v>
       </c>
       <c r="N42">
-        <v>-2609.400766867971</v>
+        <v>-137.6519834116638</v>
       </c>
       <c r="O42">
-        <v>-251600239.0929222</v>
+        <v>-16205298.65163949</v>
       </c>
       <c r="P42">
-        <v>-1020.18803211763</v>
+        <v>-53.34669618832777</v>
       </c>
       <c r="Q42">
         <v>-0</v>
       </c>
       <c r="R42">
-        <v>629592144.1335242</v>
+        <v>628944900.8127661</v>
       </c>
       <c r="S42">
-        <v>347.1025616375373</v>
+        <v>347.792426708337</v>
       </c>
       <c r="T42">
-        <v>-57573.20153264599</v>
+        <v>-3805.409067949711</v>
       </c>
       <c r="U42">
-        <v>-354815.2886513597</v>
+        <v>-18555.31682103828</v>
       </c>
       <c r="V42">
-        <v>329.9765156437193</v>
+        <v>330.6564163011786</v>
       </c>
       <c r="W42">
         <v>325</v>
@@ -3427,67 +3427,67 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>644976.3412601902</v>
+        <v>33993.53365618244</v>
       </c>
       <c r="C43">
-        <v>132562.442674629</v>
+        <v>6988.732131666929</v>
       </c>
       <c r="D43">
         <v>679.173961</v>
       </c>
       <c r="E43">
-        <v>365.9584026930552</v>
+        <v>364.6464743056069</v>
       </c>
       <c r="F43">
-        <v>2569.495886321528</v>
+        <v>135.3869764496599</v>
       </c>
       <c r="G43">
         <v>308.15</v>
       </c>
       <c r="H43">
-        <v>-869059221.873328</v>
+        <v>-46240455.20895396</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>469021279.8980744</v>
+        <v>24712774.71739997</v>
       </c>
       <c r="K43">
-        <v>1855.98626051353</v>
+        <v>97.79274789110771</v>
       </c>
       <c r="L43">
-        <v>559199687.0120037</v>
+        <v>29500299.29377465</v>
       </c>
       <c r="M43">
         <v>375</v>
       </c>
       <c r="N43">
-        <v>-2606.464903287897</v>
+        <v>-137.5657646338644</v>
       </c>
       <c r="O43">
-        <v>-250637211.3625868</v>
+        <v>-16194825.99637159</v>
       </c>
       <c r="P43">
-        <v>-1019.53941224906</v>
+        <v>-53.31253242388811</v>
       </c>
       <c r="Q43">
         <v>-0</v>
       </c>
       <c r="R43">
-        <v>629610746.0136148</v>
+        <v>628945687.8145766</v>
       </c>
       <c r="S43">
-        <v>347.0642682398151</v>
+        <v>347.7935364623407</v>
       </c>
       <c r="T43">
-        <v>-57333.15222506148</v>
+        <v>-3802.980942531025</v>
       </c>
       <c r="U43">
-        <v>-354590.3016218648</v>
+        <v>-18543.42382521635</v>
       </c>
       <c r="V43">
-        <v>329.973349495937</v>
+        <v>330.652788351851</v>
       </c>
       <c r="W43">
         <v>325</v>
@@ -3498,67 +3498,67 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>644254.1782455271</v>
+        <v>33974.64979592976</v>
       </c>
       <c r="C44">
-        <v>132406.1148943895</v>
+        <v>6984.926701838546</v>
       </c>
       <c r="D44">
         <v>699.173961</v>
       </c>
       <c r="E44">
-        <v>365.968381140133</v>
+        <v>364.6522485154661</v>
       </c>
       <c r="F44">
-        <v>2566.660130660566</v>
+        <v>135.3114704692849</v>
       </c>
       <c r="G44">
         <v>308.15</v>
       </c>
       <c r="H44">
-        <v>-867712119.4521915</v>
+        <v>-46213151.36291746</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>468503657.0613682</v>
+        <v>24698992.28180862</v>
       </c>
       <c r="K44">
-        <v>1853.93796530878</v>
+        <v>97.73820841676094</v>
       </c>
       <c r="L44">
-        <v>558542218.5278003</v>
+        <v>29484139.75079187</v>
       </c>
       <c r="M44">
         <v>375</v>
       </c>
       <c r="N44">
-        <v>-2603.561967349115</v>
+        <v>-137.4828950951039</v>
       </c>
       <c r="O44">
-        <v>-249703040.6373963</v>
+        <v>-16184756.27218138</v>
       </c>
       <c r="P44">
-        <v>-1018.909829235781</v>
+        <v>-53.27968132178285</v>
       </c>
       <c r="Q44">
         <v>-0</v>
       </c>
       <c r="R44">
-        <v>629629294.9646355</v>
+        <v>628946481.2152983</v>
       </c>
       <c r="S44">
-        <v>347.0254544523274</v>
+        <v>347.7946258572376</v>
       </c>
       <c r="T44">
-        <v>-57100.27981125759</v>
+        <v>-3800.646209246445</v>
       </c>
       <c r="U44">
-        <v>-354371.8794095214</v>
+        <v>-18531.98804435924</v>
       </c>
       <c r="V44">
-        <v>329.9702763613483</v>
+        <v>330.6492998024613</v>
       </c>
       <c r="W44">
         <v>325</v>
@@ -3569,67 +3569,67 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>643539.7646669898</v>
+        <v>33955.94066247833</v>
       </c>
       <c r="C45">
-        <v>132250.9419506451</v>
+        <v>6981.155574738479</v>
       </c>
       <c r="D45">
         <v>719.173961</v>
       </c>
       <c r="E45">
-        <v>365.9782433216642</v>
+        <v>364.6579692047958</v>
       </c>
       <c r="F45">
-        <v>2563.857416324882</v>
+        <v>135.2366643443243</v>
       </c>
       <c r="G45">
         <v>308.15</v>
       </c>
       <c r="H45">
-        <v>-866369917.0939028</v>
+        <v>-46187108.66842461</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>467992065.4017321</v>
+        <v>24685337.59387548</v>
       </c>
       <c r="K45">
-        <v>1851.913536158429</v>
+        <v>97.68417446292986</v>
       </c>
       <c r="L45">
-        <v>557889818.5096576</v>
+        <v>29468128.70145088</v>
       </c>
       <c r="M45">
         <v>375</v>
       </c>
       <c r="N45">
-        <v>-2600.686803721952</v>
+        <v>-137.4038060955639</v>
       </c>
       <c r="O45">
-        <v>-248791878.9489699</v>
+        <v>-16175140.37638979</v>
       </c>
       <c r="P45">
-        <v>-1018.296926719131</v>
+        <v>-53.24830816562098</v>
       </c>
       <c r="Q45">
         <v>-0</v>
       </c>
       <c r="R45">
-        <v>629647796.8277776</v>
+        <v>628947277.6484004</v>
       </c>
       <c r="S45">
-        <v>346.9861473912242</v>
+        <v>347.7956975290942</v>
       </c>
       <c r="T45">
-        <v>-56873.12039403724</v>
+        <v>-3798.416612236292</v>
       </c>
       <c r="U45">
-        <v>-354159.196573619</v>
+        <v>-18521.06704992084</v>
       </c>
       <c r="V45">
-        <v>329.9672847285401</v>
+        <v>330.6459682049821</v>
       </c>
       <c r="W45">
         <v>325</v>
@@ -3640,67 +3640,67 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>642830.9135960306</v>
+        <v>33937.79405518689</v>
       </c>
       <c r="C46">
-        <v>132096.4804355265</v>
+        <v>6977.498574723724</v>
       </c>
       <c r="D46">
         <v>739.173961</v>
       </c>
       <c r="E46">
-        <v>365.9880199746884</v>
+        <v>364.6635182597861</v>
       </c>
       <c r="F46">
-        <v>2561.079008216737</v>
+        <v>135.1641025854502</v>
       </c>
       <c r="G46">
         <v>308.15</v>
       </c>
       <c r="H46">
-        <v>-865029870.8660816</v>
+        <v>-46162176.71060425</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>467484910.4637156</v>
+        <v>24672092.57986322</v>
       </c>
       <c r="K46">
-        <v>1849.906663610704</v>
+        <v>97.63176165673224</v>
       </c>
       <c r="L46">
-        <v>557240608.2941426</v>
+        <v>29452602.69701804</v>
       </c>
       <c r="M46">
         <v>375</v>
       </c>
       <c r="N46">
-        <v>-2597.830833675923</v>
+        <v>-137.3280495125136</v>
       </c>
       <c r="O46">
-        <v>-247900604.9998963</v>
+        <v>-16165924.70383042</v>
       </c>
       <c r="P46">
-        <v>-1017.6971937085</v>
+        <v>-53.21823900317213</v>
       </c>
       <c r="Q46">
         <v>-0</v>
       </c>
       <c r="R46">
-        <v>629666257.0901678</v>
+        <v>628948075.9708008</v>
       </c>
       <c r="S46">
-        <v>346.9463596236632</v>
+        <v>347.7967517914664</v>
       </c>
       <c r="T46">
-        <v>-56650.90404459744</v>
+        <v>-3796.279795606595</v>
       </c>
       <c r="U46">
-        <v>-353951.0255237594</v>
+        <v>-18510.6002468768</v>
       </c>
       <c r="V46">
-        <v>329.9643574471768</v>
+        <v>330.6427750855678</v>
       </c>
       <c r="W46">
         <v>325</v>
@@ -3711,67 +3711,67 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>642126.0837749242</v>
+        <v>33920.6002060766</v>
       </c>
       <c r="C47">
-        <v>131942.4191873921</v>
+        <v>6974.036081570135</v>
       </c>
       <c r="D47">
         <v>759.173961</v>
       </c>
       <c r="E47">
-        <v>365.99773280021</v>
+        <v>364.66877679616</v>
       </c>
       <c r="F47">
-        <v>2558.318739161301</v>
+        <v>135.0953397684975</v>
       </c>
       <c r="G47">
         <v>308.15</v>
       </c>
       <c r="H47">
-        <v>-863691965.8021899</v>
+        <v>-46137995.15557965</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>466981066.5260251</v>
+        <v>24659541.00327255</v>
       </c>
       <c r="K47">
-        <v>1847.912893058285</v>
+        <v>97.58209290262363</v>
       </c>
       <c r="L47">
-        <v>556593272.1372772</v>
+        <v>29437900.12297715</v>
       </c>
       <c r="M47">
         <v>375</v>
       </c>
       <c r="N47">
-        <v>-2594.993377203155</v>
+        <v>-137.254555359794</v>
       </c>
       <c r="O47">
-        <v>-247028805.7468825</v>
+        <v>-16156982.09587023</v>
       </c>
       <c r="P47">
-        <v>-1017.11008167058</v>
+        <v>-53.1890600711904</v>
       </c>
       <c r="Q47">
         <v>-0</v>
       </c>
       <c r="R47">
-        <v>629684675.1059612</v>
+        <v>628948877.9565535</v>
       </c>
       <c r="S47">
-        <v>346.9061134741368</v>
+        <v>347.7977872331055</v>
       </c>
       <c r="T47">
-        <v>-56433.52829064843</v>
+        <v>-3794.206335836469</v>
       </c>
       <c r="U47">
-        <v>-353747.1701230117</v>
+        <v>-18500.44351365316</v>
       </c>
       <c r="V47">
-        <v>329.9614918365328</v>
+        <v>330.6396765064487</v>
       </c>
       <c r="W47">
         <v>325</v>
@@ -3782,67 +3782,67 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>641425.6513769828</v>
+        <v>33903.49422466731</v>
       </c>
       <c r="C48">
-        <v>131788.8410401645</v>
+        <v>6970.590266960994</v>
       </c>
       <c r="D48">
         <v>779.173961</v>
       </c>
       <c r="E48">
-        <v>366.007376617645</v>
+        <v>364.6740082817318</v>
       </c>
       <c r="F48">
-        <v>2555.578081418847</v>
+        <v>135.0269306723784</v>
       </c>
       <c r="G48">
         <v>308.15</v>
       </c>
       <c r="H48">
-        <v>-862355589.8179646</v>
+        <v>-46114776.71904644</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>466480802.3267433</v>
+        <v>24647053.99288687</v>
       </c>
       <c r="K48">
-        <v>1845.933287929736</v>
+        <v>97.53267965300225</v>
       </c>
       <c r="L48">
-        <v>555948156.2874902</v>
+        <v>29423270.83815053</v>
       </c>
       <c r="M48">
         <v>375</v>
       </c>
       <c r="N48">
-        <v>-2592.172741449428</v>
+        <v>-137.1839522350975</v>
       </c>
       <c r="O48">
-        <v>-246175442.909551</v>
+        <v>-16148387.14497728</v>
       </c>
       <c r="P48">
-        <v>-1016.534991998697</v>
+        <v>-53.16101307926147</v>
       </c>
       <c r="Q48">
         <v>-0</v>
       </c>
       <c r="R48">
-        <v>629703053.7309591</v>
+        <v>628949680.8275965</v>
       </c>
       <c r="S48">
-        <v>346.8654046421826</v>
+        <v>347.7988065647357</v>
       </c>
       <c r="T48">
-        <v>-56220.7342779846</v>
+        <v>-3792.213388396649</v>
       </c>
       <c r="U48">
-        <v>-353547.4167604614</v>
+        <v>-18490.68104702271</v>
       </c>
       <c r="V48">
-        <v>329.9586849728545</v>
+        <v>330.6366981338072</v>
       </c>
       <c r="W48">
         <v>325</v>
@@ -3853,67 +3853,67 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>640728.4720821863</v>
+        <v>33887.31850337014</v>
       </c>
       <c r="C49">
-        <v>131635.5163793637</v>
+        <v>6967.33446004384</v>
       </c>
       <c r="D49">
         <v>799.173961</v>
       </c>
       <c r="E49">
-        <v>366.0169675705552</v>
+        <v>364.6789561204168</v>
       </c>
       <c r="F49">
-        <v>2552.852447195221</v>
+        <v>134.962230671452</v>
       </c>
       <c r="G49">
         <v>308.15</v>
       </c>
       <c r="H49">
-        <v>-861022528.9820228</v>
+        <v>-46092196.75825456</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>465983280.4358135</v>
+        <v>24635244.01980793</v>
       </c>
       <c r="K49">
-        <v>1843.964534404772</v>
+        <v>97.48594554952919</v>
       </c>
       <c r="L49">
-        <v>555304290.6123699</v>
+        <v>29409445.66576291</v>
       </c>
       <c r="M49">
         <v>375</v>
       </c>
       <c r="N49">
-        <v>-2589.372277459306</v>
+        <v>-137.1152762850916</v>
       </c>
       <c r="O49">
-        <v>-245343921.93979</v>
+        <v>-16140025.04976368</v>
       </c>
       <c r="P49">
-        <v>-1015.972343225258</v>
+        <v>-53.13372537329997</v>
       </c>
       <c r="Q49">
         <v>-0</v>
       </c>
       <c r="R49">
-        <v>629721387.1062344</v>
+        <v>628950486.625344</v>
       </c>
       <c r="S49">
-        <v>346.8243025366899</v>
+        <v>347.7998084333925</v>
       </c>
       <c r="T49">
-        <v>-56013.38279805041</v>
+        <v>-3790.274482514968</v>
       </c>
       <c r="U49">
-        <v>-353351.9057958568</v>
+        <v>-18481.18303985697</v>
       </c>
       <c r="V49">
-        <v>329.9559388963367</v>
+        <v>330.6338003955251</v>
       </c>
       <c r="W49">
         <v>325</v>
@@ -3924,67 +3924,67 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>640032.6489319009</v>
+        <v>33871.52562878023</v>
       </c>
       <c r="C50">
-        <v>131482.0618142064</v>
+        <v>6964.156147832396</v>
       </c>
       <c r="D50">
         <v>819.173961</v>
       </c>
       <c r="E50">
-        <v>366.0265323453795</v>
+        <v>364.6837870568285</v>
       </c>
       <c r="F50">
-        <v>2550.134252504218</v>
+        <v>134.8990593240408</v>
       </c>
       <c r="G50">
         <v>308.15</v>
       </c>
       <c r="H50">
-        <v>-859691129.1363058</v>
+        <v>-46070278.31410191</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>465487116.5151889</v>
+        <v>24623713.07851575</v>
       </c>
       <c r="K50">
-        <v>1842.001154506247</v>
+        <v>97.44031562977861</v>
       </c>
       <c r="L50">
-        <v>554660050.895878</v>
+        <v>29395949.71233377</v>
       </c>
       <c r="M50">
         <v>375</v>
       </c>
       <c r="N50">
-        <v>-2586.586131186694</v>
+        <v>-137.0485942865813</v>
       </c>
       <c r="O50">
-        <v>-244540035.1233319</v>
+        <v>-16131903.76933788</v>
       </c>
       <c r="P50">
-        <v>-1015.419448253851</v>
+        <v>-53.10722203830665</v>
       </c>
       <c r="Q50">
         <v>-0</v>
       </c>
       <c r="R50">
-        <v>629739667.3468329</v>
+        <v>628951294.8735543</v>
       </c>
       <c r="S50">
-        <v>346.7828378501433</v>
+        <v>347.8007939451033</v>
       </c>
       <c r="T50">
-        <v>-55812.95436568408</v>
+        <v>-3788.391375827237</v>
       </c>
       <c r="U50">
-        <v>-353159.6961593865</v>
+        <v>-18471.9582338102</v>
       </c>
       <c r="V50">
-        <v>329.9532404802423</v>
+        <v>330.6309859551678</v>
       </c>
       <c r="W50">
         <v>325</v>
@@ -3995,67 +3995,67 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>639342.2856426468</v>
+        <v>33856.24383133095</v>
       </c>
       <c r="C51">
-        <v>131329.3259292969</v>
+        <v>6961.081757971844</v>
       </c>
       <c r="D51">
         <v>839.173961</v>
       </c>
       <c r="E51">
-        <v>366.0360135179296</v>
+        <v>364.688462038988</v>
       </c>
       <c r="F51">
-        <v>2547.439816618653</v>
+        <v>134.8379273092864</v>
       </c>
       <c r="G51">
         <v>308.15</v>
       </c>
       <c r="H51">
-        <v>-858362705.0474054</v>
+        <v>-46048937.9776966</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>464995289.3928422</v>
+        <v>24612554.38549915</v>
       </c>
       <c r="K51">
-        <v>1840.054935808825</v>
+        <v>97.39615875363806</v>
       </c>
       <c r="L51">
-        <v>554019017.4410599</v>
+        <v>29382894.30676489</v>
       </c>
       <c r="M51">
         <v>375</v>
       </c>
       <c r="N51">
-        <v>-2583.818399680882</v>
+        <v>-136.9836576392869</v>
       </c>
       <c r="O51">
-        <v>-243754334.9017667</v>
+        <v>-16123993.60073961</v>
       </c>
       <c r="P51">
-        <v>-1014.877978116147</v>
+        <v>-53.08140652573456</v>
       </c>
       <c r="Q51">
         <v>-0</v>
       </c>
       <c r="R51">
-        <v>629757900.3560044</v>
+        <v>628952105.9413966</v>
       </c>
       <c r="S51">
-        <v>346.7410064464636</v>
+        <v>347.8017633520257</v>
       </c>
       <c r="T51">
-        <v>-55617.05221389959</v>
+        <v>-3786.557205226356</v>
       </c>
       <c r="U51">
-        <v>-352971.3643512691</v>
+        <v>-18462.97299811679</v>
       </c>
       <c r="V51">
-        <v>329.9505978869332</v>
+        <v>330.6282445592308</v>
       </c>
       <c r="W51">
         <v>325</v>
@@ -4066,67 +4066,67 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>638657.2355700237</v>
+        <v>33841.72233575285</v>
       </c>
       <c r="C52">
-        <v>131177.2842667341</v>
+        <v>6958.162617364113</v>
       </c>
       <c r="D52">
         <v>859.173961</v>
       </c>
       <c r="E52">
-        <v>366.0454132507847</v>
+        <v>364.692905150249</v>
       </c>
       <c r="F52">
-        <v>2544.768524965496</v>
+        <v>134.7798273245463</v>
       </c>
       <c r="G52">
         <v>308.15</v>
       </c>
       <c r="H52">
-        <v>-857038569.6512086</v>
+        <v>-46027997.75699843</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>464507686.8880808</v>
+        <v>24601949.1421322</v>
       </c>
       <c r="K52">
-        <v>1838.125434395626</v>
+        <v>97.3541919809456</v>
       </c>
       <c r="L52">
-        <v>553381086.152684</v>
+        <v>29370495.64983056</v>
       </c>
       <c r="M52">
         <v>375</v>
       </c>
       <c r="N52">
-        <v>-2581.072153085934</v>
+        <v>-136.9199375748141</v>
       </c>
       <c r="O52">
-        <v>-242986178.0489361</v>
+        <v>-16116231.66676608</v>
       </c>
       <c r="P52">
-        <v>-1014.348747770555</v>
+        <v>-53.05607425611925</v>
       </c>
       <c r="Q52">
         <v>-0</v>
       </c>
       <c r="R52">
-        <v>629776088.0236789</v>
+        <v>628952921.8912804</v>
       </c>
       <c r="S52">
-        <v>346.6988391884216</v>
+        <v>347.8027161218714</v>
       </c>
       <c r="T52">
-        <v>-55425.50909949688</v>
+        <v>-3784.75742392461</v>
       </c>
       <c r="U52">
-        <v>-352787.1886515402</v>
+        <v>-18454.15607442957</v>
       </c>
       <c r="V52">
-        <v>329.9480150951034</v>
+        <v>330.6255544840507</v>
       </c>
       <c r="W52">
         <v>325</v>
@@ -4137,67 +4137,67 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>637976.7311897753</v>
+        <v>33827.5512722004</v>
       </c>
       <c r="C53">
-        <v>131025.784544891</v>
+        <v>6955.314469640359</v>
       </c>
       <c r="D53">
         <v>879.173961</v>
       </c>
       <c r="E53">
-        <v>366.0547424126167</v>
+        <v>364.6972412475204</v>
       </c>
       <c r="F53">
-        <v>2542.11728879097</v>
+        <v>134.7231267122444</v>
       </c>
       <c r="G53">
         <v>308.15</v>
       </c>
       <c r="H53">
-        <v>-855719160.7122273</v>
+        <v>-46007534.62104949</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>464023745.1972191</v>
+        <v>24591599.33231369</v>
       </c>
       <c r="K53">
-        <v>1836.210419233326</v>
+        <v>97.31323599360381</v>
       </c>
       <c r="L53">
-        <v>552745615.0668716</v>
+        <v>29358398.25944582</v>
       </c>
       <c r="M53">
         <v>375</v>
       </c>
       <c r="N53">
-        <v>-2578.349985899497</v>
+        <v>-136.8576610407029</v>
       </c>
       <c r="O53">
-        <v>-242242151.8085015</v>
+        <v>-16108644.85654859</v>
       </c>
       <c r="P53">
-        <v>-1013.833342199177</v>
+        <v>-53.03131226810365</v>
       </c>
       <c r="Q53">
         <v>-0</v>
       </c>
       <c r="R53">
-        <v>629794225.8589724</v>
+        <v>628953742.7062628</v>
       </c>
       <c r="S53">
-        <v>346.656293756981</v>
+        <v>347.8036535466321</v>
       </c>
       <c r="T53">
-        <v>-55239.98254345183</v>
+        <v>-3782.998205905995</v>
       </c>
       <c r="U53">
-        <v>-352607.7155416743</v>
+        <v>-18445.53778213365</v>
       </c>
       <c r="V53">
-        <v>329.9454998489594</v>
+        <v>330.6229249711575</v>
       </c>
       <c r="W53">
         <v>325</v>
@@ -4208,67 +4208,67 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>637300.001540483</v>
+        <v>33813.46316094456</v>
       </c>
       <c r="C54">
-        <v>130874.6748245776</v>
+        <v>6952.482304408906</v>
       </c>
       <c r="D54">
         <v>899.173961</v>
       </c>
       <c r="E54">
-        <v>366.0640118996684</v>
+        <v>364.7015518314819</v>
       </c>
       <c r="F54">
-        <v>2539.483011511085</v>
+        <v>134.6667597140587</v>
       </c>
       <c r="G54">
         <v>308.15</v>
       </c>
       <c r="H54">
-        <v>-854402753.4598124</v>
+        <v>-45987716.17151029</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>463542899.0872895</v>
+        <v>24581310.41853344</v>
       </c>
       <c r="K54">
-        <v>1834.307653628973</v>
+        <v>97.27252098858689</v>
       </c>
       <c r="L54">
-        <v>552111955.1046531</v>
+        <v>29346370.32417561</v>
       </c>
       <c r="M54">
         <v>375</v>
       </c>
       <c r="N54">
-        <v>-2575.64504018278</v>
+        <v>-136.7973235988072</v>
       </c>
       <c r="O54">
-        <v>-241515167.6749637</v>
+        <v>-16101291.7414132</v>
       </c>
       <c r="P54">
-        <v>-1013.328329241858</v>
+        <v>-53.00731124293634</v>
       </c>
       <c r="Q54">
         <v>-0</v>
       </c>
       <c r="R54">
-        <v>629812313.5207551</v>
+        <v>628954566.6308633</v>
       </c>
       <c r="S54">
-        <v>346.61342761587</v>
+        <v>347.8045775738073</v>
       </c>
       <c r="T54">
-        <v>-55058.6997645904</v>
+        <v>-3781.29311360009</v>
       </c>
       <c r="U54">
-        <v>-352431.7442284793</v>
+        <v>-18437.18453744165</v>
       </c>
       <c r="V54">
-        <v>329.9430353806586</v>
+        <v>330.6203762679912</v>
       </c>
       <c r="W54">
         <v>325</v>
@@ -4279,67 +4279,67 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>636625.5347371295</v>
+        <v>33800.01659995293</v>
       </c>
       <c r="C55">
-        <v>130723.6499515195</v>
+        <v>6949.781075443249</v>
       </c>
       <c r="D55">
         <v>919.173961</v>
       </c>
       <c r="E55">
-        <v>366.0732430107047</v>
+        <v>364.7056667482838</v>
       </c>
       <c r="F55">
-        <v>2536.859640272062</v>
+        <v>134.6129513448359</v>
       </c>
       <c r="G55">
         <v>308.15</v>
       </c>
       <c r="H55">
-        <v>-853088267.8497635</v>
+        <v>-45968289.17112315</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>463064043.7045178</v>
+        <v>24571488.5424462</v>
       </c>
       <c r="K55">
-        <v>1832.412765543761</v>
+        <v>97.23365412977334</v>
       </c>
       <c r="L55">
-        <v>551478817.9667507</v>
+        <v>29334896.43651016</v>
       </c>
       <c r="M55">
         <v>375</v>
       </c>
       <c r="N55">
-        <v>-2572.95643290049</v>
+        <v>-136.7381736917364</v>
       </c>
       <c r="O55">
-        <v>-240802470.2022059</v>
+        <v>-16094082.89683551</v>
       </c>
       <c r="P55">
-        <v>-1012.834411682206</v>
+        <v>-52.98378073916865</v>
       </c>
       <c r="Q55">
         <v>-0</v>
       </c>
       <c r="R55">
-        <v>629830344.7245847</v>
+        <v>628955395.2287983</v>
       </c>
       <c r="S55">
-        <v>346.5701610496594</v>
+        <v>347.8054869917155</v>
       </c>
       <c r="T55">
-        <v>-54880.95733932109</v>
+        <v>-3779.621512264313</v>
       </c>
       <c r="U55">
-        <v>-352259.5139905931</v>
+        <v>-18428.99517130003</v>
       </c>
       <c r="V55">
-        <v>329.9406251275421</v>
+        <v>330.6178775342981</v>
       </c>
       <c r="W55">
         <v>325</v>
@@ -4350,67 +4350,67 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>635955.4968454364</v>
+        <v>33786.7990719471</v>
       </c>
       <c r="C56">
-        <v>130573.1605163774</v>
+        <v>6947.125974626521</v>
       </c>
       <c r="D56">
         <v>939.173961</v>
       </c>
       <c r="E56">
-        <v>366.0824054602302</v>
+        <v>364.7097116570323</v>
       </c>
       <c r="F56">
-        <v>2534.255781850649</v>
+        <v>134.5600584254023</v>
       </c>
       <c r="G56">
         <v>308.15</v>
       </c>
       <c r="H56">
-        <v>-851775466.1491935</v>
+        <v>-45949321.64857797</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>462588750.0813656</v>
+        <v>24561833.76739779</v>
       </c>
       <c r="K56">
-        <v>1830.531971740111</v>
+        <v>97.19544852202692</v>
       </c>
       <c r="L56">
-        <v>550848098.9763899</v>
+        <v>29323618.76947724</v>
       </c>
       <c r="M56">
         <v>375</v>
       </c>
       <c r="N56">
-        <v>-2570.281369066986</v>
+        <v>-136.680411964157</v>
       </c>
       <c r="O56">
-        <v>-240102925.6226534</v>
+        <v>-16087042.17636964</v>
       </c>
       <c r="P56">
-        <v>-1012.349570038396</v>
+        <v>-52.9607977341584</v>
       </c>
       <c r="Q56">
         <v>-0</v>
       </c>
       <c r="R56">
-        <v>629848326.016345</v>
+        <v>628956228.001561</v>
       </c>
       <c r="S56">
-        <v>346.5265653393254</v>
+        <v>347.8063829013392</v>
       </c>
       <c r="T56">
-        <v>-54706.48393112067</v>
+        <v>-3777.9888535691</v>
       </c>
       <c r="U56">
-        <v>-352090.3158468058</v>
+        <v>-18420.99649960517</v>
       </c>
       <c r="V56">
-        <v>329.9382592210559</v>
+        <v>330.615436942329</v>
       </c>
       <c r="W56">
         <v>325</v>
@@ -4421,67 +4421,67 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>635289.0031309841</v>
+        <v>33773.8338073585</v>
       </c>
       <c r="C57">
-        <v>130423.0295797661</v>
+        <v>6944.521809910783</v>
       </c>
       <c r="D57">
         <v>959.173961</v>
       </c>
       <c r="E57">
-        <v>366.0915117511709</v>
+        <v>364.7136794906654</v>
       </c>
       <c r="F57">
-        <v>2531.667883071178</v>
+        <v>134.5081733758317</v>
       </c>
       <c r="G57">
         <v>308.15</v>
       </c>
       <c r="H57">
-        <v>-850464654.497869</v>
+        <v>-45930799.28704342</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>462116369.6411964</v>
+        <v>24552362.96322692</v>
       </c>
       <c r="K57">
-        <v>1828.662705718147</v>
+        <v>97.15797091627296</v>
       </c>
       <c r="L57">
-        <v>550219052.6255696</v>
+        <v>29312557.56882142</v>
       </c>
       <c r="M57">
         <v>375</v>
       </c>
       <c r="N57">
-        <v>-2567.622413842034</v>
+        <v>-136.6239950608176</v>
       </c>
       <c r="O57">
-        <v>-239416445.2874134</v>
+        <v>-16080164.25675557</v>
       </c>
       <c r="P57">
-        <v>-1011.875540382334</v>
+        <v>-52.93834508393047</v>
       </c>
       <c r="Q57">
         <v>-0</v>
       </c>
       <c r="R57">
-        <v>629866257.0529561</v>
+        <v>628957064.6018384</v>
       </c>
       <c r="S57">
-        <v>346.4825855811161</v>
+        <v>347.8072657714264</v>
       </c>
       <c r="T57">
-        <v>-54535.245396684</v>
+        <v>-3776.393925107111</v>
       </c>
       <c r="U57">
-        <v>-351924.7487689128</v>
+        <v>-18413.18254940022</v>
       </c>
       <c r="V57">
-        <v>329.9359461442568</v>
+        <v>330.6130526722722</v>
       </c>
       <c r="W57">
         <v>325</v>
@@ -4492,67 +4492,67 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>634627.3791930183</v>
+        <v>33761.19600200487</v>
       </c>
       <c r="C58">
-        <v>130273.5343089595</v>
+        <v>6941.984077676462</v>
       </c>
       <c r="D58">
         <v>979.173961</v>
       </c>
       <c r="E58">
-        <v>366.1005433740117</v>
+        <v>364.7175473521261</v>
       </c>
       <c r="F58">
-        <v>2529.101204102727</v>
+        <v>134.4575956012773</v>
       </c>
       <c r="G58">
         <v>308.15</v>
       </c>
       <c r="H58">
-        <v>-849154914.3830276</v>
+        <v>-45912688.14344462</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>461647862.5455911</v>
+        <v>24543130.78166082</v>
       </c>
       <c r="K58">
-        <v>1826.808766961977</v>
+        <v>97.12143758339089</v>
       </c>
       <c r="L58">
-        <v>549592844.1719668</v>
+        <v>29301778.14854403</v>
       </c>
       <c r="M58">
         <v>375</v>
       </c>
       <c r="N58">
-        <v>-2564.976585497348</v>
+        <v>-136.5688215220521</v>
       </c>
       <c r="O58">
-        <v>-238741629.6684041</v>
+        <v>-16073436.97892013</v>
       </c>
       <c r="P58">
-        <v>-1011.411055424105</v>
+        <v>-52.91638325388703</v>
       </c>
       <c r="Q58">
         <v>-0</v>
       </c>
       <c r="R58">
-        <v>629884146.6747588</v>
+        <v>628957905.1293731</v>
       </c>
       <c r="S58">
-        <v>346.438229664165</v>
+        <v>347.8081358898573</v>
       </c>
       <c r="T58">
-        <v>-54366.8975862819</v>
+        <v>-3774.833916548207</v>
       </c>
       <c r="U58">
-        <v>-351762.3657702962</v>
+        <v>-18405.53954993762</v>
       </c>
       <c r="V58">
-        <v>329.9336797063783</v>
+        <v>330.6107205258214</v>
       </c>
       <c r="W58">
         <v>325</v>
@@ -4563,67 +4563,67 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>633970.6099512947</v>
+        <v>33748.82303093663</v>
       </c>
       <c r="C59">
-        <v>130124.6756210089</v>
+        <v>6939.499922355923</v>
       </c>
       <c r="D59">
         <v>999.173961</v>
       </c>
       <c r="E59">
-        <v>366.1095006271627</v>
+        <v>364.7213343258601</v>
       </c>
       <c r="F59">
-        <v>2526.555660142952</v>
+        <v>134.4080755502275</v>
       </c>
       <c r="G59">
         <v>308.15</v>
       </c>
       <c r="H59">
-        <v>-847847666.1526874</v>
+        <v>-45895002.2120873</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>461183213.3152084</v>
+        <v>24534091.67097468</v>
       </c>
       <c r="K59">
-        <v>1824.970094216363</v>
+        <v>97.08566826397714</v>
       </c>
       <c r="L59">
-        <v>548969479.2201695</v>
+        <v>29291226.26619365</v>
       </c>
       <c r="M59">
         <v>375</v>
       </c>
       <c r="N59">
-        <v>-2562.348622606855</v>
+        <v>-136.5149319990062</v>
       </c>
       <c r="O59">
-        <v>-238078548.3787797</v>
+        <v>-16066865.06708305</v>
       </c>
       <c r="P59">
-        <v>-1010.958181655042</v>
+        <v>-52.89492755764513</v>
       </c>
       <c r="Q59">
         <v>-0</v>
       </c>
       <c r="R59">
-        <v>629901998.3980056</v>
+        <v>628958749.359612</v>
       </c>
       <c r="S59">
-        <v>346.3934832309886</v>
+        <v>347.8089938689801</v>
       </c>
       <c r="T59">
-        <v>-54201.4462039988</v>
+        <v>-3773.309913829743</v>
       </c>
       <c r="U59">
-        <v>-351603.8807526281</v>
+        <v>-18398.07283532353</v>
       </c>
       <c r="V59">
-        <v>329.9314700018668</v>
+        <v>330.608442127666</v>
       </c>
       <c r="W59">
         <v>325</v>
@@ -4634,67 +4634,67 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>633317.1920761322</v>
+        <v>33736.81916845153</v>
       </c>
       <c r="C60">
-        <v>129976.148892216</v>
+        <v>6937.090832795371</v>
       </c>
       <c r="D60">
         <v>1019.173961</v>
       </c>
       <c r="E60">
-        <v>366.1184046699241</v>
+        <v>364.7250086498904</v>
       </c>
       <c r="F60">
-        <v>2524.025237977029</v>
+        <v>134.3600285542749</v>
       </c>
       <c r="G60">
         <v>308.15</v>
       </c>
       <c r="H60">
-        <v>-846543693.9598398</v>
+        <v>-45877650.51211241</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>460721324.331746</v>
+        <v>24525321.44345383</v>
       </c>
       <c r="K60">
-        <v>1823.142344070686</v>
+        <v>97.05096296124684</v>
       </c>
       <c r="L60">
-        <v>548347672.6491287</v>
+        <v>29280992.39349959</v>
       </c>
       <c r="M60">
         <v>375</v>
       </c>
       <c r="N60">
-        <v>-2559.74096143576</v>
+        <v>-136.4620561045241</v>
       </c>
       <c r="O60">
-        <v>-237427542.2996123</v>
+        <v>-16060416.33284716</v>
       </c>
       <c r="P60">
-        <v>-1010.517909611508</v>
+        <v>-52.87387333510196</v>
       </c>
       <c r="Q60">
         <v>-0</v>
       </c>
       <c r="R60">
-        <v>629919806.3179588</v>
+        <v>628959597.8303285</v>
       </c>
       <c r="S60">
-        <v>346.3483450944098</v>
+        <v>347.809839513152</v>
       </c>
       <c r="T60">
-        <v>-54038.96984676124</v>
+        <v>-3771.81447881139</v>
       </c>
       <c r="U60">
-        <v>-351449.6329114137</v>
+        <v>-18390.74595014036</v>
       </c>
       <c r="V60">
-        <v>329.929321868836</v>
+        <v>330.6062063658334</v>
       </c>
       <c r="W60">
         <v>325</v>
@@ -4705,67 +4705,67 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>632666.6710307032</v>
+        <v>33724.90764781402</v>
       </c>
       <c r="C61">
-        <v>129827.8647839079</v>
+        <v>6934.699888429443</v>
       </c>
       <c r="D61">
         <v>1039.173961</v>
       </c>
       <c r="E61">
-        <v>366.1272619532614</v>
+        <v>364.7286546426814</v>
       </c>
       <c r="F61">
-        <v>2521.508104305165</v>
+        <v>134.312352033442</v>
       </c>
       <c r="G61">
         <v>308.15</v>
       </c>
       <c r="H61">
-        <v>-845244736.6271392</v>
+        <v>-45860758.16941597</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>460261860.9550049</v>
+        <v>24516618.84037081</v>
       </c>
       <c r="K61">
-        <v>1821.324192322752</v>
+        <v>97.01652525718892</v>
       </c>
       <c r="L61">
-        <v>547727047.3981109</v>
+        <v>29270836.56138797</v>
       </c>
       <c r="M61">
         <v>375</v>
       </c>
       <c r="N61">
-        <v>-2557.157436786222</v>
+        <v>-136.4105639067541</v>
       </c>
       <c r="O61">
-        <v>-236790075.5253735</v>
+        <v>-16054134.62493613</v>
       </c>
       <c r="P61">
-        <v>-1010.091125294821</v>
+        <v>-52.8533630244965</v>
       </c>
       <c r="Q61">
         <v>-0</v>
       </c>
       <c r="R61">
-        <v>629937558.3382596</v>
+        <v>628960449.4371856</v>
       </c>
       <c r="S61">
-        <v>346.3028646170105</v>
+        <v>347.8106742032735</v>
       </c>
       <c r="T61">
-        <v>-53879.83307366756</v>
+        <v>-3770.357730797373</v>
       </c>
       <c r="U61">
-        <v>-351299.9249390398</v>
+        <v>-18383.60850900331</v>
       </c>
       <c r="V61">
-        <v>329.9272396320839</v>
+        <v>330.6040283633801</v>
       </c>
       <c r="W61">
         <v>325</v>
@@ -4776,67 +4776,67 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>632022.264411191</v>
+        <v>33713.15167444949</v>
       </c>
       <c r="C62">
-        <v>129680.4885891282</v>
+        <v>6932.340105058131</v>
       </c>
       <c r="D62">
         <v>1059.173961</v>
       </c>
       <c r="E62">
-        <v>366.1360274134213</v>
+        <v>364.732253062647</v>
       </c>
       <c r="F62">
-        <v>2519.017065721248</v>
+        <v>134.2652975931951</v>
       </c>
       <c r="G62">
         <v>308.15</v>
       </c>
       <c r="H62">
-        <v>-843949812.365039</v>
+        <v>-45844330.03986089</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>459807160.8283675</v>
+        <v>24508029.78836765</v>
       </c>
       <c r="K62">
-        <v>1819.524889296652</v>
+        <v>96.98253689545787</v>
       </c>
       <c r="L62">
-        <v>547110402.5033478</v>
+        <v>29260813.70993474</v>
       </c>
       <c r="M62">
         <v>375</v>
       </c>
       <c r="N62">
-        <v>-2554.592213267736</v>
+        <v>-136.3604690638689</v>
       </c>
       <c r="O62">
-        <v>-236163763.8167059</v>
+        <v>-16048021.36921856</v>
       </c>
       <c r="P62">
-        <v>-1009.674260114934</v>
+        <v>-52.83340156552185</v>
       </c>
       <c r="Q62">
         <v>-0</v>
       </c>
       <c r="R62">
-        <v>629955263.2833512</v>
+        <v>628961303.3429451</v>
       </c>
       <c r="S62">
-        <v>346.257139899078</v>
+        <v>347.8114984269141</v>
       </c>
       <c r="T62">
-        <v>-53723.45852518931</v>
+        <v>-3768.940032106146</v>
       </c>
       <c r="U62">
-        <v>-351153.5083313484</v>
+        <v>-18376.66223032855</v>
       </c>
       <c r="V62">
-        <v>329.9252058556262</v>
+        <v>330.6019086458887</v>
       </c>
       <c r="W62">
         <v>325</v>
@@ -4847,67 +4847,67 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>631381.264635831</v>
+        <v>33701.6944237061</v>
       </c>
       <c r="C63">
-        <v>129533.4689625958</v>
+        <v>6930.0409673466</v>
       </c>
       <c r="D63">
         <v>1079.173961</v>
       </c>
       <c r="E63">
-        <v>366.1447390936747</v>
+        <v>364.7357602991575</v>
       </c>
       <c r="F63">
-        <v>2516.541310776486</v>
+        <v>134.2194355009587</v>
       </c>
       <c r="G63">
         <v>308.15</v>
       </c>
       <c r="H63">
-        <v>-842656730.0006425</v>
+        <v>-45828276.50705647</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>459355250.4909788</v>
+        <v>24499658.38084214</v>
       </c>
       <c r="K63">
-        <v>1817.736625776331</v>
+        <v>96.94940979402662</v>
       </c>
       <c r="L63">
-        <v>546495409.3033994</v>
+        <v>29251048.06521858</v>
       </c>
       <c r="M63">
         <v>375</v>
       </c>
       <c r="N63">
-        <v>-2552.041120539318</v>
+        <v>-136.3115053244979</v>
       </c>
       <c r="O63">
-        <v>-235547632.3565148</v>
+        <v>-16042044.8945477</v>
       </c>
       <c r="P63">
-        <v>-1009.266751088944</v>
+        <v>-52.81388593516567</v>
       </c>
       <c r="Q63">
         <v>-0</v>
       </c>
       <c r="R63">
-        <v>629972922.3067874</v>
+        <v>628962159.6419305</v>
       </c>
       <c r="S63">
-        <v>346.211088770254</v>
+        <v>347.8123119431846</v>
       </c>
       <c r="T63">
-        <v>-53569.6013627416</v>
+        <v>-3767.554057237557</v>
       </c>
       <c r="U63">
-        <v>-351010.1815005514</v>
+        <v>-18369.87122915504</v>
       </c>
       <c r="V63">
-        <v>329.923217794504</v>
+        <v>330.5998362729008</v>
       </c>
       <c r="W63">
         <v>325</v>
@@ -4918,67 +4918,67 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>630744.5612430238</v>
+        <v>33690.42221000521</v>
       </c>
       <c r="C64">
-        <v>129386.9922910227</v>
+        <v>6927.779110773336</v>
       </c>
       <c r="D64">
         <v>1099.173961</v>
       </c>
       <c r="E64">
-        <v>366.153384597707</v>
+        <v>364.7392109874086</v>
       </c>
       <c r="F64">
-        <v>2514.084362348752</v>
+        <v>134.1743128558765</v>
       </c>
       <c r="G64">
         <v>308.15</v>
       </c>
       <c r="H64">
-        <v>-841367238.6952063</v>
+        <v>-45812624.70359104</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>458906772.9890867</v>
+        <v>24491421.94782759</v>
       </c>
       <c r="K64">
-        <v>1815.961946377357</v>
+        <v>96.91681681110094</v>
       </c>
       <c r="L64">
-        <v>545882854.8783646</v>
+        <v>29241441.06221309</v>
       </c>
       <c r="M64">
         <v>375</v>
       </c>
       <c r="N64">
-        <v>-2549.508641099284</v>
+        <v>-136.2637524548061</v>
       </c>
       <c r="O64">
-        <v>-234942119.0991054</v>
+        <v>-16036214.61610209</v>
       </c>
       <c r="P64">
-        <v>-1008.870011912677</v>
+        <v>-52.79484661855349</v>
       </c>
       <c r="Q64">
         <v>-0</v>
       </c>
       <c r="R64">
-        <v>629990535.6307744</v>
+        <v>628963017.8331945</v>
       </c>
       <c r="S64">
-        <v>346.1647396950729</v>
+        <v>347.8131153473574</v>
       </c>
       <c r="T64">
-        <v>-53418.36358957066</v>
+        <v>-3766.2019694683</v>
       </c>
       <c r="U64">
-        <v>-350870.4309388652</v>
+        <v>-18363.24612493694</v>
       </c>
       <c r="V64">
-        <v>329.9212823519053</v>
+        <v>330.5978144816877</v>
       </c>
       <c r="W64">
         <v>325</v>
@@ -4989,67 +4989,67 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>630111.6205049093</v>
+        <v>33679.11530001018</v>
       </c>
       <c r="C65">
-        <v>129240.953189724</v>
+        <v>6925.509364218605</v>
       </c>
       <c r="D65">
         <v>1119.173961</v>
       </c>
       <c r="E65">
-        <v>366.1619714820357</v>
+        <v>364.7426720592858</v>
       </c>
       <c r="F65">
-        <v>2511.644072969811</v>
+        <v>134.1290544373328</v>
       </c>
       <c r="G65">
         <v>308.15</v>
       </c>
       <c r="H65">
-        <v>-840081172.3313298</v>
+        <v>-45797396.11263378</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>458461336.3359575</v>
+        <v>24483160.73149154</v>
       </c>
       <c r="K65">
-        <v>1814.199299958701</v>
+        <v>96.88412575111843</v>
       </c>
       <c r="L65">
-        <v>545272292.5903654</v>
+        <v>29231802.08066462</v>
       </c>
       <c r="M65">
         <v>375</v>
       </c>
       <c r="N65">
-        <v>-2546.994218285127</v>
+        <v>-136.2172734945145</v>
       </c>
       <c r="O65">
-        <v>-234347096.9464545</v>
+        <v>-16030537.92432033</v>
       </c>
       <c r="P65">
-        <v>-1008.483798841553</v>
+        <v>-52.77630765476715</v>
       </c>
       <c r="Q65">
         <v>-0</v>
       </c>
       <c r="R65">
-        <v>630008101.6844178</v>
+        <v>628963876.3654512</v>
       </c>
       <c r="S65">
-        <v>346.1180955935477</v>
+        <v>347.8139091826866</v>
       </c>
       <c r="T65">
-        <v>-53269.71422162185</v>
+        <v>-3764.8854780907</v>
       </c>
       <c r="U65">
-        <v>-350734.1660627247</v>
+        <v>-18356.79529019933</v>
       </c>
       <c r="V65">
-        <v>329.9193983371625</v>
+        <v>330.5958458247508</v>
       </c>
       <c r="W65">
         <v>325</v>
@@ -5060,67 +5060,67 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>629483.1130255818</v>
+        <v>33667.87603626606</v>
       </c>
       <c r="C66">
-        <v>129095.4936712367</v>
+        <v>6923.252785201297</v>
       </c>
       <c r="D66">
         <v>1139.173961</v>
       </c>
       <c r="E66">
-        <v>366.1704904147692</v>
+        <v>364.7461123535738</v>
       </c>
       <c r="F66">
-        <v>2509.223094656656</v>
+        <v>134.0840677152335</v>
       </c>
       <c r="G66">
         <v>308.15</v>
       </c>
       <c r="H66">
-        <v>-838799996.1475098</v>
+        <v>-45782605.25288308</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>458019424.615808</v>
+        <v>24474949.1090913</v>
       </c>
       <c r="K66">
-        <v>1812.450602095875</v>
+        <v>96.8516309428861</v>
       </c>
       <c r="L66">
-        <v>544664318.8140357</v>
+        <v>29222220.02843723</v>
       </c>
       <c r="M66">
         <v>375</v>
       </c>
       <c r="N66">
-        <v>-2544.499442926078</v>
+        <v>-136.1721108631641</v>
       </c>
       <c r="O66">
-        <v>-233764296.838688</v>
+        <v>-16025019.74394701</v>
       </c>
       <c r="P66">
-        <v>-1008.107486887866</v>
+        <v>-52.75828513617853</v>
       </c>
       <c r="Q66">
         <v>-0</v>
       </c>
       <c r="R66">
-        <v>630025620.2744573</v>
+        <v>628964734.0977294</v>
       </c>
       <c r="S66">
-        <v>346.0712536848666</v>
+        <v>347.8146939289576</v>
       </c>
       <c r="T66">
-        <v>-53124.09635018709</v>
+        <v>-3763.605728848398</v>
       </c>
       <c r="U66">
-        <v>-350601.1633937707</v>
+        <v>-18350.52432957125</v>
       </c>
       <c r="V66">
-        <v>329.9175626920695</v>
+        <v>330.5939320098125</v>
       </c>
       <c r="W66">
         <v>325</v>
@@ -5131,67 +5131,67 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>628858.5566809843</v>
+        <v>33657.23370957028</v>
       </c>
       <c r="C67">
-        <v>128950.5192470763</v>
+        <v>6921.118273208785</v>
       </c>
       <c r="D67">
         <v>1159.173961</v>
       </c>
       <c r="E67">
-        <v>366.1789482308865</v>
+        <v>364.7493706538357</v>
       </c>
       <c r="F67">
-        <v>2506.81948497448</v>
+        <v>134.0414608178998</v>
       </c>
       <c r="G67">
         <v>308.15</v>
       </c>
       <c r="H67">
-        <v>-837521806.304427</v>
+        <v>-45768092.3021704</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>457580683.2675495</v>
+        <v>24467171.88647486</v>
       </c>
       <c r="K67">
-        <v>1810.714449759503</v>
+        <v>96.82085513322873</v>
       </c>
       <c r="L67">
-        <v>544058532.0793798</v>
+        <v>29213154.16432284</v>
       </c>
       <c r="M67">
         <v>375</v>
       </c>
       <c r="N67">
-        <v>-2542.020469765805</v>
+        <v>-136.1277904030406</v>
       </c>
       <c r="O67">
-        <v>-233194097.2387857</v>
+        <v>-16019603.71246161</v>
       </c>
       <c r="P67">
-        <v>-1007.740401479396</v>
+        <v>-52.74059589623903</v>
       </c>
       <c r="Q67">
         <v>-0</v>
       </c>
       <c r="R67">
-        <v>630043093.1516279</v>
+        <v>628965592.7728038</v>
       </c>
       <c r="S67">
-        <v>346.0241500860681</v>
+        <v>347.815468748008</v>
       </c>
       <c r="T67">
-        <v>-52981.60932267514</v>
+        <v>-3762.349705098844</v>
       </c>
       <c r="U67">
-        <v>-350471.1825026228</v>
+        <v>-18344.36944286848</v>
       </c>
       <c r="V67">
-        <v>329.915772125691</v>
+        <v>330.592053587838</v>
       </c>
       <c r="W67">
         <v>325</v>
@@ -5202,67 +5202,67 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>628236.5925042878</v>
+        <v>33646.84965885156</v>
       </c>
       <c r="C68">
-        <v>128805.755214159</v>
+        <v>6919.036216389529</v>
       </c>
       <c r="D68">
         <v>1179.173961</v>
       </c>
       <c r="E68">
-        <v>366.1873640690764</v>
+        <v>364.752550103133</v>
       </c>
       <c r="F68">
-        <v>2504.427804950013</v>
+        <v>133.9998850134907</v>
       </c>
       <c r="G68">
         <v>308.15</v>
       </c>
       <c r="H68">
-        <v>-836246640.0777943</v>
+        <v>-45753815.83134392</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>457144119.4916921</v>
+        <v>24459582.87374262</v>
       </c>
       <c r="K68">
-        <v>1808.986914313735</v>
+        <v>96.79082409909232</v>
       </c>
       <c r="L68">
-        <v>543453773.1204904</v>
+        <v>29204310.55595592</v>
       </c>
       <c r="M68">
         <v>375</v>
       </c>
       <c r="N68">
-        <v>-2539.558336823947</v>
+        <v>-136.0841888550909</v>
       </c>
       <c r="O68">
-        <v>-232634812.5130524</v>
+        <v>-16014275.28283689</v>
       </c>
       <c r="P68">
-        <v>-1007.383360689573</v>
+        <v>-52.72319216373944</v>
       </c>
       <c r="Q68">
         <v>-0</v>
       </c>
       <c r="R68">
-        <v>630060514.7793324</v>
+        <v>628966452.7566966</v>
       </c>
       <c r="S68">
-        <v>345.9767547153532</v>
+        <v>347.8162336403997</v>
       </c>
       <c r="T68">
-        <v>-52841.82062119197</v>
+        <v>-3761.113995113981</v>
       </c>
       <c r="U68">
-        <v>-350344.5026403721</v>
+        <v>-18338.31399279346</v>
       </c>
       <c r="V68">
-        <v>329.9140306352573</v>
+        <v>330.5902054854836</v>
       </c>
       <c r="W68">
         <v>325</v>
@@ -5273,67 +5273,67 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>627617.9480248869</v>
+        <v>33636.82802524514</v>
       </c>
       <c r="C69">
-        <v>128661.354984307</v>
+        <v>6917.028067561869</v>
       </c>
       <c r="D69">
         <v>1199.173961</v>
       </c>
       <c r="E69">
-        <v>366.1957277869092</v>
+        <v>364.7556189784322</v>
       </c>
       <c r="F69">
-        <v>2502.050936942168</v>
+        <v>133.9597551142084</v>
       </c>
       <c r="G69">
         <v>308.15</v>
       </c>
       <c r="H69">
-        <v>-834973027.7990769</v>
+        <v>-45739690.88742957</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>456710259.4177677</v>
+        <v>24452257.78837324</v>
       </c>
       <c r="K69">
-        <v>1807.270077714791</v>
+        <v>96.76183747586025</v>
       </c>
       <c r="L69">
-        <v>542850685.0164272</v>
+        <v>29195779.54066329</v>
       </c>
       <c r="M69">
         <v>375</v>
       </c>
       <c r="N69">
-        <v>-2537.108818290455</v>
+        <v>-136.0410540261173</v>
       </c>
       <c r="O69">
-        <v>-232088679.9359744</v>
+        <v>-16009004.50720983</v>
       </c>
       <c r="P69">
-        <v>-1007.03479251365</v>
+        <v>-52.70597644653208</v>
       </c>
       <c r="Q69">
         <v>-0</v>
       </c>
       <c r="R69">
-        <v>630077887.4826741</v>
+        <v>628967315.1572558</v>
       </c>
       <c r="S69">
-        <v>345.9290606245067</v>
+        <v>347.8169882629645</v>
       </c>
       <c r="T69">
-        <v>-52705.31032855226</v>
+        <v>-3759.891664916131</v>
       </c>
       <c r="U69">
-        <v>-350220.5708327365</v>
+        <v>-18332.3240218153</v>
       </c>
       <c r="V69">
-        <v>329.9123305426139</v>
+        <v>330.5883773504898</v>
       </c>
       <c r="W69">
         <v>325</v>
@@ -5344,67 +5344,67 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>627002.3706053274</v>
+        <v>33626.94289302076</v>
       </c>
       <c r="C70">
-        <v>128517.2705319691</v>
+        <v>6915.047363258637</v>
       </c>
       <c r="D70">
         <v>1219.173961</v>
       </c>
       <c r="E70">
-        <v>366.204042992906</v>
+        <v>364.7586461012829</v>
       </c>
       <c r="F70">
-        <v>2499.687855437538</v>
+        <v>133.9201711968989</v>
       </c>
       <c r="G70">
         <v>308.15</v>
       </c>
       <c r="H70">
-        <v>-833700738.7083555</v>
+        <v>-45725801.09891125</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>456278915.8543454</v>
+        <v>24445032.36347229</v>
       </c>
       <c r="K70">
-        <v>1805.563199234614</v>
+        <v>96.73324521941481</v>
       </c>
       <c r="L70">
-        <v>542249063.2081227</v>
+        <v>29187365.19535562</v>
       </c>
       <c r="M70">
         <v>375</v>
       </c>
       <c r="N70">
-        <v>-2534.671221103721</v>
+        <v>-135.9986332894094</v>
       </c>
       <c r="O70">
-        <v>-231550830.8717455</v>
+        <v>-16003820.72621267</v>
       </c>
       <c r="P70">
-        <v>-1006.694425421983</v>
+        <v>-52.68904397439655</v>
       </c>
       <c r="Q70">
         <v>-0</v>
       </c>
       <c r="R70">
-        <v>630095213.1981562</v>
+        <v>628968179.8019787</v>
       </c>
       <c r="S70">
-        <v>345.8810684219279</v>
+        <v>347.8177335088917</v>
       </c>
       <c r="T70">
-        <v>-52570.84635274566</v>
+        <v>-3758.689478800644</v>
       </c>
       <c r="U70">
-        <v>-350099.2869380938</v>
+        <v>-18326.43270094245</v>
       </c>
       <c r="V70">
-        <v>329.9106705213891</v>
+        <v>330.5865792951147</v>
       </c>
       <c r="W70">
         <v>325</v>
@@ -5415,67 +5415,67 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>626391.3175386181</v>
+        <v>33617.32307061911</v>
       </c>
       <c r="C71">
-        <v>128373.8042988743</v>
+        <v>6913.120620344823</v>
       </c>
       <c r="D71">
         <v>1239.173961</v>
       </c>
       <c r="E71">
-        <v>366.2122893070565</v>
+        <v>364.7615922389804</v>
       </c>
       <c r="F71">
-        <v>2497.344352201622</v>
+        <v>133.8816462622229</v>
       </c>
       <c r="G71">
         <v>308.15</v>
       </c>
       <c r="H71">
-        <v>-832430516.3082001</v>
+        <v>-45712086.30521066</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>455851145.9976174</v>
+        <v>24438000.23928563</v>
       </c>
       <c r="K71">
-        <v>1803.870462317415</v>
+        <v>96.70541789666622</v>
       </c>
       <c r="L71">
-        <v>541650181.8151637</v>
+        <v>29179179.29268431</v>
       </c>
       <c r="M71">
         <v>375</v>
       </c>
       <c r="N71">
-        <v>-2532.246371098475</v>
+        <v>-135.9567479402309</v>
       </c>
       <c r="O71">
-        <v>-231025420.6332498</v>
+        <v>-15998702.62334298</v>
       </c>
       <c r="P71">
-        <v>-1006.361957831814</v>
+        <v>-52.67232561436686</v>
       </c>
       <c r="Q71">
         <v>-0</v>
       </c>
       <c r="R71">
-        <v>630112499.5242864</v>
+        <v>628969047.2896365</v>
       </c>
       <c r="S71">
-        <v>345.8328271264365</v>
+        <v>347.8184692061149</v>
       </c>
       <c r="T71">
-        <v>-52439.48328669057</v>
+        <v>-3757.502527816684</v>
       </c>
       <c r="U71">
-        <v>-349980.5403011958</v>
+        <v>-18320.61594879046</v>
       </c>
       <c r="V71">
-        <v>329.9090490958016</v>
+        <v>330.5848039779391</v>
       </c>
       <c r="W71">
         <v>325</v>
@@ -5486,67 +5486,67 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>625783.9146095698</v>
+        <v>33607.82290610998</v>
       </c>
       <c r="C72">
-        <v>128230.7810953562</v>
+        <v>6911.21788515051</v>
       </c>
       <c r="D72">
         <v>1259.173961</v>
       </c>
       <c r="E72">
-        <v>366.2204790627081</v>
+        <v>364.7645017643846</v>
       </c>
       <c r="F72">
-        <v>2495.016922236177</v>
+        <v>133.843600095636</v>
       </c>
       <c r="G72">
         <v>308.15</v>
       </c>
       <c r="H72">
-        <v>-831164143.9979562</v>
+        <v>-45698608.03908654</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72">
-        <v>455426310.0649829</v>
+        <v>24431055.50672437</v>
       </c>
       <c r="K72">
-        <v>1802.189335273063</v>
+        <v>96.67793639010179</v>
       </c>
       <c r="L72">
-        <v>541053299.7869437</v>
+        <v>29171095.5432717</v>
       </c>
       <c r="M72">
         <v>375</v>
       </c>
       <c r="N72">
-        <v>-2529.836895159348</v>
+        <v>-135.915579893105</v>
       </c>
       <c r="O72">
-        <v>-230509510.6397886</v>
+        <v>-15993671.7555405</v>
       </c>
       <c r="P72">
-        <v>-1006.037206423116</v>
+        <v>-52.65589135206028</v>
       </c>
       <c r="Q72">
         <v>-0</v>
       </c>
       <c r="R72">
-        <v>630129747.3925979</v>
+        <v>628969917.3689027</v>
       </c>
       <c r="S72">
-        <v>345.7844314773545</v>
+        <v>347.8191960725244</v>
       </c>
       <c r="T72">
-        <v>-52310.47794823736</v>
+        <v>-3756.335783598711</v>
       </c>
       <c r="U72">
-        <v>-349864.2614072674</v>
+        <v>-18314.89814307452</v>
       </c>
       <c r="V72">
-        <v>329.9074653653398</v>
+        <v>330.5830588303879</v>
       </c>
       <c r="W72">
         <v>325</v>
@@ -5557,67 +5557,67 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>625177.6693065566</v>
+        <v>33598.08239467547</v>
       </c>
       <c r="C73">
-        <v>128087.6941115348</v>
+        <v>6909.265081888661</v>
       </c>
       <c r="D73">
         <v>1279.173961</v>
       </c>
       <c r="E73">
-        <v>366.2286473085937</v>
+        <v>364.767484352566</v>
       </c>
       <c r="F73">
-        <v>2492.695605122013</v>
+        <v>133.8045985255207</v>
       </c>
       <c r="G73">
         <v>308.15</v>
       </c>
       <c r="H73">
-        <v>-829902169.127771</v>
+        <v>-45685573.2051951</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>455002589.9377273</v>
+        <v>24423936.38019418</v>
       </c>
       <c r="K73">
-        <v>1800.5126235801</v>
+        <v>96.64976477951434</v>
       </c>
       <c r="L73">
-        <v>540456279.2301521</v>
+        <v>29162801.77545693</v>
       </c>
       <c r="M73">
         <v>375</v>
       </c>
       <c r="N73">
-        <v>-2527.445223825374</v>
+        <v>-135.8757417880452</v>
       </c>
       <c r="O73">
-        <v>-229874806.6018626</v>
+        <v>-15988800.68178906</v>
       </c>
       <c r="P73">
-        <v>-1005.721472893129</v>
+        <v>-52.63997730935444</v>
       </c>
       <c r="Q73">
         <v>-0</v>
       </c>
       <c r="R73">
-        <v>630146943.8567394</v>
+        <v>628970787.5083526</v>
       </c>
       <c r="S73">
-        <v>345.7358568792242</v>
+        <v>347.8199159211819</v>
       </c>
       <c r="T73">
-        <v>-52152.0840415733</v>
+        <v>-3755.206037430064</v>
       </c>
       <c r="U73">
-        <v>-349750.8980457756</v>
+        <v>-18309.36152732946</v>
       </c>
       <c r="V73">
-        <v>329.9059256898052</v>
+        <v>330.5813689248563</v>
       </c>
       <c r="W73">
         <v>325</v>
@@ -5628,67 +5628,67 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>624572.6976694146</v>
+        <v>33588.72776822925</v>
       </c>
       <c r="C74">
-        <v>127944.5723670093</v>
+        <v>6907.391057082335</v>
       </c>
       <c r="D74">
         <v>1299.173961</v>
       </c>
       <c r="E74">
-        <v>366.236792472854</v>
+        <v>364.7703492576247</v>
       </c>
       <c r="F74">
-        <v>2490.380847550905</v>
+        <v>133.7671358314747</v>
       </c>
       <c r="G74">
         <v>308.15</v>
       </c>
       <c r="H74">
-        <v>-828640230.0270553</v>
+        <v>-45672782.11494985</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>454580067.1524471</v>
+        <v>24417098.1514181</v>
       </c>
       <c r="K74">
-        <v>1798.840649897151</v>
+        <v>96.62270472805005</v>
       </c>
       <c r="L74">
-        <v>539859232.9063627</v>
+        <v>29154841.34431456</v>
       </c>
       <c r="M74">
         <v>375</v>
       </c>
       <c r="N74">
-        <v>-2525.058657721055</v>
+        <v>-135.8366414628043</v>
       </c>
       <c r="O74">
-        <v>-229212126.6369182</v>
+        <v>-15984018.95227772</v>
       </c>
       <c r="P74">
-        <v>-1005.409959725512</v>
+        <v>-52.62435485633432</v>
       </c>
       <c r="Q74">
         <v>-0</v>
       </c>
       <c r="R74">
-        <v>630164090.3950224</v>
+        <v>628971658.6227241</v>
       </c>
       <c r="S74">
-        <v>345.687084685823</v>
+        <v>347.8206275558087</v>
       </c>
       <c r="T74">
-        <v>-51986.78449659428</v>
+        <v>-3754.09705165882</v>
       </c>
       <c r="U74">
-        <v>-349638.7744475061</v>
+        <v>-18303.92646339456</v>
       </c>
       <c r="V74">
-        <v>329.9044066369028</v>
+        <v>330.5797099845403</v>
       </c>
       <c r="W74">
         <v>325</v>
@@ -5699,67 +5699,67 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>623970.0239671353</v>
+        <v>33579.09894943433</v>
       </c>
       <c r="C75">
-        <v>127801.6298994678</v>
+        <v>6905.460017224037</v>
       </c>
       <c r="D75">
         <v>1319.173961</v>
       </c>
       <c r="E75">
-        <v>366.2449002638813</v>
+        <v>364.7732975475608</v>
       </c>
       <c r="F75">
-        <v>2488.076711040403</v>
+        <v>133.7285827631336</v>
       </c>
       <c r="G75">
         <v>308.15</v>
       </c>
       <c r="H75">
-        <v>-827379182.6205078</v>
+        <v>-45660474.44759768</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>454159483.075637</v>
+        <v>24410060.89187096</v>
       </c>
       <c r="K75">
-        <v>1797.176347890238</v>
+        <v>96.59485707663794</v>
       </c>
       <c r="L75">
-        <v>539263063.3401399</v>
+        <v>29146641.65674892</v>
       </c>
       <c r="M75">
         <v>375</v>
       </c>
       <c r="N75">
-        <v>-2522.679352065041</v>
+        <v>-135.7989886909028</v>
       </c>
       <c r="O75">
-        <v>-228559586.4704969</v>
+        <v>-15979410.83978279</v>
       </c>
       <c r="P75">
-        <v>-1005.103326735934</v>
+        <v>-52.6092975917436</v>
       </c>
       <c r="Q75">
         <v>-0</v>
       </c>
       <c r="R75">
-        <v>630181190.6947794</v>
+        <v>628972527.9002377</v>
       </c>
       <c r="S75">
-        <v>345.6381305131524</v>
+        <v>347.8213330149123</v>
       </c>
       <c r="T75">
-        <v>-51824.00542943533</v>
+        <v>-3753.02826214673</v>
       </c>
       <c r="U75">
-        <v>-349528.1149542438</v>
+        <v>-18298.68825221809</v>
       </c>
       <c r="V75">
-        <v>329.9029114284889</v>
+        <v>330.5781110616565</v>
       </c>
       <c r="W75">
         <v>325</v>
@@ -5770,67 +5770,67 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>623369.448417285</v>
+        <v>33569.93940588432</v>
       </c>
       <c r="C76">
-        <v>127658.8301398682</v>
+        <v>6903.6249399358</v>
       </c>
       <c r="D76">
         <v>1339.173961</v>
       </c>
       <c r="E76">
-        <v>366.2529735683163</v>
+        <v>364.7761027609371</v>
       </c>
       <c r="F76">
-        <v>2485.782375228571</v>
+        <v>133.6919006189363</v>
       </c>
       <c r="G76">
         <v>308.15</v>
       </c>
       <c r="H76">
-        <v>-826121065.8894097</v>
+        <v>-45648369.68405614</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
-        <v>453740687.9630587</v>
+        <v>24403365.14025975</v>
       </c>
       <c r="K76">
-        <v>1795.519125013066</v>
+        <v>96.56836083443267</v>
       </c>
       <c r="L76">
-        <v>538667615.8506356</v>
+        <v>29138847.72595656</v>
       </c>
       <c r="M76">
         <v>375</v>
       </c>
       <c r="N76">
-        <v>-2520.311554973354</v>
+        <v>-135.7619518358225</v>
       </c>
       <c r="O76">
-        <v>-227917652.501061</v>
+        <v>-15974877.46802547</v>
       </c>
       <c r="P76">
-        <v>-1004.802404986549</v>
+        <v>-52.5944845264803</v>
       </c>
       <c r="Q76">
         <v>-0</v>
       </c>
       <c r="R76">
-        <v>630198242.9597466</v>
+        <v>628973396.7616763</v>
       </c>
       <c r="S76">
-        <v>345.5890607470062</v>
+        <v>347.8220304865164</v>
       </c>
       <c r="T76">
-        <v>-51663.8599808859</v>
+        <v>-3751.976866851037</v>
       </c>
       <c r="U76">
-        <v>-349419.2034826471</v>
+        <v>-18293.53508527315</v>
       </c>
       <c r="V76">
-        <v>329.9014441202723</v>
+        <v>330.5765380710343</v>
       </c>
       <c r="W76">
         <v>325</v>
@@ -5841,67 +5841,67 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>622772.13989828</v>
+        <v>33561.16426423562</v>
       </c>
       <c r="C77">
-        <v>127516.4172352128</v>
+        <v>6901.868417241097</v>
       </c>
       <c r="D77">
         <v>1359.173961</v>
       </c>
       <c r="E77">
-        <v>366.2609960651162</v>
+        <v>364.7787907335778</v>
       </c>
       <c r="F77">
-        <v>2483.502478361288</v>
+        <v>133.6567515666842</v>
       </c>
       <c r="G77">
         <v>308.15</v>
       </c>
       <c r="H77">
-        <v>-824865646.6862127</v>
+        <v>-45636342.03092932</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>453324528.4539424</v>
+        <v>24396949.23060127</v>
       </c>
       <c r="K77">
-        <v>1793.872331517762</v>
+        <v>96.54297197284644</v>
       </c>
       <c r="L77">
-        <v>538073917.930662</v>
+        <v>29131385.76737652</v>
       </c>
       <c r="M77">
         <v>375</v>
       </c>
       <c r="N77">
-        <v>-2517.95425412855</v>
+        <v>-135.7251578331326</v>
       </c>
       <c r="O77">
-        <v>-227285306.5890796</v>
+        <v>-15970374.74743285</v>
       </c>
       <c r="P77">
-        <v>-1004.506659228355</v>
+        <v>-52.57977160795235</v>
       </c>
       <c r="Q77">
         <v>-0</v>
       </c>
       <c r="R77">
-        <v>630215251.7220248</v>
+        <v>628974266.6584651</v>
       </c>
       <c r="S77">
-        <v>345.5398861462164</v>
+        <v>347.8227192454096</v>
       </c>
       <c r="T77">
-        <v>-51506.09511104837</v>
+        <v>-3750.932603536771</v>
       </c>
       <c r="U77">
-        <v>-349311.8484628595</v>
+        <v>-18288.41679104231</v>
       </c>
       <c r="V77">
-        <v>329.9000020974886</v>
+        <v>330.5749757168865</v>
       </c>
       <c r="W77">
         <v>325</v>
@@ -5912,67 +5912,67 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>622176.3458376245</v>
+        <v>33552.66715363451</v>
       </c>
       <c r="C78">
-        <v>127374.0364402913</v>
+        <v>6900.168590348893</v>
       </c>
       <c r="D78">
         <v>1379.173961</v>
       </c>
       <c r="E78">
-        <v>366.2689924304567</v>
+        <v>364.7813938626306</v>
       </c>
       <c r="F78">
-        <v>2481.230007774296</v>
+        <v>133.6227119645326</v>
       </c>
       <c r="G78">
         <v>308.15</v>
       </c>
       <c r="H78">
-        <v>-823611896.9257536</v>
+        <v>-45624371.51446915</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>452909724.4961248</v>
+        <v>24390735.83370371</v>
       </c>
       <c r="K78">
-        <v>1792.2309020778</v>
+        <v>96.5183844892499</v>
       </c>
       <c r="L78">
-        <v>537480473.2791029</v>
+        <v>29124163.46530243</v>
       </c>
       <c r="M78">
         <v>375</v>
       </c>
       <c r="N78">
-        <v>-2515.60746284839</v>
+        <v>-135.6885472079103</v>
       </c>
       <c r="O78">
-        <v>-226664357.1511651</v>
+        <v>-15965895.66902662</v>
       </c>
       <c r="P78">
-        <v>-1004.217472291202</v>
+        <v>-52.56513576341604</v>
       </c>
       <c r="Q78">
         <v>-0</v>
       </c>
       <c r="R78">
-        <v>630232213.4701393</v>
+        <v>628975138.6323909</v>
       </c>
       <c r="S78">
-        <v>345.4905023101038</v>
+        <v>347.8233993290248</v>
       </c>
       <c r="T78">
-        <v>-51351.156086152</v>
+        <v>-3749.893822317962</v>
       </c>
       <c r="U78">
-        <v>-349206.5262205314</v>
+        <v>-18283.32533470864</v>
       </c>
       <c r="V78">
-        <v>329.8985921204035</v>
+        <v>330.5734215486264</v>
       </c>
       <c r="W78">
         <v>325</v>
@@ -5983,67 +5983,67 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>621583.7080529582</v>
+        <v>33544.33808216538</v>
       </c>
       <c r="C79">
-        <v>127232.0279405654</v>
+        <v>6898.502836085277</v>
       </c>
       <c r="D79">
         <v>1399.173961</v>
       </c>
       <c r="E79">
-        <v>366.2769397027346</v>
+        <v>364.783945657457</v>
       </c>
       <c r="F79">
-        <v>2478.971488864644</v>
+        <v>133.5893436276961</v>
       </c>
       <c r="G79">
         <v>308.15</v>
       </c>
       <c r="H79">
-        <v>-822360710.6701094</v>
+        <v>-45612508.9528162</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>452497467.1987622</v>
+        <v>24384644.96578894</v>
       </c>
       <c r="K79">
-        <v>1790.599550066105</v>
+        <v>96.49428187575491</v>
       </c>
       <c r="L79">
-        <v>536888717.0430927</v>
+        <v>29117085.4482587</v>
       </c>
       <c r="M79">
         <v>375</v>
       </c>
       <c r="N79">
-        <v>-2513.273554917982</v>
+        <v>-135.6522702448699</v>
       </c>
       <c r="O79">
-        <v>-226055812.6529961</v>
+        <v>-15961458.02502836</v>
       </c>
       <c r="P79">
-        <v>-1003.935635833386</v>
+        <v>-52.55063483105005</v>
       </c>
       <c r="Q79">
         <v>-0</v>
       </c>
       <c r="R79">
-        <v>630249129.4182661</v>
+        <v>628976013.0690966</v>
       </c>
       <c r="S79">
-        <v>345.4409219627224</v>
+        <v>347.8240712992993</v>
       </c>
       <c r="T79">
-        <v>-51199.2932977989</v>
+        <v>-3748.864634660269</v>
       </c>
       <c r="U79">
-        <v>-349103.5071273489</v>
+        <v>-18278.28086227008</v>
       </c>
       <c r="V79">
-        <v>329.8972180547298</v>
+        <v>330.571881708141</v>
       </c>
       <c r="W79">
         <v>325</v>
@@ -6054,67 +6054,67 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>620993.9372569073</v>
+        <v>33535.89891159513</v>
       </c>
       <c r="C80">
-        <v>127090.336551553</v>
+        <v>6896.813919840228</v>
       </c>
       <c r="D80">
         <v>1419.173961</v>
       </c>
       <c r="E80">
-        <v>366.28484200927</v>
+        <v>364.7865308529387</v>
       </c>
       <c r="F80">
-        <v>2476.725748706386</v>
+        <v>133.5555385383335</v>
       </c>
       <c r="G80">
         <v>308.15</v>
       </c>
       <c r="H80">
-        <v>-821111746.1511086</v>
+        <v>-45600923.54775515</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>452087542.4625711</v>
+        <v>24378474.37553257</v>
       </c>
       <c r="K80">
-        <v>1788.977428259631</v>
+        <v>96.46986378114228</v>
       </c>
       <c r="L80">
-        <v>536298413.991437</v>
+        <v>29109910.54140113</v>
       </c>
       <c r="M80">
         <v>375</v>
       </c>
       <c r="N80">
-        <v>-2510.951392258257</v>
+        <v>-135.6168279696431</v>
       </c>
       <c r="O80">
-        <v>-225457489.1881383</v>
+        <v>-15957121.14660212</v>
       </c>
       <c r="P80">
-        <v>-1003.660654390615</v>
+        <v>-52.53646192500128</v>
       </c>
       <c r="Q80">
         <v>-0</v>
       </c>
       <c r="R80">
-        <v>630266000.7213689</v>
+        <v>628976888.5622187</v>
       </c>
       <c r="S80">
-        <v>345.391149119119</v>
+        <v>347.8247366131582</v>
       </c>
       <c r="T80">
-        <v>-51049.96131074191</v>
+        <v>-3747.858774609408</v>
       </c>
       <c r="U80">
-        <v>-349002.6135155355</v>
+        <v>-18273.35063706164</v>
       </c>
       <c r="V80">
-        <v>329.8958774802223</v>
+        <v>330.5703767009508</v>
       </c>
       <c r="W80">
         <v>325</v>
@@ -6125,67 +6125,67 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>620406.6745718142</v>
+        <v>33527.4425132976</v>
       </c>
       <c r="C81">
-        <v>126948.8925109787</v>
+        <v>6895.120939728004</v>
       </c>
       <c r="D81">
         <v>1439.173961</v>
       </c>
       <c r="E81">
-        <v>366.2927044533987</v>
+        <v>364.7891211730617</v>
       </c>
       <c r="F81">
-        <v>2474.491336995315</v>
+        <v>133.5216664239567</v>
       </c>
       <c r="G81">
         <v>308.15</v>
       </c>
       <c r="H81">
-        <v>-819864742.4441859</v>
+        <v>-45589650.36322759</v>
       </c>
       <c r="I81">
         <v>0</v>
       </c>
       <c r="J81">
-        <v>451679685.5572051</v>
+        <v>24372291.55090832</v>
       </c>
       <c r="K81">
-        <v>1787.363489086735</v>
+        <v>96.44539728246224</v>
       </c>
       <c r="L81">
-        <v>535709268.6126217</v>
+        <v>29102719.43365623</v>
       </c>
       <c r="M81">
         <v>375</v>
       </c>
       <c r="N81">
-        <v>-2508.640801379096</v>
+        <v>-135.5823239162806</v>
       </c>
       <c r="O81">
-        <v>-224869853.7410645</v>
+        <v>-15952897.14681811</v>
       </c>
       <c r="P81">
-        <v>-1003.392731053054</v>
+        <v>-52.5226568186099</v>
       </c>
       <c r="Q81">
         <v>-0</v>
       </c>
       <c r="R81">
-        <v>630282827.0661383</v>
+        <v>628977764.0063287</v>
       </c>
       <c r="S81">
-        <v>345.3411638813698</v>
+        <v>347.8253957550914</v>
       </c>
       <c r="T81">
-        <v>-50903.27610885538</v>
+        <v>-3746.87908209714</v>
       </c>
       <c r="U81">
-        <v>-348903.9110038762</v>
+        <v>-18268.54851011365</v>
       </c>
       <c r="V81">
-        <v>329.8945713900046</v>
+        <v>330.5689107501954</v>
       </c>
       <c r="W81">
         <v>325</v>
@@ -6196,67 +6196,67 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>619821.7465222878</v>
+        <v>33519.32820232279</v>
       </c>
       <c r="C82">
-        <v>126807.6637617508</v>
+        <v>6893.497855968028</v>
       </c>
       <c r="D82">
         <v>1459.173961</v>
       </c>
       <c r="E82">
-        <v>366.3005295340753</v>
+        <v>364.7916071627418</v>
       </c>
       <c r="F82">
-        <v>2472.267543551156</v>
+        <v>133.4891585837952</v>
       </c>
       <c r="G82">
         <v>308.15</v>
       </c>
       <c r="H82">
-        <v>-818620001.5562322</v>
+        <v>-45578483.61546357</v>
       </c>
       <c r="I82">
         <v>0</v>
       </c>
       <c r="J82">
-        <v>451273766.8503643</v>
+        <v>24366357.75320099</v>
       </c>
       <c r="K82">
-        <v>1785.757219582157</v>
+        <v>96.42191622207625</v>
       </c>
       <c r="L82">
-        <v>535121144.9746857</v>
+        <v>29095823.79754297</v>
       </c>
       <c r="M82">
         <v>375</v>
       </c>
       <c r="N82">
-        <v>-2506.342793806658</v>
+        <v>-135.5481480223335</v>
       </c>
       <c r="O82">
-        <v>-224293989.8716376</v>
+        <v>-15948713.62470282</v>
       </c>
       <c r="P82">
-        <v>-1003.132308534305</v>
+        <v>-52.50898404938198</v>
       </c>
       <c r="Q82">
         <v>-0</v>
       </c>
       <c r="R82">
-        <v>630299606.2266978</v>
+        <v>628978640.5700638</v>
       </c>
       <c r="S82">
-        <v>345.2909642508625</v>
+        <v>347.826047406054</v>
       </c>
       <c r="T82">
-        <v>-50759.50549846343</v>
+        <v>-3745.908818100704</v>
       </c>
       <c r="U82">
-        <v>-348807.5486438152</v>
+        <v>-18263.7924662497</v>
       </c>
       <c r="V82">
-        <v>329.8933019465472</v>
+        <v>330.5674588539814</v>
       </c>
       <c r="W82">
         <v>325</v>
@@ -6267,67 +6267,67 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>619239.4926423382</v>
+        <v>33511.32290108596</v>
       </c>
       <c r="C83">
-        <v>126666.7232038711</v>
+        <v>6891.896737574024</v>
       </c>
       <c r="D83">
         <v>1479.173961</v>
       </c>
       <c r="E83">
-        <v>366.3083125431974</v>
+        <v>364.7940598132009</v>
       </c>
       <c r="F83">
-        <v>2470.055706355938</v>
+        <v>133.4570867092042</v>
       </c>
       <c r="G83">
         <v>308.15</v>
       </c>
       <c r="H83">
-        <v>-817377304.1530005</v>
+        <v>-45567448.10115127</v>
       </c>
       <c r="I83">
         <v>0</v>
       </c>
       <c r="J83">
-        <v>450870030.5697383</v>
+        <v>24360503.5341888</v>
       </c>
       <c r="K83">
-        <v>1784.159586187254</v>
+        <v>96.39875006253929</v>
       </c>
       <c r="L83">
-        <v>534534348.6519065</v>
+        <v>29089021.38112005</v>
       </c>
       <c r="M83">
         <v>375</v>
       </c>
       <c r="N83">
-        <v>-2504.056485119446</v>
+        <v>-135.5143734567463</v>
       </c>
       <c r="O83">
-        <v>-223730833.7865386</v>
+        <v>-15944579.35436104</v>
       </c>
       <c r="P83">
-        <v>-1002.878940079199</v>
+        <v>-52.49547170365076</v>
       </c>
       <c r="Q83">
         <v>-0</v>
       </c>
       <c r="R83">
-        <v>630316338.4605002</v>
+        <v>628979518.3010833</v>
       </c>
       <c r="S83">
-        <v>345.2405582318852</v>
+        <v>347.8266919429008</v>
       </c>
       <c r="T83">
-        <v>-50618.88914444178</v>
+        <v>-3744.949964119579</v>
       </c>
       <c r="U83">
-        <v>-348713.3658631269</v>
+        <v>-18259.09229116677</v>
       </c>
       <c r="V83">
-        <v>329.8920669672854</v>
+        <v>330.5660239939048</v>
       </c>
       <c r="W83">
         <v>325</v>
@@ -6338,67 +6338,67 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>618660.8484078279</v>
+        <v>33503.4199162834</v>
       </c>
       <c r="C84">
-        <v>126526.266142608</v>
+        <v>6890.316211163931</v>
       </c>
       <c r="D84">
         <v>1499.173961</v>
       </c>
       <c r="E84">
-        <v>366.3160404074511</v>
+        <v>364.7964811684641</v>
       </c>
       <c r="F84">
-        <v>2467.859540698193</v>
+        <v>133.4254240515604</v>
       </c>
       <c r="G84">
         <v>308.15</v>
       </c>
       <c r="H84">
-        <v>-816137942.3105171</v>
+        <v>-45556560.72575397</v>
       </c>
       <c r="I84">
         <v>0</v>
       </c>
       <c r="J84">
-        <v>450469154.883131</v>
+        <v>24354724.01132904</v>
       </c>
       <c r="K84">
-        <v>1782.57327248649</v>
+        <v>96.37587949730505</v>
       </c>
       <c r="L84">
-        <v>533949699.6113906</v>
+        <v>29082306.42386518</v>
       </c>
       <c r="M84">
         <v>375</v>
       </c>
       <c r="N84">
-        <v>-2501.781920009214</v>
+        <v>-135.481050038184</v>
       </c>
       <c r="O84">
-        <v>-223175993.2215436</v>
+        <v>-15940500.17696049</v>
       </c>
       <c r="P84">
-        <v>-1002.630939132132</v>
+        <v>-52.48213887512065</v>
       </c>
       <c r="Q84">
         <v>-0</v>
       </c>
       <c r="R84">
-        <v>630333028.3478204</v>
+        <v>628980397.1623981</v>
       </c>
       <c r="S84">
-        <v>345.1900764329165</v>
+        <v>347.8273296623373</v>
       </c>
       <c r="T84">
-        <v>-50480.33404138659</v>
+        <v>-3744.003881188864</v>
       </c>
       <c r="U84">
-        <v>-348620.77047789</v>
+        <v>-18254.45463500791</v>
       </c>
       <c r="V84">
-        <v>329.8908582070605</v>
+        <v>330.5646081977924</v>
       </c>
       <c r="W84">
         <v>325</v>
@@ -6409,67 +6409,67 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>618084.883421372</v>
+        <v>33495.54787685999</v>
       </c>
       <c r="C85">
-        <v>126386.1061997676</v>
+        <v>6888.741592469752</v>
       </c>
       <c r="D85">
         <v>1519.173961</v>
       </c>
       <c r="E85">
-        <v>366.323726257515</v>
+        <v>364.7988929758404</v>
       </c>
       <c r="F85">
-        <v>2465.675314999405</v>
+        <v>133.3938862523028</v>
       </c>
       <c r="G85">
         <v>308.15</v>
       </c>
       <c r="H85">
-        <v>-814902728.7615303</v>
+        <v>-45545879.8755743</v>
       </c>
       <c r="I85">
         <v>0</v>
       </c>
       <c r="J85">
-        <v>450070458.6492568</v>
+        <v>24348967.27941455</v>
       </c>
       <c r="K85">
-        <v>1780.995583120002</v>
+        <v>96.35309911527175</v>
       </c>
       <c r="L85">
-        <v>533366410.1722599</v>
+        <v>29075617.08248116</v>
       </c>
       <c r="M85">
         <v>375</v>
       </c>
       <c r="N85">
-        <v>-2499.520685357374</v>
+        <v>-135.4483504848986</v>
       </c>
       <c r="O85">
-        <v>-222629535.6029035</v>
+        <v>-15936496.52546394</v>
       </c>
       <c r="P85">
-        <v>-1002.38854799386</v>
+        <v>-52.46905205922303</v>
       </c>
       <c r="Q85">
         <v>-0</v>
       </c>
       <c r="R85">
-        <v>630349674.5888895</v>
+        <v>628981276.6087202</v>
       </c>
       <c r="S85">
-        <v>345.1395495843286</v>
+        <v>347.8279611708907</v>
       </c>
       <c r="T85">
-        <v>-50343.85418340319</v>
+        <v>-3743.075297768267</v>
       </c>
       <c r="U85">
-        <v>-348529.8419420594</v>
+        <v>-18249.902658627</v>
       </c>
       <c r="V85">
-        <v>329.8896768482843</v>
+        <v>330.5632185259918</v>
       </c>
       <c r="W85">
         <v>325</v>
@@ -6480,67 +6480,67 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>617511.1949656814</v>
+        <v>33487.86874909719</v>
       </c>
       <c r="C86">
-        <v>126246.164964133</v>
+        <v>6887.206219108757</v>
       </c>
       <c r="D86">
         <v>1539.173961</v>
       </c>
       <c r="E86">
-        <v>366.3313758191889</v>
+        <v>364.8012459013597</v>
       </c>
       <c r="F86">
-        <v>2463.501402039862</v>
+        <v>133.3631184183403</v>
       </c>
       <c r="G86">
         <v>308.15</v>
       </c>
       <c r="H86">
-        <v>-813670527.0515313</v>
+        <v>-45535332.11831366</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>449673644.8446113</v>
+        <v>24343351.09262023</v>
       </c>
       <c r="K86">
-        <v>1779.425342741776</v>
+        <v>96.33087489340812</v>
       </c>
       <c r="L86">
-        <v>532784148.5046031</v>
+        <v>29069093.8872883</v>
       </c>
       <c r="M86">
         <v>375</v>
       </c>
       <c r="N86">
-        <v>-2497.271429981295</v>
+        <v>-135.4160569477603</v>
       </c>
       <c r="O86">
-        <v>-222091420.3108311</v>
+        <v>-15932542.49381381</v>
       </c>
       <c r="P86">
-        <v>-1002.152153330371</v>
+        <v>-52.45612710496061</v>
       </c>
       <c r="Q86">
         <v>-0</v>
       </c>
       <c r="R86">
-        <v>630366275.4323808</v>
+        <v>628982157.057049</v>
       </c>
       <c r="S86">
-        <v>345.0889078777672</v>
+        <v>347.8285860980433</v>
       </c>
       <c r="T86">
-        <v>-50209.4365738688</v>
+        <v>-3742.158234644957</v>
       </c>
       <c r="U86">
-        <v>-348440.7100518499</v>
+        <v>-18245.40705030007</v>
       </c>
       <c r="V86">
-        <v>329.8885247835848</v>
+        <v>330.5618460429392</v>
       </c>
       <c r="W86">
         <v>325</v>
@@ -6551,67 +6551,67 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>616939.4946398295</v>
+        <v>33480.20192461621</v>
       </c>
       <c r="C87">
-        <v>126106.3873078976</v>
+        <v>6885.672943442855</v>
       </c>
       <c r="D87">
         <v>1559.173961</v>
       </c>
       <c r="E87">
-        <v>366.3389932114819</v>
+        <v>364.8035949582094</v>
       </c>
       <c r="F87">
-        <v>2461.336631254486</v>
+        <v>133.332401169888</v>
       </c>
       <c r="G87">
         <v>308.15</v>
       </c>
       <c r="H87">
-        <v>-812440977.9177419</v>
+        <v>-45524959.59766752</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>449278499.8008509</v>
+        <v>24337744.13941952</v>
       </c>
       <c r="K87">
-        <v>1777.861705834787</v>
+        <v>96.30868721251002</v>
       </c>
       <c r="L87">
-        <v>532202680.983306</v>
+        <v>29062580.14404627</v>
       </c>
       <c r="M87">
         <v>375</v>
       </c>
       <c r="N87">
-        <v>-2495.033977474889</v>
+        <v>-135.3842940369553</v>
       </c>
       <c r="O87">
-        <v>-221561739.9847108</v>
+        <v>-15928652.88246131</v>
       </c>
       <c r="P87">
-        <v>-1001.92208699923</v>
+        <v>-52.44341195975721</v>
       </c>
       <c r="Q87">
         <v>-0</v>
       </c>
       <c r="R87">
-        <v>630382827.9597247</v>
+        <v>628983037.9811668</v>
       </c>
       <c r="S87">
-        <v>345.03812153743</v>
+        <v>347.8292049184811</v>
       </c>
       <c r="T87">
-        <v>-50077.10346264291</v>
+        <v>-3741.256094623343</v>
       </c>
       <c r="U87">
-        <v>-348353.4856059236</v>
+        <v>-18240.98451169916</v>
       </c>
       <c r="V87">
-        <v>329.8874036353285</v>
+        <v>330.5604958399402</v>
       </c>
       <c r="W87">
         <v>325</v>
@@ -6622,67 +6622,67 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>616371.1509332786</v>
+        <v>33472.61370338198</v>
       </c>
       <c r="C88">
-        <v>125967.0569263398</v>
+        <v>6884.1554063958</v>
       </c>
       <c r="D88">
         <v>1579.173961</v>
       </c>
       <c r="E88">
-        <v>366.3465592825905</v>
+        <v>364.805919958783</v>
       </c>
       <c r="F88">
-        <v>2459.186445362458</v>
+        <v>133.3019984912249</v>
       </c>
       <c r="G88">
         <v>308.15</v>
       </c>
       <c r="H88">
-        <v>-811212880.5526119</v>
+        <v>-45514771.13684579</v>
       </c>
       <c r="I88">
         <v>0</v>
       </c>
       <c r="J88">
-        <v>448886017.0012223</v>
+        <v>24332194.60601306</v>
       </c>
       <c r="K88">
-        <v>1776.308603726934</v>
+        <v>96.28672675173142</v>
       </c>
       <c r="L88">
-        <v>531623201.1910801</v>
+        <v>29056133.44491775</v>
       </c>
       <c r="M88">
         <v>375</v>
       </c>
       <c r="N88">
-        <v>-2492.804785693426</v>
+        <v>-135.3530876304318</v>
       </c>
       <c r="O88">
-        <v>-221040972.2085027</v>
+        <v>-15924830.67917507</v>
       </c>
       <c r="P88">
-        <v>-1001.6969898345</v>
+        <v>-52.430916485946</v>
       </c>
       <c r="Q88">
         <v>-0</v>
       </c>
       <c r="R88">
-        <v>630399339.2403357</v>
+        <v>628983919.122431</v>
       </c>
       <c r="S88">
-        <v>344.987186549831</v>
+        <v>347.829817864003</v>
       </c>
       <c r="T88">
-        <v>-49946.98374326411</v>
+        <v>-3740.369583872829</v>
       </c>
       <c r="U88">
-        <v>-348267.6907933783</v>
+        <v>-18236.63847730366</v>
       </c>
       <c r="V88">
-        <v>329.8863067648504</v>
+        <v>330.5591689644207</v>
       </c>
       <c r="W88">
         <v>325</v>
@@ -6693,67 +6693,67 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>615805.2290815288</v>
+        <v>33465.3204731401</v>
       </c>
       <c r="C89">
-        <v>125827.9860434513</v>
+        <v>6882.698156362707</v>
       </c>
       <c r="D89">
         <v>1599.173961</v>
       </c>
       <c r="E89">
-        <v>366.3540872289394</v>
+        <v>364.808154985816</v>
       </c>
       <c r="F89">
-        <v>2457.047094087196</v>
+        <v>133.2727723427634</v>
       </c>
       <c r="G89">
         <v>308.15</v>
       </c>
       <c r="H89">
-        <v>-809988695.7741113</v>
+        <v>-45504625.68303374</v>
       </c>
       <c r="I89">
         <v>0</v>
       </c>
       <c r="J89">
-        <v>448495511.8914003</v>
+        <v>24326859.82979066</v>
       </c>
       <c r="K89">
-        <v>1774.763327562483</v>
+        <v>96.26561612317673</v>
       </c>
       <c r="L89">
-        <v>531044918.5263776</v>
+        <v>29049941.47601107</v>
       </c>
       <c r="M89">
         <v>375</v>
       </c>
       <c r="N89">
-        <v>-2490.590190605917</v>
+        <v>-135.3220195662379</v>
       </c>
       <c r="O89">
-        <v>-220527949.5468962</v>
+        <v>-15921026.25787763</v>
       </c>
       <c r="P89">
-        <v>-1001.478875565454</v>
+        <v>-52.4184792880078</v>
       </c>
       <c r="Q89">
         <v>-0</v>
       </c>
       <c r="R89">
-        <v>630415805.2384468</v>
+        <v>628984801.6474109</v>
       </c>
       <c r="S89">
-        <v>344.9361441188573</v>
+        <v>347.8304240430672</v>
       </c>
       <c r="T89">
-        <v>-49818.7716783875</v>
+        <v>-3739.487227755746</v>
       </c>
       <c r="U89">
-        <v>-348184.0218804624</v>
+        <v>-18232.31273095845</v>
       </c>
       <c r="V89">
-        <v>329.8852440058778</v>
+        <v>330.5578482781705</v>
       </c>
       <c r="W89">
         <v>325</v>
@@ -6764,67 +6764,67 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>615241.4149656335</v>
+        <v>33458.08141900688</v>
       </c>
       <c r="C90">
-        <v>125689.114540188</v>
+        <v>6881.251656624799</v>
       </c>
       <c r="D90">
         <v>1619.173961</v>
       </c>
       <c r="E90">
-        <v>366.3615815230808</v>
+        <v>364.8103733908961</v>
       </c>
       <c r="F90">
-        <v>2454.917306385122</v>
+        <v>133.2437635514574</v>
       </c>
       <c r="G90">
         <v>308.15</v>
       </c>
       <c r="H90">
-        <v>-808768072.0597157</v>
+        <v>-45494587.26962443</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90">
-        <v>448106752.4622626</v>
+        <v>24321564.72871691</v>
       </c>
       <c r="K90">
-        <v>1773.224959251999</v>
+        <v>96.24466249490466</v>
       </c>
       <c r="L90">
-        <v>530467575.6550528</v>
+        <v>29043795.30506485</v>
       </c>
       <c r="M90">
         <v>375</v>
       </c>
       <c r="N90">
-        <v>-2488.388092828414</v>
+        <v>-135.291279353346</v>
       </c>
       <c r="O90">
-        <v>-220023404.8177447</v>
+        <v>-15917262.16666349</v>
       </c>
       <c r="P90">
-        <v>-1001.266458069949</v>
+        <v>-52.40617336426112</v>
       </c>
       <c r="Q90">
         <v>-0</v>
       </c>
       <c r="R90">
-        <v>630432222.8549435</v>
+        <v>628985685.4394308</v>
       </c>
       <c r="S90">
-        <v>344.8850287403112</v>
+        <v>347.8310240656689</v>
       </c>
       <c r="T90">
-        <v>-49692.65836999763</v>
+        <v>-3738.614205479134</v>
       </c>
       <c r="U90">
-        <v>-348102.0265724394</v>
+        <v>-18228.03270081654</v>
       </c>
       <c r="V90">
-        <v>329.884209074699</v>
+        <v>330.5565415327453</v>
       </c>
       <c r="W90">
         <v>325</v>
@@ -6835,67 +6835,67 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>614679.9329984027</v>
+        <v>33450.98120713598</v>
       </c>
       <c r="C91">
-        <v>125550.4918684118</v>
+        <v>6879.833329820752</v>
       </c>
       <c r="D91">
         <v>1639.173961</v>
       </c>
       <c r="E91">
-        <v>366.3690390846949</v>
+        <v>364.8125493902134</v>
       </c>
       <c r="F91">
-        <v>2452.797957649982</v>
+        <v>133.2153092727236</v>
       </c>
       <c r="G91">
         <v>308.15</v>
       </c>
       <c r="H91">
-        <v>-807551020.8565067</v>
+        <v>-45484645.31173407</v>
       </c>
       <c r="I91">
         <v>0</v>
       </c>
       <c r="J91">
-        <v>447719898.5032439</v>
+        <v>24316370.84523909</v>
       </c>
       <c r="K91">
-        <v>1771.694131098653</v>
+        <v>96.2241094042066</v>
       </c>
       <c r="L91">
-        <v>529891381.2749505</v>
+        <v>29037768.43963715</v>
       </c>
       <c r="M91">
         <v>375</v>
       </c>
       <c r="N91">
-        <v>-2486.199579413653</v>
+        <v>-135.2608354058092</v>
       </c>
       <c r="O91">
-        <v>-219528357.526676</v>
+        <v>-15913534.57417891</v>
       </c>
       <c r="P91">
-        <v>-1001.060630875372</v>
+        <v>-52.39398643084314</v>
       </c>
       <c r="Q91">
         <v>-0</v>
       </c>
       <c r="R91">
-        <v>630448588.7216315</v>
+        <v>628986570.7944583</v>
       </c>
       <c r="S91">
-        <v>344.8338066619423</v>
+        <v>347.8316179966052</v>
       </c>
       <c r="T91">
-        <v>-49568.8958579138</v>
+        <v>-3737.749649141639</v>
       </c>
       <c r="U91">
-        <v>-348022.011309471</v>
+        <v>-18223.79410728316</v>
       </c>
       <c r="V91">
-        <v>329.8832063377971</v>
+        <v>330.555247423376</v>
       </c>
       <c r="W91">
         <v>325</v>
@@ -6906,67 +6906,67 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>614121.7917355252</v>
+        <v>33443.9643967105</v>
       </c>
       <c r="C92">
-        <v>125412.3283718255</v>
+        <v>6878.431781323202</v>
       </c>
       <c r="D92">
         <v>1659.173961</v>
       </c>
       <c r="E92">
-        <v>366.3764458069518</v>
+        <v>364.8146998704634</v>
       </c>
       <c r="F92">
-        <v>2450.693056862164</v>
+        <v>133.1871886946712</v>
       </c>
       <c r="G92">
         <v>308.15</v>
       </c>
       <c r="H92">
-        <v>-806335936.8000276</v>
+        <v>-45474797.46655656</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92">
-        <v>447335681.7910024</v>
+        <v>24311237.87360063</v>
       </c>
       <c r="K92">
-        <v>1770.173738838872</v>
+        <v>96.20379735021375</v>
       </c>
       <c r="L92">
-        <v>529317216.8312268</v>
+        <v>29031812.77728155</v>
       </c>
       <c r="M92">
         <v>375</v>
       </c>
       <c r="N92">
-        <v>-2484.018558577163</v>
+        <v>-135.2306805646408</v>
       </c>
       <c r="O92">
-        <v>-219040160.9553219</v>
+        <v>-15909842.6220798</v>
       </c>
       <c r="P92">
-        <v>-1000.858443029529</v>
+        <v>-52.3819156285299</v>
       </c>
       <c r="Q92">
         <v>-0</v>
       </c>
       <c r="R92">
-        <v>630464910.7227745</v>
+        <v>628987457.7687756</v>
       </c>
       <c r="S92">
-        <v>344.7825164720547</v>
+        <v>347.8322059574371</v>
       </c>
       <c r="T92">
-        <v>-49446.83608257088</v>
+        <v>-3736.893353689182</v>
       </c>
       <c r="U92">
-        <v>-347942.9445307436</v>
+        <v>-18219.59595457794</v>
       </c>
       <c r="V92">
-        <v>329.8822213789687</v>
+        <v>330.5539656468119</v>
       </c>
       <c r="W92">
         <v>325</v>
@@ -6977,67 +6977,67 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>613566.389286611</v>
+        <v>33436.8738880625</v>
       </c>
       <c r="C93">
-        <v>125274.5051032118</v>
+        <v>6877.014679448572</v>
       </c>
       <c r="D93">
         <v>1679.173961</v>
       </c>
       <c r="E93">
-        <v>366.3838102140537</v>
+        <v>364.8168726927931</v>
       </c>
       <c r="F93">
-        <v>2448.600181559646</v>
+        <v>133.1587759671966</v>
       </c>
       <c r="G93">
         <v>308.15</v>
       </c>
       <c r="H93">
-        <v>-805124441.2298315</v>
+        <v>-45465148.2020066</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93">
-        <v>446953660.1429898</v>
+        <v>24306051.57465521</v>
       </c>
       <c r="K93">
-        <v>1768.662032693064</v>
+        <v>96.18327426729773</v>
       </c>
       <c r="L93">
-        <v>528744579.1818969</v>
+        <v>29025792.10144769</v>
       </c>
       <c r="M93">
         <v>375</v>
       </c>
       <c r="N93">
-        <v>-2481.847958686285</v>
+        <v>-135.2011241203068</v>
       </c>
       <c r="O93">
-        <v>-218561332.1354348</v>
+        <v>-15906222.94892976</v>
       </c>
       <c r="P93">
-        <v>-1000.660179482793</v>
+        <v>-52.37008014660205</v>
       </c>
       <c r="Q93">
         <v>-0</v>
       </c>
       <c r="R93">
-        <v>630481190.9156873</v>
+        <v>628988345.3776159</v>
       </c>
       <c r="S93">
-        <v>344.7312265740321</v>
+        <v>347.8327888659353</v>
       </c>
       <c r="T93">
-        <v>-49327.11064042962</v>
+        <v>-3736.053794008797</v>
       </c>
       <c r="U93">
-        <v>-347864.9209791811</v>
+        <v>-18215.47975768186</v>
       </c>
       <c r="V93">
-        <v>329.8812555865126</v>
+        <v>330.5527088592161</v>
       </c>
       <c r="W93">
         <v>325</v>
@@ -7048,67 +7048,67 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>613014.0615942017</v>
+        <v>33429.9658222893</v>
       </c>
       <c r="C94">
-        <v>125137.0942848381</v>
+        <v>6875.634739718564</v>
       </c>
       <c r="D94">
         <v>1699.173961</v>
       </c>
       <c r="E94">
-        <v>366.3911276704433</v>
+        <v>364.8189898375973</v>
       </c>
       <c r="F94">
-        <v>2446.520649106215</v>
+        <v>133.1310912996277</v>
       </c>
       <c r="G94">
         <v>308.15</v>
       </c>
       <c r="H94">
-        <v>-803917521.9876869</v>
+        <v>-45455589.10191543</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>446574074.0233584</v>
+        <v>24300998.17165665</v>
       </c>
       <c r="K94">
-        <v>1767.159964211103</v>
+        <v>96.16327707849513</v>
       </c>
       <c r="L94">
-        <v>528173775.4121951</v>
+        <v>29019928.64726133</v>
       </c>
       <c r="M94">
         <v>375</v>
       </c>
       <c r="N94">
-        <v>-2479.692163287683</v>
+        <v>-135.1718446270333</v>
       </c>
       <c r="O94">
-        <v>-218090300.3138334</v>
+        <v>-15902637.33239463</v>
       </c>
       <c r="P94">
-        <v>-1000.468186975922</v>
+        <v>-52.35835590156057</v>
       </c>
       <c r="Q94">
         <v>-0</v>
       </c>
       <c r="R94">
-        <v>630497427.944551</v>
+        <v>628989234.1327616</v>
       </c>
       <c r="S94">
-        <v>344.6798937781875</v>
+        <v>347.8333660663885</v>
       </c>
       <c r="T94">
-        <v>-49209.3105984649</v>
+        <v>-3735.222155499715</v>
       </c>
       <c r="U94">
-        <v>-347788.7530839746</v>
+        <v>-18211.40229536006</v>
       </c>
       <c r="V94">
-        <v>329.8803204257693</v>
+        <v>330.5514638844566</v>
       </c>
       <c r="W94">
         <v>325</v>
@@ -7119,67 +7119,67 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>612464.1756123427</v>
+        <v>33423.09374261754</v>
       </c>
       <c r="C95">
-        <v>124999.9706615005</v>
+        <v>6874.26183708951</v>
       </c>
       <c r="D95">
         <v>1719.173961</v>
       </c>
       <c r="E95">
-        <v>366.3984071312752</v>
+        <v>364.8210959150474</v>
       </c>
       <c r="F95">
-        <v>2444.451914558068</v>
+        <v>133.1035513453366</v>
       </c>
       <c r="G95">
         <v>308.15</v>
       </c>
       <c r="H95">
-        <v>-802713347.9541847</v>
+        <v>-45446154.80382311</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95">
-        <v>446196458.8924268</v>
+        <v>24295971.18380323</v>
       </c>
       <c r="K95">
-        <v>1765.665695151009</v>
+        <v>96.14338442480553</v>
       </c>
       <c r="L95">
-        <v>527604274.1728899</v>
+        <v>29014095.34506407</v>
       </c>
       <c r="M95">
         <v>375</v>
       </c>
       <c r="N95">
-        <v>-2477.547382040968</v>
+        <v>-135.1429445032123</v>
       </c>
       <c r="O95">
-        <v>-217626002.6510798</v>
+        <v>-15899097.96981794</v>
       </c>
       <c r="P95">
-        <v>-1000.281739823095</v>
+        <v>-52.34678230294776</v>
       </c>
       <c r="Q95">
         <v>-0</v>
       </c>
       <c r="R95">
-        <v>630513621.6706154</v>
+        <v>628990123.7796025</v>
       </c>
       <c r="S95">
-        <v>344.6284581056141</v>
+        <v>347.8339379457577</v>
       </c>
       <c r="T95">
-        <v>-49093.17244630754</v>
+        <v>-3734.401231719253</v>
       </c>
       <c r="U95">
-        <v>-347714.1841468417</v>
+        <v>-18207.37729592427</v>
       </c>
       <c r="V95">
-        <v>329.8794123552922</v>
+        <v>330.5502349073435</v>
       </c>
       <c r="W95">
         <v>325</v>
@@ -7190,67 +7190,67 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>611918.146191604</v>
+        <v>33416.23545436443</v>
       </c>
       <c r="C96">
-        <v>124863.4277477347</v>
+        <v>6872.8914091834</v>
       </c>
       <c r="D96">
         <v>1739.173961</v>
       </c>
       <c r="E96">
-        <v>366.4056287933607</v>
+        <v>364.823197689059</v>
       </c>
       <c r="F96">
-        <v>2442.399605726359</v>
+        <v>133.0760676741149</v>
       </c>
       <c r="G96">
         <v>308.15</v>
       </c>
       <c r="H96">
-        <v>-801513935.7916923</v>
+        <v>-45436862.2316247</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>445821842.0190866</v>
+        <v>24290954.46954369</v>
       </c>
       <c r="K96">
-        <v>1764.183290551804</v>
+        <v>96.12353241862849</v>
       </c>
       <c r="L96">
-        <v>527037308.9736317</v>
+        <v>29008272.97598047</v>
       </c>
       <c r="M96">
         <v>375</v>
       </c>
       <c r="N96">
-        <v>-2475.414152158643</v>
+        <v>-135.1144736785163</v>
       </c>
       <c r="O96">
-        <v>-217168168.25393</v>
+        <v>-15895610.7111306</v>
       </c>
       <c r="P96">
-        <v>-1000.098596466614</v>
+        <v>-52.33537851268011</v>
       </c>
       <c r="Q96">
         <v>-0</v>
       </c>
       <c r="R96">
-        <v>630529777.9719069</v>
+        <v>628991013.9096262</v>
       </c>
       <c r="S96">
-        <v>344.5771064076574</v>
+        <v>347.8345047638999</v>
       </c>
       <c r="T96">
-        <v>-48978.6423728849</v>
+        <v>-3733.592388834142</v>
       </c>
       <c r="U96">
-        <v>-347640.4296353607</v>
+        <v>-18203.41143313466</v>
       </c>
       <c r="V96">
-        <v>329.8785204156943</v>
+        <v>330.5490239619113</v>
       </c>
       <c r="W96">
         <v>325</v>
@@ -7261,67 +7261,67 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>611375.1074803888</v>
+        <v>33409.58831302028</v>
       </c>
       <c r="C97">
-        <v>124727.2932471927</v>
+        <v>6871.564073272968</v>
       </c>
       <c r="D97">
         <v>1759.173961</v>
       </c>
       <c r="E97">
-        <v>366.4128049051188</v>
+        <v>364.8252350472417</v>
       </c>
       <c r="F97">
-        <v>2440.360241772386</v>
+        <v>133.0494263287617</v>
       </c>
       <c r="G97">
         <v>308.15</v>
       </c>
       <c r="H97">
-        <v>-800320460.0300388</v>
+        <v>-45427632.91395189</v>
       </c>
       <c r="I97">
         <v>0</v>
       </c>
       <c r="J97">
-        <v>445449588.0306827</v>
+        <v>24286091.50869513</v>
       </c>
       <c r="K97">
-        <v>1762.710236156726</v>
+        <v>96.10428884296175</v>
       </c>
       <c r="L97">
-        <v>526472152.9114749</v>
+        <v>29002632.7827155</v>
       </c>
       <c r="M97">
         <v>375</v>
       </c>
       <c r="N97">
-        <v>-2473.295923588183</v>
+        <v>-135.0861994625487</v>
       </c>
       <c r="O97">
-        <v>-216717661.1680165</v>
+        <v>-15892147.94020541</v>
       </c>
       <c r="P97">
-        <v>-999.9200740537617</v>
+        <v>-52.32405469541845</v>
       </c>
       <c r="Q97">
         <v>-0</v>
       </c>
       <c r="R97">
-        <v>630545895.0398387</v>
+        <v>628991905.2508814</v>
       </c>
       <c r="S97">
-        <v>344.5258451104661</v>
+        <v>347.8350660675932</v>
       </c>
       <c r="T97">
-        <v>-48865.92918011706</v>
+        <v>-3732.789240491091</v>
       </c>
       <c r="U97">
-        <v>-347567.9438846642</v>
+        <v>-18199.47341609234</v>
       </c>
       <c r="V97">
-        <v>329.877651041004</v>
+        <v>330.5478215101208</v>
       </c>
       <c r="W97">
         <v>325</v>
@@ -7332,67 +7332,67 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>610834.7129458557</v>
+        <v>33402.79365641934</v>
       </c>
       <c r="C98">
-        <v>124591.5018387914</v>
+        <v>6870.206023221042</v>
       </c>
       <c r="D98">
         <v>1779.173961</v>
       </c>
       <c r="E98">
-        <v>366.419940415899</v>
+        <v>364.8273172435687</v>
       </c>
       <c r="F98">
-        <v>2438.332416146676</v>
+        <v>133.0221986542187</v>
       </c>
       <c r="G98">
         <v>308.15</v>
       </c>
       <c r="H98">
-        <v>-799131854.861378</v>
+        <v>-45418632.01462466</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>445079440.1836114</v>
+        <v>24281121.52262478</v>
       </c>
       <c r="K98">
-        <v>1761.245516003164</v>
+        <v>96.08462175500908</v>
       </c>
       <c r="L98">
-        <v>525908525.4193076</v>
+        <v>28996863.64358945</v>
       </c>
       <c r="M98">
         <v>375</v>
       </c>
       <c r="N98">
-        <v>-2471.188874095803</v>
+        <v>-135.058610990422</v>
       </c>
       <c r="O98">
-        <v>-216274270.9120396</v>
+        <v>-15888767.67636982</v>
       </c>
       <c r="P98">
-        <v>-999.7443991380806</v>
+        <v>-52.31299941215184</v>
       </c>
       <c r="Q98">
         <v>-0</v>
       </c>
       <c r="R98">
-        <v>630561973.7197071</v>
+        <v>628992796.3930448</v>
       </c>
       <c r="S98">
-        <v>344.4746921434709</v>
+        <v>347.8356232064209</v>
       </c>
       <c r="T98">
-        <v>-48754.98994113717</v>
+        <v>-3732.00518700257</v>
       </c>
       <c r="U98">
-        <v>-347496.1058249761</v>
+        <v>-18195.62892373962</v>
       </c>
       <c r="V98">
-        <v>329.8767955679018</v>
+        <v>330.5466475730623</v>
       </c>
       <c r="W98">
         <v>325</v>
@@ -7403,67 +7403,67 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>610296.724427536</v>
+        <v>33396.27165191307</v>
       </c>
       <c r="C99">
-        <v>124456.0094455939</v>
+        <v>6868.90372940114</v>
       </c>
       <c r="D99">
         <v>1799.173961</v>
       </c>
       <c r="E99">
-        <v>366.4270387699502</v>
+        <v>364.8293162967882</v>
       </c>
       <c r="F99">
-        <v>2436.315150041638</v>
+        <v>132.9960582061481</v>
       </c>
       <c r="G99">
         <v>308.15</v>
       </c>
       <c r="H99">
-        <v>-797948353.663865</v>
+        <v>-45409689.70371491</v>
       </c>
       <c r="I99">
         <v>0</v>
       </c>
       <c r="J99">
-        <v>444711219.8118582</v>
+        <v>24276349.99273971</v>
       </c>
       <c r="K99">
-        <v>1759.788423083492</v>
+        <v>96.06573998339977</v>
       </c>
       <c r="L99">
-        <v>525346242.6782205</v>
+        <v>28991330.11498073</v>
       </c>
       <c r="M99">
         <v>375</v>
       </c>
       <c r="N99">
-        <v>-2469.096431760234</v>
+        <v>-135.031204894572</v>
       </c>
       <c r="O99">
-        <v>-215839021.8402319</v>
+        <v>-15885410.08247012</v>
       </c>
       <c r="P99">
-        <v>-999.5741262912361</v>
+        <v>-52.30201842891802</v>
       </c>
       <c r="Q99">
         <v>-0</v>
       </c>
       <c r="R99">
-        <v>630578009.8480707</v>
+        <v>628993688.3543564</v>
       </c>
       <c r="S99">
-        <v>344.4235598388044</v>
+        <v>347.8361750570473</v>
       </c>
       <c r="T99">
-        <v>-48646.06854990649</v>
+        <v>-3731.226432207945</v>
       </c>
       <c r="U99">
-        <v>-347425.8005436711</v>
+        <v>-18191.81029988218</v>
       </c>
       <c r="V99">
-        <v>329.8759664791386</v>
+        <v>330.5454815268051</v>
       </c>
       <c r="W99">
         <v>325</v>
@@ -7474,67 +7474,67 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>609760.3395940418</v>
+        <v>33389.7796291597</v>
       </c>
       <c r="C100">
-        <v>124320.656886783</v>
+        <v>6867.607267233097</v>
       </c>
       <c r="D100">
         <v>1819.173961</v>
       </c>
       <c r="E100">
-        <v>366.4341113184885</v>
+        <v>364.8313061221585</v>
       </c>
       <c r="F100">
-        <v>2434.3052175686</v>
+        <v>132.9700384141206</v>
       </c>
       <c r="G100">
         <v>308.15</v>
       </c>
       <c r="H100">
-        <v>-796767832.2988055</v>
+        <v>-45400871.39171065</v>
       </c>
       <c r="I100">
         <v>0</v>
       </c>
       <c r="J100">
-        <v>444344338.0799077</v>
+        <v>24271600.48672788</v>
       </c>
       <c r="K100">
-        <v>1758.336627311523</v>
+        <v>96.04694537212264</v>
       </c>
       <c r="L100">
-        <v>524784631.459089</v>
+        <v>28985821.63399662</v>
       </c>
       <c r="M100">
         <v>375</v>
       </c>
       <c r="N100">
-        <v>-2467.0155221006</v>
+        <v>-135.0041747923123</v>
       </c>
       <c r="O100">
-        <v>-215410039.9351259</v>
+        <v>-15882098.21076304</v>
       </c>
       <c r="P100">
-        <v>-999.4095192553232</v>
+        <v>-52.29118634133556</v>
       </c>
       <c r="Q100">
         <v>-0</v>
       </c>
       <c r="R100">
-        <v>630593998.8430471</v>
+        <v>628994580.8570094</v>
       </c>
       <c r="S100">
-        <v>344.3723350552008</v>
+        <v>347.8367222149436</v>
       </c>
       <c r="T100">
-        <v>-48538.69071471617</v>
+        <v>-3730.45826726972</v>
       </c>
       <c r="U100">
-        <v>-347357.1159682366</v>
+        <v>-18188.04352939831</v>
       </c>
       <c r="V100">
-        <v>329.8751650689313</v>
+        <v>330.5443312922387</v>
       </c>
       <c r="W100">
         <v>325</v>
@@ -7545,67 +7545,67 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>609226.5297283756</v>
+        <v>33383.282434646</v>
       </c>
       <c r="C101">
-        <v>124185.6462995302</v>
+        <v>6866.309402563376</v>
       </c>
       <c r="D101">
         <v>1839.173961</v>
       </c>
       <c r="E101">
-        <v>366.4411444845941</v>
+        <v>364.8332974327689</v>
       </c>
       <c r="F101">
-        <v>2432.306477123982</v>
+        <v>132.9439992078967</v>
       </c>
       <c r="G101">
         <v>308.15</v>
       </c>
       <c r="H101">
-        <v>-795589209.3533239</v>
+        <v>-45392215.39564474</v>
       </c>
       <c r="I101">
         <v>0</v>
       </c>
       <c r="J101">
-        <v>443979499.2776707</v>
+        <v>24266847.43695821</v>
       </c>
       <c r="K101">
-        <v>1756.892915647949</v>
+        <v>96.02813673222134</v>
       </c>
       <c r="L101">
-        <v>524224542.3536077</v>
+        <v>28980307.75655977</v>
       </c>
       <c r="M101">
         <v>375</v>
       </c>
       <c r="N101">
-        <v>-2464.943594626797</v>
+        <v>-134.977634012503</v>
       </c>
       <c r="O101">
-        <v>-214986781.0399344</v>
+        <v>-15878845.42412185</v>
       </c>
       <c r="P101">
-        <v>-999.2498886106205</v>
+        <v>-52.2805467710441</v>
       </c>
       <c r="Q101">
         <v>-0</v>
       </c>
       <c r="R101">
-        <v>630609943.2115231</v>
+        <v>628995473.3418012</v>
       </c>
       <c r="S101">
-        <v>344.3209926137785</v>
+        <v>347.8372650858641</v>
       </c>
       <c r="T101">
-        <v>-48432.72413922091</v>
+        <v>-3729.70379813096</v>
       </c>
       <c r="U101">
-        <v>-347289.8083854128</v>
+        <v>-18184.34380520032</v>
       </c>
       <c r="V101">
-        <v>329.8743879707638</v>
+        <v>330.5432015005978</v>
       </c>
       <c r="W101">
         <v>325</v>
@@ -7616,67 +7616,67 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>608694.6483848491</v>
+        <v>33377.03441512367</v>
       </c>
       <c r="C102">
-        <v>124050.8494223329</v>
+        <v>6865.062488271938</v>
       </c>
       <c r="D102">
         <v>1859.173961</v>
       </c>
       <c r="E102">
-        <v>366.4481474126602</v>
+        <v>364.8352127531724</v>
       </c>
       <c r="F102">
-        <v>2430.316329983432</v>
+        <v>132.9189536748554</v>
       </c>
       <c r="G102">
         <v>308.15</v>
       </c>
       <c r="H102">
-        <v>-794412783.6187273</v>
+        <v>-45383593.19218449</v>
       </c>
       <c r="I102">
         <v>0</v>
       </c>
       <c r="J102">
-        <v>443616229.0486676</v>
+        <v>24262275.76668418</v>
       </c>
       <c r="K102">
-        <v>1755.455411005448</v>
+        <v>96.01004584696504</v>
       </c>
       <c r="L102">
-        <v>523665432.6478213</v>
+        <v>28975009.13768333</v>
       </c>
       <c r="M102">
         <v>375</v>
       </c>
       <c r="N102">
-        <v>-2462.881198060673</v>
+        <v>-134.9512016051082</v>
       </c>
       <c r="O102">
-        <v>-214569455.6163651</v>
+        <v>-15875606.51077987</v>
       </c>
       <c r="P102">
-        <v>-999.0952944463061</v>
+        <v>-52.26995271527812</v>
       </c>
       <c r="Q102">
         <v>-0</v>
       </c>
       <c r="R102">
-        <v>630625841.96325</v>
+        <v>628996366.8033534</v>
       </c>
       <c r="S102">
-        <v>344.2695454852595</v>
+        <v>347.8378028325712</v>
       </c>
       <c r="T102">
-        <v>-48328.22107860159</v>
+        <v>-3728.95257560877</v>
       </c>
       <c r="U102">
-        <v>-347223.8949284775</v>
+        <v>-18180.659924104</v>
       </c>
       <c r="V102">
-        <v>329.8736354773436</v>
+        <v>330.5420765431833</v>
       </c>
       <c r="W102">
         <v>325</v>
@@ -7687,67 +7687,67 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>608165.2658780125</v>
+        <v>33370.80517182427</v>
       </c>
       <c r="C103">
-        <v>123916.3857764347</v>
+        <v>6863.81912012558</v>
       </c>
       <c r="D103">
         <v>1879.173961</v>
       </c>
       <c r="E103">
-        <v>366.4551121441511</v>
+        <v>364.8371222632313</v>
       </c>
       <c r="F103">
-        <v>2428.337037873277</v>
+        <v>132.8939841302535</v>
       </c>
       <c r="G103">
         <v>308.15</v>
       </c>
       <c r="H103">
-        <v>-793237912.8140504</v>
+        <v>-45375087.01600526</v>
       </c>
       <c r="I103">
         <v>0</v>
       </c>
       <c r="J103">
-        <v>443254940.23566</v>
+        <v>24257717.96691107</v>
       </c>
       <c r="K103">
-        <v>1754.025747048065</v>
+        <v>95.99200984248677</v>
       </c>
       <c r="L103">
-        <v>523107804.7214671</v>
+        <v>28969725.89313095</v>
       </c>
       <c r="M103">
         <v>375</v>
       </c>
       <c r="N103">
-        <v>-2460.826631669121</v>
+        <v>-134.9251210463796</v>
       </c>
       <c r="O103">
-        <v>-214157506.7030807</v>
+        <v>-15872410.40045298</v>
       </c>
       <c r="P103">
-        <v>-998.9451718581677</v>
+        <v>-52.25949800546914</v>
       </c>
       <c r="Q103">
         <v>-0</v>
       </c>
       <c r="R103">
-        <v>630641698.4988406</v>
+        <v>628997260.9402995</v>
       </c>
       <c r="S103">
-        <v>344.2179849369404</v>
+        <v>347.8383361640556</v>
       </c>
       <c r="T103">
-        <v>-48225.0453764433</v>
+        <v>-3728.211261760528</v>
       </c>
       <c r="U103">
-        <v>-347159.1753864302</v>
+        <v>-18177.02457040511</v>
       </c>
       <c r="V103">
-        <v>329.872904829993</v>
+        <v>330.5409663827984</v>
       </c>
       <c r="W103">
         <v>325</v>
@@ -7758,67 +7758,67 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>607638.5811722252</v>
+        <v>33364.52172928975</v>
       </c>
       <c r="C104">
-        <v>123782.2986123996</v>
+        <v>6862.564272061106</v>
       </c>
       <c r="D104">
         <v>1899.173961</v>
       </c>
       <c r="E104">
-        <v>366.4620359386312</v>
+        <v>364.8390481994135</v>
       </c>
       <c r="F104">
-        <v>2426.369379588455</v>
+        <v>132.8687997782325</v>
       </c>
       <c r="G104">
         <v>308.15</v>
       </c>
       <c r="H104">
-        <v>-792065733.0857407</v>
+        <v>-45366772.78470583</v>
       </c>
       <c r="I104">
         <v>0</v>
       </c>
       <c r="J104">
-        <v>442895774.995481</v>
+        <v>24253120.95740381</v>
       </c>
       <c r="K104">
-        <v>1752.604486310333</v>
+        <v>95.97381868740941</v>
       </c>
       <c r="L104">
-        <v>522551841.5580201</v>
+        <v>28964394.78173316</v>
       </c>
       <c r="M104">
         <v>375</v>
       </c>
       <c r="N104">
-        <v>-2458.78284338016</v>
+        <v>-134.8996170686929</v>
       </c>
       <c r="O104">
-        <v>-213751104.5564572</v>
+        <v>-15869283.64540987</v>
       </c>
       <c r="P104">
-        <v>-998.8004695060226</v>
+        <v>-52.2492692311971</v>
       </c>
       <c r="Q104">
         <v>-0</v>
       </c>
       <c r="R104">
-        <v>630657513.8798629</v>
+        <v>628998154.8786587</v>
       </c>
       <c r="S104">
-        <v>344.1663303632776</v>
+        <v>347.8388657588745</v>
       </c>
       <c r="T104">
-        <v>-48123.23413139648</v>
+        <v>-3727.486020821456</v>
       </c>
       <c r="U104">
-        <v>-347095.9762105006</v>
+        <v>-18173.46790296337</v>
       </c>
       <c r="V104">
-        <v>329.872200661389</v>
+        <v>330.5398802143503</v>
       </c>
       <c r="W104">
         <v>325</v>
@@ -7829,67 +7829,67 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>607114.184750695</v>
+        <v>33358.43957622458</v>
       </c>
       <c r="C105">
-        <v>123648.507275297</v>
+        <v>6861.350531625937</v>
       </c>
       <c r="D105">
         <v>1919.173961</v>
       </c>
       <c r="E105">
-        <v>366.4689245971564</v>
+        <v>364.8409127399206</v>
       </c>
       <c r="F105">
-        <v>2424.411706527668</v>
+        <v>132.8444182705142</v>
       </c>
       <c r="G105">
         <v>308.15</v>
       </c>
       <c r="H105">
-        <v>-790896190.4879911</v>
+        <v>-45358531.30941655</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105">
-        <v>442538432.4017528</v>
+        <v>24248670.49456526</v>
       </c>
       <c r="K105">
-        <v>1751.190437998279</v>
+        <v>95.95620743640951</v>
       </c>
       <c r="L105">
-        <v>521997201.1380802</v>
+        <v>28959237.47088712</v>
       </c>
       <c r="M105">
         <v>375</v>
       </c>
       <c r="N105">
-        <v>-2456.749404567023</v>
+        <v>-134.8743363813822</v>
       </c>
       <c r="O105">
-        <v>-213350043.084403</v>
+        <v>-15866184.30168644</v>
       </c>
       <c r="P105">
-        <v>-998.6609010240954</v>
+        <v>-52.23913005920622</v>
       </c>
       <c r="Q105">
         <v>-0</v>
       </c>
       <c r="R105">
-        <v>630673287.8046964</v>
+        <v>628999049.2730207</v>
       </c>
       <c r="S105">
-        <v>344.1145910101672</v>
+        <v>347.8393908489605</v>
       </c>
       <c r="T105">
-        <v>-48022.73737287772</v>
+        <v>-3726.767163099817</v>
       </c>
       <c r="U105">
-        <v>-347034.1942259963</v>
+        <v>-18169.94243440975</v>
       </c>
       <c r="V105">
-        <v>329.8715215724183</v>
+        <v>330.5388035616547</v>
       </c>
       <c r="W105">
         <v>325</v>
@@ -7900,67 +7900,67 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>606591.8111775494</v>
+        <v>33352.41977300252</v>
       </c>
       <c r="C106">
-        <v>123514.9604279531</v>
+        <v>6860.149324246949</v>
       </c>
       <c r="D106">
         <v>1939.173961</v>
       </c>
       <c r="E106">
-        <v>366.4757818952425</v>
+        <v>364.8427582004356</v>
       </c>
       <c r="F106">
-        <v>2422.462945747688</v>
+        <v>132.8202862592209</v>
       </c>
       <c r="G106">
         <v>308.15</v>
       </c>
       <c r="H106">
-        <v>-789729211.1255606</v>
+        <v>-45350367.58368802</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106">
-        <v>442182716.6054727</v>
+        <v>24244265.57339626</v>
       </c>
       <c r="K106">
-        <v>1749.782827104429</v>
+        <v>95.93877640274903</v>
       </c>
       <c r="L106">
-        <v>521443665.1303015</v>
+        <v>28954133.36662471</v>
       </c>
       <c r="M106">
         <v>375</v>
       </c>
       <c r="N106">
-        <v>-2454.72578535831</v>
+        <v>-134.8492936306815</v>
       </c>
       <c r="O106">
-        <v>-212954224.5126854</v>
+        <v>-15863114.16572452</v>
       </c>
       <c r="P106">
-        <v>-998.5261220208486</v>
+        <v>-52.22908607152021</v>
       </c>
       <c r="Q106">
         <v>-0</v>
       </c>
       <c r="R106">
-        <v>630689019.3673273</v>
+        <v>628999944.1415806</v>
       </c>
       <c r="S106">
-        <v>344.0627773399116</v>
+        <v>347.8399115660448</v>
       </c>
       <c r="T106">
-        <v>-47923.53206266354</v>
+        <v>-3726.055075829875</v>
       </c>
       <c r="U106">
-        <v>-346973.7061833937</v>
+        <v>-18166.45011071317</v>
       </c>
       <c r="V106">
-        <v>329.8708658803743</v>
+        <v>330.5377370162138</v>
       </c>
       <c r="W106">
         <v>325</v>
@@ -7971,67 +7971,67 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>606072.2159607853</v>
+        <v>33346.41728865798</v>
       </c>
       <c r="C107">
-        <v>123381.8144745272</v>
+        <v>6858.951382761675</v>
       </c>
       <c r="D107">
         <v>1959.173961</v>
       </c>
       <c r="E107">
-        <v>366.4825972587999</v>
+        <v>364.8445983014523</v>
       </c>
       <c r="F107">
-        <v>2420.526102278082</v>
+        <v>132.7962243263298</v>
       </c>
       <c r="G107">
         <v>308.15</v>
       </c>
       <c r="H107">
-        <v>-788564201.2335621</v>
+        <v>-45342317.37045739</v>
       </c>
       <c r="I107">
         <v>0</v>
       </c>
       <c r="J107">
-        <v>441829176.1277811</v>
+        <v>24239873.44394337</v>
       </c>
       <c r="K107">
-        <v>1748.383824192668</v>
+        <v>95.92139599146485</v>
       </c>
       <c r="L107">
-        <v>520891892.2681932</v>
+        <v>28949043.43848321</v>
       </c>
       <c r="M107">
         <v>375</v>
       </c>
       <c r="N107">
-        <v>-2452.710612498608</v>
+        <v>-134.8245946152671</v>
       </c>
       <c r="O107">
-        <v>-212563489.6381552</v>
+        <v>-15860085.75068342</v>
       </c>
       <c r="P107">
-        <v>-998.3957766394269</v>
+        <v>-52.21917800213305</v>
       </c>
       <c r="Q107">
         <v>-0</v>
       </c>
       <c r="R107">
-        <v>630704712.5165411</v>
+        <v>629000839.1852822</v>
       </c>
       <c r="S107">
-        <v>344.0108747846566</v>
+        <v>347.8404282722777</v>
       </c>
       <c r="T107">
-        <v>-47825.58097734574</v>
+        <v>-3725.352657311571</v>
       </c>
       <c r="U107">
-        <v>-346914.3851094028</v>
+        <v>-18163.0051198548</v>
       </c>
       <c r="V107">
-        <v>329.8702318479349</v>
+        <v>330.5366849043856</v>
       </c>
       <c r="W107">
         <v>325</v>
@@ -8042,67 +8042,67 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>605554.1535875436</v>
+        <v>33340.1910617704</v>
       </c>
       <c r="C108">
-        <v>123248.8183679577</v>
+        <v>6857.707093074</v>
       </c>
       <c r="D108">
         <v>1979.173961</v>
       </c>
       <c r="E108">
-        <v>366.4893882355756</v>
+        <v>364.8465064766182</v>
       </c>
       <c r="F108">
-        <v>2418.596189243739</v>
+        <v>132.7712722364045</v>
       </c>
       <c r="G108">
         <v>308.15</v>
       </c>
       <c r="H108">
-        <v>-787401894.8660781</v>
+        <v>-45334516.69902217</v>
       </c>
       <c r="I108">
         <v>0</v>
       </c>
       <c r="J108">
-        <v>441476900.6926351</v>
+        <v>24235318.83024845</v>
       </c>
       <c r="K108">
-        <v>1746.989827202934</v>
+        <v>95.9033725955283</v>
       </c>
       <c r="L108">
-        <v>520340821.5933459</v>
+        <v>28943758.60538894</v>
       </c>
       <c r="M108">
         <v>375</v>
       </c>
       <c r="N108">
-        <v>-2450.704980143935</v>
+        <v>-134.8006421570972</v>
       </c>
       <c r="O108">
-        <v>-212179333.8886288</v>
+        <v>-15857146.76160224</v>
       </c>
       <c r="P108">
-        <v>-998.2698002261259</v>
+        <v>-52.20956112452768</v>
       </c>
       <c r="Q108">
         <v>-0</v>
       </c>
       <c r="R108">
-        <v>630720364.4687477</v>
+        <v>629001732.5865374</v>
       </c>
       <c r="S108">
-        <v>343.9589223762237</v>
+        <v>347.8409420852394</v>
       </c>
       <c r="T108">
-        <v>-47729.25921828222</v>
+        <v>-3724.670949884212</v>
       </c>
       <c r="U108">
-        <v>-346856.2053070187</v>
+        <v>-18159.66154465254</v>
       </c>
       <c r="V108">
-        <v>329.8696191571675</v>
+        <v>330.5356637127431</v>
       </c>
       <c r="W108">
         <v>325</v>
@@ -8113,67 +8113,67 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>605037.5965907288</v>
+        <v>33334.17587006962</v>
       </c>
       <c r="C109">
-        <v>123115.9690235006</v>
+        <v>6856.505932453194</v>
       </c>
       <c r="D109">
         <v>1999.173961</v>
       </c>
       <c r="E109">
-        <v>366.4961552539434</v>
+        <v>364.8483502962189</v>
       </c>
       <c r="F109">
-        <v>2416.673084926224</v>
+        <v>132.7471616775227</v>
       </c>
       <c r="G109">
         <v>308.15</v>
       </c>
       <c r="H109">
-        <v>-786241180.8218361</v>
+        <v>-45326794.85587296</v>
       </c>
       <c r="I109">
         <v>0</v>
       </c>
       <c r="J109">
-        <v>441125868.0822388</v>
+        <v>24230917.8248816</v>
       </c>
       <c r="K109">
-        <v>1745.600748202068</v>
+        <v>95.88595706088994</v>
       </c>
       <c r="L109">
-        <v>519790438.6780012</v>
+        <v>28938656.1095315</v>
       </c>
       <c r="M109">
         <v>375</v>
       </c>
       <c r="N109">
-        <v>-2448.706786339064</v>
+        <v>-134.7769303293983</v>
       </c>
       <c r="O109">
-        <v>-211800907.5089552</v>
+        <v>-15854237.10713084</v>
       </c>
       <c r="P109">
-        <v>-998.1479180908082</v>
+        <v>-52.20004024408809</v>
       </c>
       <c r="Q109">
         <v>-0</v>
       </c>
       <c r="R109">
-        <v>630735974.5455036</v>
+        <v>629002625.0243263</v>
       </c>
       <c r="S109">
-        <v>343.906877031383</v>
+        <v>347.8414518538842</v>
       </c>
       <c r="T109">
-        <v>-47634.35464565803</v>
+        <v>-3723.996084657617</v>
       </c>
       <c r="U109">
-        <v>-346799.0679494301</v>
+        <v>-18156.35139491572</v>
       </c>
       <c r="V109">
-        <v>329.8690264688827</v>
+        <v>330.5346527154052</v>
       </c>
       <c r="W109">
         <v>325</v>
@@ -8184,67 +8184,67 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>605015.4577026827</v>
+        <v>33333.91280876269</v>
       </c>
       <c r="C110">
-        <v>123110.3189765174</v>
+        <v>6856.453310939793</v>
       </c>
       <c r="D110">
         <v>2000</v>
       </c>
       <c r="E110">
-        <v>366.4964460593482</v>
+        <v>364.8484309023918</v>
       </c>
       <c r="F110">
-        <v>2416.590441572724</v>
+        <v>132.7461075818839</v>
       </c>
       <c r="G110">
         <v>308.15</v>
       </c>
       <c r="H110">
-        <v>-786193705.6622008</v>
+        <v>-45326476.11336938</v>
       </c>
       <c r="I110">
         <v>0</v>
       </c>
       <c r="J110">
-        <v>441110782.8308321</v>
+        <v>24230725.41621175</v>
       </c>
       <c r="K110">
-        <v>1745.541054011905</v>
+        <v>95.88519570680265</v>
       </c>
       <c r="L110">
-        <v>519767018.777637</v>
+        <v>28938432.65802753</v>
       </c>
       <c r="M110">
         <v>375</v>
       </c>
       <c r="N110">
-        <v>-2448.625660036662</v>
+        <v>-134.7759515508089</v>
       </c>
       <c r="O110">
-        <v>-211785443.4900132</v>
+        <v>-15854117.00673341</v>
       </c>
       <c r="P110">
-        <v>-998.1434371866271</v>
+        <v>-52.19964724005877</v>
       </c>
       <c r="Q110">
         <v>-0</v>
       </c>
       <c r="R110">
-        <v>630736618.9881495</v>
+        <v>629002661.8793471</v>
       </c>
       <c r="S110">
-        <v>343.9047285999944</v>
+        <v>347.8414729007803</v>
       </c>
       <c r="T110">
-        <v>-47630.47254798786</v>
+        <v>-3723.968226465467</v>
       </c>
       <c r="U110">
-        <v>-346796.8998665464</v>
+        <v>-18156.21475837981</v>
       </c>
       <c r="V110">
-        <v>329.8690046909492</v>
+        <v>330.5346109827293</v>
       </c>
       <c r="W110">
         <v>325</v>
